--- a/기사데이터/토스/엑셀파일/news(토스, 2022.10.01~2022.10.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.10.01~2022.10.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>“라이언 외 노란 메기 없어진 카뱅·카페”… 카카오 직원도 ‘부글부글’</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004108342?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>3분기 호실적 전망에도 시장 기대 저조사업자대출(카뱅)·손보 상품 출시(카페)신사업 예정에도 혁신성·성장성 의문우리사주 청약 직원 손해 2억대 추정[서울경제] 금융권 ‘메기’를 예고했던 카카오뱅크·카카오페이를 두고 혁신성을 잃어버렸다는 목소리가 거세다. 카카오뱅크·카카오페이 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이다. 우리사주에 청약한 직원들조차 2억 원 넘게 손해를 보고 있는 가운데 암호화폐, 디지털 손해보험 등 연내 예정된 신사업에서 혁신성을 보여줘야 한다는 지적이 나온다.10일 금융권에 따르면 에프앤가이드는 주요 증권사들이 전망한 카카오뱅크의 실적 컨센서스를 집계한 결과 3분기 1122억 원의 영업이익을 낼 것으로 내다봤다. 전년 동기 대비 57%가량 증가한 수준이다. 같은 기간 카카오페이는 14억 원으로 흑자 전환에 성공할 것을 전망했다.이같은 실적 전망에도 두 회사 모두 주가 하락을 방어하지 못한 데는 성장성, 혁신성에 대한 시장의 기대를 충족시켜주지 못한 탓이다. 특히 카카오뱅크의 경우 케이뱅크에 수익 성장에서 뒤처지고 있다는 분석도 나왔다. 글로벌 리서치기관 ‘탭인사이츠’가 지난달 발표한 ‘2020년 글로벌 100대 디지털은행 순위’에 따르면 수익 성장 항목에서 카카오뱅크는 10점 만점에 3점을 받은 반면 케이뱅크는 10점을 받았다. 고객 성장 항목은 두 은행 모두 10점 만점 6점으로 같았다. 사업 초기 100% 비대면 신용대출을 앞세워 카카오뱅크가 시장을 빠르게 치고 나갔던 것과 대조적이다.카카오뱅크는 개인사업자 뱅킹서비스 출시 및 암호화폐 거래소의 실명계좌 발급 등을 통해 고객과 수익성을 잡겠다는 전략이나 긍정적이지만은 않다. 당장 개인사업자 뱅킹서비스만 해도 인터넷은행 중 가장 먼저 개인사업자대출을 선보였던 토스뱅크에 비해 반년 이상 뒤처졌다. 지난 5월 케이뱅크까지 개인사업자대출을 출시한 마당에 카카오뱅크가 후발주자로서 얼마나 대출 수요를 확보할 수 있을지 불투명하다. 암호화폐 거래소인 코인원과 실명계좌 계약을 체결했으나 연내 계좌 발급에 따른 수수료 수익을 확보할 수 있을지도 관건이다. 금융정보분석원(FIU)에 심사를 거쳐야 할 뿐만 아니라 코인원 측에서 기존 NH농협은행 간 계약 해지에 따른 위약금 지불 등의 문제를 해결해야 한다.미래가 불투명한 건 카카오페이도 마찬가지다. 여러 신사업이 예고됐지만 신사업들이 당장 수익으로 연결되기는 어렵단 시각이 지배적이다. 자회사 ‘카카오페이손해보험’은 이르면 다음주 중 첫 자사 상품을 선보이고 본격적인 영업을 개시할 계획이나 애초 계획한 상품이 미니보험(소액단기보험)이라 변액보험, 장기보험 등처럼 수익성을 기대하기 어렵다. 올해 상반기 말 기준 전체 매출액의 25%를 차지하고 있는 대출비교·중개 금융서비스는 금리 인상으로 가계대출 자체가 줄면서 타격을 받는 모양새다. 예금비교 서비스의 경우 혁신금융을 신청 예정이나 시장에서는 차별화된 서비스에 대한 회의적인 시각이 우세하다. 금융권의 고위 관계자는 “금융권의 핵심은 리스크 평가와 상품을 만드는 데 있는데 카카오 금융사들은 프로세스 혁신만 얘기한다”며 “프로세스 혁신은 처음에는 경쟁력 있어 보이지만 기존 금융사들이 금방 따라 할 수 있어 지속성을 가지기 어렵다”고 꼬집었다.상장 초기 회사의 혁신성, 성장성을 믿고 투자한 내부 직원들도 불만은 높다. 기업공개(IPO) 당시 카카오뱅크 직원들은 공모가 3만9000원에 1인당 최대 1만4481주를 살 수 있었다. 지난 7일 주가를 기준으로 직원당 약 2억9903만 원 이상 손해를 보고 있을 것으로 추정된다. 카카오페이의 경우 직원당 손실액은 1억9980만 원으로 보인다. 금융권의 다른 관계자는 “카카오뱅크, 카카오페이가 ‘라이언’ 외에 혁신적인 상품, 서비스를 내놓지 못했다”며 “대출까지 끌어와 8억 원을 투자했다는 직원도 있다는데 경영진은 스톡옵션을 행사하는 등 내부통제까지 무너진 모습을 보이면서 전반적으로 신뢰가 깨졌다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>'해외직구 통관처리'도 국민비서로 알림 받는다</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005158049?sid=102</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>4종 알림서비스·페이코앱 연계 추가 제공전자상거래 물품 통관내역, 4대보험 의무가입 알림, 행정기관 문서 제출·수신 플랫폼인 문서24 처리상황 알림, 해운항만 민원 알림 등 추가행정안전부가 7일부터 국민비서 ‘구삐’를 통해 해외직구 통관 내역 알림 등 국민 생활에 도움이 되는 4종 알림서비스를 추가로 제공한다고 6일 밝혔다.국민비서 ‘구삐’는 각종 생활형 행정정보를 국민이 자주 이용하는 민간의 모바일 앱 등으로 알려주는 서비스로 국민 4명 중 한 명이 이용하는 대표적인 행정서비스로 자리매김하고 있으며, 이용자수 1500만 명을 눈앞에 두고 있다. 현재 네이버앱, 카카오톡, 토스, 금융앱 등을 통해 건강검진 안내, 운전면허 갱신 안내, 교통 과태료 고지 등 총 23종의 알림을 제공하고 있다.이번에 새롭게 추가된 4종 알림서비스는 전자상거래 물품 통관내역, 4대보험 의무가입 알림, 행정기관 문서 제출·수신 플랫폼인 문서24 처리상황 알림, 해운항만 민원 알림 등이다.전자상거래 물품 통관내역 알림은 전자상거래 활성화로 개인의 해외 직접 구매(해외직구) 건수가 2021년 기준 연간 8800만 건 이상인 가운데 소비자가 해외직구 물품을 구매한 경우 세관으로부터 통관(완료) 내역 알림을 국민비서로 편리하게 안내받을 수 있게 된다. 4대보험 의무가입 알림은 고용주가 근로자를 신규로 채용한 경우 4대보험 가입 의무를 몰라 놓쳐서 과태료 처분을 받는 등 피해를 입지 않도록 고용·산재보험 등 4대보험 의무가입에 대해 안내도 받을 수 있게 된다.문서24 처리상황 알림은 개인, 기업?단체가 정부기관에 계약이나 협약 체결 등으로 문서24 누리집에 문서를 제출하거나 반대로 정부기관에서 보낸 문서가 도착한 경우 해당 문서의 처리상황도 국민비서가 알려준다. 해운항만 민원 알림은 해운항만물류 정보시스템 이용자를 대상으로 해운항만 각종 민원처리 상태 등을 안내한다.한편 국민비서 ‘구삐’는 민간 서비스와의 협업도 확대해 현행 7개 민간 앱을 통해 제공되고 있는 알림서비스를 페이코(PAYCO) 앱을 통해서 이용할 수 있도록 8개 앱으로 확대 제공된다.황규철 공공지능정책관은 “이번 국민비서 알림서비스 확대를 통해 국민이 생활 속에서 필요로 하는 더 많은 행정정보를 더욱 편리하게 안내해 드릴 수 있기를 기대한다”며 “민간과 협력해 국민에게 필요한 맞춤형 정보를 선제적으로 제공해 디지털플랫폼정부 구현에 이바지해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스뱅크, 수신금리 인상…입출금통장 2.3% 적금 4%</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004106962?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>사진 제공=토스뱅크[서울경제] 토스뱅크는 출범 1주년을 맞아 전체 수신 상품 금리를 인상한다고 6일 밝혔다. 금리 인상분은 이날부터 반영된다.먼저 토스뱅크 수시 입출금통장 ‘토스뱅크 통장’ 금리는 기존 연 2%(세전)에서 2.3%로 0.3%포인트 오른다.‘키워봐요 적금’의 경우 기본금리가 1%포인트 인상돼 최대 연 4%를 받을 수 있게 됐다. 기본금리 인상에 따라 적금을 중도해지한 고객에게는 연 2%의 금리가 제공된다. 단, 적금 금리 인상분은 이날부터 신규 가입한 고객에 한해 적용된다.토스뱅크 관계자는 "고객 불편을 최소화한, 기존 파킹통장과 차별화된 '토스뱅크 통장'만의 강점을 지속적으로 이어나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>"네이버·카카오가 보험설계사 밥줄 끊는다" 업계 갈등 최고조</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005157042?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>한국보험대리점협회 소속 보험설계사와 보험설계사 노조원 등 약 300여명이 지난 8월22일 서울 용산 대통령실 인근에서 '온라인플랫폼 보험대리점 진출저지' 결의대회를 열었다.(사진제공 : 한국보험대리점협회)네이버와 카카오, 토스 등 거대 온라인플랫폼의 보험업 진출을 두고 보험업계와의 갈등이 극에 달하고 있다. 보험설계사들은 온라인플랫폼의 보험업 진출이 코로나19 이후 가뜩이나 어려워진 보험산업을 더 힘들게 할 것이라며 반대집회에 나섰다.5일 보험업계에 따르면 한국보험대리점(GA)협회, 보험영업인 노동조합 연대, 온라인플랫폼 보험진출저지 비상대책위원회(비대위) 소속 보험업계 종사자들은 이날 정오에 서울 광화문에서 '온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 결의대회'를 진행할 예정이다.비대위는 이번 결의대회에 보험설계사들을 중심으로 총 5000여명이 모인다고 밝혔다. 비대위 측은 정부가 업계 종사자들과의 충분한 협의 없이 온라인플랫폼의 보험업 진출을 허용해 보험설계사의 생계를 위태롭게 하고 있다고 비판했다.금융위원회는 지난 8월23일  금융규제혁신회의 제2차회의에서 네이버와 카카오 등 온라인플랫폼의 보험비교 추천 서비스업 진출을 허용했다. 규제혁신 차원에서 보험상품 직접 판매보다는 플랫폼 특성을 활용해 비교추천 서비스를 일단 도입할 수 있도록 했다. 이에 온라인플랫폼 회사들은 연내 보험 비교 서비스를 출시할 준비를 하고 있다. 다만 종신보험, 변액보험, 외화보험 등 상품구조가 복잡하거나 고액계약이 많아 불완전 판매 소지가 많은 보험상품은 비교 대상에서 제외된다.보험대리점업계와 일선 보험설계사들은 온라인플랫폼이 보험 비교 서비스를 시작으로 보험 직접 판매에까지 진출하면, 기존 사업자들의 영역을 침범해 시장을 잠식해 나갈 것으로 보고 있다.장남훈 GA협회 본부장은 "빅테크 기업이 보험 시장에 진출하면 급격한 시장 잠식으로 독과점과 불공정 경쟁이 예상된다"며 "이는 영세한 보험 업종 종사자들의 생존을 위협하는 결과가 될 것"이라고 강조했다.논란이 지속되면서 금융위는 온라인플랫폼이 보험상품 비교 추천 서비스 외에는 다른 추가 서비스를 허용할 계획이 없다고 밝혔다. 금융위 관계자는 "규제혁신 차원에서 금융플랫폼의 보험상품 비교 추천 서비스를 시범적으로 도입했다"며 "업계의 우려를 알고 있고 현재로서는 추가적인 사업 확대 허용 계획은 없다"고 말했다.온라인플랫폼은 보험 비교 서비스 출시를 준비하는 과정에서 기존 대형 보험사와의 수수료 갈등 조짐도 보이고 있다.보험사들은 온라인플랫폼 서비스에 상품을 제공하는 것과 관련해서 수수료 비율 책정을 협상 중이다. 온라인플랫폼들은 수수료를 최대한 높게 부르고 있고 보험사들은 수수료가 너무 높다고 반발하고 있는 상황으로 파악된다.보험사의 한 관계자는 "온라인플랫폼의 보험시장 진출은 전체 보험산업에도 큰 영향을 미칠 수밖에 없다"며 "영향력이 커질수록 기존 보험업계와의 갈등이 지속될 가능성이 높다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>이용우 "네이버·카카오 후불결제서비스 연체위험 커…규제해야"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013499179?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>리스크 취약 우려도 지적…이복현 금감원장 "금융시스템 결합 필요성 공감"네이버·카카오 플랫폼 규제 (PG)[홍소영 제작] 일러스트(서울=연합뉴스) 임성호 기자 = 네이버(NAVER) 와 카카오 등 플랫폼 업체가 최근 도입한 '지금 사고 나중에 내기'(BNPL·후불 결제) 서비스가 이용자들의 연체 위험을 높일 수 있어 적절한 규제가 필요하다고 국회 정무위원회 소속 더불어민주당 이용우 의원이 12일 주장했다.    현재 국내에서는 네이버 금융 계열 자회사 네이버파이낸셜과 카카오 자회사 카카오페이, 쿠팡, 토스를 비롯한 플랫폼과 현대카드 등이 BNPL 서비스를 제공하고 있다.    네이버파이낸셜은 지난해 4월 먼저 BNPL을 선보였고, 카카오페이는 올해 1월 BNPL을 정식 출시한 후 서비스 범위를 넓혀가고 있다.     BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사한 구조다.    다만 BNPL은 신용카드를 발급하기 전 시행하는 일반적인 신용평가 대신 비(非)금융정보 등을 활용한 대안 신용평가를 바탕으로 서비스 가능 여부가 결정된다. 따라서 신용카드 발급이 까다로운 미국, 유럽, 호주 등에서는 신파일러(Thin Filer:금융이력부족자) 집단을 중심으로 활성화됐다.     이 의원은 "BNPL로 신용이 부족한 신파일러도 할부금융을 이용할 수 있게 되면서 연체 위험이 높아진다는 것이 문제"라며 "실제로 해외에서는 BNPL 거래 규모가 커지면서 연체율이 사회 문제로 부각되고 있다"고 지적했다.    이 의원은 각국에서 BNPL 서비스 제공 전 '신용상품'이라는 점을 고지하도록 하는 등의 규제를 통해 이런 문제에 대응하고 있다면서 국내에서도 적절한 규제가 필요하다고 강조했다.    특히 네이버파이낸셜 등 플랫폼 업체들은 금융위원회의 혁신금융서비스로 지정받아 여신금융업 라이선스(허가) 없이 금융업에 뛰어들었기에 부작용 우려에 따른 규제가 필요하다는 것이 이 의원의 주장이다. 혁신금융서비스는 기존 금융서비스의 제공 내용, 방식과 차별성이 인정되는 금융업 또는 관련 서비스에 규제 적용 특례를 인정하는 제도다.    이 의원은 또 현재 국내 사례처럼 플랫폼 업체가 독자적으로 BNPL을 제공하도록 하면 금융위기 등 리스크에 취약한 우려가 있다며 금융사와 제휴 등의 방안도 제시했다. 이 의원에 따르면 미국 애플과 아마존은 각각 금융사인 골드만삭스, BNPL 전문업체 '어펌'과 제휴를 맺고 BNPL 서비스를 제공하고 있다.     이 의원은 지난 11일 정무위 국감에서 이복현 금융위원장에게 "금융혁신 서비스라면서 플랫폼 업체에 BNPL을 허용해 줬는데, 신용정보를 이용하지 않고 할부금융을 제공하는 것이 혁신이냐"라며 "라이선스 없이 할부금융을 제공하기에 리스크에 대비할 수 있도록 적절한 규제가 필요하다"고 말했다.    이에 이 위원장은 "혁신금융 지정 당시 금융업 문이 너무 좁다는 시각이 있었고, 아직은 BNPL 서비스가 작은 규모이기 때문에 초반에는 문을 열어놓고 모양을 보자는 취지로 이해하고 있다"면서 "다만 해외에서 발생하는 연체 이슈들을 통해 종전 금융시스템과 결합이 필요하다는 것에 공감한다"고 답했다.이용우 의원[이용우 의원실 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>다가올 위기, 딥테크가 극복한다…1000명 북적인 스타트업 데모데이</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004761299?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>블루포인트파트너스 데모데이 '딥 임팩트'"지구 기온 5도 상승 vs 코스피 5% 하락, 둘 중 어느 것이 당장 당신을 움직이게 하나요"(최예림 블루포인트파트너스 수석심사역)"'2번째 지구는 없다'와 같은 당위성을 강조하는 메시지와 개인의 죄책감을 자극하는 '소프트 솔루션'만으로는 위기를 해결할 수 없습니다. 근본적으로 기술을 통한 극복이 이뤄져야 합니다."(이용관 블루포인트파트너스 대표)스타트업 액셀러레이터 블루포인트파트너스가 서울 한남동 블루스퀘어 마스터카드홀에서 9번째 데모데이인 '블루포인트 데모데이9, 딥 임팩트'를 12일 열었다. 유망 딥테크 스타트업 12개사가 참석해 회사의 잠재력을 뽐냈다. 코로나19로 3년 만에 오프라인에서 진행된 이날 행사는 사전신청 인원만 약 1400명, 참석 인원도 1000여 명에 달했다. 투자사 관계자 뿐만 아니라 대기업 관계자, 연구원, 대학생, 중고교생들까지 행사장을 찾아 미래를 이끌 스타트업들을 지켜봤다.이날 데모데이의 주제인 '딥 임팩트'는 지구의 소행성 충돌 위기를 다룬 1998년 동명의 영화 제목에서 따왔다. 소행성처럼 갑작스럽게 다가올 미래를 정확히 예측하고 위기에 대응하는 것이 스타트업의 혁신과 맞닿아 있다는 취지다. 블루포인트는 다가올 위기를 '환경·DT(디지털전환)·산업·주거' 4개로 분류했다. 분야별로 △환경(인투코어테크놀로지, 위미트, 뉴트리인더스트리) △DT(랩노트, 뒤끝, 이너버즈) △산업(퀀텀캣, 크라이오에이치앤아이, 알티엠) △주거(스페이스웨이비, 케이엘, 리브애니웨어) 등을 소개했다.딥 임팩트의 첫 번째 순서로 '환경'을 다룬 최예림 수석심사역은 "기후 변화는 그 자체로의 위협은 물론 전염병, 식량 생산, 생물 다양성 감소, 비자발적 난민 발생 등 전혀 다른 성격의 위기 상황을 증폭시키는 연쇄 효과를 가져올 것"이라고 지적했다. 환경의 위기를 극복하기 위한 스타트업으로는 뉴트리인더스트리가 소개됐다. 음식물 쓰레기는 전 세계적으로 연간 13억톤이 발생하지만, 80% 이상이 수분으로 구성돼 재활용이 어려운 상황이다. 뉴트리인더스트리는 곤충을 이용해 폐수를 없애고, 더 나아가 곤충을 가축의 먹이로 사용하는 바이오컨버전 솔루션을 제시한다. 홍종주 뉴트리인더스트리 대표는 "누구보다 음식물 쓰레기 처리 '산업의 문제점'에 공감하고 단계적으로 '전 과정'을 경험하고 학습했다"며 "곤충 대량사육, 공장 자동화, 플랜트 설계, 영업 등 최고의 팀을 구축해 가능성을 현실로 만들고 있다"고 강조했다. 내년 공장 가동을 시작으로 20억원의 매출액, 2025년 200억원, 2028년 3000억원을 달성한다는 계획이다. 이어 'DT' 분야에서는 디지털을 이용해 기존 산업의 비효율을 효율적으로 바꾸는 스타트업들이 소개됐다. 한정봉 수석심사역은 "DT 분야에서 진짜 기술력을 갖춘 회사들은 이른바 '불쾌한 골짜기'를 좁히고 있는 스타트업들"이라고 설명했다.바이오, 나노, 화학 분야의 연구데이터의 통합 솔루션을 제공하는 '랩노트'는 국내에서 이뤄지는 실험의 92%가 수기로 이뤄진다고 지적했다. 기존 기록의 정확한 이해가 어렵다 보니 실험의 재현도 쉽지 않다는 설명이다. 최종윤 랩노트 대표는 "1년간 누적되는 수기 기록은 2억3900만개, 연구원이 1년간 기록에 할당하는 시간은 416시간에 달한다"며 "랩노트의 디지털 솔루션을 이용하면 연구원 누구나 쉽게 실험을 재현할 수 있다"고 설명했다. 축적된 연구 데이터를 잘 활용하게 된다면 연구 커뮤니티 형성, 더 나아가 실험의 원격 설계와 무인실험까지 가능하다는 게 최 대표의 말이다. 산업 분야에선 상온 촉매를 활용한 고농도 VOC 제거 솔루션을 만든 퀀텀캣과 극저온 냉동기 개발 스타트업 크라이오에이치앤아이, 스파트팩토리 공정 진단 솔루션을 내놓은 알티엠 등이 주목받았다. 또 주거 분야에선 모듈러 하우스 제조사 스페이스웨이비, 주택점검 서비스 '홈체크' 운영사 케이엘, 장기숙박·단기거주 숙소 예약 플랫폼 운영사 리브애니웨어 등이 사업모델을 소개했다.한편 이날 행사에선 블루포인트가 준비 중인 스타트업 생태계 다큐멘터리인 '베팅'(Betting)의 예고편도 공개됐다. 과거 벤처 붐부터 이어진 창업가들의 꿈을 향한 도전과 이를 돕는 모험자본을 다룬 이야기다. 제작은 앞서 토스와 넥슨 다큐멘터리 등을 만든 콘텐츠 기획회사 '몽규'(MONQ)가 맡았다. 내년 1월 국내외 OTT 공개를 목표로 제작 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>‘짠테크’도 재미있게…MZ세대다운 절약법</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005161651?sid=102</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>고물가에 20·30세대 소비패턴 절약형으로 변화색다른 절약법 찾아 재미 추구하는 특징도 보여목표치를 달성하면 적립금을 얻을 수 있는 걷기 앱테크가 MZ세대의 관심을 끌고 있다. 사진은 기사의 특정 내용과 관련 없음. [이미지출처=픽사베이]고금리·고물가·고환율의 '3高(고) 현상'이 지속되자 미래를 준비하기보다 과감히 돈을 쓰며 현재를 즐기던 20·30세대의 소비패턴이 절약형으로 변화하고 있다. 이들은 무조건 절약하던 이전 세대와는 달리 서로 정보를 공유하고 일상 속 재미까지 챙길 수 있는 방법에 관심이 많다. 최근 20·30세대 사이에서 소액까지 꼼꼼히 챙기는 이른바 '짠테크(짜다+재테크)' 소비가 확산하고 있다. 라면 등 생활필수품 가격은 물론 가스·전기 등 공공요금까지 인상되면서 가처분 소득이 줄자 허리띠를 졸라 매는 것으로 보인다. 14일 한국은행 금융통화위원회는 환율 상승 등의 영향 등으로 물가상승 압력이 작용해 국내 소비자물가가 상당 기간 5~6%대의 높은 오름세를 보일 것으로 전망했다. 20·30세대는 기존 세대와 달리 절약을 하나의 트렌드로 받아들이는 모습이다. 한국전쟁 이후 극심한 가난을 겪었던 베이비붐 세대(1955~1963년 사이 출생자)가 '허리띠를 졸라매고 마른 행주도 쥐어짜는' 식의 극단적인 절약을 실천했다면, 요즘 젊은 세대는 인스타그램과 유튜브 등 사회관계망서비스(SNS)를 통해 절약하는 인증샷을 올리고, 서로 중요한 '꿀팁' 정보를 공유하는 식으로 재미도 추구한다.이렇다 보니 젊은층은 색다른 절약법을 찾게 마련이다. 예컨대 스마트폰 등 디지털 환경에 익숙해 애플리케이션(앱)을 활용해 일상 생활 을 하면서 소소한 적립금도 얻을 수 있는 '앱테크'에 관심이 크다. 400만 명이 이용하는 토스 만보기와 삼성 금융계열사 통합 앱의 '걷기 챌린지', 국민은행 앱 내 'KB매일걷기'는 목표치를 달성하면 소액의 포인트를 지급한다. 버스와 지하철의 기본 요금이 각각 1200원, 1250원임을 감안하면 한달이면 하루 왕복 교통비와 커피값을 벌 수 있다. 보통 출퇴근 때와 점심시간 등 이동할 때 별 신경쓰지 않고 걷기만 해도 포인트를 얻고 건강까지 챙길 수 있어 '걷기 앱테크'가 젊은층 사이에서 인기다.또 MZ세대는 금융·유통·게임 등 앱을 돌아다니며 '디지털 폐지 줍기'에 나서기도 한다. 매일 앱 출석이나 광고 시청, 미션 수행 등으로 소소하게 현금이나 포인트를 모으는 것을 말한다. 이렇다 보니 디지털 폐지 줍기 열풍을 겨냥한 금융상품과 서비스가 잇따라 나오고 있다. 카카오뱅크는 배달의민족과 '26일저금'을 선보였다. 매일 500원∼2000원을 26일간 저축해 최대 5만2000원을 모으면 배달의민족 상품권을 받을 수 있다. 30대 직장인 김모씨는 "앱테크에 가입하고 목표치를 채우면 100원~200원씩 적립금을 얻는다"며 "소액이라 대수롭지 않게 생각했는데 쌓이고 나니 나름 쏠쏠한 금액이 되더라"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[오!머니] 고금리 예·적금, 계속 나오는데 갈아탈까요?</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000859917?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>통상 정기예금이나 적금 등 은행의 수신상품은 만기가 길수록 이자율이 높지만 최근 은행들이 1년짜리 예금 상품을 통한 자금 조달을 위해 경쟁적으로 금리를 올려 단기 금리가 장기 금리를 넘어섰다. /사진=이미지투데이 #사회초년생 직장인 최모씨는 만기가 2년 남은 예금을 해지해 K뱅크의 '코드K 자유적금' 1년 예금에 가입했다. 30만원씩 월 납입할 경우 기본금리는 3.70%다. 오는 31일까지 진행하는 '랜덤금리코드' 이벤트에 응모해 당첨될 경우 연 10% 금리를 받을 수 있다. 최 씨는 "앞으로 예·적금 금리가 오를 것을 고려하면 만기가 짧은 상품이 더 유리하다"며 "금리 조건이 좋은 단기 상품을 찾아 갈아탈 것"이라고 말했다. 한국은행이 기준금리를 0.50%포인트 올리는 빅스텝을 밟으면서 은행권의 예금금리가 5%대로 다가섰다. 자고 일어나면 오르는 예금금리에 재테크족들은 최대한 이자를 챙길 수 있는 적금과 수시로 입출금이 가능한 파킹통장 등으로 갈아타려는 수요가 늘고 있다.  13일 금융권에 따르면 우리은행은 기준금리 인상을 반영해 이날부터 '우리 첫 거래 우대 정기예금' 금리를 연 최고 3.8%에서 4.8%로 1%포인트 인상한다. 다른 예·적금 상품 금리도 일제히 0.3~0.5%포인트 올린다.NH농협은행도 오는 14일부터 거치식 예금 금리를 0.5%포인트, 적립식 예금 금리를 0.5~0.7%포인트 올리기로 했다. 농협은행의 예·적금 상품 최고 금리가 연 4.2~4.3%인 점을 감안하면 연 5%에 육박하는 예·적금 상품이 등장하는 것이다. KB국민·신한·하나은행도 연 최고 4.1~4.5%인 예금 금리를 조만간 인상할 계획이다.농협과 신협, 새마을금고에선 연 7%대 이자를 주는 고금리 특판 예·적금 상품이 출시돼 '완판 행진'을 이어가고 있다. 토스뱅크가 불붙인 파킹통장의 금리 경쟁도 치열하다. 웰컴저축은행의 '웰컴 직장인사랑 보통예금'은 일정 조건을 충족하면 최고 연 3.5%의 금리를 제공한다. ━기준금리 3% 시대, 짧고 굵게 굴려라 ━전문가들은 당분간 수신금리가 계속 오를 것을 고려하면 예금을 짧게 굴릴 것을 추천한다. 상품에 따라 중도해지이율이 다르기는 하지만 가입한 지 6개월 이상 지났다면 만기를 유지하는 것이 바람직하다. 시중은행 예·적금 상품의 중도해지이율은 연 1% 미만에 불과해서다. 통상 정기예금이나 적금 등 은행의 수신상품은 만기가 길수록 이자율이 높지만 최근 은행들이 1년짜리 예금 상품을 통한 자금 조달을 위해 경쟁적으로 금리를 올려 단기 금리가 장기 금리를 넘어섰다. 은행연합회 소비자 포털 공시를 보면 인터넷전문은행을 포함한 19개 시중은행 중 4개 은행에서 2·3년 만기 금리보다 높은 금리의 1년 만기 정기예금 상품을 판매하고 있다. 우리은행의 'WON플러스예금'은 1년 만기 금리가 연 4.55%로 2년(4.31%)·3년(4.33%) 만기 금리보다 높다. 신한은행의 '쏠편한 정기예금'의 1년 만기 금리는 연 4.50%로 2·3년 상품에 적용되는 연 4.20%보다 높다. 하나은행의 '하나의정기예금' 1년 만기 금리도 연 4.15%로 2·3년 만기 금리인 연 4.00%를 넘겼다. 만기가 짧은 상품에 시중 자금이 몰리면서 은행권의 정기예금 잔액은 급증하는 추세다.  KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 9월 말 정기예금 잔액은 760조5044억원으로 전월보다 30조6838억원 증가했다.은행 관계자는 "한은이 내년 4월부터 1개월 초단기 적금을 내놓기로 하는 등 단기 금융상품에 대한 관심이 더 커질 것"이라면서도 "무턱대고 해지하면 가입 상품 조건과 유지기간에 따라 중도해지 이율이 적용돼 손해를 볼 수 있어 갈아타기에 신중해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>해외직구 통관처리도 국민비서 '구삐'로 알림 받는다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013486359?sid=100</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 김윤구 기자 = 행정안전부는 7일부터 국민비서 '구삐'를 통해 해외직구 통관 내역 등 4종의 알림 서비스를 추가로 제공한다고 6일 밝혔다.    4대보험 의무가입, 행정기관 문서 제출·수신 플랫폼인 문서24 처리상황, 해운항만 민원 처리 상태 등도 알림 서비스로 제공된다.    국민비서 '구삐'는 각종 생활형 행정정보를 알려주는 서비스로, 네이버, 카카오톡, 토스 등 앱에서 건강검진, 전기요금, 운전면허 갱신 등 23종의 알림 서비스를 제공한다. 가입자 수는 1천500만명을 눈앞에 뒀다.    '구삐'는 현재 7개 민간 앱을 통해 알림 서비스가 제공되는데 7일부터 페이코(PAYCO) 앱에서도 이용할 수 있다.    ykim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.10.15.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>"北 전투기 150대 훈련 사진 조작 가능성…일부러 극적으로 연출"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004806068?sid=100</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>북한이 미국의 핵추진 항공모함인 '로널드 레이건호'가 동원된 한미 연합훈련에 대응해 포병과 비행대들의 합동타격훈련을 실시했다. 북한 노동당 기관지 노동신문은 10일 "조선인민군 전선 장거리포병구분대들과 공군 비행대들의 화력 타격 훈련이 10월6일과 8일에 진행되었다"라고 전했다. 훈련을 지휘한 김정은 노동당 총비서는 "전쟁준비태세 및 군사적 대응능력 강화는 필수불가결한 요구"라고 말했다. /사진=뉴스1(평양 노동신문)북한이 최근 전투기 150대를 동원한 훈련을 실시했다며 공개한 사진이 조작됐다는 주장이 제기됐다. 독일 험볼트-엘스비어 연구소의 사진 분석 전문가인 토스튼 벡 박사는 15일 자유아시아방송(RFA)과의 인터뷰에서 "북한이 공개한 전투기 관련 사진이 실제로 비행하는 전투기 수보다 더 많아 보이도록 변조됐다는 충분한 증거가 있다"고 밝혔다.벡 박사는 "일부 사진에 나온 전투기들의 유사성이 매우 두드러진다"며 "각기 다른 거리와 높이에서 비행 중임에도 같은 크기인데다 거리에 따라 전투기의 모양이 흐릿하거나 분명한 차이 없이 동일한 화소"라고 설명했다. 이어 "한 전투기를 복사해 여러 번 붙여넣었거나 아니면 다른 사진에서 가져와 붙여놓은 것으로 생각된다"고 분석했다. 벡 박사는 또 "실제 전투기의 훈련 모습을 촬영했다기 보다는 일부러 예술적으로 꾸며 더 극적으로 보이도록 연출했다"고 설명했다.다만 북한이 공개한 원본 사진의 크기가 작고 해상도가 낮아 정확한 분석에는 한계가 있다고 덧붙였다.미국의 항공전문지 애비에이션 위크의 매튜 조우피 수석 분석가도 RFA에 "북한의 항공전력을 고려하면 이 사진들이 조작됐다는 데 의심의 여지가 없다"고 밝혔다.그는 "항공기 100대가 동원되는 미국의 레드 플래그 훈련과 같은 대규모 군사훈련을 개최할 수 있는 국가는 미국과 중국뿐"이라며 "북한의 공군 훈련이 실제였다 하더라도 한미 양국은 북한 상공에서의 활동을 감지했을 것"이라고 말했다. 미 공군과 한국 공군 모두 보잉 E-3 센트리, E-737등의 공중조기경보통제기를 통해 북한 영공을 들여다볼 수 있다는 설명이다.앞서 북한은 "군 전선 장거리포병구분대들과 공군비행대들의 화력타격훈련이 10월 6일과 8일 진행됐다"며 8일에는 전투기 150대가 동원된 '대규모 훈련'이 진행됐다고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>'80만' 구독자 발판으로 '월 1만5000원' 유료구독 모델 시작한 중앙일보</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/006/0000115004?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>11일부터 베타테스트 시작… 중앙일보 신문 구독자는 월 ‘5000원’조선일보, 지난 5일부터 앱 독자 모집 위한 ‘앱 확장 대회’ 실시2020년부터 '레거시 디지털 전략', 즉 '탈포털' 전략을 추진해온 중앙일보가 주요 종합일간지 가운데 처음으로 유료구독 서비스를 시작했다. 지난달 말 기준 '80만 명' 이상 모은 로그인 이용자를 바탕으로 11일 유료구독 모델을 본격 출시했다. 11일부터 오는 16일까지는 베타테스트 기간으로 둬 결제 시스템 등이 잘 작동하는지 확인하고, 오는 17일부터 정식 서비스를 시작할 계획이다. 'Plus' 콘텐츠, 베이직 이용권 '월 1만5000원'에 제공 11일부터 중앙일보는 'The JoongAng Plus' 콘텐츠를 제공한다. 중앙일보 홈페이지에서 'Plus' 표시가 붙은 콘텐츠는 월간 1만5000원의 구독료를 내면 무제한 열람할 수 있다. 이를 '베이직 이용권'이라 부른다. ▲11일부터 중앙일보는 'The JoongAng Plus' 콘텐츠를 제공한다. 사진=이용권 구매 홈페이지 화면.서비스 시작단계인 만큼 중앙일보는 첫 달 무료로 뉴스를 제공하는 프로모션을 내세웠고, 월 9000원의 가격으로 할인 혜택을 제공하기로 했다. 중앙일보 신문을 구독하는 독자라면 월 5000원에 'Plus' 콘텐츠를 볼 수 있다. 베이직 이용권과 중앙일보 신문을 동시에 구독하려면 월간 2만5000원의 돈을 내면 된다. 베이직 이용권과 뉴욕타임스를 함께 구독하는 연간 이용권은 19만4000원이다. 베이직 이용권과 폴인 이용권은 연간 18만9000원이다. 이용권은 신용카드, 카카오페이, 네이버페이, 해외결제 등으로 구매 가능하다. 본지 취재결과 지난 8월31일부터 중앙일보는 기자 제작 단말에 콘텐츠 속성을 '무료', 또는 '유료'로 표시할 수 있도록 했다. 본격 서비스를 시작할 무렵 콘텐츠 속성을 J(무료)와 P(유료)로 표시해 출고할 수 있게 변경했다. 'The JoongAng Plus' 콘텐츠 포맷에는 '아티클'(유료 이용권을 구매한 이용자만 볼 수 있는 기사), '연재'(일회성으로 끝나지 않고, 회차 정보로 이어지는 뉴스 콘텐츠), 'AtoZ'(질문을 선택하면 답변을 펼치는 문답형 콘텐츠), 'PDF'(PDF파일로 다운로드받아 볼 수 있도록 제공되는 콘텐츠) 등이 있다. ▲중앙일보 Plus 콘텐츠.11일 기준 중앙일보는 'Plus' 기사로 '윤석열과 이렇게 얽히고설켰다, 尹의 사람들 24인 총분석' ''꿈의 65층' 턱밑까지 왔다… 52년 버틴 여의도 시범아파트' '"5년차 8300만원은 받아야죠" 토스가 찾는 PO, 누구냐 넌' '거리 원하는 40대 여성입니다 고반발 드라이버 효과 있나요?' '뻔한 양상추 샐러드는 가라! 수술 환자도 찾는 '보양' 샐러드' '어느 유품정리사의 기록 "너보다 힘든 사람들도 버텨" 누군가에겐 참 잔인한 말' '"아, 수만아버지시여…!" 슴덕이 SM에 빠지는 굴복의 순간' 등을 선보였다. 중앙일보 관계자는 11일 "국내외 유료 콘텐츠 서비스의 가격대와 신문 구독료 등을 감안해서 (월간 1만5000원 구독료를) 결정한 것으로 안다"고 말했다. 이 관계자는 이어 "The JoongAng Plus는 전 세계를 넘나들며 취재하는 중앙일보 기자들이 엄선해서 만든 콘텐츠다. 매일 쏟아지는 많은 뉴스와 콘텐츠의 경계를 넘어 주요 현안에 대한 정확한 정보와 통찰력 있는 분석, 유용한 지식 등을 전달하려 한다"며 "저희는 프리미엄 콘텐츠를 갖고 싶은, 보관하고 싶은 상품으로 발전시킬 것"이라고 밝혔다. ▲ 중앙일보 사이트 유료콘텐츠 소개 화면 갈무리 임직원 대상으로도 '앱 확장 대회' 시작한 조선일보 조선일보는 지난해부터 충성 독자 확보를 위해 '조선일보 앱' 로그인 독자 유치에 꾸준히 열을 올리는 모양새다. 홈페이지에 앱 설치 안내 권유, 페이스북에 웹사이트가 아닌 앱 링크를 통한 큐레이팅을 시도한 조선일보는 지난 5일부터 기사를 공유해 상대방이 조선일보 앱을 설치하면 각종 상품을 주는 이벤트를 시작했다. 지난 5일자 조선일보는 1면·2면 기사에서 "조선닷컴 회원으로 로그인한 뒤 조선일보 앱에서 기사를 읽다가 좋은 기사를 발견하면 기사 상단의 공유 버튼을 눌러 지인께 전달하면 된다"며 "카카오톡은 물론, 블로그나 페이스북, 트위터, 문자메시지 등 즐겨 쓰는 플랫폼을 통해 공유할 수 있다"고 알렸다. ▲지난 5일자 조선일보 2면.▲지난 7일자 조선일보 사보.조선일보에 따르면 공유된 좋은 기사를 상대방이 클릭해 조선일보 앱이 깔리면, 기사를 공유한 사람의 실적으로 카운트된다. 조선닷컴 회원이 앱을 통해 기사를 보면 기사에 고유의 코드가 생성되고, 이 기사를 통해서 상대방이 앱을 다운받으면 누구에게서 시작된 공유 기사인지를 식별할 수 있다. 조선일보는 독자들뿐만 아니라 임직원을 대상으로도 '디지털 독자 확보'를 주문했다. 조선일보는 지난 7일자 사보에서 "'2022 조선미디어그룹 임직원 앱 확장 대회'가 5일 시작됐다. 이번 확장대회는 조선미디어그룹 역사상 첫 '디지털 확장대회'로 조선일보, 조선닷컴 독자를 대상으로 한 '조선일보 좋은 기사 공유하기 이벤트'와 동시에 진행된다"고 했다. 과거 신문사가 임직원들을 대상으로 종이신문 구독 확장 대회에 나선 것과 유사한 방식이다. 한편 지난달 14일 조선닷컴은 댓글 실명제를 '필명제'(별명)로 전환했다. 실명제 댓글 정책이 댓글의 다양화를 어렵게 만든다는 이유에서다. 실제로 조선일보 관계자는 11일 미디어오늘에 "필명제 이후 댓글 수와 참여자 수 모두 늘었다"고 밝혔다. 또 회원들을 대상으로 등급제를 도입했다. 등급은 총 7단계까지 있는데, 댓글 수에 따라 단계가 올라가는 정책이다. [관련 기사 : '70만' 로그인 독자 모은 중앙일보 유료구독 모델 론칭] [관련 기사 : 홈페이지 개편 중앙일보, 로그인 독자 확보 페이지도 개설] [관련 기사 : 기존 도메인 버리면서 수십억 투입 홈피 만든 중앙의 '큰 그림'] [관련 기사 : 조선·중앙 카톡 이모티콘·성향 테스트 얼마나 통했나] [관련 기사 : 중앙일보, 30만 독자모집 경품에 제네시스까지 내건 까닭] [관련 기사 : 조선·중앙일보 이벤트 통한 로그인 '충성 독자' 유입 결과는]</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>빅테크 보험시장 진출…보험 설계사들 '집단 반발'</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001004052?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;앞으로 보험 상품을 비교하고 추천하는 서비스를 포털 회사나 인터넷 은행에도 허용하겠다는 정부 방침이 나오면서 보험설계사들이 강력 반발하고 있습니다. 오늘(5일)은 5천 명이 거리로 나섰습니다.임태우 기자입니다.&lt;기자&gt;한 보험회사가 온라인으로 제공하는 상품 비교추천 서비스입니다.보험 가입자들이 남긴 평가점수로 음식배달 앱처럼 어떤 상품이 좋은지 한눈에 비교할 수 있습니다.[보험 비교 서비스 이용자 : 사용자 평점을 통해 보험 상품을 추천해주다 보니까 사용자들에게 익숙한 것 같고, 데이터 기반으로 하다 보니까 좀 더 신뢰가 가는 것 같습니다.]금융당국은 이런 보험 비교 추천서비스를 네이버나 카카오, 인터넷 은행 같은 IT회사에 허용할 방침입니다.소비자에게 더 많은 선택권을 주겠다는 겁니다.하지만 보험 설계사들 반대가 거셉니다.제가 서있는 이곳 서울 광화문광장에는 5천 명이 넘는 보험 설계사들이 모여 빅테크 업체의 보험시장 진출을 결사 반대한다는 구호를 외치고 있습니다.[결사 반대한다! 반대한다!]IT회사가 들어오면 45만 명이 넘는 설계사들 상당수가 일자리를 빼앗길 거라는 겁니다.[장남훈/한국보험대리점협회 본부장 : 네이버, 카카오, 토스 등이 우리 보험에 대한 골목 상권을 침해하고 있습니다. 그런 부분에서 저희들의 생계 위협이나 생존권 위협을 받고 있고….]작년 생명보험 전체 계약의 85%가 설계사를 통해 가입했을 정도로 여전히 영향력이 큽니다.당국은 설계사 계약 비중이 큰 종신과 변액보험은 IT회사에 개방하지 않겠다는 타협안을 제시한 상태입니다.[황인창/보험연구원 연구위원 : 전면 도입보다는 단계적으로, 그러니까 기존 사업자들도 전환을 할 시간을 좀 주는 방향으로 디지털 플랫폼도 도입이 될 필요가 있을 것 같아요.]타다 서비스가 등장하자 택시 업계는 생계를 위협한다며 반대했고 사업은 흐지부지됐습니다.소비자 편익과 일자리 안정, 이번에는 사회적 타협을 이뤄낼지 주목됩니다.(영상편집 : 이정택, VJ : 박현우)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>금감원, 핀테크 해외진출 위해 현지 감독기구와 협력나선다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002052757?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>핀테크 해외진출 설명회 열어[헤럴드경제=서정은 기자] 금융감독원은 핀테크 해외진출 지원을 위해 설명회를 14일 개최했다. 이는 지난 8월 이복현 금융감독원장 주재로 빅테크·핀테크 업계 간담회를 통해 해외진출 관련 정보 부족 등 애로사항을 청취한 뒤 이뤄진 조치다.이날 설명회에서 이명순 금융감독원 수석부원장은 국내 핀테크기업의 해외진출 지원을 위해 해외 기업설명회(IR) 실시, 해외 네트워크 구축 지원, 현지 감독기구와의 협력 등 다각적인 방안을 추진할 계획을 밝혔다.이근주 한국핀테크산업협회장은 이에 대해 “글로벌 신시장 진출의 필요성을 강조하며 세계적으로 인정받는 K-핀테크가 많이 등장하고, 우리나라가 세계 디지털금융 중심지로 도약하기를 기대한다”고 화답했다.이날 금감원, 소셜컨설팅그룹 및 핀테크지원센터가 각각 해외 인허가샌드박스 제도, 해외진출 절차, 해외진출 지원사업 등의 주제에 대해 설명한 뒤 토스, 카사코리아, 에이젠글로벌의 해외진출 사례 발표도 열렸다.토스는 베트남 사용자의 온라인 금융경험 확대를 위해 베트남 내 자체 신용평가시스템(CSS) 구축에 나서기로 했다. 카사코리아 또한 연내 싱가포르에서 부동산 디지털수익증권(DABS) 발행거래서비스를 개시할 예정이다.금융감독원 관계자는 "핀테크기업들의 애로사항을 청취하고 이를 해소할 수 있는 다양한 자리를 마련할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>5%의 유혹… 예금, 지금 환승할까요?</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003308356?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기준금리 3%시대 예테크 꿀팁“금리 3% 예금이 곧 만기인데, 1년 4%대 예금이 계속 나오네요. 만기 해지하면 바로 갈아탈까요, 아니면 3.5% 파킹통장에 넣어 놓고 금리가 더 오를 때까지 기다릴까요?” 자고 일어나면 오르는 예적금 금리에 ‘예테크(예금+재테크)족’이 들썩이고 있다. 제2금융권의 연 7%대 금리 특판 적금 상품이 순식간에 소진되고 재테크 커뮤니티에서는 ‘예금 갈아타기’ 전략을 고민하는 글이 쏟아진다.한국은행이 12일 ‘빅스텝’(한 번에 기준금리 0.50% 포인트 인상)을 단행한 데 이어 다음달까지 두 차례 연속 금리 인상에 나서면 ‘5%대 예금’ 시대가 현실화할 전망이다. 짧게 굴리며 손쉽게 갈아탈 수 있는 단기 예금과 최대한의 이자를 챙길 수 있는 적금, 수시로 입출금하며 쏠쏠한 이자까지 누리는 파킹통장(수시입출금통장) 등 여러 상품에 목돈을 쪼개 넣는 재테크 전략이 자리잡으면서 은행들도 만기와 금리 등에 유연성을 더한 상품을 쏟아내고 있다.12일 은행권에 따르면 시중은행들이 경쟁적으로 금리를 올리면서 예금 금리는 연 4%대 중반까지 오른 상태다. 우리은행의 비대면 전용 정기예금인 ‘원(WON)플러스 예금’이 연 4.65%로 가장 높으며 케이뱅크 ‘코드K 정기예금’과 신한은행 ‘쏠편한 정기예금’도 각각 연 4.6%, 4.5%에 달하는 등 저축은행의 예금 금리마저 뛰어넘고 있다.새마을금고와 신협, 단위농협 등은 연 7%대에 달하는 고금리 적금을 내놓아 ‘완판’시키고 있다. 토스뱅크가 불붙인 파킹통장의 금리 경쟁도 치열하다. 웰컴저축은행의 ‘웰컴 직장인사랑 보통예금’은 일정 조건을 충족하면 최고 연 3.5%의 금리를 제공하는 등 파킹통장의 연 금리는 이미 3%대에 진입했다.하루가 다르게 오르는 금리에 예테크족의 셈법은 복잡해지고 있다. 직장인 A씨는 파킹통장과 3개월, 6개월 예금을 보유하고 있다. A씨는 금리가 연 2%대인 파킹통장을 3%대로 갈아타고, 곧 만기인 3개월 예금은 해지한 뒤 고금리 특판 상품에 넣을 계획이다. A씨는 “기준금리가 3%로 오르면 나머지 예금을 중도 해지하고 갈아탈지 고민해 볼 것”이라고 말했다.은행권도 목돈을 유연하게 굴리려는 수요를 쫓고 있다. 상상인저축은행과 상상인플러스저축은행은 지난 11일 회전 주기를 3개월과 6개월, 9개월 중 선택할 수 있는 ‘369 회전정기예금’을 출시했다. 회전 주기에 따라 금리는 연 4.0%에서 4.2%까지 적용받는다. SC제일은행은 파킹통장과 정기예금의 장점을 결합한 ‘마이런통장 7호’를 판매한다. 최대 6개월까지 각 입금 건의 예치 기간에 따라 0.1%에서 최고 3.0%까지의 금리를 제공하는데, 만기 이전에 자금을 인출할 경우 중도해지이율이 적용돼 전체 금액에 대해 낮은 금리가 적용되는 정기예금과 달리 각 입금 건별로 예치 기간이 길수록 금리가 올라간다.내년 4월부터는 최소 1개월짜리 ‘초단기 적금’마저 등장해 ‘적금 갈아타기’도 활발해질 전망이다. 한국은행은 ‘금융기관의 여수신 이율 등에 관한 규정’을 개정해 은행의 정기적금 최소 만기를 현행 6개월에서 1개월로 개정한다. 개정안은 내년 4월 1일 시행된다. 금리 인상기에 목돈을 짧게 굴리고 예적금 상품을 갈아타는 것이 선호되는 경향을 반영한 변화다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[단독] ‘1인당 6만9000원’… 토스, 80만명 정보 팔아 292억 챙겼다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001556723?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>은행계좌·보험 가입 내역 등 담겨‘마이데이터 사업’ 법적문제 없어고객 개인정보에 1인당 ‘6만9000원’이라는 가격표를 매겼던 토스가 총 80만명분을 팔아 300억원에 가까운 수익을 낸 것으로 나타났다. 은행·증권사 계좌부터 보험 상품 가입 내역까지 민감한 금융 정보를 훤히 들여다볼 수 있는 ‘마이데이터’ 사업자의 경우 개인정보를 합법적으로 판매할 수 있어 이런 사례는 더 늘어날 전망이다. 정치권에서는 금융사의 무분별한 개인정보 판매를 막을 견제 장치 마련에 착수했다.2일 국민일보가 국회 정무위원회 소속 더불어민주당 황운하 의원실을 통해 확보한 자료에 따르면 토스는 2018년부터 올해까지 여러 법인 보험 대리점(GA)과 보험 설계사에게 개인정보 82만명분을 팔아 총 292억원을 벌어들였다.문제는 이런 일이 앞으로 더 빈번해질 수 있다는 점이다. 토스를 포함해 33개 금융사가 금융위원회로부터 마이데이터 사업권을 획득한 상태다. 금융위는 개인정보 판매가 주 업무가 될 것으로 보는 경우 사업권을 내주지 않겠다는 입장이지만 라이선스를 받은 이후에는 허가를 취소하는 방식 외에 이를 막을 방도가 없다.특히 마이데이터 서비스에는 자산을 얼마나 보유하고 있는지, 어떤 보험 상품에 가입했는지 등 민감한 금융 정보가 모두 포함돼 있다. 기업이 탐내는 질 좋은 정보를 합법이라는 울타리 안에서 팔 수 있는 것이다.기업이 개인정보를 판매해 논란이 된 것이 이번이 처음은 아니다. EBS(2020년)와 홈플러스(2011~2014년), 롯데홈쇼핑(2009~2014년) 등이 개인정보 수천만건을 팔아 수천억원대 수익을 얻었다. 그러나 처벌은 솜방망이였다. 해당 기업들은 벌어들인 수익의 100분의 1에도 못 미치는 과징금이나 벌금을 받는 데 그쳤다.야당은 금융사의 무분별한 개인정보 장사에 대한 제동 장치를 마련하고 있다. 황 의원은 마이데이터 사업자가 개인정보를 제3자에게 파는 경우 유상 판매 여부와 대가를 소비자에게 알리도록 하는 개인정보보호법 개인신용정보보호법 개정안을 준비하고 있다. ‘회원 가입 약관에 동의하면 개인정보가 다른 기업에 팔릴 수 있다’ ‘당신의 개인정보를 어느 기업에, 얼마에 팔았다’는 사실을 명확히 밝히도록 하는 내용이다.황 의원은 “마이데이터 사업자가 고객 정보를 모두 팔더라도 지금은 막을 방법이 없다”면서 “법을 고쳐 금융 소비자를 보호해야 한다”고 말했다.토스는 “보험 상담 신청을 한 고객을 설계사와 연결하는 과정에서 1회용 전화번호 등을 전달하는 것”이라면서 “고객 동의문에 ‘보험 설계사가 (개인정보를) 유료로 조회한다’는 내용을 반영하는 등 관련 서비스를 투명하게 운영하고 있다”는 입장을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>단 한명의 장애인도 고용하지 않은 인터넷 은행 토스</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002757187?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>'혁신' 외치는 인터넷은행, 장애인 고용률 기준치 훨씬 못미쳐인터넷 전문은행의 장애인 고용률이 기준치의 10분의 1에 불과한 것으로 나타났다. 각사 제공    혁신금융·포용금융을 표방하며 출범한 인터넷 전문은행 3사가 장애인 의무고용과 같은 사회적 책임은 소홀히 하고 있는 것으로 나타났다.국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원과 각 은행으로부터 제출받은 자료에 따르면 인터넷은행 카카오뱅크와 토스, 케이뱅크의 장애인 고용현황은 올해 상반기 기준 0.35%로 기준치(3.1%)의 10분의 1 수준인 것으로 나타났다.은행별로는 카카오뱅크가 총 직원 수 1217명 중 6명을 고용해 고용률 0.49%를, 케이뱅크가 468명 중 1명을 고용해 0.21%를 나타냈고, 토스의 경우 올 상반기까지 단 한 명의 장애인도 고용하지 않았다.이에 따라 각 인터넷은행이 납부한 장애인고용부담금도 매년 꾸준하게 증가한 것으로 나타났다. 카카오뱅크가 납부한 고용부담금은 2019년 2억6000만원에서 2021년에는 4억2000만원까지 65% 늘었으며, 케이뱅크는 2019년 5000만원에서 2021년 1억5000만원으로 3배 증가했다.막대한 영업이익을 올리고 있는 시중은행들 또한 사정은 크게 다르지 않았다. 올 상반기 기준 4개 시중은행의 장애인 의무고용률은 법에서 정하는 3.1%의 3분의 1 수준인 1%에 지나지 않았다. 이에 따라 은행들은 매년 40억~50억에 달하는 고용부담금을 납부했다. 지난 3년간 4대 시중은행이 납부한 고용부담금만 538억원에 달한다. 대부분 은행은 장애인 고용을 위한 계획에도 소극적이었다. 장애인 고용정책 현황을 질의하는 의원실 요청에 대해 시중은행들은 장애인 채용 시 가점을 부여하는 방안이나 한국장애인고용공단의 컨설팅을 진행하고 있다는 답변만 내놨다. 카카오뱅크는 지분투자를, 케이뱅크는 채용 시 가점을, 토스는 하반기 채용 계획만 제출했다. 최 의원은 "은행이 조금 더 사회적인 책무를 다하는 모습을 보여야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>토스뱅크 통장 금리 2.3%로 인상…적금은 최대 연 4.0%</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004802627?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출범 1주년을 맞아 수시입출금통장인 '토스뱅크 통장' 금리를 2.3%로 인상했다. 정기적금인 '키워봐요 적금'은 4.0%로 올렸다.  금리 인상은 6일부터 반영된다. 언제 어디서든 자유롭게 돈을 넣고 뺄 수 있는 '토스뱅크 통장' 금리는 연 2.0%(세전)에서 연 2.3%(세전)로 0.3%p 오른다. '키워봐요 적금' 기본금리도 1.0%p 인상돼 최대 금리가 연 3.0%에서 연 4.0%로 상향 조정됐다.  토스뱅크 통장은 단 하루만 돈을 맡겨도 최대 1억원(1억 원 초과시 0.1%)까지 연 2.3% 금리를 적용한다. 제1금융권 은행이 제공하는 수시입출금통장 가운데 최고 수준이다. '지금 이자받기' 서비스를 이용하면 최대 1억 원 예치시 매일 6301원(세전)을 받을 수 있고 일복리 효과가 유지된다. '지금 이자받기' 서비스는 지난 7개월간 210만 명의 고객이 1417억원의 이자를 받았다.'키워봐요 적금' 고객들은 중도에 해지하더라도 연 2.0%(세전)의 금리를 받는다. 월 최대 100만 원 한도 내  설정 금액을 6개월 간 매주 자동이체하면 2.0%의 우대금리를 받을 수 있다. 최대 4.0%의 금리는 6일부터 적금에 신규가입하는 고객에 한해 적용한다.  토스뱅크 관계자는 "고객들의 불편을 최소화하고, 기존 파킹통장과 차별화된 '토스뱅크 통장'만의 강점을 지속적으로 이어나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.10.01.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>해외서 원화 결제땐 수수료 폭탄...킹달러 시대 수수료 아끼는 법</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003227861?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>━   [금융SOS]      입국 전 코로나19 검사 의무가 폐지되면서 해외여행 예약이 증가하고 있는 지난 14일 인천국제공항 1터미널 출국장에서 한 여행객이 출국 안내 전광판을 살펴보고 있다. 연합뉴스.        직장인 이모(40)씨는 다음 달 미국 여행을 앞두고 고민이 많다. 최근 원화가치가 하락하고, 달러값이 오르면서 환전 부담이 커졌기 때문이다. 우선 최소한 경비만 달러로 환전한 뒤 돈이 부족할 때는 신용카드를 쓸 계획이다. 이씨는 해외에서 국내 신용카드로 결제할 때 붙는 각종 수수료를 아낄 수 있는 방법이 있는지 궁금하다.        그래픽=차준홍 기자 cha.junhong@joongang.co.kr           국내 신용카드(체크카드 포함)를 해외에서 이용하면 국제 브랜드 수수료와 해외 이용 수수료가 붙는다. 브랜드 수수료는 비자ㆍ마스터 카드처럼 국제 카드사가 국내 카드사에 부과하는 브랜드 사용료다. 아멕스가 1.4%로 가장 높고, 비자(1.1%), 마스터(1%)가 1% 수준이다. 다만 국내 토종 브랜드인 BC글로벌카드와 일본의 제이씨비(JCB)는 국제 카드 수수료를 내지 않아도 된다. 여기에 환전 등의 해외 이용 수수료가 더해진다. 우리카드는 0.3% 이용 수수료가 붙고, 국민카드(0.25%)를 비롯해 롯데ㆍ삼성ㆍ하나카드(0.2%) 수수료는 0.2% 안팎이다.        일부 체크카드는 해외 이용 수수료를 건당 기준으로 적용한다. 대표적으로 우리ㆍ하나카드의 체크카드는 한건당 0.5달러를 부과한다. 결제액이 크다면 정액제를 쓰는 체크카드가 유리할 수 있다. 해외 현금자동인출기(ATM)에서 체크카드로 현금을 뽑을 때는 브랜드 수수료와 이용 건당 3달러의 수수료가 붙는다.  수수료를 아예 면제해주는 해외여행 전용 카드도 많다. ‘KB국민 해외에선 체크카드’는 해외 이용 수수료와 ATM 이용 시 발생하는 건당 수수료를 최대 30만원까지 돌려준다. 하나카드의 ‘비바 X 플래티넘 체크카드’는 해외에서 결제할 때 부과되는 마스터카드 브랜드 수수료(1%)와 이용 건당 수수료(0.5달러)가 면제된다. 토스뱅크카드는 해외에서 결제하면 수수료가 붙지만, 결제액의 3%를 캐시백으로 지급한다.        최근 해외 여행객 사이에서 외화 충전식 선불카드인 ‘트래블 월렛’ 이 인기를 끈다. 애플리케이션(앱)에서 외화를 미리 환전해 두면 결제할 때마다 현지에서 결제한 금액이 충전 금액에서 빠져나가는 방식이다. 해외 결제에 따른 수수료가 부과되지 않는 게 장점이다. 다만 이 카드는 선불식 충전카드인 만큼 여행이 끝난 뒤 현지 통화가 남거나 여행 중 자금이 부족할 수 있다.        또 해외에서 국내 신용카드를 결제할 때는 ‘전표매입 시점’을 따져야 한다. 해외에서 카드를 사용하면 당일의 환율이 아닌 3~5일 뒤 전표매입 시점의 환율이 적용되기 때문이다.        신용카드를 쓴 날 그 날 환율로 결제를 해주는 서비스를 제공하는 카드사도 있다. KB카드와 신한카드의 ‘해외이용환율’ 서비스가 대표적이다. 신한카드 측은 “3~5일 뒤의 환율이 오를지 내릴지는 누구도 예측할 수 없다”며 “다만 오르는 시기에는 하루라도 빠른 환율로 결제하는 게 도움이 될 수도 있다”고 설명했다.        특히 해외에선 현지통화가 아닌 원화로 결제하면 ‘수수료 폭탄’을 맞을 수 있다. 미국 외 국가에서 신용카드를 이용해 달러가 아닌 현지 통화로 결제하더라도 고객에게 청구될 땐 무조건 달러로 환전 절차를 거친다. 비자와 마스터 카드와 같은 해외 결제를 연결해주는 국제 브랜드 카드사들이 결제 매입을 달러로 하기 때문이다. 만일 원화로 결제하면 3~8%의 원화결제 서비스 이용 수수료가 추가로 발생한다.  해외 쇼핑 후 영수증을 확인해 금액이 원화로 표시되면 취소 후 현지통화로 다시 결제를 요청해야 한다. 여행 전에 카드사를 통해 해외 원화결제(DCC) 차단 서비스에 가입하면 불필요한 수수료가 나가는 것을 예방할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1주년 맞이 수신금리 인상…파킹통장 2.3%·적금 4%</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005334551?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>‘토스뱅크 통장’ 수시입출금 통장 연 2.3% 금리 혜택'키워봐요 적금' 연 4.0%…금리 인상분 6일부터 반영[이데일리 정두리 기자] 토스뱅크가 출범 1주년을 맞아 전체 수신상품 금리를 높인다고 6일 밝혔다. 금리 인상분은 이날부터 반영된다.고객이 언제 어디서든 자유롭게 돈을 넣고 뺄 수 있는 ‘토스뱅크 통장’의 금리는 기존 연 2.0%(세전)에서 연 2.3%로 0.3%포인트(p) 오른다. ‘키워봐요 적금’의 기본금리도 1.0%포인트 오름에 따라 최대 금리가 연 3.0%에서 연 4.0%로 인상된다. 기존 금융권이 제공하고 있는 파킹 통장의 경우 고객이 돈을 ‘특정 공간’에 보관하도록 하거나 일정 금액 이상을 유지해야 우대 금리를 주는 경우가 많아 불편이 있었다. ‘토스뱅크 통장’의 경우 이러한 고객의 불편을 최소화했다. 고객은 언제 어디서든 돈을 꺼내 쓸 수 있고, 보낼 수도 있으며, 연동된 체크카드를 사용해도 제약을 받지 않는다.‘토스뱅크 통장’ 고객들은 통장 개설 시점에 관계없이 연 2.3%의 금리를 최대 1억원 한도까지 적용 받는다.(1억원 초과시 0.1% 금리 적용) ‘지금 이자받기’ 서비스도 한층 강화된 혜택이 적용돼 1억원을 예치한 고객의 경우 매일 6301원(세전)을 받을 수 있게 됐으며, 일복리 효과도 유지된다. 올 3월 출시한 ‘지금 이자받기’ 서비스는 7개월간 210만명의 고객이 이용, 총 1417억원의 이자를 받을 수 있었다.‘키워봐요 적금’의 기본금리가 오름에 따라 고객들은 중도해지하더라도 연 2.0%(세전)의 금리 혜택을 누릴 수 있게 됐다. 고객들은 월 최대 100만원 한도 내에서 자신이 설정한 금액을 6개월 간 매주 자동이체에 성공하면 2.0%의 우대금리를 받을 수 있다. 만기 시에 고객들은 최대 연 4.0%(세전) 금리 혜택을 누릴 수 있게 됐다. 단 이날부터 적금 신규가입 고객에 한해 인상된 기본금리 혜택이 적용된다.토스뱅크 관계자는 “토스뱅크에 보내주신 고객들의 성원이 있었기에 지금의 토스뱅크가 있을 수 있었고, 금리 인상으로 혜택을 돌려드리고 싶었다”며 “고객들의 불편을 최소화한, 기존 파킹통장과 차별화된 ‘토스뱅크 통장’만의 강점을 지속적으로 이어나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>금감원, 핀테크 해외진출 지원…"현지 감독기구와 협력"</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002648078?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>서울 여의도 금융감독원. ⓒ데일리안[데일리안 = 김효숙 기자] 금융감독원은 14일 '핀테크 해외진출 설명회'를 열어 국내 핀테크기업의 해외진출 적극 지원하겠다고 밝혔다.이명순 금감원 수석부원장은 이날 서울 여의도 카이스트 디지털금융대학원에서 한국 핀테크지원센터 등과 함께 개최한 설명회에 참석해 "국내 핀테크기업의 해외진출 지원을 위해 해외 IR 실시, 해외 네트워크 구축 지원, 현지 감독기구와의 협력 등 다각적인 방안을 추진할 계획"이라고 밝혔다.이근주 한국핀테크산업협회장은 글로벌 신시장 진출의 필요성을 강조하며 "세계적으로 인정받는 K-핀테크가 많이 등장하고 우리나라가 세계 디지털금융 중심지로 도약하기를 기대한다"고 말했다.이번 설명회는 지난 8월 이복현 금감원장 주재로 열린 빅테크·핀테크 업계 간담회에서 해외진출 관련 정보 부족 등의 애로사항을 청취한 뒤 핀테크 해외진출 지원을 위한 차원에서 열렸다.금감원, 소셜컨설팅그룹 및 핀테크지원센터가 각각 해외 인허가·샌드박스 제도, 해외진출 절차, 해외진출 지원사업 등의 주제를 설명하고 토스, 카사코리아, 에이젠글로벌 등의 해외진출 사례 발표가 진행됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>AI 학습 플랫폼 콴다, 가입자수 7000만 돌파…87% 해외</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011462748?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난 2년간 앱 순위 6위…카톡 다음으로 많이 사용[서울=뉴시스] 콴다 가입자 수 7000만 돌파 그래픽. (사진=매스프레소 제공) 2022.10.07. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]권안나 기자 = 에듀테크 기업 매스프레소는 자체 개발한 인공지능(AI) 기반 학습 플랫폼 '콴다(QANDA)' 가입자수가 7000만명을 돌파했다고 7일 밝혔다.콴다는 코로나19 이후 비대면 교육이 부상한 후 큰 성장세를 보였다. 모바일 애플리케이션(앱) 시장 분석 업체인 센서타워를 통해 지난 2년간의 국내 앱 다운로드 순위를 집계한 결과, 콴다는 전체 앱 다운로드 순위 6위를 기록하며 카카오톡 뒤를 이었다.사용자의 연령대가 넓게 분포된 타 앱들과는 달리, 사용자가 초·중·고 학생들로 제한된 교육앱으로는 이례적인 성과이다. 7위부터 10위는 네이버, 토스, 카카오T, 쿠팡으로 집계됐다. 콴다는 베트남과 같이 교육열이 높은 동남아 국가들에서도 큰 인기를 보였다. 콴다의 가입자 7000만명의 87%는 해외 유입으로 나타났다. 베트남이 전체 글로벌 가입자의 27%로 가장 큰 비중을 차지했다. 인도네시아가 24%로 그 뒤를 이었다. 모바일 앱 마켓 분석업체 데이터에이아이(Data.ai)에 따르면 콴다는 지난해 9월에서 11월 기준 동남아 전 지역 에듀테크 앱 차트에서 구글 클래스룸을 제치고 2위를 차지했다. 베트남 월간활성이용자수(MAU)는 470만명을 기록했다. 동남아 슈퍼 앱이라고 불리는 그랩의 안드로이드 MAU보다도 높은 수치다.2016년 1월 명문대 선생님과의 질문·답변 앱으로 시작한 콴다는 모르는 문제 사진을 찍으면 AI가 판독해 풀이를 제공하는 검색 기능 도입 후 국내외 큰 성장세를 보였다. 콴다의 누적 문제 해결수는 46억건이다. 하루에 약 1100만건의 문제 검색이 이뤄지고 있다. 이용재 매스프레소 대표는 "국내 뿐 아니라 베트남, 인도네시아 등 해외에서도 콴다를 통해 공부하는 것이 자연스러운 학습법으로 자리 잡았다"며 "소수만 누릴 수 있었던 맞춤형 교육을 기술을 누구나 누릴 수 있도록 혁신할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.10.02.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[단독] 토스, 80만명 개인정보 판매 매출 300억… 토스 “불법 아냐”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001556628?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>고객 개인정보에 1인당 ‘6만9000원’이라는 가격표를 매겼던 토스가 총 80만명분을 팔아 300억원에 가까운 수익을 낸 것으로 나타났다. 은행·증권사 계좌부터 보험 상품 가입 내역까지 민감한 금융 정보를 훤히 들여다볼 수 있는 ‘마이데이터’ 사업자의 경우 개인정보를 합법적으로 판매할 수 있어 이런 사례는 더 늘어날 전망이다. 정치권에서는 금융사의 무분별한 개인정보 판매를 막을 견제 장치 마련에 착수했다.2일 국민일보가 국회 정무위원회 소속 더불어민주당 황운하 의원실을 통해 확보한 자료에 따르면 토스는 2018년부터 올해까지 여러 법인 보험 대리점(GA)과 보험 설계사에게 개인정보 82만명분을 팔아 총 292억원을 벌어들였다. 토스는 약관 등을 통해 고객들로부터 동의를 받았고, 2020년 이후에는 개인정보 판매업을 함께 시행할 수 있는 마이데이터 사업권을 얻었기 때문에 불법이 아니라는 입장이다.문제는 이런 일이 앞으로 더 빈번해질 수 있다는 점이다. 토스를 포함해 33개 금융사가 금융위원회로부터 마이데이터 사업권을 획득한 상태다. 금융위는 개인정보 판매가 주 업무가 될 것으로 보는 경우 사업권을 내주지 않겠다는 입장이지만 라이선스를 받은 이후에는 시정 명령을 내리거나 허가를 취소하는 방식 외에 이를 막을 방도가 없다.특히 마이데이터 서비스에는 특정 소비자의 이름이나 나이, 주소와 같은 기본 정보뿐만 아니라 자산을 얼마나 보유하고 있는지, 어떤 보험 상품에 가입했는지 등 민감한 금융 정보가 모두 포함돼 있다. 기업이 탐내는 질 좋은 정보를 합법이라는 울타리 안에서 팔 수 있는 것이다. 금융권 관계자는 “마이데이터 사업자 33곳 중 개인정보를 팔아 돈을 버는 곳은 아직 토스뿐이지만 이 서비스의 수익 구조가 뚜렷하지 않아 앞으로 더 많은 사업자가 개인정보 판매에 동참할 가능성이 있다”고 말했다.기업이 개인정보를 판매해 논란이 된 것이 이번이 처음은 아니다. EBS(2020년)와 홈플러스(2011~2014년), 롯데홈쇼핑(2009~2014년) 등이 개인정보 수천만건을 팔아 수천억원대 수익을 얻었다. 그러나 처벌은 솜방망이였다. 해당 기업들은 벌어들인 수익의 100분의 1에도 못 미치는 과징금이나 벌금을 받는 데 그쳤다.야당은 금융사의 무분별한 개인정보 장사에 대한 제동 장치를 마련하고 있다. 황 의원은 마이데이터 사업자가 개인정보를 제3자에게 파는 경우 유상 판매 여부와 대가를 소비자에게 알리도록 하는 개인정보보호법 개인신용정보보호법 개정안을 준비하고 있다. ‘회원 가입 약관에 동의하면 개인정보가 다른 기업에 팔릴 수 있다’ ‘당신의 개인정보를 어느 기업에, 얼마에 팔았다’는 사실을 명확히 밝히도록 하는 내용이다.황 의원은 “마이데이터 사업자가 고객 정보를 모두 팔더라도 지금은 막을 방법이 없다”면서 “법을 고쳐 금융 소비자를 보호해야 한다”고 말했다.토스는 “보험 상담 신청을 한 고객을 설계사와 연결하는 과정에서 1회용 전화번호 등을 전달하는 것”이라면서 “고객 동의문에 ‘보험 설계사가 (개인정보를) 유료로 조회한다’는 내용을 반영하는 등 관련 서비스를 투명하게 운영하고 있다”는 입장을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>토스뱅크, 파킹통장 금리 연 2.3%로 인상···경쟁 가세</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003177708?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공은행권의 예·적금 금리 인상 경쟁에서 한 발 떨어져 있던 인터넷전문은행 토스뱅크가 출범 1주년을 맞아 수신 상품의 금리를 일제히 올렸다.토스뱅크는 6일 수시입출금 통장인 ‘토스뱅크 통장’의 금리를 기존 연 2.0%에서 2.3%로 올린다고 밝혔다.토스뱅크는 “고객들은 최대 1억원 한도까지 연 2.3%를 적용받는다”라며 “1억원을 예치하고 ‘지금 이자 받기’ 서비스를 이용하는 고객은 매일 6301원(세전)을 받을 수 있다”고 말했다.지난해 10월 출범한 토스뱅크는 수시입출금 통장에 연 2.0%의 높은 금리를 제공해 인기몰이했다. 시중은행 수시입출금 통장 금리는 연 0.1% 수준이다.그러나 한국은행 기준금리가 지난 1년간 0.75%에서 2.50%로 오르고, 은행권이 이에 발맞춰 수신금리를 빠르게 올리면서 토스뱅크 수신 상품의 경쟁력이 떨어지는 모양새가 됐다. 앞서 카카오뱅크는 파킹통장(목돈을 잠시 맡겨두는 통장) 금리를 연 2.2%, 케이뱅크는 2.5%로 올렸다. 저축은행권에서도 연 3%대 수시입출금 통장을 선보였다.뒤늦게 수신금리 인상 대열에 가세한 토스뱅크는 정기적금인 ‘키워봐요 적금’ 금리도 연 3.0%에서 4.0%로 인상했다.해당 상품에 이날 신규 가입한 소비자는 적금을 중도 해지하더라도 연 2.0%의 금리를 받는다. 상품을 만기까지 유지하고, 월 100만원 한도 내에서 자신이 정한 금액을 6개월간 매주 자동이체한 고객은 2.0%의 우대금리를 받는다.토스뱅크 관계자는 “고객들의 성원이 있어 지금의 토스뱅크가 있다. 금리 인상을 통해 혜택을 돌려드리고 싶다”며 “기존 파킹통장과 차별화된 ‘토스뱅크 통장’만의 강점을 지속해서 이어나가겠다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.10.15.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>용산 좁고, 광화문광장 막히자… 도심집회 ‘세종대로 유턴’</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003722154?sid=102</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>주말마다 대규모 집회 몸살광화문광장 집회금지 ‘풍선효과’대통령실 인근엔 수천명 못모여							서울역에서 광화문까지 이어지는 세종대로에서 최근 대형 집회가 잇따라 열리면서 도심 교통이 종종 마비되고 일반 시민은 물론 관광객이나 상인들이 큰 불편을 겪고 있다. 한때 ‘집회 1번지’로도 불렸던 광화문광장에서 집회가 금지돼 ‘풍선 효과’가 나타나고 있는 데다, 청와대 개방 후 용산 대통령실 인근으로 갔던 집회가 다시 세종대로로 돌아오고 있는 탓이다.10월 들어 세종대로에서는 매주 주말 대규모 집회가 열리고 있다. 한글날 연휴였던 10일 오전 서울 종로구 동화면세점 근처에서 전광훈 목사가 주도하는 자유통일당 등이 집회를 열어 경찰 추산 3만여 명이 참가했다. 지난 1일에는 시청역~광화문역 사이에서 촛불승리전환행동 등 좌파 단체와 신자유연대 등 보수 단체가 각각 집회를 열어 1만여 명이 몰렸다. 15일과 22일에도 여성 단체, 촛불승리전환행동 등의 대규모 집회가 각각 예정돼 있다. 평일도 크게 다르지 않다. 지난 5일 보험대리점 업계가 네이버·카카오·토스 등 플랫폼의 보험 진출에 반대하는 집회를 열었고, 지난달 16일 금융노조도 1만명 규모의 총파업 집회를 이 일대에서 했다. 지난 8~9월 2개월간 세종대로 일대에서 열린 크고 작은 집회만 총 143건에 이른다.경찰은 세종대로에 집회가 몰리는 이유 중 하나로 광화문광장 풍선 효과를 꼽는다. 국회 행정안전위원회 정우택 국민의힘 의원이 서울경찰청으로부터 제출받은 자료에 따르면 코로나 직전인 2019년 광화문광장에서 총 55번의 크고 작은 집회가 열렸다. 하지만 지난 8월 초 광화문광장이 정비를 마치고 재개장한 후 광장 사용 허가권이 있는 서울시는 최근까지 광장에서의 집회를 사실상 차단하고 있다. 광장이 막히자 그 옆 세종대로가 주요 집회 장소가 되고 있다는 것이다.윤석열 대통령 취임 후 용산 대통령 집무실 앞으로 갔던 집회도 다시 세종대로로 유(U)턴하고 있다. 청와대가 개방되고 대통령 집무실이 용산에 자리 잡으면서, 취임 초에는 대통령실 인근에서 집회가 잇따랐다. 하지만 지난 6월 87건에 달했던 용산 근처 집회는 8월과 9월 들어 각 60건, 62건으로 줄었다. 경찰이 대통령 집무실 반경 100m 내에서 집회를 허가하지 않고 집무실 건너편에서 500명 이하의 집회만 할 수 있게 하고 있어서다. 14일에도 대통령실 근처에서 3개 단체가 집회를 열었지만 모두 5~100명 수준의 소규모 집회 혹은 기자회견이었다.서울경찰청 관계자는 “대통령실 인근은 차로를 완전히 틀어막지 않는 한 수천명이 대규모로 모일 공간 자체가 없는 데다, 탁 트인 곳도 없어 대규모 인파가 몰린 사진이 제대로 나오지 않아 집회 주최 측이 꺼리는 것 같다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[임정욱의 혁신경제] 스타트업의 성공과 실패/TBT 벤처파트너</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003308382?sid=110</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>파산 폐업 명백한 실패이나한마디로 정의하기는 어려워성패는 제품의 시장가치 유무가치창출 스타트업에 박수를임정욱 TBT 벤처파트너스타트업에 대한 강연을 하다 보면 ‘토스’, ‘배달의민족’ 같은 잘 알려진 기업의 성장 사례를 소개하는 일이 많다. 그러면 항상 받는 질문이 있다. 성공한 곳보다 실패한 회사가 현실에서는 훨씬 더 많을 텐데 왜 성공한 경우만 소개하느냐는 것이다. 실패한 사례도 좀 듣고 싶다는 말이다. 그래서 스타트업의 성공과 실패에 대해 좀 생각해 보게 됐다. 그런데 스타트업의 성공과 실패는 일도양단으로 쉽게 가를 수 있는 것이 아니었다.성공한 스타트업이란 무엇일까. 거액의 투자를 받거나 멋진 창업 스토리를 가진 회사를 언론에서 접하면 성공한 스타트업으로 여기기 쉽다. 또 온갖 어려움을 이겨 내고 증권시장 상장에 성공하거나 회사를 매각하는 소위 ‘엑시트’를 한 경우도 성공으로 여긴다. 물론 그렇다. 하지만 성공한 것처럼 보여도 이후 약속한 제품 개발이나 흑자 전환에 실패하는 등 어려움을 겪는 사례도 흔하다. 피 몇 방울로 질병을 진단할 수 있다는 비전을 제시해 세계적으로 유명한 유니콘 기업 창업자가 됐다가 결국 사기꾼으로 판명이 난 테라노스 창업자 엘리자베스 홈스를 보라.그렇다면 창업자 입장에서 성공은 무엇일까. 많은 창업자들에게 직접 물어보니 “내가 풀고자 하는 문제를 해결해 고객들을 만족시키는 것에서 궁극적 기쁨을 느낀다”고 답하는 사람이 많았다. 창업자들은 고객, 시장이 원하는 제품과 서비스를 만들어 내는 데서 만족감을 느끼며 이를 성공이라 생각한다는 것이다.한편 투자자 입장에서 스타트업 성공은 비교적 단순하다. 투자한 회사가 목표 이상의 투자 수익률을 올리며 투자 원금과 이익을 올려 주는 것이다. 이것은 벤처캐피탈 같은 전문투자자나 일반 개미투자자나 마찬가지일 것이다.그렇다면 스타트업의 실패란 무엇일까. 가장 명백한 실패는 파산이나 폐업이다. 돈이 떨어지고 투자도 받지 못해 결국 이 길을 선택하는 회사가 많다. 대개 초기 단계에서 이런 경우가 많다. 하지만 수백억, 아니 수천억원 이상의 투자를 받고도 자금난에 시달리다가 회사를 구조조정하거나 헐값에 매각하는 사례도 있다. 또 일견 멀쩡해 보이지만 시장에 필요한 제품을 만들지 못하고 성장도 못 하며 계속 정부 지원에 의존해서 버티는 소위 좀비 스타트업도 많다. 창업자 입장에서는 괜찮을지 모르지만 투자자 입장에서는 실패한 회사다.이처럼 스타트업의 성공과 실패는 한마디로 정의하기 어렵다. 스타트업의 큰 투자 유치나 명성이 꼭 성공을 보장하지 않는다. 길게 봐야 한다. 어느 시점에서 성공한 것처럼 보이는 스타트업도 나중에 보면 실패한 회사가 될 수 있다. 망할 줄 알았는데 기사회생해 큰 성공을 이룬 기업들도 적지 않다.결국 스타트업의 성패는 시장에서 원하는 가치 있는 제품을 만들어 내느냐에 달렸다. 시장에서 필요한 제품을 만들어 내지 못한 회사는 도태될 수밖에 없다. 그런 의미에서 창업자 입장에서의 성공이 가장 중요하다. 큰돈을 버는 것이나 사회적인 명성을 얻는 것보다 시장의 문제를 잘 풀어내 가치를 창출하는 스타트업에 박수를 보내야 한다.얼마 전 한 초기 스타트업 대표를 만났다. 처음 시작했던 서비스가 벽에 부딪혔다. 시장에서 원하는 창업 아이템을 찾기 위해 전 직원이 석 달간 3000여 가지의 아이디어를 검토하고 연구했다. 고통스러운 과정이었지만 결국 중고 거래 시장의 문제를 푸는 서비스를 찾아내 시작했다. 고객들의 좋은 반응에 고무된 그의 표정은 정말 밝아 보였다.시장의 문제를 푸는 스타트업의 성공은 우리 경제에 활력을 준다. 이들을 응원하되 성공과 실패의 잣대를 너무 엄격하게 들이대지 않았으면 한다. ‘스타트업 겨울’이라지만 이런 진짜배기 스타트업들에는 여전히 투자가 몰리고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>이자부담 증가에…‘예대금리차 공시’확대한다</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002535633?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>■ 금감원 이달말 감독세칙 시행수신·대출 평균금리 동시 공시은행 자체 구간 기준 대신에신용평가사 신용점수로 비교‘통계착시’비판…실효성 의문기준금리가 3%대에 진입하면서 금융소비자들의 이자 부담 증가가 우려되자 금융당국이 예대금리차(예금금리와 대출금리의 차이) 공시를 확대하기로 했다. 예대금리차가 큰 은행은 ‘이자장사’를 하는 은행으로 낙인이 찍히기 때문에 대출금리를 내리고 예금금리를 올리는 조치에 나설 수 있기 때문이다. 하지만 ‘반짝’ 효과에 그치는 데다가 ‘통계 착시’ 비판도 이어져 실효성에는 여전히 의문점이 남는다. 13일 금융권에 따르면 금융감독원은 은행별 대출 평균 기준과 가계대출 기준의 예대금리차를 매월 공시하도록 은행업 감독업무 시행세칙을 10월 말쯤 시행할 예정이다. 지난 7월 금융위원회와 금감원이 발표한 금리정보 공시제도 개선방안에 따른 후속조치다.이에 따르면 금감원은 예대금리차 산정 세부항목인 저축성 수신금리, 대출 평균·가계·기업 대출금리를 은행연합회 홈페이지를 통해 함께 공시하게 된다. 은행 내부 신용등급에 따라 대출금리 구간이 나뉘어 명확한 비교가 어려웠던 점도 개선해 표준화된 개인신용평가회사(CB) 신용점수를 기준으로 공시하도록 했다. 금융당국 관계자는 “글로벌 통화 정책의 정상화, 한국은행 기준금리 인상 등에 따른 금리 인상기에 금융소비자의 금융 비용 부담이 가중될 수 있어 금리정보 공개를 확대해 금융소비자의 정보 접근성을 제고하는 방안으로 마련했다”고 말했다. 은행권 예대금리차 공시는 윤석열 정부 출범 당시 공약사항으로 지난 8월 처음 도입됐다. 예대금리차가 적은 은행은 이자장사를 덜 한다는 뜻이기 때문에 금융소비자들이 합리적인 선택을 내리는 기준으로 활용할 수 있다.문제는 정부정책에 따라 중·저신용자 금융을 많이 취급할수록 예대금리차가 벌어지는 통계 착시 현상이 나타난다는 점이다. 시장금리가 가파르게 뛰면서 대출 금리 상승 압력이 커지고 있어 공시 효과가 미미한 대목도 지적된다. 한 은행권 관계자는 “공시 제도를 개선한다고 하지만, 여·수신 과정에서 다양한 변수가 작용하기 때문에 공시할 때마다 은행과 금융소비자 모두 불만이 나올 것”이라고 전했다.한편 인터넷 은행에 대해서도 분기별 중·저신용자 대출 비중 공시 등을 통해 취약 차주에 대한 대출 확대를 유도하기로 했다. 지난 6월 말 기준 중·저신용자 대출 비중은 카카오뱅크가 22.2%, 케이뱅크가 24%, 토스뱅크가 36.3%다. 또 신용대출 비중, 중·저신용자 대출 비중, 컨설팅 실적 배점 확대 등 관계형 금융 평가지표 배점을 확대해 은행권 컨설팅을 활성화하고 중·저신용등급 차주 등에 대한 자금공급 확대도 유도할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>코바코, 마켓컬리 4년간 206억 지원…한도 101억 초과 논란</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011473591?sid=100</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>기사내용 요약중소기업 기준 초과했음에도 계속해 지원박완주 "중소기업 기회 박탈 되풀이 안돼"박완주 무소속 의원 *재판매 및 DB 금지[서울=뉴시스]여동준 기자 = 한국방송광고진흥공사(코바코)가 마켓컬리에 중소기업·소상공인 지원 제도의 한도를 101억원 초과해 지원해온 것으로 드러나 논란이 일고 있다. 심지어 마켓컬리는 해당 기간 매출액이 중소기업 기준을 초과한 것으로 밝혀졌다.13일 무소속 박완주 의원실에 따르면 코바코는 2018년부터 2021년까지 4년간 마켓컬리에 206억원이 넘는 송출비를 지원한 것으로 드러났다. 이는 한 기업에게 3년간 105억원의 한도를 둔 코바코의 규정과 어긋난다.마켓컬리는 2018년 코바코로부터 18억6천만원의 광고지원을 받고 2019년 120억원의 지원을 받아 105억원의 한도를 초과해 지원받았다. 이는 코바코의 '혁신형 중소기업 방송광고 지원사업'에 따른 것으로 해당 사업은 코바코 대행 방송사로 광고송출을 할 경우 송출비의 70%를 할인해주거나 방송 광고시 250%의 보너스를 제공하고 있다. 그러나 코바코는 지원 한도를 초과했음에도 마켓컬리에 대한 광고지원을 중단하지 않은 채 2018년부터 2021년까지 총 206억원을 지원했다. 이에 대해 코바코 측은 '지원이 중단되면 기업 마케팅에 차질을 줄 수 있다'는 이유로 심의를 거쳐 한도 초과를 승인했다고 해명했다.그러나 마켓컬리는 2018년부터 이미 중소기업 기준을 초과한 것으로 밝혀졌다.마켓컬리는 2018년 매출액 1571억원을 달성하며 중소기업 매출한도를 초과했고 2020년엔 매출액 9530억원, 2021년에는 1조 5614억원으로 급성장했다.혁신형 중소기업 방송광고 지원사업을 통해 지난 5년간 연평균 240여개 기업이 4877억원의 지업을 받았다. 그러나 전체 지원액의 44%에 해당하는 2149억원이 상위 10개 기업에 집중돼 취지에 어긋난다는 지적이 나온다.박 의원은 "코바코가 지원한 기업 중에는 토스, 왓챠, 무신사 등 이미 광고비를 감당할 충분한 연매출과 자본력이 있는 기업이 대거 포함돼있다"며 "중소기업 지원이라는 제도의 취지를 실현하기 위해선 매출액 상위 기업에게 지원금 44%가 쏠린 현상의 시급한 개선이 필요하다"고 지적했다.또 "마켓컬리와 같이 이미 수천억원의 매출을 올리고 있는 기업이 한도에서 벗어난 지원금액을 받은 것은 상식을 벗어난 행정의 불공정 집행"이라며 "한도 초과를 승인하게 된 경위를 철저히 조사해 중소기업의 기회를 박탈하는 사태가 되풀이되지 않도록 제도를 개선에 나서야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>“인터넷은행 장애인 고용률 0.35%… 법정 기준치 10분의 1 수준”</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000844757?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>토스뱅크는 채용 아예 없어시중은행 고용률도 1% 수준        인터넷전문은행들이 혁신 및 포용금융을 표방하면서 출범했지만, 장애인 의무고용과 같은 사회적 책임 이행에 미흡하다는 지적이 제기됐다.3일 더불어민주당 최승재 의원이 금융감독원에서 받은 자료에 따르면 카카오뱅크·토스뱅크·케이뱅크 등 인터넷전문은행의 장애인 고용률은 올해 상반기 0.35%로, 법정 기준치인 3.1%의 10분의 1 수준이었다.인터넷전문은행 3사의 애플리케이션(앱). /박소정 기자        은행별로는 카카오뱅크가 총 직원 1217명 중 장애인 6명을 고용해 고용률 0.49%를 기록했다. 케이뱅크가 468명 중 1명의 장애인을 고용했다. 토스뱅크는 올해 상반기까지 단 한 명의 장애인도 고용하지 않았다.이에 따라 인터넷 은행들이 낸 장애인 고용부담금도 매년 꾸준히 늘었다. 카카오뱅크가 낸 장애인 고용부담금은 2019년 2억6000만원에서 지난해 4억2000만원, 케이뱅크는 2019년 5000만원에서 지난해 1억5000만원으로 급증했다.시중은행들도 사정이 별반 다르지 않았다. 올해 상반기 기준 4개 시중은행의 장애인 의무고용률은 1%에 그쳤다.국민은행의 장애인 고용률이 1.3%였으며 우리은행이 1%, 신한은행과 하나은행이 각각 0.9% 수준으로 법정 기준치인 3.1%에 한참 모자랐다.은행들은 장애인 채용 대신 매년 40억~50억원에 달하는 고용 부담금을 냈다. 지난 3년간 4대 시중은행이 낸 고용부담금만 538억원에 달했다.최승재 의원실은 “장애인 고용 정책 현황을 질의했더니 시중은행들은 장애인 채용 시 가점을 부여하는 방안이나 장애인고용공단의 컨설팅을 진행한다는 답변만 내놨고 케이뱅크는 채용 시 가점, 토스뱅크는 하반기 채용 계획만 제출했다”고 말했다.이어 최 의원은 “반드시 장애인 직접 채용이 아니더라도 자회사 방식의 장애인 표준사업장 설립처럼 장애인 채용 의무 달성을 위한 다른 방법이 있음에도 고용부담금만으로 해결하려는 자세는 분명히 문제”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>수도권 넘어 지방으로··· 카카오모빌리티 대형택시 지역 확장 '계속'</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000702377?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>최근 광주광역시서 서비스 시작카카오모빌리티의 대형택시 '카카오 T 벤티'가 서울 및 수도권 바깥으로 서비스 지역을 넓히고 있다.카카오모빌리티 대형택시 '카카오 T 벤티' [사진=카카오모빌리티]11일 관련 업계에 따르면 카카오모빌리티는 최근 '카카오 T' 이용자에게 광주광역시에서 대형택시 '카카오 T 벤티' 서비스를 시작했다고 알렸다. 구체적인 운행 대수는 알려지지 않았지만 우선 소규모로 차량을 투입하는 것으로 전해진다.모바일(플랫폼)로 택시를 불러 탈 수 있는 서비스 중에서도 대형택시 호출은 카카오모빌리티 외에 VCNC(타다), 진모빌리티(아이엠택시) 등이 제공하고 있다. 중형택시와 비교하면 대형택시 운행 대수는 적다. 단 대형택시는 넓은 공간의 차량 등 고급(프리미엄) 서비스를 차별점으로 내걸고 주로 서울과 수도권 중심으로 사업을 전개하고 있다.카카오모빌리티는 대형택시 호출 중개 서비스와 관련해 함께 언급되는 VCNC(타다), 진모빌리티(아이엠택시) 등과 비교하면 선발주자로 가세했다. 그런 만큼 서비스 지역 확장과 운행 대수 확보에 보다 더 속도를 붙일 수 있는 상황으로 풀이된다.또 중형택시와 비교하면 대형택시는 기사 면허 취득이 까다로운 것으로 알려졌다. 택시 기사 확보 측면에선 플랫폼 사업자 간 경쟁도 있는 만큼 카카오모빌리티가 지역 확장 등을 통해 주도권을 선점해 가려는 움직임인 것으로도 해석된다.카카오모빌리티의 '카카오 T 벤티' 대형 승합 및 고급택시 면허 기반으로 스타리아나 카니발 차량으로 운행한다. 기본요금은 4천원으로 수요·공급 및 실시간 교통 상황 등에 따라 운임이 탄력적으로 매겨진다. 탑승 가능 인원은 최대 5명까지다. 과거 기사 딸린 렌터카 호출 서비스 '타다 베이직'이 이와 외형상으로 유사했는데 대형택시는 면허 기반의 택시인 것이 가장 큰 차이다.관련 업계에선 승객에게 빠른 배차가 가능하려면 일정 수준의 운행 대수를 확보해야 한다고 분석해 왔다. 카카오모빌리티는 지난 9월초 '카카오 T 벤티' 운행 대수가 1천대를 넘겼다고 발표한 바 있다. 직영 운수사를 기반으로 사업을 전개하고 있는 진모빌리티의 '아이엠택시'는 서울에서 800여대가 운행 중이다.카셰어링(차량 공유) 기업 쏘카에서 모바일 금융 플랫폼 '토스' 운영사 비바리퍼블리카로 경영권이 넘어간 VCNC(타다)의 대형택시 '타다 넥스트' 운행 대수는 구체적으로 알려지지 않았다. 단 앞서 VCNC(타다)는 서울을 중심으로 차량을 1천500대를 운행한단 목표를 내건 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>“빅테크의 보험진출 결사 반대” 5000명 시위… ‘제2 타다’ 되나</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003720203?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>5일 서울 종로구 동화면세점 앞에서 열린 '온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 2차 결의대회'에서 참석자들이 구호를 외치고 있다. /오종찬 기자										“네이버·카카오·토스의 보험 진출 결사 반대한다.”5일 낮 12시 서울 종로구 동화면세점 앞에 보험설계사 등 보험 업계 관계자들이 모였다. 전국 법인보험대리점들로 구성된 한국보험대리점협회가 지난 8월에 이어 ‘온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 2차 결의대회’를 연 것이다.300명가량이 모였던 지난 8월 1차 집회 때에 비해 참가자는 훨씬 많아졌다. 주최 측은 이날 참가자를 5000명이라고 주장했다. 그사이 금융 당국은 온라인 플랫폼 업체들의 보험 비교·추천 서비스를 혁신 금융서비스로 지정해 허용하기로 했다. 그동안은 보험업 라이선스가 없는 빅테크 플랫폼이 보험 상품을 비교하거나 추천할 수 없었다.빅테크와 보험업계 간 갈등이 전국 45만명 보험설계사(대리점 27만2000명, 전속 17만4000명)의 생존권 사수로 초점이 옮겨가면서 ‘제2의 타다’ 사태가 재현되는 것 아니냐는 우려도 나오고 있다. 앞서 모빌리티 플랫폼 ‘타다’는 택시 기사들의 생존권을 위협한다는 반발에 밀려 2020년 3월 사실상 퇴출됐었다.당초 보험 업계에서는 금융 당국이 온라인에서 판매하는 사이버 마케팅(CM) 보험 상품에 한해 규제를 풀 것으로 예상했었다. 그러나 금융 당국은 예상을 뛰어넘어 텔레마케팅(TM), 대면 영업 상품까지 플랫폼사에서 다룰 수 있게 했다. 종신·변액·외화보험 같은 복잡한 상품을 제외한 모든 보험 상품에 대한 규제 빗장이 풀린 것이다. 영업의 약 90%를 대면으로 하는 보험설계사들의 생계가 위협받고 있다고 주장하는 이유다.하지만 설계사들의 요구가 수용될지 여부는 미지수라는 평가가 많다. 보험 업계 일각에서는 온라인 플랫폼사의 보험 비교·추천 서비스를 거스를 수 없는 대세로 받아들이고 있기 때문이다. 일부 중소형 생명보험사들은 플랫폼 입점 타당성을 검토 중인 것으로 알려졌다.한 생보사 관계자는 “온라인 플랫폼사가 제공하는 보험 비교·추천 서비스가 보험 업계에 위기 요인으로 작용하는 것은 사실”이라면서도 “보험사끼리 유리한 고지를 점하기 위한 눈치 작전이 벌어지고 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>"8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명'</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004108436?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>카뱅·카페 실적개선 전망 불구내부 신뢰 흔들리며 불만 커져"암호화폐·손보 사업 등 성과내야"[서울경제] ‘노란 메기가 피라미로 전락했나.’카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원들조차 2억 원 넘게 손해를 보며 부글부글 끓고 있다. 암호화폐, 디지털 손해보험 등 연내 예정된 신사업에서 노란 메기의 정체성을 찾지 못한다면 그저 그런 핀테크사로 추락할 것이라는 전망도 나온다.10일 에프앤가이드가 주요 증권사들의 카카오뱅크 실적 컨센서스를 집계한 결과 3분기에 1122억 원의 영업이익을 낼 것으로 예상됐다. 전년 동기 대비 57%가량 증가한 수준이다. 같은 기간 카카오페이는 14억 원으로 흑자 전환에 성공할 것이라고 전망했다. 하지만 이런 실적 전망도 두 회사의 주가 하락을 막지 못하고 있다. 전문가들은 두 회사 모두 초기에 보여줬던 성장성·혁신성에 대한 시장의 기대를 충족시켜주지 못했기 때문으로 분석한다. 카카오뱅크의 경우 케이뱅크에 수익 성장에서 뒤처진다는 분석까지 나왔다. 글로벌 리서치 기관 ‘탭인사이츠’가 지난달 발표한 ‘2020년 글로벌 100대 디지털 은행 순위’에 따르면 수익 성장 항목에서 카카오뱅크는 10점 만점에 3점을 받은 반면 케이뱅크는 10점을 받았다. 고객 성장 항목은 두 은행 모두 10점 만점에 6점으로 동일했다.주력인 카카오뱅크에 대한 시장의 실망은 핵심 수익원인 대출 성장세가 급격히 둔화되고 있기 때문이다. 당장 3분기 실적이 좋아도 양적 성장 목표인 대출이 뒤따라주지 못한다면 수익 포트폴리오 개선은 지연될 수밖에 없다. 상반기 카카오뱅크의 수익 구조를 보면 전체 수익의 79%가 이자 수익이고 인터넷은행만의 강점인 플랫폼 수익과 수수료 수익 등은 각각 7%, 14%에 불과하다. 결국 금리 인상과 부동산 침체로 줄어드는 이자 수익 비중을 줄이기 위해서는 신규 사업에서 만족할 만한 성과를 거둬야 한다. 개인사업자 뱅킹 서비스 출시 및 암호화폐거래소의 실명 계좌 발급 등에 나섰지만 아직은 불확실하다. 개인사업자 뱅킹 서비스는 토스뱅크에 반년 이상 뒤처졌고 코인원과 암호화폐 실명 계좌 계약 체결도 넘어야 할 산이 많다. 카카오페이의 신사업도 만만찮다. 자회사 ‘카카오페이손해보험’이 출시하는 첫 자사 상품이 미니 보험(소액 단기 보험)이라 변액 보험, 장기보험 등처럼 수익성을 기대하기 어렵다. 혁신 금융으로 신청예정인 예금 비교 서비스도 차별화를 이루기 어렵다는 전망이다. 금융권 고위 관계자는 “금융의 핵심은 리스크 평가와 상품인데 카카오는 프로세스 혁신만 얘기한다”며 “프로세스 혁신은 기존 금융사들이 금방 따라 할 수 있어 지속성을 가지기 어렵다”고 꼬집었다.혁신성·성장성을 믿고 투자한 내부 직원들도 불만이 높다. 기업공개(IPO) 당시 카카오뱅크 직원들은 공모가 3만 9000원에 1인당 최대 1만 4481주를 살 수 있었다. 7일 주가를 기준으로 직원당 2억 9903만 원 이상 손해를 보고 있을 것으로 추정된다. 금융권의 다른 관계자는 “카카오뱅크·카카오페이가 ‘라이언’ 외에 혁신적인 상품·서비스를 내놓지 못했다”며 “대출까지 끌어와 8억 원을 투자했다는 직원도 있다는데 경영진은 스톡옵션을 행사하는 등 내부 통제까지 무너진 상황에서 회사는 내부 신뢰부터 찾아야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.10.01.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[르포]3년만에 현장 개막 ‘핀테크 박람회’…61개사 핀테크 체험도[코리아핀테크위크 2022]</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002047675?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>금융위원회 주최 ‘코리아핀테크위크 2022’ 현장 개막61개 기업 준비한 이벤트와 기술 시연 돋보여기존 금융권도 참여해 핀테크와 소통 계기도30일 서울 중구 롯데호텔에서 열린 ‘코리아핀테크위크 2022’ 전시관에서 관람객들이 DGB금융그룹이 준비한 인형뽑기에 열중하고 있다. 김광우 기자.“아, 너무 아깝습니다. 다음 분 오세요!”30일 서울 중구 롯데호텔 ‘코리아핀테크위크 2022’ 체험 전시관이 관람객들의 환호성으로 가득했다. 환호를 자아낸 주인공은 DGB금융그룹이 준비한 인형뽑기 기계였다. 관람객들은 길게 줄을 서 마스코트 인형을 뽑고 옆에 준비된 안면 표정 구현 기술을 체험했다. 얼굴 표정을 그대로 따라하는 캐릭터가 화면에 나오자 관람객들은 연신 감탄사를 내뱉었다. 직장 동료들과 행사장에 방문한 신모(27) 씨는 “별 기대 없이 왔지만 체험할 수 있는 콘텐츠가 많고 신기한 기술들도 경험할 수 있어 즐거웠다”며 뽑기에 성공한 인형을 자랑했다.지난 2년간 코로나19 여파로 온라인 위주의 전시로 운영됐던 ‘코리아핀테크위크’가 3년 만에 현장으로 돌아왔다. 올해 네 번째를 맞은 행사는 지난 28일부터 30일까지 사흘간 온·오프라인 동시 진행됐다. 무엇보다 현장의 열기가 뜨거웠다. 기존 금융사들과 토스, 카카오뱅크 등 빅테크기업, 그리고 각종 핀테크 기업 등 크고 작은 60여개 기업이 각자의 색깔을 담은 전시와 체험 콘텐츠를 선보여 눈길을 끌었다.30일 서울 중구 롯데호텔에서 열린 ‘코리아핀테크위크 2022’ 핀테크 체험관 모습. 김광우 기자.‘만보기’ 서비스 이용한 이벤트에 ‘대출’ 체험도 핀테크 체험관에서는 주로 신규 서비스를 활용한 체험 이벤트가 진행됐다. 카카오페이는 새로 출시한 ‘만보기’ 서비스를 활용해 전시관에서 일정 걸음을 달성하는 고객을 대상으로 경품을 제공하는 이벤트를 선보였다. 카카오페이 관계자는 “관람객들이 줄을 서서 이벤트에 참여하는 등 관람객 참여도가 높아 준비한 경품을 소진하기도 했다”며 현장의 열기를 전했다.네이버파이낸셜은 스마트워치를 활용한 간편결제 서비스와 ‘스마트스토어 사업자 대출’ 서비스를 경험할 수 있는 체험관을 구성했다. 또 네이버랩스의 자율주행 배달 로봇 ‘루키’를 전시해 핀테크와 로봇 기술의 결합 사례를 소개했다. 개막 첫날이던 28일에는 김주현 금융위원장이 네이버파이낸셜 부스를 방문해 직접 사업자 대출 서비스를 체험하기도 했다.30일 서울 중구 롯데호텔에서 열린 ‘코리아핀테크위크 2022’ 전시관에 관람객이 가득하다. 김광우 기자.각종 분야 핀테크 업체들 참여…앞다퉈 기술과 서비스 뽐내자산관리, P2P금융, 보험 등 카테고리로 나뉜 핀테크 전시관에서는 다양한 핀테크 기업들이 서로의 기술과 서비스를 뽐냈다. 관람객들은 부스 앞에서 신기술에 대한 설명을 듣고 핀테크 기업들이 준비한 이벤트에 참여했다. 업체들에서 제공한 크고 작은 기념품을 가득 안고 있는 관람객들도 눈에 띄었다.온라인투자연계금융업(온투업) 핀테크 ‘피플펀드’는 간접적으로 온라인 투자를 체험해볼 수 있는 핀볼 게임을 구성해 수익을 낸 관람객들에 금화 모양의 초콜렛을 증정했다. 건너편에 부스를 차린 온투업체 ‘데일리펀딩’은 경품 증정 이벤트로 관람객들을 모아 ‘대학생 캠퍼스론’과 ‘스타트업 대출’ 등 주력 상품과 서비스를 소개했다. 로보어드바이저 자산운용사 ‘디셈버엔컴퍼니’는 AI 투자 플랫폼인 ‘핀트’를 직접 체험해볼 수 있는 콘텐츠를 마련하기도 했다.대학교 수업을 통해 현장을 방문했다는 관람객 박경원(24) 씨는 “핀테크에 대한 관심으로 행사장에 방문했는데, 생각지도 못한 기술과 서비스들을 접할 수 있어 신기했다”며 “집으로 돌아가서 소개받은 업체의 애플리케이션 등을 직접 설치해 서비스를 이용해볼 생각”이라고 말했다.30일 서울 중구 롯데호텔에서 열린 ‘코리아핀테크위크 2022’ 전시관에서 행사에 참여한 핀테크 기업 관계자가 자사 서비스를 설명하고 있다. 김광우 기자.핀테크와 기존 금융사간 ‘소통’의 계기도한편 이번 행사는 금융권 관계자들과 핀테크 업체 간의 ‘소통’ 계기도 마련했다. 올해 처음 행사에 참여했다는 주택담보대출비교 플랫폼 ‘뱅크몰’의 정석영 책임은 “기존 금융권과의 협력이 중요한 서비스인만큼 이번 행사를 통해 많은 관계자와 얘기를 나눴다”며 “함께하는 행사를 통해 기존 금융권 관계자들도 핀테크가 경쟁 상대가 아닌 상생 관계가 될 수 있다고 인식했으면 좋겠다”고 말했다.동산자산관리 솔루션을 제공하는 핀테크 기업 ‘씨앤테크(C&amp;TECH)’의 주대연 이사는 “서비스의 주요 고객인 금융사와의 접점이 필요한 상황이었는데, 이번 행사가 그 계기를 마련해준 것 같아 좋았다”며 “아쉬움이 있다면 기간이 짧아 더 많은 소통을 하지 못한 것 뿐”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스, 하나은행과 인증서 도입 협약 체결</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004802872?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>/사진제공=비바리퍼블리카모바일 금융 플랫폼 토스 운영사 비바리퍼블리카(이하 토스)는 6일 하나은행과 토스인증서 도입 관련 협약을 체결했다고 밝혔다. 4대 시중은행에서 사설인증서가 도입되는 첫 사례라고 토스는 설명했다. 이에 따라 하나은행 모바일 플랫폼인 하나원큐에 앞으로 가입할 때 토스인증서로 본인 확인을 할 수 있게 된다. 토스는 별도앱이나 공동인증서 없이 토스 앱(애플리케이션)의 토스인증서를 이용해 빠르고 간편하게 본인인증 및 전자서명을 할 수 있다고 강조했다. 토스 관계자는 "토스인증서를 채택한 1000여 사업자에게 매끄러운 인증 경험을 그동안 제공해 왔다"며 "금융기관 뿐 아니라 정부24, 국민건강보험공단 사이트 등의 공공 부문 등에서도 토스인증서가 이용되고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>"몇 달만 넣어도 이자 더받을까?"…한국은행, 6개월 미만 적금 검토</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005027013?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>만기가 짧은 정기 예적금 상품이 출시될 수 있도록 규제를 개선해야 한다는 목소리가 나오면서 한국은행이 현 6개월로 규정돼있는 정기적금의 최단 만기 제한을 1개월로 완화하는 방안을 검토 중이다.  6일 국회 기획재정위원회 소속 더불어민주당 김주영 의원실에 따르면 한은은 정기적금의 최단만기 규정을 고치기로 한 것으로 알려졌다. 현재 정기적금의 최단 만기는 6개월로, 이 기간보다 만기가 짧은 적금 상품은 출시하지 못하도록 돼 있다. 한은의 '금융기관 여수신이율 등에 관한 규정'에서 정기 적금의 만기를 6개월 이상으로 규정했기 때문이다. 적금 만기를 제한하는 규정은 이 규정은 1984년 만들어 진 뒤 2003년에 마지막으로 개정 작업이 있었지만, 이후 20년 동안 개정되지 못했다. 규정이 제정될 당시는 개별 은행의 대출금리 수준을 한국은행이 정해주던 시기였다. 이에 금융권 등 업계에서는 적금 만기 제한이 금융 소비자 요구를 반영하지 못하는 규정이라는 비판이 나오기도 했다. 특히 MZ세대를 비롯해 20~30대의 소비성향을 고려하면 금리 인상기에 만기가 짧을수록 이자를 더 많이 받을 수 있고 장기 납입하는 것을 꺼리는 초단기 적금 수요가 상당한 것으로 파악되고 있다. 가령 토스뱅크가 지난 6월 출시한 6개월 만기 '키워봐요 적금의 경우 출시된지 3일 만에 계좌 개설 10만좌를 넘어서면서 뜨거운 호응을 얻은 바 있다.한은이 검토 중인 정기적금의 만기 조건은 '1개월 이상'일 가능성이 유력한 것으로 알려졌다. 정기적금 규정 개정은 금융통화위원회 의결을 거쳐야 하기 때문에 한은은 은행 업계와 국민 의견 수렴 등의 절차를 걸쳐 의결할 예정이다.김주영 의원은 "최근 예금금리가 지속해서 상승하자 추가 금리 인상을 기대하며 만기가 짧은 금융상품에 투자하려는 경향이 있다"며 "금리인상기 정기적금 최단만기 규정을 하루빨리 완화해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>중소기업 광고 지원하는 코바코, 마켓컬리에 206억 지원 논란..왜?</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005340769?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>마켓컬리에 중소기업 광고 지원제도로 4년간 206억 지원IPO 늦춘 마켓컬리, 기업가치는 하락했지만2018년 이미 매출 1571억으로 중소기업 매출한도 초과박완주, “중소기업 기회 빼앗는 행정 불공정 집행 시정해야”[이데일리 김현아 기자][그래픽=이데일리 김일환 기자][그래픽=이데일리 김일환 기자]마켓컬리에 중소기업 광고지원 제도가 잘못 적용됐다는 비판이 제기됐다. 한국방송광고진흥공사(코바코)는 우수한 기술을 갖고 있으나 광고에 대한 정보가 부족하거나 광고를 집행할 여력이 없는 중소기업·소상공인을 지원하기 위해 3개의 광고지원 사업을 추진하고 있다. 그런데, 이 제도를 통해 4년간 마켓컬리에 206억 원이 지원된 것이다.마켓컬리는 국내 대표적인 유니콘 기업이다. 여전히 적자를 보고 있지만, 총 일곱 차례의 투자 유치를 통해 누적투자 유치금액만 9000억원에 육박한다. 경기 상황 악화로 기업공개(IPO)를 미뤘고, 기업가치 역시 최대 4조 원에 달했던 것이 최근 1조~1.5 조원으로 하락했지만, 여전히 성장성을 주목받는다.이런 마켓컬리를 중소기업 광고 지원제도를 통해 도와줘야 할까.국회 과학기술정보방송통신위원회 소속 박완주 의원(무소속)은 “중소기업·소상공인 광고 지원을 위한 제도가 소위 잘나가는 스타트업에 집중 지원되고 있다”고 지적하며 코바코의 &lt;혁신형 중소기업 방송광고 지원사업&gt;의 시정을 요구했다.코바코의 &lt;혁신형 중소기업 방송광고 지원사업&gt;은 코바코 대행 방송사로 광고송출을 할 경우 송출비를 70% 할인해주거나 방송광고 시 250%의 보너스를 제공하고 있다. 다시 말해 광고 송출비로 100만 원을 지출하면 250만 원어치의 추가 광고 송출을 지원하는 제도이다.해당 제도를 통해 지난 5년간 연평균 240여 개 기업이 4,877억 원의 지원을 받았다. 그러나 전체지원액의 44%에 해당하는 2,149억 원이 연평균 매출 1조 2,563억 원을 육박하는 상위 10개 기업에 집중적으로 지원된 것으로 확인됐다.기업별 지원금액의 편차도 심각했다. 2018년도부터 올해 8월까지 최고 금액을 지원받은 기업은 한 해에 무려 120억 원의 지원을 받았지만, 최저 지원금을 받은 기업은 고작 3만 520원에 그쳤다.마켓컬리 제도 규정과 어긋나게 과다 지원 받아규정과 어긋난 지원 사례도 적발됐다. 마켓컬리는 2018년부터 2021년까지 4년간 206억 원이 넘는 송출비 지원을 받았으나, 이는 코바코가 기업 1곳에게 3년간 105억 원의 지원 한도를 둔 제도 규정과 어긋난다.2018년 18억 6천만 원의 광고지원을 받은 마켓컬리는 그다음 해인 2019년 120억 원을 지원받으며 105억 원의 한도를 초과하게 됐다. 그러나 코바코의 광고지원은 중단되지 않았다. 마켓컬리가 지난 4년간 3조 1,005억 원의 매출을 올리는 동안 코바코는 한도에서 101억 원을 초과한 총 206억 원을 지원했다.이에 대해 코바코는 ‘지원이 중단되면 기업 마케팅에 차질을 줄 수 있다’라는 이유로 심의를 거쳐 한도 초과를 승인했다는 입장을 밝혔다.그런데 마켓컬리는 2018년 이미 매출액 1,571억원을 달성해 중소기업 매출한도를 초과했던 것으로 확인됐다. 이후 마켓컬리가 급성장하면서 2020년 매출액 9,530억, 2021년 1조 5,614억원을 기록하며 중소기업 범위에서 벗어났음에도 코바코는 각 해 33억 원씩 계속 지원을 이어갔다.박완주 의원(무소속)박완주 의원은 “코바코가 지원한 기업 중에는 토스, 왓챠, 무신사 등 이미 광고비를 감당할 충분한 연매출과 자본력이 있는 기업이 대거 포함돼있다”라고 지적하며 “중소기업 지원이라는 제도의 취지를 실현하기 위해선 매출액 상위 기업에게 지원금 44%가 쏠린 현상의 시급한 개선이 필요하다”고 강조했다.그는 “마켓컬리와 같이 이미 수천억의 매출을 올리고 있는 기업이 한도에서 벗어난 지원금액을 받은 것은 상식을 벗어난 행정의 불공정 집행”이라며 “한도 초과를 승인하게 된 경위를 철저히 조사해 중소기업의 기회를 박탈하는 사태가 되풀이되지 않도록 제도를 개선에 나서야 한다”고 재차 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>'국민비서 앱'으로 선박 입출항 민원 안내</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013486005?sid=100</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 오지은 기자 = 해양수산부는 7일부터 행정안전부 국민비서 모바일앱 서비스로 해운항만민원 알림서비스를 제공한다고 6일 밝혔다.     해수부는 선박입출항신고, 해기면허발급 등 해운항만과 관련된 민원서비스를 휴대전화 문자메시지로 제공하고 있는데 문자만으로는 내용이 많은 알림을 한 번이 확인하기 어렵다는 지적이 제기됐다.     이에 해수부는 행안부와 협업해 국민비서 앱으로 선박입출항민원 처리 등에 필요한 서류를 안내하기로 했다.     국민비서로 해운항만민원 알림서비스를 받으려면 국민비서 누리집, 네이버 앱, 카카오톡, 토스, KB스타뱅킹, KB페이, 신한 SOL 등에서 신청하면 된다.     최종욱 해수부 항만운영과장은 "선박입출항신고, 해기사면허발급 등 해운항만 민원서비스를 이용하는 사람들이 편리하게 민원서비스를받도록 하겠다"고 말했다.앱별 신청화면[해수부 제공. 재판매 및 DB 금지]    built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>글로벌 리서치기관 “케이뱅크, 글로벌 인터넷은행中 성장성 높아”</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000847197?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 케이뱅크가 전 세계 인터넷은행 중 성장성(수익 성장)이 뛰어나다는 글로벌 리서치기관의 평가가 나왔다.12일 금융권에 따르면 케이뱅크는 글로벌 리서치기관 ‘탭인사이츠(TABInsights)’가 최근 발표한 ‘2022년 글로벌 100대 디지털은행 순위(Global Top 100 Digital Bank Ranking 2022)’에서 종합점수 43.5점을 기록했다.케이뱅크 서울 중구 을지로 사옥. /케이뱅크 제공        특히 케이뱅크는 지난해 성장성(수익 성장) 부문에서 10점 만점에 10점을 획득했다. 수익 성장에서 만점을 획득한 은행은 케이뱅크를 포함해 100곳 중 5곳뿐이었다. 2017년 4월 출범한 케이뱅크는 지난해 당기순이익 225억원을 기록하며 처음으로 연간 흑자전환에 성공했다.케이뱅크는 월간 고객 성장에선 10점 만점에 6점을 받았다. 케이뱅크의 고객 수는 2019년 4월 100만명을 돌파한 후 지난 9월 말 800만명을 넘어섰다. 케이뱅크는 또 상품의 종류, 예대율(LDR) 항목에선 10점 만점에 9점을 획득했다.아시아뱅커 산하 글로벌 리서치기관인 ‘탭인사이츠’는 전 세계 주요 지역에 자리잡은 36개국의 인터넷은행 100여곳에 대한 평가를 진행해 순위를 매겼다. ▲고객 ▲시장 및 상품의 범위 ▲재무구조 ▲대차대조표 ▲자금 조달 등 크게 5가지 항목으로 분류해 이에 대한 세부 항목을 평가했다.케이뱅크를 제외한 다른 국내 세 곳의 인터넷은행 중 카카오뱅크는 48.4점으로 8위, 토스뱅크는 18.8점으로 59위를 차지했다.케이뱅크 관계자는 “인터넷은행 중에서도 가장 우수한 성장성과 수익성, 상품 다양성을 인정받은 것”이라며 “앞으로도 혁신 상품 출시와 다양한 제휴 서비스로 성장성과 수익성을 더욱 강화하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>핀다, 62개社 대출상품 한눈에…카카오페이, 12개 은행과 협력</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004757202?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>대출비교 서비스 비교해 보니DSR 고려해 대출 한도 계산대환대출 검색도 가능담비, 근저당 설정 등원하는 시간·장소에서주택대출 업무 도와줘"비교서비스는 가심사실제 금리·한도 달라"주택담보대출 금리 상단이 연 7%를 넘어 연 8%를 향해 달려가고 있다. 자금이 필요한 금융소비자들은 단 0.01%포인트가 아쉽다. 여러 대출상품의 한도와 금리를 비교할 수 있는 핀테크 서비스가 인기를 끄는 이유다. 신용대출은 물론 이제 주담대나 전세대출까지 금리와 한도를 비교할 수 있게 됐다. 자신의 총부채원리금상환비율(DSR)을 고려해 대출 한도를 계산해주고 실시간으로 가장 유리한 조건의 대환 대출을 찾아주는 서비스도 등장했다.국내 대출비교 서비스는 사실상 토스와 카카오페이, 핀다 등 3개사로 압축된다. 토스의 시장 점유율이 51.2%로 가장 많고 이어 카카오페이(21.4%)와 핀다(16.7%)가 뒤를 쫓고 있다.이들 가운데 제휴사가 가장 많은 업체는 핀다다. 핀다의 대출조회를 누르면 62개 금융사를 일일이 돌아다닐 필요 없이 한꺼번에 대출상품을 비교할 수 있다. 핀다가 보여주는 대출상품 종류는 신용대출·전월세대출·대환대출 등으로 가계대출 상품이 대부분이다.전월세대출의 경우 나의 소득, 결혼 유무, 거주구분, 면적, 보증금, 대출 보유 여부 등을 입력하면 조건에 맞는 정부지원 전세대출과 국민은행 대출을 추천받을 수 있다. 가령 서울에 거주하면서 연 소득 9700만원 이하인 무주택자 신혼부부라면 서울시 신혼부부 전세대출이 추천상품으로 뜬다. 마이데이터 서비스를 통해 해당 거래 은행으로부터 데이터를 끌어오면 계좌 잔액 조회와 원리금 납부 알림 서비스도 받을 수 있다.총 12개사 대출 상품을 서비스 중인 카카오페이는 1금융권 제휴가 최대 강점이다. 5대 대형 은행 가운데 신한·하나·우리은행의 신용대출 상품을 조회할 수 있다. 국민·농협은행은 자체 플랫폼 경쟁력 강화를 위해 어떠한 대출 비교서비스에도 자사 상품을 제공하지 않고 있다. 인터넷뱅크 중에서는 경쟁사인 케이뱅크의 신용대출도 포함돼 있다.토스는 총 11개 은행과 협력 관계를 맺고 있다. 카카오페이와 달리 케이뱅크 대신 토스뱅크가 포함돼 있다. 또 신용대출은 물론 사업자대출이 취급한다.주담대 비교에 초점을 맞추고 있는 핀테크사 담비는 대출 비교 후 해당 금융사 앱으로 넘어가 대출을 신청할 수 있도록 했다. 전속 대출상담사나 금융사 직원을 통한 대면 상담도 가능하다. 소비자가 원하는 시간과 장소에서 방문 상담을 통해 근저당 설정, 임대차 확인 등 업무를 원스톱으로 처리할 수 있다.대출 비교서비스를 통해 받아본 금리나 한도가 확정된 게 아니라는 점에 유의해야 한다. 금융감독원은 최근 발표한 ‘마이데이터 서비스 및 온라인 대출상품 비교·추천 서비스 가입·활용 주의사항’에서 “대출 비교서비스의 ‘가심사’ 결과 나온 한도가 실제와 다르다는 민원이 전체의 가장 큰 비중을 차지하고 있다”며 이같이 당부했다.핀다는 금융인증서 추가 인증을 통해 본인의 건강보험료 납입 이력을 토대로 연 소득을 추정하고 있어 보다 정확한 한도 금리 산출이 가능하다고 주장한다. 다만 금융인증서 인증에 따른 개인 신용정보가 비식별 정보 형태로 변환돼 핀다 서버에 남는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[인터뷰] “MZ세대 인재 지키려면 함께 경력 고민해야”</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000846951?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>최준원 로버트월터스코리아 지사장“MZ세대, 재직기간보다 경력 우선”        “5~7년차 개발자난은 요즘 혹한기라고 하는 스타트업 사정과 무관하게 지속되고 있습니다. 일(공급)이 개발자(수요)보다 많다 보니 개발자가 택할 수 있는 선택지(옵션)가 많은 편입니다.”영국계 전문가 채용 컨설팅(헤드헌팅) 기업 로버트월터스의 한국지사인 로버트월터스코리아를 이끌고 있는 최준원 지사장은 서울 중구 미래에셋센터원 본사에서 진행한 조선비즈와의 인터뷰에서 이렇게 말했다.로버트월터스코리아는 2010년 설립됐다. 최 지사장은 2014년 합류해 주로 석유화학·건설·해외 운송 등 전문 인력 채용을 담당하다가 2020년 8월 로버트월터스 최초로 현지 출신 지사장으로 발탁됐다. 로버트월터스코리아는 한국에 진출하는 다국적 기업의 전문인력 채용뿐 아니라 빠르게 성장 중인 테크 스타트업쪽으로도 사업을 확장하고 있다. 현재 전체 고객사 10곳 중 4곳은 스타트업이다.그는 “열댓명 정도로 시작한 초기 스타트업이 수백명 단위로 성장할 땐 5~7년차 중견급 경력직 채용을 많이 한다”면서 “서비스 이용자가 급격히 느는 상황에서 여러 기능을 추가해야 해 전문 인력이 필요하기 때문”이라고 설명했다.이어 “10년차 이상의 경우 비교적 보수적인 환경에서 근무한 경험이 많기 때문에 스타트업 특유의 애자일(Agile·민첩함)한 환경에 적응하지 못하는 경우가 있어 고객사(스타트업)가 구체적으로 5~7년차를 뽑아달라고 요청하기도 한다”라고 덧붙였다.서울시 중구 미래에셋센터원 21층에 있는 로버트월터스코리아 본사에서 최 지사장이 MZ세대의 이직 트렌드에 대해 설명하고 있다. /로버트월터스코리아 제공 -글로벌 유동성이 줄면서 스타트업이 자금 운용을 하기 어려운 상황이다. 경력직 채용 열기는 여전한가.“우리가 체감할 수 있을 정도로 채용이 얼어붙고 있진 않다. 물론 어떤 스타트업은 자금 사정으로 문을 닫게 되면서 직원들의 갈 자리를 알아봐달라고 한다. 하지만 (사업 실패 확률이 큰) 스타트업계에서 이런 일은 언제든 있을 수 있는 일 아닌가.최근 달라진 트렌드를 꼽자면 크게 두 가지다. 우선 과거 스타트업은 조직을 키우는 과정에서 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’ 출신 팀 전체를 우르르 데려가는 경우가 많았다. 수십명씩 움직이던 것이 최근엔 ‘소확채(소규모 확실한 채용)’로 바뀌고 있다. 적게 뽑더라도 견고한 채용 절차를 통해 길게 갈 인재를 뽑자는 거다.또 하나는 이를 위해 매우 짧고 공격적인 전략을 쓴다는 점이다. 시리즈C 단계의 한 온·오프라인 연계(O2O) 플랫폼사는 2주 안에 서류 검토부터 이직 제의까지 마쳤고, 이후 면접 등 각 절차에도 이틀씩만 소요했다. 연봉 또한 기존 대비 40% 인상을 제시했다. 다수의 네카라쿠배당토 출신 시니어 개발자가 빠르게 넘어간 사례 중 하나였다.”-코로나19 장기화가 채용 시장에도 영향을 미쳤나.“그간 구직자들 사이에서 스타트업이라고 하면 불안 요소가 많았다. 네임 밸류가 떨어지고, 당장 매출을 일으키지 못하는 경우도 많기 때문에 재정적으로 미덥지 않을 수 있었다. 그럼에도 스타트업이 업계보다 높은 연봉과 스톡옵션을 제시했다. 기업공개(IPO)에 성공한 사례도 나왔다. 스타트업으로 간다는 것에 대한 인식 변화가 크게 일어날 수밖에 없는 환경이었다.개발자를 비롯한 인재난이 지속되고 있어 최근에는 업계를 바꿔 이직하는 경우도 나타나고 있다. 한 테크기업은 매우 이례적으로 헬스케어 업계에서 영업 인력을 채용하기도 했다.”-이직 시장에서 몸값이 높은 경력직이 20~30대로 소위 ‘MZ세대’들이다.“MZ세대는 사명감보다는 실리를 우선시한다. ‘회사가 나에게 얼마나 성장의 기회를 줄 수 있는지’가 회사에 머물지, 이직할지를 가르는 주요 변수가 된다. 여기에 주 수입원이 다양화되면서 이런 사상에 기름을 붓는 변화가 나타나고 있다.이전에는 주 수입원이 근로소득뿐이었다면, 지금은 자영업, 투자, 부동산, 블록체인, 비트코인, 유튜브, 배달 등 돈을 벌 수 있는 다른 수입원들이 생겨나고 있다. 월급이 전부였다면, 이직이 두려울 수 있지만 믿는 구석이 있다면 이야기가 다르다.”-MZ세대가 이직할 때 가장 우선시하는 것은 무엇인가.“예전에는 이직 권유를 하면 후보자들이 ‘여기서 2~3년은 채우고 싶다’며 거절을 많이 했다. 요즘은 재직 기간과 무관하게 커리어 포트폴리오를 중심으로 본다. 예를 들어 이직 제안을 하는 회사에서 어떤 새로운 제품을 만들고 있다면, 현재 어느 개발 단계에 와 있는지 묻고, 자신이 해보지 않았다면 포트폴리오에 추가할 수 있겠다며 적극적으로 나선다.”-더 높은 연봉을 찾아 이직하는 경우도 많은데.“순간의 높은 연봉 때문에 이직하거나 상사와의 불편함 때문에 경솔하게 이직하는 경우도 많다. MZ세대들의 면역이 약한 부분도 없지 않다. 더 장기적인 관점에서 자신의 커리어를 어떤 모습으로 발전시키고자 하는지 철학을 갖는 게 중요하다.지금 5~8년차인데, 최종 목표가 최고기술책임자(CTO)가 되는 것이라고 해보자. 지금은 개인적으로 회사에 기여하는 것보다 매니저로 넘어가는 게 필요하다. 사람을 관리해보고 경영진과도 활발히 의사소통할 수 있는 환경이 중요할 수 있다.다만 이를 하기엔 다른 리더들보다 연차가 낮을 수 있다. 이땐 너무 큰 조직보단, 작은 초기 스타트업으로 가서 시니어 개발자, 리드를 거쳐 CTO의 길로 갈 수 있다. 시기에 맞는 커리어 계획이 필요하다.”-기업들은 인재 뽑기만큼 지키기가 힘들어지고 있는 것 같다.“기업이 면접을 볼 때 80%는 지원자의 업무 능력을 검증하는 데 쓴다. 오히려 그 80%를 그들이 왜 우리 회사에 지원했는지를 살피는 것이 더 중요하다. 업무 능력은 어떤 회사에서 어떤 직무를 했는지 이력서만 보면 알 수 있다. 이들의 입사 동기와 배경을 알기 위해 더 많은 투자를 해야 한다. 그래야 회사에 어울리는 적합한 동기가 있는 인재를 뽑을 수 있다.채용 과정만큼 이들과의 커뮤니케이션도 매우 중요하다. 업무 지시가 대표적이다. 직원들은 일방적인 ‘묻지 마 지시’가 아닌, 이 업무가 왜 중요한지, 왜 내가 이걸 맡아야 하는지 알기를 원한다. 그래야 존중받는다고 느낀다. 그렇게 느끼지 못하는 인재들은 조직에서 나간다.회사가 직원들의 커리어 개발에 관심을 기울이는 것도 좋은 방법이다. 회사에서 승진의 기회가 보이지 않거나, 반대로 회사에서 뭘 하고자 하는지 스스로 모르는 경우도 많다. 이때 선배들이 커리어 고충을 듣고 의견을 주는 ‘커리어 데이’ 같은 걸 운영해볼 수 있다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.10.15.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>“150대 동원한 北 전투기 훈련 사진은 조작”</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004110481?sid=100</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>RFA, 독일 사진 전문가와 인터뷰 “한대의 전투기 복사해 붙여”미국 전문가는 “북한 항공기 100대 동원 능력 없어”[서울경제] 북한이 최근 전투기 150대를 동원하는 등 무력시위에 나서고 있는 가운데 일부 해외 사진전문가들은 북한이 공개한 전투기 훈련 사진이 조작됐을 가능성이 높다는 주장이 나오고 있다.북한 관영 조선중앙통신 공개한 북한 전투기 훈련 사진. 연합뉴스15일 자유아시아방송(RFA)은 독일 험볼트-엘스비어 연구소의 사진 분석 전문가 토스튼 벡 박사와의 인터뷰를 통해 이같이 보도했다.RFA에 따르면 벡 박사는 조선중앙통신의 사진들을 직접 조사하고 사진 복제를 인식하는 프로그램으로 분석해 본 결과 공통으로 발견되는 사진 변조 증거들을 확인했다고 주장했다. 그는 “일부 사진에 나온 전투기들의 유사성이 매우 두드러지고 각기 다른 거리와 높이에서 비행 중임에도 같은 크기인데다 거리에 따라 전투기의 모양이 흐릿하거나 분명한 차이 없이 동일한 화소라는 것에서부터 의심을 시작했다”고 말했다. 이어 “일부 전투기는 동일한 각도에서 동일한 빛을 받은 완전히 같은 전투기처럼 보이고 이는 한 전투기를 복사해 여러번 붙여넣었거나 아니면 다른 사진에서 가져와 붙여놓은 것으로 생각된다”고 설명했다.실제 벡 박사가 RFA에 제공한 분석사진을 보면 한 전투기를 복제해 12대로 늘렸고 다른 전투기 2대도 복제해 그 수를 늘린 것으로 보인다.다만 벡 박사는 조선중앙통신이 공개한 원본 사진의 크기가 작고 해상도도 낮아 정확한 분석에는 한계가 있다고 말했다.북한 관영 조선중앙통신 공개한 북한 전투기 훈련을 지켜보는 김정은 사진. 연합뉴스앞서 10일 북한 관영 조선중앙통신은 지난 8일 전투기 150여 대를 동원해 ‘대규모 항공 공격 종합훈련’을 했다고 보도하며 총 17장의 사진을 공개했다.RFA는 미국의 항공전문지 애비에이션 위크의 매튜 조우피 수석 분석가의 말을 인용해 “북한의 항공 전력을 고려하면 이 사진들이 조작됐다는 데 의심의 여지가 없다”고 전했다.그는 항공기 100대가 동원되는 미국의 레드 플래그 훈련과 같은 대규모 군사 훈련을 주최할 수 있는 국가는 미국과 중국 뿐이고, 북한이 실제 공군 훈련을 했다고 하더라도 한미 양국이 증가한 북한의 상공에서의 활동을 감지했을 것이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>인터넷전문은행, 장애인 고용 외면</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001177189?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>올 상반기 법정 기준 10% 수준토스뱅크는 출범 이후 채용 0명사진은 서울 강남구 토스뱅크 본사 모습. 부산일보DB인터넷전문은행의 장애인 의무 고용 실적이 타 은행이나 기업에 비해 현저히 미흡한 것으로 나타났다.특히 토스뱅크의 경우 출범 이후 단 한 명의 장애인도 고용하지 않은 것으로 드러났다.혁신과 포용의 금융을 표방하며 출범한 인터넷은행이 기업의 사회적 책임 이행을 외면하고 있다는 비판이 제기된다.3일 국민의힘 최승재 의원이 금융감독원으로부터 제출 받은 자료에 따르면 인터넷은행인 카카오뱅크와 토스뱅크, 케이뱅크의 장애인 고용률은 올해 상반기 0.35% 수준으로 나타났다. 이는 법정 기준치인 3.1%의 10분의 1 수준에 불과하다.은행 별로는 카카오뱅크가 총 직원 1217명 중 장애인 6명을 고용해 고용률 0.49%를 기록했다. 케이뱅크는 468명 중 1명, 토스뱅크는 올해 상반기까지 단 한 명의 장애인도 고용하지 않은 것으로 나타났다.다만 인터넷은행들이 낸 장애인 고용부담금은 매년 꾸준히 늘어나는 추세다. 카카오뱅크가 낸 장애인 고용부담금은 2019년 2억 6000만 원에서 지난해 4억 2000만 원, 케이뱅크는 2019년 5000만 원에서 지난해 1억 5000만 원으로 규모가 급증했다.사상 최대 수익을 내는 시중은행도 사정이 별반 다르지 않았다. 올해 상반기 기준 4개 시중은행의 장애인 의무고용률도 1%에 그쳤다.KB국민은행의 장애인 고용률이 1.3%로 가장 높았다. 우리은행은 1%, 신한은행과 하나은행이 각각 0.9% 수준으로 법정 기준치인 3.1%에 한참 모자랐다.은행들은 장애인 채용 대신 매년 40억~50억 원에 달하는 고용부담금을 냈다. 지난 3년 간 4대 시중은행이 낸 고용부담금만 538억 원에 달했다.최 의원은 “장애인 고용 정책 현황을 질의했더니 시중은행들은 장애인 채용 시 가점을 부여하는 방안이나 장애인고용공단의 컨설팅을 진행한다는 답변만 내놨다”며 “인터넷은행의 경우 케이뱅크는 채용 시 가점, 토스뱅크는 하반기 채용 계획만 제출했다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.10.08.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>적금 만기 '6개월→1개월'로 바뀐다…"한달 돈 모아서 여행 갈래요"</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004803573?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[[핀토크]]핀토크 /사진=머니투데이"상품 포트폴리오 다변화 기회다. 청년층 모객 효과가 있고, 자금 조달에도 일부 도움이 될 수 있다."(시중은행 관계자)"만기가 짧은 적금이 나온다면 단기 목표를 정하고 돈을 모을 수 있겠다."(30대 직장인 홍모씨)적금 만기가 최단 6개월에서 1개월로 바뀐다. 은행권은 수십년된 낡은 규정이 바뀐다는 소식에 환영하고 있다. 금융소비자들은 청년 세대를 중심으로 긍정적인 반응이 다수다. 8일 금융권에 따르면 한국은행은 지난 6일 '금융기관 여수신 이율 등에 관한 규정' 개정예고했다. 최단 적금 만기를 1개월로 완화하겠다는 내용이다. 개정안 시행 예정일은 내년 4월1일로 제시했다. 은행권은 진작에 고쳤어야 하는 규정이라는 반응이다. 적금 만기는 6개월 이상이어야 한다는 규정은 1997년 만들어진 후 2003년에 마지막으로 개정 작업을 거쳤다. 25년 전 제정하고, 20년 전 점검한 규정이다. 시중은행 관계자는 "수시입출식 통장과 구분하기 위해 예·적금에 최단 만기를 둔 건 납득이 가지만, 최단 만기가 예금은 1개월, 적금은 6개월인 근거는 불명확하다"며 "현재 수요에 맞게 바꾸는 게 맞다"고 말했다. 최근 예·적금 부문에서 부상한 시장의 요구는 만기가 짧은 상품이다. 2030 청년 세대가 트렌드를 만들었다. 우리금융경영연구소는 지난해 보고서를 통해 2030으로 대변되는 MZ세대는 재테크에 높은 관심이 있고 특히 짧은 호흡을 추구한다고 밝혔다. 은행들은 청년을 겨냥한 예·적금 상품을 속속 내놨다. 청년 세대를 주 고객으로 삼고 있는 인터넷전문은행이 적극적이다. 카카오뱅크가 단기 적금 흥행 신호탄을 쐈다. 2018년 6월 출시한 '26주 적금'의 지난 8월말 기준 누적 가입 계좌 수는 1340만좌다. 토스뱅크는 흥미를 자극했다. '키워봐요 적금'은 납입과 함께 가상 동물도 성장하는 상품이다. 지난 6월 출시 3일 만에 10만좌를 넘었다.적금 최단 만기가 짧아지면 은행의 마케팅 기회는 더 커진다. 은행권 관계자는 "예금은 한 번에 큰 돈을 예치하는 개념인 반면 적금은 일정 기간 조금씩 돈을 넣는 개념"이라며 "적금은 여러 테마가 가능하기 때문에 은행들 사이에 아이디어 경쟁이 일어날 수 있다"고 말했다. 그는 "은행마다 이벤트 상품 출시가 예상된다"고 했다.소비자들도 긍정적이다. 26주 적금 등에 가입한 경험이 있는 30대 직장인 김모씨는 "돈 덜 써서 용돈이라도 모으자는 취지로 적금을 했었다"며 "만기 6개월도 길어서 최근 파킹통장으로 갈아탔는데, 적금 만기가 짧아지면 다시 적금을 고려할 것 같다"고 말했다. 20대 취업준비생 박모씨는 "단기 적금이 나오면 여행 자금이나 쇼핑 자금을 모으는 용도로 가입할 수 있겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[이코노 브리핑] 토스뱅크, 파킹통장 금리 2.3%로</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003741776?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>출범 1주년을 맞아 인터넷 전문은행 토스뱅크가 수신 상품 금리를 인상한다고 6일 밝혔다. 수시입출금(파킹)통장인 ‘토스뱅크 통장’의 금리는 기존 연 2.0%에서 연 2.3%로 0.3%포인트 올린다. 1억원 한도까지 연 2.3%를, 1억원 초과 시 연 0.1%를 적용받는다. 매일 이자를 받을 수 있도록 한 ‘지금 이자받기’ 서비스를 이용하면 1억원을 예치한 고객은 매일 6301원(세전)을 지급받을 수 있다. ‘키워봐요 적금’의 기본금리도 1.0%포인트 오른 연 4.0%로 인상된다. 기본금리 인상으로 중도해지 시에도 연 2.0%의 금리를 적용받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>하이투자증권, 비대면 계좌개설 및 국내외 주식거래 이벤트</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002048530?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>하이투자증권 제공[헤럴드경제=양대근 기자] 하이투자증권(사장 홍원식)은 오는 12월 15일까지 신규 및 휴면고객을 대상으로 비대면 계좌개설 및 주식거래 이벤트를 진행한다고 4일 밝혔다.먼저 이벤트 기간 내 비대면 계좌를 신규로 개설한 고객에게 국내 주식 온라인 거래 수수료를 0.01%로 적용한다. 선물옵션의 경우 3개월간 수수료 우대 혜택을 제공하며, 시스템트레이딩 제휴 서비스인 예스트레이더를 통한 거래도 적용한다. 토스, 네이버페이 등의 플랫폼을 통해 계좌를 개설하면 각 제휴사의 포인트 1만 점도 즉시 지급한다.타 증권사에 있는 국내 주식 1천만 원 이상을 하이투자증권 스마트지점으로 이전하고 1천만 원 이상 거래를 할 때는 최대 70만 원의 현금을 지급한다.10월 31일까지 신용대출을 신청하면 연말까지 4.9%의 우대 금리 혜택도 제공한다.미국 주식거래 시에는 온라인인 거래 수수료를 0.069%로 제공한다. 타 증권사에 있는 상장 미국 주식 1000만원 이상을 하이투자증권 스마트지점으로 이전하고 100만원 이상 거래 시 최대 35만원의 현금을 지급하며, 1000만원 이상 거래 시 2배의 리워드 혜택을 제공한다.미국 주식 실시간 시세 조회 서비스도 계좌개설일로부터 1년간 무료로 제공하며, 서비스 종료일 직전 3개월간 미국 주식을 거래하면 지속해서 서비스를 무료로 제공한다.미국 주식 소수점 거래 이벤트도 함께 진행한다. 11월 30일까지 미국 주식 소수점 거래를 신청하는 스마트지점 전 고객을 대상으로 1000명을 추첨하여 커피 쿠폰 1매를 지급한다.미국 주식을 단 0.00001주 이상 거래할 경우에도 추첨을 통해 애플 1주(1명), 포드모터 1주(100명), AMC엔터테인먼트홀딩스 1주(200명), 고프로 1주(300명)를 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.10.08.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>금융사고 줄어들까…금감원, 내부통제 강화 방안</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010917?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]우리은행 무주택청년들 위한 청년약속 통장 출시DB손보, 한문철 변호사와 손잡고 운전자보험 개정연이은 금융사고에…금감원, 내부통제 강화 금융감독원이 최근 연이어 발생한 금융사고 재발을 막기 위해 금융사의 내부통제 운영 개선과제를 마련해 추진한다. 금감원은 이를 통해 인사관리 등 기본 내부통제 기능을 강화하고 최근 사고분석을 통한 취약부문을 개선해 나갈 계획이다.금감원은 지난 5월부터 금융업권(은행·저축은행·상호금융중앙회·여신금융협회)과 태스크포스(TF)를 운영하면서 논의한 결과 은행·중소서민 내부통제 관련 4개 부문, 20개 과제를 마련했다. 올해 상반기 연이어 횡령 등 금융사고가 있었던 것으로 확인되자 이를 방지하기 위한 차원이다. /사진=이명근 기자 qwe123@금감원은 먼저 사고 취약부문에 대한 통제기능 강화를 위해 △순환근무 △명령휴가제 △직무분리 △단말기 접근통제 강화 등의 조치에 나서기로 했다. 1명의 금융사 직원이 한 부서에 오랜기간 근무하면서 횡령 사건 등이 발생한 것으로 확인된 만큼 이를 방지하기 위한 차원이다. 금융회사 스스로 내부통제 기능을 강화하기 위한 차원에서 준법감시조직의 인력과 전문성 확충 등에 나서도록 한다. 중소형 여신전문회사에는 스스로 취약 부문을 선정해 점검하는 자율진단제도를 도입하고 상호금융조합의 경우 감사실 설치 대상 조합기준을 확대하기로 했다. 금감원은 내부통제 운영실태에 대해 상시감시와 사고검사를 강화하고 경영실태평가시 내부통제 비중 확대, 평가기준 구체화 등에 나선다. 금융회사가 스스로 내부통제 기능을 강화하도록 하면서 금감원도 감시강도를 높히겠다는 얘기다. 금감원 관계자는 "금융사 내규 개정 등을 통해 즉시 시행한 과제는 연내 조속히 추진해 금융사고 확산을 방지하겠다"고 전했다.우리은행, 무주택청년 위한 '우리 청년약속 통장' 출시우리은행은 무주택 청년을 위한 비대면 전용 급여통장인 '우리 청년약속 통장'을 출시했다. 이 통장은 최대 12만원의 캐시백(환급) 지원금과 우리은행 수수료 면제가 특징이다. 캐시백 지원금은 해당 통장에 가입한 달에 우리은행 주택청약종합저축에 신규 가입해 납입하고, 매월 청년약속 통장으로 급여를 이체하면 월 1만원씩 1년간 제공된다. 우리은행 전자금융 이체 수수료, 자동화기기 출금 수수료는 조건 없이 면제된다.청년약속 통장은 연 소득 3600만원 이하인 만 19세부터 39세 이하의 무주택 개인을 대상으로 판매된다. 소득 정보 확인을 위해 오전 8시부터 오후 10시까지만 가입 가능하며 10만 좌 한도로 선착순 판매한다. 우리은행 앱 '우리 원(WON)뱅킹'을 통해 가입하면 된다. 연 소득 정보와 잔여 판매 한도는 이 앱에서 실시간으로 확인할 수 있다.우리은행 관계자는 "무주택 청년층의 내 집 마련 첫걸음을 응원하는 취지로 청약저축 납입금을 지원하는 상품을 출시했다"며 "앞으로도 금융의 사회적 책임을 실천하고 고객 중심의 상품과 서비스를 지속 출시할 것"이라고 말했다.토스, 하나은행과 인증서 도입 협약 체결/ 사진=토스 제공모바일 금융 플랫폼 토스 운영사 비바리퍼블리카는 지난 6일 하나은행과 포괄적 토스 인증서 도입에 관한 협약을 체결했다. 이번 협약으로 하나은행의 모바일 뱅킹인 '하나원큐' 에서는 토스의 인증서를 활용해 본인인증이 가능해진다. 토스인증서로 하나원큐의 서비스를 이용할 수 있게 된다는 얘기다. 토스는 하나은행과 이번 협약을 바탕으로 전자서명, 마이데이터 통합인증 등으로 지속해서 사용 범위를 확대해 나간다는 계획이다.업계에서는 하나은행이 공인인증서의 폐지 이후 치열해지는 인증시장에서 독자생존보다는 대중성을 확보한 토스와의 협력을 택했다는 분석이다. 실제 KB국민은행, 신한은행 등 주요 은행들은 자체 인증서를 개발해 고객 가입유치에 역량을 집중하고 있다. 토스 관계자는 "4대 시중은행에 사설 인증서가 도입되는 것은 이번이 처음"이라며 "해당 서비스는 관련 개발과 절차가 마무리되는대로 도입할 예정"이라고 설명했다. DB손보, 한문철 변호사와 '참좋은운전자보험' 개정DB손해보험이 창립 60주년을 기념해 운전자보험의 변호사 선임 비용과 교통 사고처리지원금 등의 담보 보장을 대폭 강화한 운전자보험을 개정 출시했다. 특히 이번 개정에서는 유튜브 '한문철TV'에서 교통사고 분석을 진행하는 한문철 변호사가 수많은 사고를 접하면서 떠올린 다양한 상품 아이디어를 담은 것이 특징이다. '변호사 선임 비용'의 경우 기존에는 구속 또는 검찰에 의해 공소 제기된 경우 그리고 약식기소 후 재판이 진행되는 경우에만 보장이 됐다. DB손해보험은 이번 개정을 통해 약식기소나 불기소 단계는 물론 경찰조사(불송치) 단계에서 변호사를 선임한 비용까지 보장이 가능해졌다. 보장 금액은 타인 사망 및 중대 법규위반 사고에 대해 최대 5000만원까지 보장 가능하다.'교통 사고처리지원금' 담보는 오는 12월 시행될 공탁법 개정에 발맞춰 공탁금 선지급 제도를 도입했다. 교통사고가 발생하고 공탁을 진행하게 될 경우 현재는 피해자가 공탁금을 출급한 이후 '공탁금 출급 확인서'를 제출해야만 보험금 지급이 가능하지만 이번 선지급 제도를 통해 공탁을 신청할 때부터 최대 50%를 먼저 지급받을 수 있게 된다.또 최근 판스프링 사고 등으로 이슈가 되고 있는 낙하물 사고 및 야생동물 로드킬 사고에 대한 부상치료비와 차량 손해 위로금도 신규로 개발해 운전자 보험의 다양한 보장을 더욱 강화했다.DB손해보험은 이번 '참좋은운전자보험' 개정 출시와 동시에 한문철TV와 운전자보험 공동마케팅을 위한 업무제휴도 진행했다. 양 사는 업무제휴를 통해 각 사가 보유한 전문 역량을 결집해 고객가치를 더욱 제고할 수 있는 신 담보 개발 및 공동마케팅을 전개할 예정이다.신한카드, MZ 소비패턴 맞춰 혜택 주는 카드신한카드에서 빅데이터 분석을 활용해 MZ세대(1980년대 초∼2000년대 초 출생)를 겨냥한 '신한카드 핏(Fit)'을 출시했다. 신한카드 핏은 신한카드가 그동안 쌓아온 빅데이터 분석을 통해 MZ 고객에게 딱 맞는(fit) 혜택을 제공하겠다는 의미를 담고 있다. 신한카드 핏은 일상생활에서 알뜰하고 합리적인 소비를 하면서도 동시에 자기 계발을 위해선 아낌없이 소비하는 MZ세대의 이용 성향을 파악, '일상 영역'과 '플렉스(Flex) 영역'으로 구분해 혜택을 제공한다. 일상 영역에서는 비교적 이용 금액이 적고 빈도가 잦은 편의점, 커피, 요식, 온라인 업종에서 월 단위로 포인트 적립 서비스를 제공한다. 업종별로 5회 이용할 때마다 스탬프(stamp) 1개가 적립되는 구조로 스탬프 1개당 편의점, 커피 업종에서는 2000포인트, 요식과 온라인 업종에서는 4000포인트가 적립된다. 스탬프 적립을 위한 최소 이용 금액은 편의점·커피 업종은 건당 5000원이며 요식·온라인 업종은 건당 2만원이다. 통합 월 10개까지 스탬프를 적립할 수 있다. 또 모든 일상 영역에서 스탬프를 1개씩 달성하면 추가 4000포인트, 2개 이상이면 추가 8000포인트를 적립해준다.플렉스 영역은 '헬시플레져(건강 관리의 즐거움, 스포츠센터·골프장·테니스장 등)', '셀프 기프팅(나를 위한 선물, 체형관리·미용·사진관 등)', '해외(해외여행, 해외 직구)', '자기 계발(일반학원 업종)' 등 4가지로 구분해 분기별 이용 금액의 10%를 마이신한포인트로 적립해준다. 전 분기 이용 금액이 100만원 이상이면 1만 포인트, 200만원 이상이면 1만5000포인트, 300만원 이상이면 2만5000포인트가 적립된다.'금융 핫&amp;뉴'는 한 주간 선보인 새로운 금융상품과 은행·보험·카드 등 금융사들의 눈에 띄는 움직임을 간추린 비즈워치 경제부의 주말 코너입니다. [편집자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>금감원 "핀테크기업 해외진출 지원…현지 감독기구와 협력"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006393308?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>'핀테크 해외진출 설명회' 개최서울 여의도 금융감독원 깃발이 휘날리는 모습. 2018.4.17/뉴스1 ⓒ News1 임세영 기자(서울=뉴스1) 한유주 기자 = 금융감독원이 국내 핀테크기업의 해외진출을 다각도로 지원하겠다는 계획을 밝혔다.금융감독원 디지털금융혁신국과 글로벌시장국(금융중심지지원센터)은 14일 한국과학기술원(KAIST) 여의도 디지털금융대학원에서 한국핀테크지원센터 등과 '핀테크 해외진출 설명회'를 열고 이같이 밝혔다.이 자리에서 이명순 금감원 수석부원장은 "국내 핀테크기업의 해외진출 지원을 위해 해외 IR 실시, 해외 네트워크 구축 지원, 현지 감독기구와의 협력 등 다각적인 방안을 추진하겠다"고 밝혔다.이근주 한국핀테크산업협회장은 글로벌 신시장 진출의 필요성을 강조하며 "세계적으로 인정받는 K-핀테크가 많이 등장하고, 우리나라가 세계 디지털금융 중심지로 도약하기를 기대한다"고 말했다.금감원은 지난 8월 이복현 원장 주재로 진행한 빅테크·핀테크 업계 간담회에서 해외 진출 관련 정보 부족 등의 애로사항을 청취한 뒤 이번 설명회를 추진했다.설명회에선 금감원과 소셜컨설팅그룹, 핀테크지원센터가 해외 인허가·샌드박스 제도, 해외진출 절차, 해외진출 지원사업 등을 소개했다. 이어 토스, 카사코리아, 에이젠글로벌의 해외진출 사례 발표가 진행됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>‘이자 장사꾼’ 꼬리표에 좌불안석 은행들</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000062318?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>7월부터 ‘예대금리차 공시’ 시작…‘착시 현상’ 보완했지만 실효성은 여전히 논란[비즈니스 포커스]8월 22일 서울 시내에 주요 은행들의 현금인출기가 설치되어 있다. (사진=연합뉴스)8월에 이어 9월에 발표된 예대금리차 공시로 은행권이 또 한 번 시끌시끌했다. 예대금리차가 가장 큰 은행으로 집계될 경우 ‘이자 장사’를 가장 많이 한 곳으로 여겨질 수 있기 때문이다. 이 때문인지 예대금리차가 상대적으로 큰 곳으로 발표된 곳들은 부랴부랴 해명 자료를 내놓기에 바빴다. 예대금리차는 가계 대출 금리에서 예금 금리를 뺀 것이다. 예대금리차가 타 은행과 비교해 상대적으로 크다는 것은 ‘산술적으로’ 대출과 예금 금리 격차에 따른 마진이 많다는 것이다. 은행의 수익과도 직결된다는 점에서 다양한 반응을 불러일으키고 있다. 오히려 벌어진 예대금리차…순위도 뒤바뀌어 9월 20일 은행연합회에 따르면 5대 시중은행 가운데 예대금리차가 가장 컸던 곳은 NH농협은행이었다. 은행연합회 소비자 포털에 공시된 ‘예대금리차 비교 통계’에 따르면 8월 주요 시중은행의 가계 예대금리차는 NH농협은행이 1.76%포인트로 가장 높았다. 뒤를 이어 신한은행 1.65%포인트, 우리은행 1.57%포인트, KB국민은행 1.43%포인트, 하나은행 1.12%포인트 순으로 나타났다. 예대금리차 비교 통계는 지난 7월부터 19개 은행의 월별 예대금리차를 은행연합회 포털을 통해 공개됐다. 은행권은 첫 공시 이후 저소득·저신용 서민 대상의 정책금융 상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상이 있었다고 해명했다. 이에 따라 8월 통계부터는 일부 정책 금융 상품을 제외한 예대금리차가 따로 공개됐다. 가계 대출 중 정책 서민 금융 상품(햇살론뱅크, 햇살론15, 안전망대출)을 제외한 예대금리차에서 5대 은행 중 1위는 NH농협은행(1.73%포인트)이었다. 이어 KB국민은행 1.40%포인트, 우리은행 1.37%포인트, 신한은행 1.36%포인트, 하나은행 1.09%포인트로 뒤를 이었다. 정책 금융 상품을 제외한 예대금리차도 공개됐지만 이번 공시가 발표된 후에도 은행권의 해명은 이어졌다. NH농협은행 관계자는 “대출 금리는 다른 은행보다 낮았지만 8월 단기성(6개월 미만) 정부 정책 자금을 많이 취급(수신)하면서 예금 금리도 떨어져 예대금리차가 커졌다”고 설명했다. 인터넷 은행 중에서는 토스뱅크의 가계 예대금리차가 4.76%포인트로 최대였다. 케이뱅크는3.13%포인트, 카카오뱅크는 1.86%포인트로 뒤를 이었다. 지방 은행과 외국계 은행을 포함해 오늘 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행으로 5.66%포인트였다. 예대금리차 공시가 시행된 지 두 달밖에 되지 않았지만 8월 결과를 보면 예대금리차는 오히려 더 커졌다. 이는 대출 금리는 크게 올리고 예금 금리는 상대적으로 적게 올린 영향이다. 순위에도 큰 변화가 생겼다. 7월 순위는 신한-우리-NH농협-KB국민-하나였지만 8월은 NH농협-신한-우리-KB국민-하나로 바뀌었다. 매달 은행의 자금 조달이나 운용 상황이 바뀌기 때문에 매달 결과가 뒤바뀔 수밖에 없는 구조인 것이다.  금리 인상 기조로 예금으로 몰리는 돈금융위원회와 금융감독원은 공시를 통해 은행들의 예대금리차를 줄이려는 목적을 갖고 있다. 실제로 코로나19 기간이었던 지난 2년간 국내 은행의 예대금리차는 계속 커진 것으로 나타났다.9월 11일 국회 정무위원회 소속 김성주 더불어민주당 의원(전북 전주시병)이 금융감독원에서 받은 자료를 보면 국내 은행의 예대금리차는 2020년 3분기 2.03%포인트(대출 금리 2.87%, 예금 금리 0.84%)에서 그 폭이 꾸준히 확대돼 올해 2분기 2.40%포인트(대출 금리 3.57%, 예금 금리 1.17%)로 집계됐다.문제는 착시 현상이다. 중금리 대출 상품을 이용하는 중저신용자가 몰리는 은행들의 예대금리차는 높을 수밖에 없다. 금융 당국은 이러한 문제점을 보완하기 위해 햇살론 등 서민 대상의 정책 금융 상품을 제외한 통계 결과도 내놓았지만 일부 상품은 여전히 포함돼 있었다. KB국민은행 관계자는 “은행권에서 대출을 받기 어려운 금융 소외 계층을 위한 서민 대출 상품인 새희망홀씨대출을 8월에 다른 은행의 2배 이상 규모로 취급했다”고 말했다. 햇살론 등 서민 대상의 정책 금융 상품이 제외됐지만 새희망홀씨대출은 제외 상품에 포함되지 않았다.새희망홀씨대출은 연소득 3500만원 이하 또는 연소득 4500만원 이하이면서 신용 평점 하위 20%인 이들을 대상으로 연 10.5% 이내 금리로 최대 3000만원까지 빌려주는 서민 금융 상품이다. KB국민은행의 상반기 새희망홀씨 실적은 2527억원으로 시중 5대 은행 중 가장 많았다. 또 중저신용자의 비율이 높은 지방 은행과 인터넷 은행의 예대금리차가 시중은행보다 월등하게 높다는 점은 8월에도 이어졌다. 5대 은행의 예대금리차가 1.50%포인트였지만 6개 지방 은행의 예대금리차는 2.87%포인트였다. 인터넷 은행의 평균 예대금리차는 3.28%포인트다. 착시 현상을 방지하기 위해 은행연합회는 중저신용자 대출 비율에 영향을 받지 않는 신용 점수 구간별 대출 금리와 예대금리차를 함께 공시했고 평균 신용 점수도 공시하고 있다. 하지만 소비자가 별도의 정보 검색을 따로 해야 한다는 점은 보완점으로 여겨진다. 소비자들에게 예대금리차가 원하는 만큼의 정보를 줄 수 있느냐도 미지수다. 은행 관계자는 “소비자마다 신용 점수가 다르고 은행마다 예금과 대출 상품의 세부적 조건이 다른 만큼 예대금리차만으로 비교하는 것은 무리가 있다”고 말했다. 예대금리차는 한동안 은행권에 ‘핫 이슈’가 될 것으로 보인다. 뭉칫돈이 예금에 몰리고 있기 때문이다. 주식과 부동산 시장의 변동성이 커진 상황에서 예금은 가장 안전한 수단이 됐다. 미국 중앙은행(Fed)의 기준금리 인상에 발 맞춰 한국은행 역시 10월에 금리 인상을 시사했다. 앞으로 금리는 더 오를 가능성이 높다. 실제로 예금 금리는 연 4%대를 눈앞에 두고 있다. 9월 23일 은행연합회 공시에 따르면 5대 은행의 예금 최고 금리가 3% 후반대로 나타났다. 우리은행의 정기예금 ‘WON플러스예금’은 기본 금리 연 3.69%, 최고 금리 3.99%다. NH농협은행의 ‘NH왈츠회전예금’의 최고 금리는 3.5%다. 이 밖에 신한은행의 ‘쏠편한정기예금’과 하나은행의 ‘하나의정기예금’은 각각 최고 금리 연 3.8%를 제공한다. 김기명 한국투자증권 애널리스트는 “예대금리차 공시가 이제 막 시작된 단계이고 금융 당국의 이자 수익 추구에 대한 억제 의지가 강한 점을 감안하면 기준금리 인상 등으로 대출 금리 상승이 불가피한 국면에서는 예금 금리가 최소한 대출 금리 상승분 이상으로 빠르게 상승할 가능성이 있다”고 분석했다. 또 향후에도 상당 기간 은행채의 상대적 조달 금리의 경쟁력을 높여 은행채 발행이 늘어나는 결과로 연결될 수 있다고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>빅테크에 대적할 카드사 '오픈페이' 나온다…'반쪽 동맹' 우려도</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004804289?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이네이버페이와 카카오페이 등 빅테크(대형IT기업)의 간편결제 서비스에 대응하기 위한 카드사들의 공동 간편결제 서비스 '오픈페이'가 이르면 이달 말 시작한다. 다만 삼성카드와 현대카드 등 일부 카드사들이 오픈페이에 불참하면서 '반쪽 동맹'에 그치는 것 아니냐는 우려가 제기된다.11일 카드업계에 따르면 신한·KB국민·롯데·하나·BC·NH농협 등이 공동으로 추진 중인 오픈페이가 이르면 이달 말부터 순차적으로 서비스를 개시한다. 각 카드사는 마지막 테스트 과정을 거쳐 서비스 출시 일정을 최종 조율 중이다. 신한카드와 KB국민카드, 하나카드는 이르면 이달 말부터, 나머지 카드사들은 연내 순차적으로 서비스를 내놓을 계획이다.오픈페이는 은행권의 오픈뱅킹과 유사한 개념이다. 카드사 앱(애플리케이션) 하나만 설치하면 여기에 다른 카드사의 카드를 등록해 간편결제 때 사용할 수 있다.카드사들이 '결제 동맹'을 맺은 건 가파르게 성장하고 있는 간편결제 시장에서 빅테크의 점유율이 갈수록 높아지고 있기 때문이다.한국은행에 따르면 올해 상반기 모바일기기 등을 통한 결제는 하루 평균 1조3000원으로, 1년 전보다 12.6% 늘었다. 이중 카드 기반 간편결제 서비스를 이용하는 비중은 45.1%로 절반 가까이 차지했다. 1년 전(41.4%)보다 비중이 4.1%P(포인트) 증가했다.특히 카드 기반 간편결제 서비스 중 네이버페이와 카카오페이, 토스 등 핀테크 기업이 제공하는 서비스를 이용한 비중은 66%에 달해 카드사(34%)를 압도했다. 이 비중은 지난해 상반기 63%, 지난해 하반기 65%에서 더 확대됐다.한 카드사 관계자는 "간편송금을 앞세운 빅테크 공습에 은행들이 오픈뱅킹 등 앱 서비스를 고도화하는 데 주력하면서 지금은 시중은행 앱과 빅테크 앱 경쟁력 차이가 크게 줄었다"며 "오픈페이 서비스가 시장에 안착하면 빅테크가 주류인 간편결제 시장 판도도 변화할 것"이라고 말했다.다만 업계에서는 삼성카드와 현대카드, 우리카드가 초기 오픈페이 참여를 보류하면서 '반쪽짜리' 서비스가 될 수도 있다는 우려가 나온다. 참여 카드사가 줄면 그만큼 서비스의 범용성과 편의성이 떨어져서다.삼성카드는 그룹 핵심인 삼성전자 갤럭시 스마트폰의 '삼성페이'가 있어 다른 간편결제 서비스 참여가 어렵고, 현대카드는 연내 도입설이 제기되는 '애플페이'에 주력하는 모양새다. 여전히 오픈페이 참여 여부를 검토 중이라는 우리카드는 지난 8월 우리금융그룹 차원에서 내놓은 통합결제플랫폼 역량을 키우는 데 당분간 집중한다는 계획이다.카드업계 관계자는 "오픈페이가 출시되면 카드사들의 앱 서비스가 확대되고, 간편결제 시장에서의 경쟁력도 높아질 것"이라면서도 "중소형 카드사들의 경우 오픈페이가 대형사에 유리한 구도로 흘러갈 수밖에 없어 자칫 고객을 뺏길 수 있다는 불안감도 존재한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"고객정보 팔아 290억 챙겨"…토스 "법적 문제없다"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001057579?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카가 마이데이터 사업자 자격을 이용해 '소개 수수료'를 받고 보험 설계사들에게 이용자 정보를 유상판매한 뒤에 뒤늦게 이용자들에게 고지했다는 주장이 나왔다.3일 국회 정무위원회 소속 황운하 의원이 비바리퍼블리카에서 제출받은 자료에 따르면 이 회사는 2018년부터 지난달까지 법인 보험 대리점 '리드' 매출로 290억2천만 원을 기록했다.리드는 보험상담 신청 고객 중에서 법인 보험 대리점과 실제로 연결돼 매출 정산 대상이 되는 고객 데이터를 뜻한다. 토스 애플리케이션에서 보험 상담을 신청한 이용자 개인·신용정보 84만9천501 건이 대상이다.황 의원 측에 따르면 비바리퍼블리카는 지난 1월 마이데이터 사업자 자격을 취득해 '데이터 판매 및 중개 업무'를 하고 있다. 마이데이터 서비스는 소비자가 여러 금융사에 분산된 자신의 신용 정보를 받아 통합 조회할 수 있는 서비스다. 서비스 사업자는 제삼자에게 이를 제공하는 대가로 '소개 수수료'를 받는다.문제가 된 유료 과금 모델은 지난 2월부터 시작됐다. 황 의원 측은 이 서비스를 사전고지 없이 운영하다 논란이 일자, 비바리퍼블리카는 지난 6월 '설계사가 고객과 상담을 위해 비용을 지불할 수도 있다'는 내용을 이용 약관에 포함했다고 주장했다.그러면서 "마이데이터 사업자가 개인정보를 제삼자에게 판매할 때 유상 판매 여부, 대가 등을 소비자에게 알리도록 하는 개인정보보호법·개인신용정보보호법 개정안을 준비하고 있다"고 밝혔다.이에 대해 비바리퍼블리카 관계자는 연합뉴스와 통화에서 "이용자 개인·신용정보 84만9천501 건은 지난 4년간 토스에 보험상담을 신청하고, 이름·생년월일·보험연령·성별·보험가입정보 등 필수 개인정보 제공에 동의한 고객의 규모"라고 설명했다. 이어 "리드 매출 290억2천만 원도 '개인정보를 판매'해서 얻은 이익이 아니라 지난 4년 동안 토스 보험사업의 총 매출 규모로 보는 편이 타당하다"고 말했다.이 관계자는 "마이데이터 사업자가 이용자 동의를 받고 개인정보를 제삼자에게 유상으로 판매하는 것은 법률적으로 문제가 없다"면서 "약관에 넣은 것도 이 점을 명확하게 고지하고 고객을 보호하기 위해서"라고 해명했다. 특히 "고객 동의 없는 무분별한 개인정보 판매로 부당한 이익을 얻은 바 없다"고 강조했다.이어 "보험업계 내 이용자 정보가 무분별하게 유통되는 것을 막기 위해 일회용 안심번호 등 기술적인 안전장치를 마련했으며, 고객이 더 상담을 원하지 않으면 제공된 정보는 즉시 삭제한다"고 덧붙였다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005338802?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>LG유플러스 이어 SKT와도 도매제공 계약지금은 일몰됐지만 SKT가 도매제공 의무사업자여서 가능도매대가도 KB국민은행에 유리한 것으로 전해져알뜰폰, 기존 통신사와 품질차이 없어전국이동통신유통협회, 국민은행 노조는 알뜰폰 철수 요구중[이데일리 김현아 기자][디자인=이데일리 이미나 기자]KB국민은행이 SK텔레콤 이동통신망을 빌려 알뜰폰 사업을 시작한다. 지금은 LG유플러스와 제휴해 알뜰폰을 제공 중인데, SK텔레콤과도 계약해 이르면 이달 중 SK 통신망으로도 알뜰폰 서비스를 시작한다. LG유플러스 이어 SKT와도 도매제공 계약11일 업계에 따르면 KB국민은행은 SK텔레콤과 도매제공 계약을 마치고 알뜰폰 서비스 출시를 앞두고 있다. KB국민은행과 SK텔레콤간 계약은 SK텔레콤이 전기통신사업법상 도매제공의무사업자여서 가능했다. 지난 9월 22일 해당 규제는 일몰됐지만 이전까지는 누구라도 ‘통신망을 빌려달라’고 요구하면 이를 거부할 수 없었기 때문이다. 또한, 도매대가 역시 정부가 통제하는 바람에, 특정한 형태의 계약체결을 사실상 강제받은 것으로 전해진다.70여 개에 달하는 국내 알뜰폰 회사중 3분의1 이상은 복수 통신사(MNO)와 계약해 서비스를 제공 중이다. 3개 이통사를 이용하는 곳은 LG헬로비전, 큰사람, 아이즈비전, 유니컴즈, 에스원 등이고, 2개 통신사와 계약한 회사는 프리텔레콤, 스마텔, 한국케이블텔레콤, 조이텔, 에넥스텔레콤, 코드모바일, 머천드코리아, 와이엘랜드, 세종텔레콤, ACN코리아 등이다.기존 통신사와 품질차이 없어…은행 1등+이통1등 시너지도KB국민은행의 SK텔레콤 통신망 기반 알뜰폰 서비스는 고물가 시대에 50% 이상 저렴한 알뜰폰 활성화에 도움이 될 전망이다. 알뜰폰은 이동통신사의 망을 빌려 이용자에게 통신서비스를 제공하는 것이어서 기존 통신사와 통신 품질 차이가 없다.국민은행은 2019년 12월 첫 서비스를 시작했는데, 2020년 9만 1000명에서 2021년 22만 8000명, 2022년 4월 현재 27만 명으로 늘었다. 국민은행의 알뜰폰 시장 진출은 ‘혁신금융서비스’ 지정을 통해 이뤄졌다. 통신업은 은행 고유업무와 연관성이 부족해 은행이 할 수 없는데, 금융규제 샌드박스로 알뜰폰 사업에 들어온 것이다. 2년마다 심사하는데 한 차례 연장돼 2023년 4월까지로 사업기한이 정해졌다. 다만, 금융위원회는 창구판매로인한 업무 과중을 비판했던 국민은행 노조 요구를 받아들여 비대면 채널(온라인, 콜센터)위주로 가입을 받게 했다.장기적으로는 금융과 통신의 융합 서비스도 활발해질 전망이다. 은행 1등인 KB은행과 이동통신 1등인 SK텔레콤간 시너지도 예상된다. 금융앱 ‘토스’를 운영하는 비바리퍼블리카는 알뜰폰 업체인 머천드코리아를 인수해 토스 앱에서 알뜰폰 가입과 개통을 준비 중이다. 이번에 KB국민은행이 SK텔레콤과도 알뜰폰 사업에서 제휴하면서, 국민은행에 알뜰폰 시장 철수를 요구했던 전국이동통신유통협회와 국민은행 노조는 반발할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>보험사 대부분 정보통신망 허술…'정보보호' 인증 안받아</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000377598?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>은행과 보험엄계의 전반적인 정보 보안 관리 체계가 허술하다는 주장이 제기됐다. 특히 보험사 10개 중 9개는 정보 보호 관리 체계(ISMS) 및 개인정보 보호(ISMS-P) 인증을 받지 않은 것으로 나타났다.10일 국회 정무위원회 양정숙 의원이 금융감독원과 한국인터넷진흥원으로부터 제출받은 자료에 따르면 보험사 61개사 중 54개사, 은행 20개사 중 7개사가 ISMS와 ISMS-P 중 어느 하나도 인증받지 않은 것으로 나타났다.ISMS와 ISMS-P는 정보통신망의 안정성·신뢰성 확보를 위한 기술적 보호조치 또는 개인정보 처리 및 보호와 관련한 조치가 법에 부합하는지를 과기정통부와 개인정보보호위원회가 인증하는 제도다.61개 생명·손해보험사 중 삼성화재와 현대해상, DB손해보험, 한화손해보험, KB손해보험, 삼성생명 등 7개사만 ISMS와 ISMS-P 인증을 받았다.이들 보험사를 제외한 농협생명, 신한라이프, 미래에셋생명, 하나생명, 메리츠화재, 롯데손해보험 등 대부분의 보험사가 인증을 받지 않았다.은행의 경우 국책은행인 산업은행과 수출입은행이 ISMS와 ISMS-P 인증을 받지 않았다. 한국씨티은행, 제주은행, 토스뱅크 등도 인증이 없었다. 양정숙 의원은 "금융권에서 정보통신망과 정보보안에 구멍이 생기거나 장애가 발생하면 국가 경제 전체가 마비되는 대혼란을 초래한다"며 "금융사들이 정보통신망 보호, 유지 관리를 최우선 과제로 삼아야 할 것"이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.10.09.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>부산 창업가 고군분투기 담은 다큐, 커뮤니티비프서 첫선</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001178101?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>27회 BIFF ‘영화제 속 영화제’10일 남포동 롯데시네마서 상영김민지·정성준 등 창업가 대거 등장부산 스타트업 창업가가 등장하는 ‘THE 창업가 : Busan Dynamics’ 스틸컷. 코리아스타트업포럼 제공부산 스타트업 창업가의 고군분투기를 담은 단편 다큐멘터리가 부산국제영화제 커뮤니티비프에서 첫선을 보인다. 지난해 한국 창업가의 이야기를 담은 다큐에 이어 두 번째다.코리아스타트업포럼(코스포)은 부산 창업가의 일상과 도전 정신을 담은 다큐멘터리 ‘THE창업가 : Busan Dynamics(더창업가 : 부산 다이내믹스)’를 10일 부산 중구 남포동 롯데시네마 대영에서 첫 상영한다고 9일 밝혔다. 제27회 부산국제영화제 ‘영화제 속 영화제’ 커뮤니티비프에서 선보인다.이날 상영회에는 영화에 출연한 부산 스타트업 창업가를 비롯해 코스포 관계자, 제작을 맡은 파라프로젝트 관계자 등 130여 명이 참석한다. 관객과의 대화도 예정돼 있다.이 작품은 25분 길이의 단편 다큐다. 부산에서 꿈과 희망을 품고 세상에 도전하는 부산 창업가의 이야기를 담았다. 스타트업 생태계의 90%가 수도권에 쏠려 있지만, 부산에서 자부심을 가지고 돌파구를 찾는 창업가의 이야기다.투자 유치나 인재 영입에서 어려움을 겪고, 사업 기회를 찾아 일주일의 절반을 서울에서 보내는 여러 부산 창업가의 모습이 담겼다. 어려움 속에서도 성장한 경험을 후배 창업가에 나눠주며 선순환 문화를 만들기 위해 노력하는 창업가의 면면을 만날 수 있는 작품이다.장애인 채용 및 재택근무 시스템 ‘브이드림’ 김민지 대표, 국내 최대 화훼 플랫폼 ‘플라시스템’ 김태진 대표, 낚시 정보 공유 플랫폼 ‘낚시의맛’ 운영사 ‘커넥트제로’ 이승엽 대표, 중장기 숙박 플랫폼 ‘미스터멘션’ 정성준 대표가 등장한다. 또 레디킨즈, 샤콘느, 알티비피얼라이언스, 푸드트래블 등 부산 유수의 창업가도 출연해 반가움을 더한다.이 작품은 코스포의 다큐멘터리 시리즈 ‘THE창업가’ 두 번째 시리즈다. 지난해 선보인 첫 번째 시리즈에서는 비바리퍼블리카(토스), 소셜빈, 우아한형제들, 지구인컴퍼니, 직방, 컬리, 코드스테이츠 등 한국을 대표하는 스타트업 창업가가 등장했다.‘THE창업가 : 부산 다이내믹스’는 첫 상영 이후 코스포 유튜브 채널과 다양한 온라인 미디어 플랫폼에서 공개할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>알뜰폰 '토스모바일' 준비 완료…금융사 반대하던 업계도 '환영'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005160109?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>3년 전 KB국민은행 '리브엠' 때와업계선 사뭇 다른 분위기머천드 이승훈 대표가 수장 맡아업계 친화적 행보 지향모바일 송금 서비스업체 비바리퍼블리카가 '토스모바일'로 알뜰폰 시장에 진출한다. 오랜만에 알뜰폰 업계를 뒤흔들 '메기'가 등장했지만 3년 전 KB국민은행의 '리브엠' 출시 때와는 분위기가 전혀 다르다. 리브엠이 파격적인 요금제로 기존 사업자들을 뒤흔들었다면 토스는 금융권을 견제하고 시장 규모를 키우는 데 도움을 줄 것으로 기대하고 있다. 11일 업계에 따르면 토스 운영사인 핀테크 기업 비바리퍼블리카는 지난 4일 기존 10년 업력의 알뜰폰 업체인 머천드코리아 지분인수 거래를 종결, 지분 100%를 보유하게 됐다. 새 브랜드명은 '토스모바일'로 확정했다. 현재 홈페이지와 요금제 개편 작업 등을 병행 중이다. 연내 출시를 목표로 준비 중이다.토스모바일은 기존 최고경영자(CEO)였던 이승훈 대표가 수장을 맡는다. 머천드 당시 이승훈·윤기한 대표 체제에서 이승훈 단독 대표체제로 변경 운영된다. 모회사 비바리퍼블리카 임직원 일부도 등기이사로 경영에 참여한다.국내 현행법상 알뜰폰은 허가제가 아닌 등록제로 운영돼 기업 간 거래가 끝나면 별도 절차를 거치지 않고 시장에 진입하게 된다. 현재 국내 알뜰폰 등록사는 총 48개사로 사물인터넷(IoT) 회선 사업자 8개사를 제외하면 40개사에 달한다. 신규 등록이 아닌 기성 업체를 인수한 형태인 만큼 총 숫자는 그대로 유지된다.토스라는 신규 메기의 등장에도 알뜰폰 업계 반응은 중립적이다. 2019년 KB국민은행이 혁신금융서비스(규제샌드박스) 제도를 통해 알뜰폰 브랜드 리브엠을 선보였을 당시와는 사뭇 다른 양상이다. 리브엠은 주력 상품으로 데이터 11GB의 4만4000원 요금제를 출시하고 초기 신규가입 이벤트로 '반값' 행사를 내걸었다. 반값 할인을 위한 조건은 '국민은행 통장 보유'로 1년간 2만2000원을 내걸었다. 당시 알뜰폰 경쟁사들의 유사 요금제는 3만5000~4만원대, 대형 3사의 LTE 주력 요금제가 6만원대 수준이었다. 알뜰폰 업계에선 "자본력이 큰 은행이 도매대가 이하로 제공해 업계 출혈경쟁을 조장한다"는 반발이 들끓었다.이후 금융권에서 비슷한 조건으로 알뜰폰 시장에 뛰어들려 할 때마다 기존 알뜰폰 업체들은 반발해왔다. 알뜰폰으로 수익을 내지 않아도 되는 금융권이 파격적인 결합상품 등으로 시장을 왜곡시킬 수 있다는 우려 때문이다. 토스의 경우 알뜰폰 업계가 오히려 환영하는 분위기다. 출혈 경쟁 대신 후불폰 중심의 사업에 주력하겠다는 사업계획도 알뜰폰 시장 도입 취지를 반영했다는 평가도 이어진다.비바리퍼블리카 관계자는 "토스모바일은 알뜰폰 시장 저변을 넓히고 가계 통신비 인하라는 알뜰폰 시장 도입 취지에 발맞춘 사업 계획을 갖고 있다"면서 "앞으로 출시 예정인 토스모바일 상품도 출혈경쟁 없는 후불 중심의 수요를 반영한 상품이 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>한국 최대 원격의료, 대표는 25살 의대생 [쫌아는기자들]</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003719797?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>@주3회 발행하는 뉴스레터 [스타트업]입니다. 가입은 https://page.stibee.com/subscriptions/143087 입니다.“OECD 국가 중에서 원격 진료가 가능한 나라는 몇 곳일까요?” 닥터나우 장지호 창업가가 되레 기자에게 질문했습니다. 뜻밖의 질문에 멈칫하자, “38개 OECD 국가 중에서 몇 곳이나 비대면 진료를 허용하고 있을까요?”라고 재차 묻습니다.“한 절반쯤이지 않을까요? 20곳?”이란 기자의 답변에 장 창업가는 “많이들 그렇게 생각을 하시는데요. 사실은 OECD 38개 국가 중에 37개 국가가 허용을 하고 있습니다. 한국 빼고 다 하고 있죠. 일본도 예전엔 재진(두번째 진료)부터 원격 진료 허용했다가 이번 코로나때부터 풀었죠. G7 국가는 모두 초진(첫 진료)부터 원격 진료를 허용하고 있습니다.”1997년생인데다 한양대학교 의학과를 휴학한 장 대표는 흔히 말하는 ‘젊은 패기의 창업’만은 아니었습니다. 치밀한 계산과 계획, 그리고 꽤 오랜 시간과 시행착오를 견딘 창업이었다는걸 90분간의 인터뷰로 깨달았습니다. 2000억원 기업가치 회사 만든 25살 창업가, 닥터나우 장지호							닥터나우는 2022년 6월, 투자의 빙하기에 400억원의 투자를 유치했습니다. 올해 25세인 장지호 창업가는 2022 포브스 선정, 30세 이하 아시아 리더 30인이기도 합니다. 닥터나우는 스마트폰앱에서 의사의 진료를 받고, 집에서 약을 배달받는 서비스입니다. 병원과 약국을 안 가도, 의료를 받을 수 있도록 돕는 스타트업입니다. 한국은 원격 진료가 불법이지만, 현재는 코로나 팬데믹으로 예외적으로 허용한 상황입니다.대학 1학년때 하버드 의대 가서, 원격 진료를 구경하던 시절의 장지호 대표/닥터나우 제공  OECD 38국 가운데 비대면 진료 허용국은 37곳... 비허용 한곳이 한국							2022년 2분기 기준으로, 닥터나우 누적 이용자수는 600만명, 누적 다운로드수는 300만건입니다. 제휴의료기관수는 1500곳. 닥터나우에선 내과·이비인후과·소아청소년과·피부과 등 20개의 진료 과목을 서비스합니다.장 대표는 “한국이 원격 진료에선 늦었습니다”라고 말합니다. 하지만 표정에선 실망이라곤 찾아볼 수 없었습니다. 늦은만큼, 미국이나 일본의 원격진료보다 더 좋은 원격진료앱을 만든다는 겁니다. 예컨대 미국은 진료부터 약배달까지 각각 다른 앱들이 시장을 장악하고 있기 때문에 소비자는 여러 앱을 전전하면서 원격 의료를 받습니다. 닥터나우에선 한번에 이뤄집니다.“창업한 이유요? 쫌 길어도 돼요? 2019년 9월에 법인을 세웠습니다. (@당시 장 대표는 한양대 의대를 휴학한 22살 청년이었다.) 할아버지 영향이랄까요? 할아버지께서 마라톤 국대 상비군 출신인데다 특수부대 약간 그런 곳을 나오셔서, 집 분위기가 사회감이라고 해야하나, 그게 좀 강했어요. 초등학교생 때는 원래 전 국민이 매주 토요일엔 봉사를 하는 줄 알았어요.”“당시 대전 살았는데 고등학교 1학년 때 대전역 근처에 노숙인 의료봉사 센터에 봉사갔거든요. 의사·약사 선생님들이 노숙인 건강을 봐주는데, 고등학생 봉사자는 잔심부름했죠. 거동이 불편한 장애인 분들을 대신해서 약도 타다 드리고요. 이런 장면이 있었어요. 예컨대 의사 선생님의 부인이 와서 일을 돕다가, 남편에게 전화해서 이런 분이 계신데, 괜찮은건가, 라고 물어요. 당일 봉사 못오신 의사 선생님은 전화로 거동이 불편한 분들에게 전화로 오늘은 못갔는데 저번과 비교해 몸은 어떠시냐고 물어요. 봉사하는 의사 선생님도, 약사 선생님도, 환자도 모두 좋았습니다. 원격 진료를 간접 체험했습니다. 그때 정했습니다. 원격의료, 나는 의사가 되서, 이걸 해야겠다. 물론 그때는 창업까지 해야하는지는 몰랐지만요. 공부 열심히 해서 의사만 되면 되는줄요.”장지호 대표는 원격 의료 스타트업 창업을 준비하던 대학생 시절에 미국, 일본, 대만 등지를 돌면서 원격 의료 현장을 배웠다. /닥터나우 제공 당시 불법이었던 원격 의료를 목표로 의대 진학을 꿈꾼 고등학교 1학생							고등학교 1학년의 정의감은 대개는 한달짜리일테지만, 장 대표는 의대에 입학했습니다. 입학도 쉽지는 않았답니다.“의대만 6곳을 지원했어요. 면접가면 거의 정해진 질문이 있는데, ‘자네는 왜 의사가 되려고 하나. 무슨 과를 하고 싶나’였어요. 당연히 저는 원격진료를 할 겁니다라고 했죠. 그러면 분위기가 이상해요. 몰랐습니다. 의사 사회는 여러 이유로, 원격진료를 반대한다는 사실을요. 다 떨어지고 한양대 의대 붙었습니다. 한양대 의대는 특이하게도 면접이 없었습니다. 나중에 부모님이 ‘한양대에 감사한 줄 알아야한다’고 말씀하시더라구요. 하지만 저는 원격진료하려고 의대를 들어가려던거, 그게 사실이었으니까요. 입학하고도 줄곧 주변 동기들에게 그런 얘기를 했구요.”“우리 집에서 제가 첫 의대생인데, 본래 집안에 의사 한명 있으면 좋다잖아요? 그걸 알겠더라구요. 너무 좋은거예요. 공부하다가 눈에 빨개지고 뭐가 들어간 것 같으면, 눈 사진 찍어서 카톡으로 안과 선배한테 보내면 바로 연락와요. 축구하다가 접지르면 바로 지인이 달려와서 조치해주고. 사실 의사들끼리는 원격 진료를 하고 있는 셈이죠. 의사가 없었던 집안에서 태어나면 의사 한번 보기도 이렇게 힘들었는데 의대에 들어오고 나니까 의사들을 편하게 만날 수 있어요. 모든 사람이 그랬으면 좋겠다 했죠.”“대학교 1학년 때 미국의 텔라닥이라는 원격 진료 회사에 가봤습니다. 원격 진료 회사를 직접 가보고 싶었어요. 미국 하버드 의대, 스탠퍼드 병원에서는 원격 진료 어떻게 하는지 궁금했고요. 4년전엔 일본에도 갔어요. 일본의 원격 진료 스타트업에 가서, 뭐가 힘든지 물었어요. 그때가 일본이 재진부터 원격 진료 허용한 시점이었습니다.”쫌아는기자들 시즌6의 열번째 인터뷰는 닥터나우의 장지호 창업가입니다. 그는 “목표요? 유니콘 아니라, 데카콘입니다”고 합니다. 데카콘은 기업 가치 10조원의 비상장 기업을 뜻합니다.한국 원격의료의 씨앗은 2019년 12월...의대생, 디자이너, 엔지니어, 휴학생 4명 창업팀 -창업한 2019년, 그때까지만 해도 원격진료는 불법이란 인식이 강했던 시점입니다. 코로나 탓에 일부 규제 완화됐지만요.“OECD 를 따라 한국도 원격진료 풀 것이라고 믿었습니다. 국민 총의료비가 오르고있고, 따라서 건강보험료도 상승하는데 정부로선 병이 퍼져서 수술하고 큰 돈이 나가는 것보다 어떻게든 예방으로 막는게 목표가 될 것 아니겠어요? G7도 모두 초진부터 원격 진료 하고 있고, 이제는 OECD도 다 하고 있으니까. 한국도 3~4년 내로는 그렇게 될 수밖에 없겠다는 생각을 가지고, 2019년 9월에 회사를 설립했었습니다. 의대를 다니면서 팀을 짰고요. 진짜 시작한건 2019년 12월입니다. 창업팀은 그때 4명이었습니다.”-본인은 그렇다치더라도, 당시 불법인 원격진료로 창업하자고, 다른 창업팀 3명을 어떻게 설득했어요?“아무것도 아닌 의대생이잖아요. 누가 같이 창업을 하려고 해요? 의대 수업은 가끔씩 좀 많이 빼먹고 공대나 디자인 청감 같은 걸 많이 들었거든요. 디자인 청강하다가 디자이너 교수님께서 세계 3대 디자이너 어워드라는 게 있는데 그 상을 받으면 LG나 삼성 같은 데에 바로 들어갈 수 있다고 하시더라고요. 꿈을 꿨죠. ‘내가 세계 3대 디자이너 어워드를 받고 시상식에 가면 내 옆에는 LG와 삼성 디자이너들이 있지 않을까. 그들을 통하면 창업팀 디자인 멤버를 소개받을 수 있지 않을까?’”“꼬박 하루밤 새면서 의료기기 같은 디바이스의 디자인을 했어요. 대략 컨셉트 스케치를 하고, 디자인과 다니는 친구한테 10만 원 주고 수정 부탁하고요. 굉장히 운이 좋아서 세계 3대 디자인 어워드 중에 하나인 IDEA 본상을 받았어요. 2019년 창업하기 전의 일입니다. 제 기억으론 의사로서는 세계 최초로 알고 있는데, 아, 저 아직 의사 아니죠. 하하. 근데 학교 시험이 겹쳐서 시상식은 못갔어요. 수상자 모임 같은 곳을 통해 창업팀 디자이너를 소개받았습니다.”“제가 개발을 거의 못하잖아요. 개발 동아리에 들어갔어요. 옆에 앉아 있는 사람이 개발 신동이래요. 하하. 대학교의 모든 건물에다가, ‘우리 원격 진료와 약배달할 건데 같이 할 사람’ 공고를 붙였어요. 네이버 인턴하던 친구가 공고를 보고 찾아왔어요. 설득했죠. 네이버에는 너 한 명 있나 마나 티도 안 나지만,이거는 정말로 시대를 바꿀 수 있다. 그렇게 4명의 휴학생이 창업했죠. 의대생과 엔지니어 2명, 디자이너 한 명.” 이용자수 600만명과 제휴 의료기관 1500곳, 단 18개월만에 한국 최대 원격 의료 서비스로 -창업한 다음해인 2020년, 코로나 팬데믹이 왔죠?“2019년 12월에 창업팀 셋팅했는데 3개월 뒤에 코로나라는 게 터졌고 복지부가 비대면 진료가 명시적으로 허용했어요. 약 배달도요. (@닥터나우는 초창기엔 코로나 확진자가 앱에서 진료받고, 코로나 관련 약을 처방받고, 해당약을 집으로 보내주는 서비스를 했다.) 이용자 많이 늘었죠. 당시에 너무 작았던 때여서, 그 트래픽 견디기도 사실 힘들었어요. 서버도 막 터지고 난리가 아니었습니다. 그런 과정을 거치면서 이제는 그때랑 비교도 안 되게 체력도 많이 올라갔습니다. 닥터나우에서 진료봐주시는 의사 선생님도 굉장히 많이 늘었습니다. 올해가 2022년이니까 3년이네요.”“닥터나우는 딱 한마디로 설명을 드리면 원격 진료와 약 배달 서비스합니다. 이를 기반으로 의료 소비자들을 모아서 아플 때 떠오르는, 의료 슈퍼 앱이 되는 게 목표이고요. 법인은 설립한지 3년됐고, 닥터나우라는 서비스가 나온지는 1년반이 조금 넘었습니다. 직원은 75명 정도입니다.”“비대면으로 전화나 화상으로 의사와 만나는 원격 진료를 받을 수 있고, 그다음에 약도 1시간 내로 배달받을 수 있는 서비스입니다. 모든 질병을 모두 대상으로 합니다. 마약류 같은 처방을 제외하고요. 요즘에는 의료 소비자께 본인의 10년 치 건강검진 데이터를 앱에서 보는 서비스도 제공합니다. 10년 치 병원 방문 내역과 약국에서 어떤 약을 며칠치 처방받았는지도 닥터나우 앱에서 보여줍니다. 실시간 건강 상담 서비스도 합니다. "“이럴때 있지 않나요? 진료까지 받고 싶지는 않은데, 돈 내고 싶지는 않은데, 약간 좀 애매한 것들요. 예를 들면 술 마시고 지금 머리가 아파서 약 먹어야 되는데 약국서 뭘 사야할지 궁금할 때. 저희가 직접 파트너 의사 선생님, 간호사 선생님 몇 분을 고용해서 이런 질문에 5분내에 실시간으로 답변해줍니다. 무료입니다. 쉽게 얘기하면 의료 관련 지식인하고 똑같죠. 지식인은 맨날 병원 광고밖에 없는데다 오늘 질문하면 4~5일 뒤에 답변이 오지만, 닥터나우는 24시간 서비스라서, 언제라도 5분내 답변해줍니다. 유학생들도 굉장히 많이 이용하더라구요, 이 서비스를. 말하자면 의료 관련한, 무료 원격 상담이죠.”[오늘의 무료 콘텐츠는 여기까지이고, 전문은 유료 구독자에게 공개합니다. 유료 구독자는 2021년 3월 이후에 발행한 모든 콘텐츠를 볼 수 있습니다. 아래는 전문에 나온, 부제와 사진, 그래픽입니다.　유료 가입 https://page.stibee.com/subscriptions/158656 입니다.]장지호 대표는 원격 의료 스타트업 창업을 준비하던 대학생 시절에 미국, 일본, 대만 등지를 돌면서 원격 의료 현장을 배웠다. /닥터나우 제공  코로나 확진자 대응에서 시작해... 내과, 이비인후과, 소아청소년과, 피부과 등 20개 과목 진료 -내과만 되는줄 알았어요. 닥터나우 앱에서 산부인과 같은 것도 가능한가요?-현재 이런 모든 서비스가 무료잖아요? 수익 모델은요? 한국인은 연간 17회 병원 가.. OECD 평균의 3배. 하지만 의사수는 OECD 최하위 -의료 분야에서 아직 데카콘이 안 나온 이유가 있죠. 프리퀀시(frequency, 이용주기)가 낮다는.-다운로드로 보면 목표는 누적 1000만명 정도?장지호 대표는 원격 의료 스타트업 창업을 준비하던 대학생 시절에 미국, 일본, 대만 등지를 돌면서 원격 의료 현장을 배웠다. /닥터나우 제공 창업 3년째지만 아직 매출은 제로 -매출이 현재 제로? 언제 첫 매출이 나올까요?-닥터나우가 원격의료 독식? 경쟁자는요?“처음엔 약국 1000곳 직접 가서, 제휴 요청했지만, 100곳 가면 한곳 될까말까 였다” -힘들었던 때는 없나요?-의사와 약사들은 닥터나우의 등장이 싫었던게 아닐까요? 밥그릇 뺏어간다고?  닥터나우 앱의 리뷰 글 일부 발췌. /닥터나우 제공 “한국서 데카콘 나올 분야는 이제 의료 분야 정도가 남았습니다.”							-닥터나우의 미션은 ‘우리는 오늘도 사람을 살린다’라고 들었습니다. 동네 병원과 약국은 결국 부동산 게임이자, 인테리어 경쟁.. 진짜 진료 경쟁으로 바꿔야 -해외 진출은 계획하나요?-규제로만 보면 아직은 원격 진료나 약배달이 항구적으로 허용된 상황은 아닙니다.-아까 이승건 토스 창업가를 멘토라고 말씀하셨죠. 그러고보니 이승건 대표는 치대를 나왔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>재즈 오페라 '재즈클럽 밤의 여왕' 15일 인천 공연</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004760663?sid=102</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>인천 부평구문화재단은 이달 15일 오후 3시, 7시에 부평아트센터에서 뮤직오디세이의 재즈 오페라 ‘재즈클럽 밤의 여왕’을 공연한다. 뮤직오디세이는 재즈피아니스트 최부미 씨가 설립한 문화예술 컨텐츠기획그룹으로, 부평아트센터 상주단체다.오페라 마술피리를 재즈로 재해석한 이 작품은 최부미 씨가 예술감독을 맡았다. 클래식, 재즈의 간극을 이어주는 박경태 음악감독, 오페라계에 유능한 젊은 연출가로 존재감을 알리고 있는 조은비 연출이 극의 디테일을 완성했다는 게 부평구문화재단 측 설명이다.오페라 마술피리는 18세기 사회 계몽적 메시지를 가득 담고 있다. 재즈 음악과 함께 한국의 독특한 연출을 더해 색다른 재미를 선사할 것으로 보인다.재즈클럽 밤의 여왕은 재즈뮤지션과 오페라 가수들의 콜라보레이션으로 펼쳐진다.타미노 역의 조철희, 파미나 역의 이한나, 밤의 여왕 역의 오신영, 자라스트로 역의 이승희, 파파게노 역의 한진만, 다메 역의 이세진, 신민정, 류현순, 파파게나 역의 김동연, 모노스타토스 역의 이우진 등의 26명의 출연진이 화려한 무대를 선사한다.피아노 최부미, 드럼 김종현, 베이스 김봉관, 기타 김현동, 바이올린 김희영, 김지하, 비올라 임경민, 첼로 이영진, 색소폰 김찬영, 트럼펫 최규민, 트롬본 김민수 등 11명의 연주자가 아름다운 선율로 무대를 가득 채울 전망이다.최부미 뮤직오디세이 대표는 "위대한 작곡가 모차르트의 작품인 만큼 어떤 작품보다도 공을 많이 들였다"며 "오페라 초심자들도 쉽고 재미있게 볼 수 있는 작품이 될 것"이라고 말했다.인천=강준완 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>금감원, “핀테크 기업 해외진출 지원한다”</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002535935?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>해외 IR, 네트워크 구축 지원, 현지 감독기구와 협력 추진베트남 진출한 토스·에이젠글로벌, 싱가포르 진출한 카사코리아 소개금융감독원이 국내 핀테크 기업들의 해외진출을 적극 지원하겠다고 밝혔다. 이명순 금감원 수석부원장은 14일 오전 서울 영등포구 KAIST 여의도 디지털금융대학원에서 핀테크 해외진출 설명회를 열고 "국내 핀테크 기업의 해외진출 지원을 위해 해외기업설명회(IR) 실시, 해외 네트워크 구축 지원, 현지 감독기구와의 협력 등 다각적인 방안을 추진하겠다"고 밝혔다.설명회에 참석한 이근주 한국핀테크산업협회장도 글로벌 신시장 진출 필요성을 강조하며 "세계적으로 인정받는 K-핀테크가 많이 등장하고, 우리나라가 세계 디지털금융 중심지로 도약하기를 기대한다"고 전했다. 이번 설명회는 지난 8월 30일 이복현 금감원장의 빅테크·핀테크 업계 간담회에서 핀테크 업계가 해외진출에 있어 관련 정보 부족 등 애로사항을 겪고 있다는 의견이 접수된 데 따른 것이다.설명회에서는 핀테크 기업이 해외에 진출한 사례도 소개됐다. 핀테크 기업 비바리퍼블리카가 운영하는 금융플랫폼 토스는 2019년 베트남에 직접 진출해 앱스토어 내 금융부문 4위, 가입자수 1000만 명, 월간활성유저수 300만 명을 달성했다. ‘만보기’ 서비스의 리워드를 이용한 선불충전카드, 현지금융회사 제휴를 통한 은행계좌 개설·카드발급·소액대출 서비스 등을 출시했다. 지난해 8월에는 인도네시아, 9월에는 말레이시아·태국·필리핀·인도 등에 진출했다. 토스와 같은 해 베트남에서 현지기업을 인수한 인공지능(AI) 금융기업 에이젠글로벌은 자사 AI뱅킹 서비스인 ‘크레딧 커넥트’를 런칭해 약 1년 6개월만에 현지 제휴사 117개를 확보하고 있다. 올해는 인도네시아 P2P업체를 인수하기 위해 현지 금융감독청에 승인 신청을 한 상태다. 부동산 조각투자 플랫폼 ‘카사’를 운영 중인 카사코리아는 2020년 7월 해외 진출을 위해 싱가포르 법인을 설립, 지난해 9월 한국계 기업 최초로 싱가포르 통화청으로부터 수익증권 공모와 2차 거래소 라이선스를 모두 획득했다. 올해 안에 싱가포르에서 부동산 디지털수익증권을 발행해 거래서비스를 개시할 예정이다. 이날 설명회에서는 금감원, 소셜컨설팅그룹, 핀테크지원센터 등이 각각 해외 인허가·샌드박스 제도, 해외 진출 절차, 해외 진출 지원사업과 관련해 설명했다.금감원 관계자는 "향후에도 핀테크 기업들의 애로사항을 듣고 이를 해소할 수 있는 다양한 자리를 마련할 계획"이라고 밝혔다.정선형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>'평균 6600만원'…4대 시중은행 중 '연봉 1위' 어디?</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004759234?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>올해 상반기 시중은행 연봉 1위는 '하나은행'사진=연합뉴스올해 상반기 국내 4대 시중은행 가운데 하나은행 직원의 평균 급여가 가장 많은 것으로 나타났다.7일 금융감독원 전자공시에 따르면 올해 상반기 국민 신한 하나 우리은행 등 4대 은행의 직원 1인당 평균 급여는 하나은행이 6600만원으로 가장 많다. 이어 국민(5800만원) 우리(5700만원) 신한은행(5400만원) 순이다.지난해 전체 기준으로는 국민은행이 1억1200만원으로 가장 많았다. 신한(1억690만원) 하나(1억600만원) 우리은행(9586만원) 등이 뒤를 이었다. 금융감독원이 국회 정무위원회 소속 강민국 국민의힘 의원에게 제출한 자료에 따르면 이들 은행의 직원 평균 연봉은 1억519만원으로 집계됐다.4대 시중은행은 지난해 2조원을 웃도는 당기순이익을 거뒀다. 올해에도 견조한 실적이 이어지면서 성과급과 연봉 상승이 이뤄질 가능성이 크다는 관측이 나온다.지난 8월 말 기준 4대 시중은행의 임직원 수는 5만4863명이다. 국민은행이 1만6848명으로 가장 많다. 이어 신한(1만3612명) 우리(1만3042명) 하나은행(1만1361명) 순이다.지난해 인터넷전문은행 3사의 직원 평균 연봉은 9189만원으로 조사됐다. 토스뱅크가 9813만원으로 가장 많았고, 카카오뱅크(9700만원)와 케이뱅크(8054만원)가 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>손정의, 이재용 부회장 만나 ARM 협력 논의할 듯</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000304934?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>손정의 일본 소프트뱅크 회장이 지난 1일 한국을 방문했습니다. 손 회장이 빠른 시일 내에 이재용 삼성전자 부회장을 만나 영국 반도체 설계 회사 ARM과 관련된 협력 방안을 논의할 것으로 보이는데요. 산업계 소식, 김기송 기자와 얘기 나눠보겠습니다. 두 사람이 곧 서울에서 만날 예정이라는 보도가 나오고 있는데 이 부회장과 손정의 회장, 어떤 협력 내용들이 오갈까요?손정의 회장의 소프트뱅크가 지분을 가진 ARM은 스마트폰, 태블릿PC 등 모바일 기기 두뇌에 해당하는 AP 설계 분야에서 전세계 90%의 시장점유율을 갖고 있는 기업인데요.삼성전자 입장에선 ARM에 투자했을 때 주력 제품인 스마트폰에서 모바일 AP 설계 노하우를 전수받는 식의 긴밀한 관계를 유지할 수 있습니다.AI와 로봇, 시스템반도체는 삼성전자가 밝힌 미래 성장엔진이기도 합니다.다만 86조원에 달하는 높은 몸값과 반독점 규제 문제로 삼성전자의 단독 인수 가능성은 희박하게 보고 있습니다.이 때문에 SK하이닉스와 인텔, 퀄컴 등과 함께 공동인수를 하는 시나리오도 그려볼 수 있습니다.시너지 효과를 취하면서도 인수의 부담과 경쟁국의 견제를 피할 수 있는 방향을 택할 것이란 분석이 나옵니다.토스가 고객 정보를 팔아서 300억 가까운 매출을 올렸다고요?더불어민주당 황운하 의원의 주장인데요.토스를 운영하는 비바리퍼블리카가 수수료를 받고 보험 설계사들에게 85만명의 이용자 정보를 팔아 290억원 규모의 이익을 얻었다는 겁니다.토스 측은 "마이데이터 사업자 자격을 올해 1월부터 획득하였기 때문에 관련 법령에 따라 '데이터 판매 및 중개 업무'를 수행할 수 있으므로, 개인·신용정보 판매는 법적으로 문제가 없다"라는 겁니다.하지만 일반 이용자 입장에선 약관을 확인하지 않거나 관련 내용을 잘 모르기 때문에 내 개인정보가 판매되는지 여부 등을 인식하기 쉽지 않습니다."무분별한 개인정보 장사에 대한 제동 장치가 필요하다"는 지적이 잇따르고 있습니다.다른 얘기 해보죠. 내년부터 새벽 택시비가 1만원 이상 오를 것으로 보인다고요?"밤사이 택시잡기가 하늘의 별따기만큼 어렵다"는 지적이 나오면서 오늘(4일) 국토부가 관련 대책을 내놓을 예정인데요.먼저 현재 최고 3천원인 심야시간 호출료를 5천원까지 올릴 예정입니다.서울의 경우 이미 기본요금을 1천원 더 올리고 20%인 심야 할증요율도 최대 40%로 높이는 방안을 마련했는데요.이렇게 되면 내년 2월부터 서울에서 밤12에서 새벽 2시 사이 앱으로 택시를 부르면 기본요금은 6720원, 호출료는 최대 5천원으로 1만원 이상 요금 부담이 늘게 됩니다.이 밖에 택시 '의무 휴업제'를 폐지하고, 택시기사 취업을 위한 절차도 간소화하기로 했습니다.김기송 기자, 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스, 290억원에 '개인정보' 팔았나… "법적 문제 없어"</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000857493?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>/사진=토스 토스를 운영하는 비바리퍼블리카가 '소개 수수료'를 받고 개인정보를 290억원에 팔았다는 지적이 제기됐다. 이용자에게 개인정보 제공 동의 시 유상판매 고지 여부 안내를 사전에 받아야 하지만 사후에 고지했다는 지적도 나왔다.  4일 국회 정무위원회 소속 황운하 더불어민주당이 비바리퍼블리카에서 제출받은 자료에 따르면 토스는 2018년부터 올해 8월까지 법인 보험 대리점 '리드' 매출로 290억2000만원을 거뒀다. 리드는 보험상담 신청 고객 중에서 법인 보험 대리점과 실제로 연결돼 매출 정산 대상이 되는 고객 데이터를 의미한다. 토스 앱에서 보험 상담을 신청한 이용자 개인·신용정보 84만9501건이다. 토스가 고객 데이터를 보험사에 제공하는 대가로 290억원을 벌었다는 지적이다. 토스는 지난 1월 마이데이터 사업자 자격을 취득해 '데이터 판매 및 중개 업무'를 하고 있다. 마이데이터 서비스는 소비자가 여러 금융사에 분산된 자신의 신용 정보를 받아 통합 조회할 수 있는 서비스다. 서비스 사업자는 제3자에게 이를 제공하는 대가로 '소개 수수료'를 받는 구조다. 정치권에선 마이데이터 사업자가 개인정보를 제3자에게 판매할 때 유상 판매 여부, 대가 등을 소비자에게 알리는 개인정보보호법·개인신용정보보호법 개정안을 준비하고 있다 황 의원은 "지난 6월 토스가 이용자 개인정보를 리드 1건당 6만9000원에 보험 설계사에게 판매한 사실이 알려져 논란이 일자 이용자 약관에 개인정보가 유상판매 될 수 있다는 내용을 포함했다"고 지적했다.  이에 대해 토스 측은 "보험 상담 고객을 설계사와 연결해주는 서비스에서 발생한 매출로 보험 상담에 필요한 필수 정보만 제공된 것"이라며 "보험 상담을 신청한 고객에게 '제3자 정보제공' 동의를 받기 때문에 개인·신용정보 판매는 법적으로 문제가 없다"고 해명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.10.02.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'보험 비교 플랫폼'에 설계사 집단 반발</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004756989?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>어떻게 생각하십니까금융위원회, 시범 운영 방침에보험설계사들 5일 대규모 집회"45만 설계사 삶의 터전 무너져소비자 수수료 부담 커질 것"핀테크 "기술혁신 거스를 수 없어사용자 편익 개선·경쟁 활성화"대출처럼 보험 상품에도 빅테크 비교·추천 서비스를 허용하겠다는 금융당국 방침에 보험설계사들이 강력 반발하고 있다. 이들 설계사 단체는 이번주 네이버 카카오 토스 등 빅테크의 보험시장 진출을 저지하기 위해 대규모 집회를 열 예정이다. 물론 과거 산업혁명 당시 수공업 노동자들이 벌인 기계 파괴 운동(러다이트 운동)처럼 기술 혁신의 발목을 잡고 소비자 효용만 떨어뜨릴 것이란 지적이 나온다. 거리로 나선 설계사들, 5일 대규모 집회2일 금융권에 따르면 금융위원회는 혁신금융서비스(금융 규제 샌드박스) 지정을 통해 보험 비교 플랫폼을 시범 운영하는 방안을 추진 중이다. 금융위는 당초 이달 서비스 출시를 목표로 했지만, 아직 신청 접수 절차조차 개시하지 못한 것으로 알려졌다. 상품 추천 알고리즘 등 구체적인 사안에 대해 이해관계자 간 협의가 좀 더 필요하다는 이유에서다.보험업계는 ‘생존권’을 내걸고 반대 목소리를 키우고 있다. 한 보험설계사는 “코로나19 타격과 고령화 등으로 가뜩이나 어려운 45만여 명 설계사들의 삶의 터전이 완전히 무너질 수 있다”고 말했다. 보험업계에 따르면 손해보험 전속설계사의 월평균 소득은 2019년 299만원에서 작년 256만원으로 쪼그라들었다. 생명보험 설계사 소득도 336만원에서 323만원으로 줄었다. 같은 기간 월평균 소득이 100만원 미만인 손보 설계사 비중은 26.2%에서 35.7%로 늘었다.2003년 방카슈랑스 도입 이후 현재까지 약 20년 동안 생명보험 설계사 수는 60%가량 감소했다. 보험 비교 플랫폼 도입도 방카슈랑스 못지않은 충격이 예상된다는 게 보험설계사들의 주장이다. 이들은 또한 보험산업의 고용유발효과는 매출 10억원당 14.8명으로 제조업(4.9명)이나 일반금융(5.6명)보다 높은 만큼 일자리 정책 측면에서도 보험 비교 플랫폼이 바람직하지 않다고 강조한다.보험대리점협회는 지난 8월 서울 용산 대통령실 앞에서 300여 명 규모의 반대 집회를 연 데 이어 오는 5일엔 광화문광장에서 규모를 5000여 명으로 늘려 2차 집회를 개최할 방침이다. 이 같은 대규모 집회는 2016년 저축성보험 비과세 축소 철회 대회 이후 6년 만이다. “대세 된 디지털 기술, 소비자 편익 높여”반면 빅테크 측은 대세로 자리 잡은 디지털 혁신을 거스르는 시도 자체가 무의미하다고 반박한다. 한 핀테크 업체 관계자는 “보험은 다른 금융상품보다 불완전판매 비율이 높고, 손해보험업계의 경우 10여 년째 회사 순위에 변동이 큰 만큼 경쟁이 실종된 상태”라며 “플랫폼에서 다양한 보험 상품을 한눈에 비교할 수 있도록 한다면 소비자 편익이 크게 개선될 것”이라고 말했다.빅데이터를 활용해 연령이나 건강상태, 생활습관 등에 맞는 최적의 상품을 추천해주면 정보 비대칭성이 완전히 해소될 수 있다는 주장이다.금융위는 지난 8월 종신·변액·외화보험 등 상품 구조가 복잡하거나 불완전판매 우려가 있는 상품은 플랫폼 취급 범위에서 제외한다고 밝혔다. 보험대리점 업계는 플랫폼 허용이 불가피하다면 자동차보험과 장기보험 등을 서비스 범위에서 제외해야 한다고 주장한다.한 업계 관계자는 “의무보험에다 1년마다 갱신하는 자동차보험은 설계사들의 주 수입원이고, 이미 비대면 판매 비중이 50%에 달해 소비자 불편도 크지 않다”며 “보장 내용이 복잡한 장기인보험 등도 온라인 판매가 적절하지 않다”고 주장했다.이들은 장기적으로 소비자 효용이 오히려 감소할 수 있다는 논리도 펴고 있다. 빅테크의 플랫폼 파워가 커지면 결국 소비자의 수수료 부담이 늘어날 것이란 얘기다. 보험 상품 비교도 보험협회가 운영 중인 ‘보험 다모아’ 사이트 등에서 이미 이뤄지고 있다고도 강조한다.금융위는 빅테크의 시장지배력 남용을 막기 위해 계열사 간 일감 몰아주기나 특정 보험사에 편중되는 구조를 방지하는 장치를 마련하겠다는 방침이다. 또 보험 비교·추천이나 플랫폼 사용에 따른 수수료도 합리적으로 책정할 수 있도록 유도할 계획이다.빅테크 관계자는 “소비자에게 꼭 필요한 상품이 아닌데도 설계사가 자신의 판매 수수료를 늘릴 목적으로 보험 상품을 추천하는 폐단이 사라질 것”이라며 “플랫폼뿐만 아니라 중소형 보험사 입장에서도 공정한 경쟁을 통해 성장 기회를 얻을 수 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.10.15.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>독일 사진 전문가 "北 전투기 150대 훈련 사진 조작 증거 포착"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006394711?sid=100</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>RFA 보도…"각기 다른 높이서 비행 중인데 같은 크기에 동일 화소"(평양 노동신문=뉴스1) = 북한이 미국의 핵추진 항공모함인 '로널드 레이건호'가 동원된 한미 연합훈련에 대응해 포병과 비행대들의 합동타격훈련을 실시했다. 북한 노동당 기관지 노동신문은 지난 10일 "조선인민군 전선 장거리포병구분대들과 공군 비행대들의 화력 타격 훈련이 10월6일과 8일에 진행되었다"라고 전했다. [국내에서만 사용가능. 재배포 금지. DB 금지. For Use Only in the Republic of Korea. Redistribution Prohibited] rodongphoto@news1.kr(서울=뉴스1) 이설 기자 = 북한이 최근 전투기 150대를 동원한 훈련을 실시했다며 공개한 사진이 조작됐을 가능성이 있다는 분석이 제기됐다. 독일 험볼트-엘스비어 연구소의 사진 분석 전문가인 토스튼 벡 박사는 15일 자유아시아방송(RFA)과의 인터뷰에서 "북한이 공개한 전투기 관련 사진이 실제로 비행하는 전투기 수보다 더 많아 보이도록 변조됐다는 충분한 증거가 있다"면서 이같이 밝혔다. 벡 박사는 "일부 사진에 나온 전투기들의 유사성이 매우 두드러진다"면서 "각기 다른 거리와 높이에서 비행 중임에도 같은 크기인데다 거리에 따라 전투기의 모양이 흐릿하거나 분명한 차이 없이 동일한 화소"라고 지적했다. 그러면서 벡 박사는 "한 전투기를 복사해 여러 번 붙여넣었거나 아니면 다른 사진에서 가져와 붙여놓은 것으로 생각된다"라고 설명했다. 벡 박사는 또 "실제 전투기의 훈련 모습을 촬영했다기 보다는 일부러 예술적으로 꾸며 더 극적으로 보이도록 연출"했다고 부연했다. 다만 북한이 공개한 원본 사진의 크기가 작고 해상도가 낮아 정확한 분석에는 한계가 있다고 벡 박사는 덧붙였다. 이런 가운데 미국의 항공전문지 애비에이션 위크의 매튜 조우피 수석 분석가도 RFA에 "북한의 항공전력을 고려하면 이 사진들이 조작됐다는 데 의심의 여지가 없다"라는 견해를 밝혔다. 그는 "항공기 100대가 동원되는 미국의 레드 플래그 훈련과 같은 대규모 군사훈련을 개최할 수 있는 국가는 미국과 중국뿐이며 북한의 공군 훈련이 실제였다 하더라도 한미 양국은 북한 상공에서의 활동을 감지했을 것"이라고 지적했다. 그러면서 그는 미 공군과 한국 공군 모두 보잉 E-3 센트리, E-737등을 기반으로 북한 영공을 들여다볼 수 있다고 부연했다. 앞서 북한은 "군 전선 장거리포병구분대들과 공군비행대들의 화력타격훈련이 10월 6일과 8일 진행됐다"면서 특히 8일에는 전투기 150대가 동원된 '대규모 훈련'이 진행됐다고 언급했다. 이번 훈련에 대해 정부 내에서도 북한이 실제 훈련의 규모에 비해 보도 내용을 부풀렸을 가능성이 있을 가능성을 염두에 두고 있는 것으로 알려졌다. 특히 훈련 중에 일부 비행기가 오작동하거나 추락까지 한 정황이 있는 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>하이투자증권, 비대면 계좌개설 등 이벤트</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005332495?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>신규 계좌 개설 후 주식 이전·거래 시 현금 지급미국 주식 0.00001주 이상 거래 시 추첨 통해 미국 주식 1주 지급[이데일리 유준하 기자] 하이투자증권은 오는 12월15일까지 신규·휴면고객을 대상으로 비대면 계좌개설과 주식거래 이벤트를 진행한다고 4일 밝혔다. 먼저 이벤트 기간 내 비대면 계좌를 신규로 개설한 고객에게 국내 주식 온라인 거래 수수료를 0.01%로 적용한다. 선물옵션의 경우 3개월간 수수료 우대 혜택을 제공하며, 시스템트레이딩 제휴 서비스인 예스트레이더를 통한 거래도 적용한다. 토스, 네이버페이 등의 플랫폼을 통해 계좌를 개설하면 각 제휴사의 포인트 1만 점도 즉시 지급한다.타 증권사에 있는 국내 주식 1000만원 이상을 하이투자증권 스마트지점으로 이전하고 1000만 원 이상 거래를 할 때는 최대 70만원의 현금을 지급한다.10월 31일까지 신용대출을 신청하면 연말까지 4.9%의 우대 금리 혜택도 제공한다. 미국 주식거래 시에는 온라인인 거래 수수료를 0.069%로 제공한다. 타 증권사에 있는 상장 미국 주식 1000만원 이상을 하이투자증권 스마트지점으로 이전하고 500만원 이상 거래 시 최대 35만원의 현금을 지급하며, 1000만원 이상 거래 시 2배의 리워드 혜택을 제공한다. 미국 주식 실시간 시세 조회 서비스도 계좌개설일로부터 1년간 무료로 제공하며, 서비스 종료일 직전 3개월간 미국 주식을 거래하면 지속해서 서비스를 무료로 제공한다.미국 주식 소수점 거래 이벤트도 함께 진행한다. 오는 11월30일까지 미국 주식 소수점 거래를 신청하는 스마트지점 전 고객을 대상으로 1000명을 추첨하여 커피 쿠폰 1매를 지급한다.미국 주식을 단 0.00001주 이상 거래할 경우에도 추첨을 통해 애플 1주(1명), 포드모터 1주(100명), AMC엔터테인먼트홀딩스 1주(200명), 고프로 1주(300명)를 지급한다.이벤트는 하이투자증권 홈페이지 또는 이벤트 페이지를 통해 참여할 수 있으며 보다 자세한 사항은 하이투자증권 디지털컨택트센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>대부분 보험사, 정보통신망 허술…'정보보호' 인증 안받아</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013493244?sid=100</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>양정숙 "금융사들 정보통신망 보호·관리 최우선 과제 삼아야" 보험사(PG)[장현경 제작] 일러스트    (서울=연합뉴스) 심재훈 기자 = 농협생명 등 보험사 10개 중 9개는 정보 보호 관리 체계(ISMS) 및 개인정보 보호(ISMS-P) 인증을 받지 않은 것으로 10일 나타났다.    국회 정무위원회 양정숙 의원이 금융감독원 등에서 받은 국정감사 자료에 따르면 보험사 61개사 중 54개사, 은행 20개사 중 7개사가 ISMS와 ISMS-P 중 어느 하나도 인증받지 않았다.    ISMS와 ISMS-P는 정보통신망의 안정성·신뢰성 확보를 위한 기술적 보호조치 또는 개인정보 처리 및 보호와 관련한 조치가 법에 부합하는지를 과기정통부와 개인정보보호위원회가 인증하는 제도다.    61개 생명·손해보험사 중 삼성화재와 현대해상, DB손해보험, 한화손해보험, KB손해보험, 삼성생명 등 7개사만 ISMS와 ISMS-P 인증을 받았다.     이들 보험사를 제외한 농협생명, 신한라이프, 미래에셋생명, 하나생명, 메리츠화재, 롯데손해보험 등 대부분의 보험사가 인증을 받지 않았다.    은행의 경우 산업은행과 수출입은행이 ISMS와 ISMS-P 인증을 받지 않았고 한국스탠다드차타드은행, 한국씨티은행, 제주은행, 토스뱅크도 마찬가지였다.    양정숙 의원은 "금융권에서 정보통신망과 정보보안에 구멍이 생기거나 장애가 발생하면 국가 경제 전체가 마비되는 대혼란을 초래한다"며 "금융사들이 정보통신망 보호, 유지 관리를 최우선 과제로 삼아야 할 것"이라고 지적했다.    president21@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>황운하 의원 “KB·토스 알뜰폰 사업 우려...중기적합업종 지정해야”</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000845779?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>황운하 더불어민주당 의원./뉴스1        황운하 더불어민주당 의원이 알뜰폰 시장 생태계 보호와 소비자 편익을 위해 알뜰폰 시장에 대한중소기업적합업종 지정을 검토할 것을 촉구했다.알뜰폰 시장은 중소사업자 등의 이동통신시장 진출을 통해 가계통신비를 경감하려는 목적으로2009년 도입됐다. 주파수가 없는 중소사업자도 기존 이동통신사 설비를 활용해 서비스를 제공하도록 하고, 자금력과 협상력에 열세인 중소사업자를 위해 도매제공 의무 등 정책을 지원하고 있다.황 의원에 따르면 최근 KB가 오프라인 영업점 창구 직원들을 상대로 알뜰폰 KB리브엠 상품 판매를 강요, 압박하고 있다는 논란이 나왔다. KB리브엠은 금융위원회로부터 2019년 4월 혁신금융서비스 1호로 지정됐는데, 당시 금융위는 혁신금융서비스 부가조건으로 지점에서 알뜰폰 권유 및 직원을 통한 판매행위를 금지한다고 규정했다. 일각에서 제기된 KB리브엠의 불법영업 실태가 사실이라면, 이는 금융혁신지원특별법상 혁신금융서비스 지정 취소 요건에 해당된다는 것이다.황 의원은 “금융혁신지원특별법상 혁신금융서비스 관리 주체는 금융위원회인 만큼, KB리브엠에제기된 편법적 대면판매에 대한 철저한 조사가 필요하다”며 “조사 결과에 따라 합당한 제재가 뒤따라야 한다”고 말했다.황 의원은 대형 핀테크 기업 ‘토스’의 알뜰폰 사업 진출도 문제라고 지적했다. 토스는 기존 중소알뜰폰 사업자인 머천드코리아 지분을 100% 인수하며 알뜰폰 시장에 본격 진출했다. 현행 토스는제조서비스업으로 분류돼 금융지주회사법, 은행법 등을 적용받지 않아 아무런 규제 없이 알뜰폰사업을 시작했다.황 의원은 “거대기업 쏠림 현상은 민간 자율로는 해결할 수 없어, 알뜰폰 생태계 보호와 소비자의장기적 편익을 위해서는 알뜰폰 사업의 중소기업적합업종 지정을 검토해야 한다”라고 말했다.그러면서 “토스가 현행 제조서비스업으로 분류되지만, 토스뱅크, 토스증권, 토스페이먼츠 등을 두고 있는 만큼 이제는 금융업 분류를 위한 사회적 논의가 필요하다”며 “이를 통해 토스가 금융 외 시장 진출시 엄격한 기준을 적용하여 심사할 수 있는 환경을 조성해야 한다”라고 말했다. 또 “국정감사와 증인 신문 과정을 통해 토스의 개인정보 유상 판매 문제와 알뜰폰 등 문어발식 시장 확장에 따른 사회적 피해 등을 엄중히 묻겠다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[뉴스 열어보기] '미분양 찬바람' 서울로 빠르게 북상 중</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001225996?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]◀ 앵커 ▶ ‘뉴스 열어보기’ 시작합니다.◀ 앵커 ▶ 오늘은 주택시장 침체가 본격화되면서 미분양 주택이 빠르게 늘고 있다는 기사 먼저 살펴보겠습니다.◀ 앵커 ▶ 한국일보입니다.◀ 앵커 ▶ 주택시장에 ‘미분양 공포’가 청약 불패 지역으로 여겨지던 서울과 수도권까지 번지고 있다고 합니다.지난해 초 1만 5천여 가구였던 전국 미분양 주택이 올해 8월 말 기준 3만 2700여 가구로 2배 이상 급증했는데요.이 가운데 서울과 수도권 미분양이 5,012가구로 2년 8개월 만에 가장 높은 수준을 기록했습니다.청약 미달이 대거 발생하며 건설사도 공사 과정에서 자금난을 겪고 있다는데요.사업을 중단하기 어려운 주택사업 구조 상 대부업체에 손을 벌리는 건설사도 늘고 있다고 합니다.신문은 주택 시장의 최악의 거래 침체와 미분양이 늘어나는 지금 상황이 글로벌 금융위기 직후를 떠올리게 한다는 분석까지 나온다고 전했습니다. ◀ 앵커 ▶ 다음은 경향신문입니다.기후변화로 모기 활동 기간이 길어지며, 모기 입이 비뚤어진다는 처서가 한 달 넘게 지났는데도, 때아닌 가을 모기가 기승을 부리고 있다는 소식입니다.서울시 디지털모기측정기 DMS에 따르면, 9월의 하루 평균 모기 수는 2200여마리로 8월에 비해 오히려 25% 늘었는데요.모기는 기온이 27도일 때 가장 활발한데, 기후 변화로 가을까지 더위가 이어진 영향으로 풀이됩니다.최근 강원도에서 채집된 모기에서 일본뇌염 바이러스와 말라리아 원충도 확인됐는데요.신문은 가을모기가 옮기는 말라리아 감염자 수도 늘고 있어 각별한 주의가 필요하다고 전했습니다.◀ 앵커 ▶ 이어서 중앙일보입니다.반도체 수급난이 장기화되면서, 국내 자동차 출고 기간이 늘어나고 있다는 소식입니다.현대기아차 가운데 출고 지연이 가장 심각한 차종은 제네시스 GV 80 가솔린 2.5T 모델로 계약하고 차량을 받기까지 2년 6개월 이상 걸리고요.파노라마 선루프 같은 옵션을 추가하면 출고 기간은 더 늘어난다고 합니다. 하이브리드 차량의 납기 지연도 심각해 싼타페 하이브리드와 아반떼 하이브리드도 계약 후 2년 뒤에나 차량을 받을 수 있다고 합니다.지난달 출고를 시작한 전기차 아이오닉도 1년 6개월 넘게 출고가 지연될 거라는데요.반도체 수급난이 이어지자 현대차그룹은 차량용 반도체 기업에 투자하는 등 자체 해결을 위해 노력하고 있다고 신문은 전했습니다.◀ 앵커 ▶ 다음은 국민일보입니다.토스가 고객 80만명분의 개인정보를 팔아 292억원의 수익을 냈다는 소식입니다.고객의 은행과 증권사 계좌부터 보험 상품 가입 내역까지 민감한 금융정보를 훤히 들여다 볼 수 있는 ‘마이 데이터’ 사업자는 개인 정보를 합법적으로 판매할 수 있는데요.토스가 마이 데이터 사업권을 가지고 여러 법인 보험 대리점과 보험 설계사에게 개인정보 1명당 ‘6만 9천원’의 가격을 매겨 판매했다는 겁니다.금융당국은 개인정보 판매가 주업무가 될 것으로 보이는 경우 사업권을 내주지 않겠다는 입장이지만,사업권을 받은 이후에는 시정명령을 내리거나 허가를 취소하는 방식 외에 개인정보 판매를 막을 방법이 없다고 합니다.◀ 앵커 ▶ 끝으로, 동아일보입니다.최근 3년 간, 장교를 육성하는 육군과 해군 공군사관학교의 입시 경쟁률은 낮아지고 자퇴 생도가 늘고 있다는 소식입니다.육사와 해사의 입시경쟁률은 3년 연속 하락세를 보였고요.공사의 입시경쟁률은 21.4 대 1로 작년에 비해 늘었지만, 2019년 48.7 대 1과 비교하면 크게 인기가 떨어졌습니다.자퇴하는 생도는 지난해와 비교해 육사와 해사 공사 모두 늘었습니다.윤석열 정부의 병장 봉급 200만 원 인상 계획에 따르면 2025년에는 병사의 봉급이 소위의 봉급을 역전하게 되는데요.군 관련 공약에서 간부들이 상대적으로 소외된 것이 사관학교의 인기 하락에 영향을 미쳤다고 신문은 전했습니다.지금까지 '뉴스 열어보기'였습니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>빅테크 보험시장 진출…"생계 위협" 설계사 집단 반발</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001004089?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;앞으로 포털회사나 인터넷 은행에서도 보험 상품을 비교하고 가입할 수 있게 규제를 풀겠다는 정부 방침에 보험설계사들이 강력히 반발하고 있습니다. IT회사가 들어오면 45만 명이 넘는 설계사들 상당수가 일자리를 빼앗길 거라는 우려 때문입니다.임태우 기자가 보도합니다.&lt;기자&gt;한 보험회사가 온라인으로 제공하는 상품 비교 추천 서비스입니다.보험 가입자들이 남긴 평가 점수로 음식 배달 앱처럼 어떤 상품이 좋은지 한눈에 비교할 수 있습니다.[보험 비교 서비스 이용자 : 사용자 평점을 통해 보험 상품을 추천해주다 보니까 사용자들에게 좀 더 익숙한 것 같고….]금융당국은 이런 보험 비교 추천 서비스를 네이버나 카카오, 인터넷 은행 같은 IT회사에 허용할 방침입니다.소비자에게 더 많은 선택권을 주겠다는 겁니다.하지만 보험 설계사들 반대가 거셉니다.제가 서 있는 서울 광화문 광장에는 5천 명 넘는 보험 설계사들이 모여 빅테크 업체의 보험시장 진출을 결사 반대한다는 구호를 외치고 있습니다.[결사 반대한다! 반대한다!]IT회사가 들어오면 45만 명이 넘는 설계사들 상당수가 일자리를 빼앗길 거라는 겁니다.[장남훈/한국보험대리점협회 본부장 : 네이버, 카카오, 토스 등이 우리 보험에 대한 골목상권을 침해하고 있습니다. 그런 부분에서 저희들의 생계 위협이나 생존권 위협을 받고 있고….]당국은 설계사 계약 비중이 큰 종신과 변액보험은 IT회사에 개방하지 않겠다는 타협안을 제시한 상태입니다.타다 서비스가 등장하자 택시 업계는 생계를 위협한다며 반대했고 사업은 흐지부지됐습니다.소비자 편익과 일자리 안정, 이번에는 사회적 타협을 이뤄낼지 주목됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>간편결제 가입자 역대 최다…부채비율 평균 460%</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011457713?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>기사내용 요약김한규 의원 "자산건전성 비율 강화해야"[서울=뉴시스]주요 전자금융업자 매출액·부채비율 현황(사진=금융감독원, 김한규 의원실 제공)2022.10.05 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 네이버파이낸셜·쿠팡페이·카카오페이 등 상위 10개 전자금융업자의 부채비율이 평균 460% 수준으로 조사됐다. 이들의 재정건전성과 관련해 금융당국의 관리감독이 강화돼야 한다는 목소리가 나온다. 5일 김한규 더불어민주당 의원이 금융감독원로부터 제출받은 '주요 전자금융업자별 간편결제' 자료에 따르면 지난해 말 기준 등록된 전체 전자금융업자는 163개사며 이들 중 상위 10개사의 매출액은 사상 최대치를 기록, 총 7조7383억이었다.하지만 같은 기간 상위 10개 업체의 부채비율은 평균 460%에 달했다. 회사별로 보면 쿠팡페이의 부채비율이 2967.5%로 가장 높았다. 쿠팡페이는 지난해 말 기준 5982억원1300만원의 매출을 기록했다. 2020년 말 기준으론 1896억원의 매출액을 기록했는데, 당시 부채비율은 6349.5%에 달했다. 지난해 말 기준으론 쿠팡페이에 이어 롯데멤버스가 387.5%(매출액 833억원), 지마켓 369.2%(1조3519억원), 우아한형제들 344.0%(2조291억원), 네이버파이낸셜 193.4%(1조453억원), 십일번가 158.8%(5614억원) 등의 순을 보였다. 또 최근 전자금융업자의 선불충전금 규모 또한 큰 폭으로 증가했다. 2020년 말 상위 10개사의 선불충전금 규모는 1조7379억원이었는데, 지난해 말 2조4244억원으로 껑충 뛰었다. 선불충전금 규모는 지난해 말 기준 카카오페이가 3927억8400만원, 네이버파이낸셜 1985억7200만원, 비바리퍼블리카(토스) 1153억9900만원, 쿠팡페이 968억3200만원 등으로 나타났다.김한규 의원은 "전자금융업 가입자 수와 매출액 등 그 규모가 급격히 확대되고 있는 가운데 업체들의 부채비율 또한 높은 수준"이라며 "미상환잔액 대비 자기자본 비율과 같은 최소한의 요건이 잘 지켜지고 있는지 철저한 감독을 해야 하고, 필요하다면 자산건전성 비율과 유동성비율 기준 등에 관한 사항도 좀 더 엄격하게 강화하는 방안을 살펴봐야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>이영애도 반한 그곳…고액 자산가 겨냥 압구정 KB자산관리센터 가보니</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005156252?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[플래그십 PB센터 견문록①] KB 골드 앤 와이즈 더 퍼스트편집자주고자산가를 위한 은행권의 플래그십 프라이빗뱅킹(PB) 센터 경쟁이 본격화됐다. 전통의 PB 강자인 하나은행이 강남구 삼성동, 용산구 한남동에 잇따라 클럽1(Club1) 1·2호 센터를 낸 가운데 KB국민은행은 서울 시내 대표적 부촌(富村)인 강남구 압구정동에 플래그십을 표방하는 'KB 골드앤와이즈 더 퍼스트(GOLD&amp;WISE the FIRST)'를 선보였다. 올 초 금융자산 100억원 이상 고객을 대상으로 자산관리 서비스를 제공하는 '신한 PWM 패밀리오피스(SFC)'를 선보인 신한은행도 내년 또는 내후년 개점을 목표로 압구정에 신개념 PB센터 구축을 준비하고 있다. 우리은행 역시 평균잔액 10억원 이상 고객을 위한 '투 체어스 익스클루시브(TCE·Two Chairs Exclusive)' 센터를 확장 중이다. 은행권이 플래그십 PB센터 구축에 속도를 내고 있는 것은 지난 수년 간 지속된 저금리·자산가격 상승 흐름으로 전통적인 부유층은 물론 가상자산 등으로 부를 쌓은 영리치(young rich) 등이 늘어났기 때문이다. KB금융경영연구소가 지난해 발간한 '2021 한국 부자 보고서'에 따르면 금융자산 10억원 이상인 '부자'들은 지난 2020년 기준 39만3000여명으로 5년 전 대비 45%나 늘었다. 특히 부자들이 보유한 총 금융자산 2618조원 중 300억원 이상 초고자산가 7800명(2.0%)이 보유한 자산은 1204조원, 100억원 이상 300억원 미만 고자산가 2만8000여명(7.2%)이 보유한 자산은 489조원에 달한다. 각 은행이 플래그십 PB센터 구축에 열을 올리고 있는 이유다."우리 동네 최고 예쁜 빌딩" KB금융의 야심작 고액 자산가 대상 종합자산관리센터가 압구정에 떴다. 지난달 문을 연 이곳은 길을 지나가다가 사진을 찍어 인스타그램에 올릴 정도로 압구정의 새로운 명소가 됐다. 반바지 차림으로 마실 나왔다가 이곳에 반해 고객이 된 영리치 손님도 있다.지난달 오후 강남구 신사동에 위치한 'KB 골드 앤 와이즈 더 퍼스트(GOLD&amp;WISE the FIRST)'는 입구부터 웅장한 규모가 압도적이었다. 높은 층고와 거대한 아트월이 있었고, 수십억에 달하는 미술 작품들도 전시됐다. 이곳을 찾는 자산가들의 고급스러운 취향을 맞추기 위해 북큐레이터까지 고용해 공들여 책들을 골라 배치했다.해당 센터는 은행·증권 복합점포로 지하 2층~지상 7층 규모다. 2층 전 공간은 라이브러리 카페로 운영되는데 이곳에서 책을 읽거나 쉴 수 있다. 시중에서 쉽게 구할 수 없는 문화·예술 인문 도서들이 진열돼있고, 마치 숲속에 온 듯 식물과 향기 인테리어로 꾸며져 있다. 광고모델인 배우 이영애도 이곳을 방문해 전시된 책들에 관심을 보이며 좋아했다는 후문이다. 이곳만을 위해 특별 제작한 디퓨저와 향수까지 배치해 고급스러운 향기가 났다. 호텔 스위트룸 연상케 하는 초호화 상담실PB 오피스가 위치한 6층을 제외하고 3층부터 7층까지는 고객상담실이 있다. 특히 7층은 슈퍼리치들만 갈 수 있는 공간이다. 엘리베이터에서 내리자마자 김우진 작가의 작품 '디어(Deer)'라는 사슴 동상이 맞아주는데, 마치 유럽의 한 갤러리를 연상케 했다. 7층에는 상담실 두 곳이 있다. 안에 샹들리에 조명, 파우더룸과 개별 화장실은 물론 발코니까지 있어 마치 유명호텔 스위트룸에 들어와 있는 느낌이 들었다. 이곳에서 상담을 받으며 감상할 수 있는 김환기 화백의 작품은 30억원에 달하는 그림이다.최재영 KB금융 WM·연금부문 총괄은 "이곳을 짓는 데만 3년 이상 공을 들였다"면서 "최고의 고객 수준에 걸맞은 최고의 가치를 제공해준다는 게 '더 퍼스트'의 의미"라고 설명했다. 이곳은 고객들의 취향을 고려한 콘셉트별 상담실과 로봇 기술이 적용된 1400여개의 최신식 대여금고를 갖췄다. 프라이빗뱅커(PB)들은 고객의 취향에 맞춰 상담실을 예약한다. 최 총괄은 "고객들의 프라이버시가 가장 중요하기 때문에, 고객들끼리 동선이 겹치지 않도록 신경 썼다"고 덧붙였다."패밀리오피스 폭발적 성장…공략"이들은 KB형 패밀리오피스를 준비해서 새로운 시장을 선점한다는 계획이다. 최 총괄을 비롯해 박진선 KB국민은행 센터장, 이재옥 KB증권 센터장이 공조하고 있다. 패밀리오피스(부호들이 자산을 운용하기 위해 세운 개인 운용사)는 미국·유럽, 홍콩과 싱가포르 등에서는 이미 보편화된 개념이지만 국내에서는 아직 금융기관이 패밀리오피스와 유사한 서비스를 제공하는 형태로 운영되고 있다. 향후 국내에서도 이 시장이 폭발적으로 성장할 것이라고 KB는 보고 있다.최 총괄은 "보통 패밀리오피스라고 하면 자산증식, 가업승계 정도로 운영되는데 KB는 금융, 자산 증식, 부동산, 세무, 신탁 등의 서비스를 종합적으로 운영한다"고 설명했다. 그는 "총 35명의 최고의 전문가들이 모여있다"면서 "팀 단위로 고객관리를 하기 때문에 종합적인 재산 관리가 가능하다. 부동산, 세무, 변호사, 신탁 전문가 등을 현장에 배치하고 있다"고 말했다. 박 센터장은 "은행 특화 상품에 한정하지 않고 여러 신탁 상품들을 갖춰놨다"며 "고객의 니즈가 있으면 증권 쪽에서 토스하는 등 법 테두리 안에서 협업 중"이라고 말했다.KB는 최근 해외 트렌드인 '필란트로피(고액 기부)' 시장도 공략한다는 계획이다. 이 센터장은 "빌 게이츠부터 스티븐 스필버그까지 필란트로피가 해외에서는 중요해졌다"며 "글로벌과 비교해도 충분한 필란트로피 넘버원이 될 수 있도록 청사진을 그리고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카, 알뜰폰 브랜드 '토스모바일' 확정…연내 출시</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002270744?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>금융상품 연계에 대해서는 "고려 안 한다" 선 그어비바리퍼블리카가 준비 중인 알뜰폰 브랜드의 윤곽이 드러났다. 비바리퍼블리카는 알뜰폰 브랜드명을 '토스모바일'로 정하고 연내 서비스를 출시한다는 계획이다.14일 업계에 따르면 비바리퍼블리카는 최근 머천드코리아 지분인수 거래를 마치고 브랜드명을 토스모바일로 확정했다. 현재 요금제 개편 작업이 이뤄지고 있다.당초 비바리퍼블리카는 9월 중 서비스를 공개할 계획이었으나 서비스 고도화를 위해 일정을 뒤로 늦췄다. 비바리퍼블리카는 최근 토스 이용자를 대상으로 요금제 선호도 조사를 진행했다.■ 요금제 고민하는 토스…금융상품 연계는 "고려 안 해"비바리퍼블리카는 조사 결과와 머천드코리아 기존 요금제를 참고해 서비스를 재설계한다는 방침이다. 비바리퍼블리카 관계자는 "기존 알뜰폰 요금제를 살펴보니 너무 많은 요금제가 소비자에 노출된다는 문제점이 있었다"며 "새롭게 출시할 요금제는 수요에 부합하면서도 직관적인 방향이 될 예정"이라고 말했다.비바리퍼블리카는 소비자가 토스 앱 내부에서 알뜰폰에 가입할 수 있도록 서비스를 준비한다는 방침이다. 초반에는 토스 앱 이용자 대상으로 알뜰폰 서비스를 진행하고, 추후 타깃을 다른 방향으로 확장한다는 구상이다.머천드코리아의 서비스가 상당 부분 그대로 이어지며, 비바리퍼블리카가 설계한 새로운 요금제가 더해질 가능성도 있다. 비바리퍼블리카는 머천드코리아를 인수하는 과정에서 인력을 조정하지 않았다. 이승훈 머천드코리아 대표도 계속 대표직을 유지한다.비바리퍼블리카 관계자는 "머천드코리아 인력은 그대로 유지되며 비바리퍼블리카와 긴밀한 관계를 유지하는 방향이 될 것"이라고 말했다. 머천드코리아가 기존에 주력으로 삼던 선불폰 사업은 이어가되, 토스 앱을 통한 후불폰 중심의 사업을 강화한다는 설명이다.금융상품과 알뜰폰을 연계할 가능성에 대해서는 "아직 고려하지 않고 있으며 과도한 출혈 마케팅은 지양한다는 방침"이라고 선을 그었다.■ 토스는 왜 알뜰폰 사업에 진출하려고 할까업계는 비바리퍼블리카가 알뜰폰 시장에 진출하려는 주된 이유로 통신상품과 금융상품을 결합해 소비자 이탈을 막는 '락인효과' 극대화를 들고 있다. 또한 통신 데이터를 확보해 마이데이터 시대에 대비하고, 신용평가 고도화도 가능할 것으로 보고 있다.금융업계 한 관계자는 "모두가 휴대전화를 사용하는 만큼 신용평가 대안 정보로 통신 데이터를 활용하기 좋다"며 "요금제 종류, 통신비 연체 여부 등을 활용해 신용평가를 고도화할 수 있을 것"이라고 설명했다.한편 비바리퍼블리카의 알뜰폰 시장 진출에 업계 반응은 엇갈리고 있다. 막대한 자본력과 금융데이터를 가진 비바리퍼블리카의 진출이 시장 불균형을 초래할 거라는 우려가 나오는가 하면 아직 서비스가 나오지 않은 만큼 지켜봐야 한다는 의견도 있다.알뜰폰 업계 한 관계자는 "KB국민은행에 이어 비바리퍼블리카까지 알뜰폰 시장에 진출하면 중소 알뜰폰 업계는 더 버티기 어려워질 것"이라며 "비바리퍼블리카가 과도한 출혈 마케팅을 하지 못하도록 막을 수 있는 방안이 필요하다"고 말했다.반면 비바리퍼블리카의 알뜰폰 진출이 시장 활성화에 도움이 될 거라는 의견도 있다. 알뜰폰 업계 다른 관계자는 "비바리퍼블리카는 토스를 중심으로 2030 사이에서 인지도가 높은 만큼 젊은층을 알뜰폰 업계로 많이 유입시킬 수 있을 거라고 생각한다"면서 "시장 자체가 활성화될 수 있다는 측면에서는 긍정적으로 생각한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>라온시큐어, 4일 '시큐업 세미나' 개최…"디지털 인증 트렌드 공유"</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006373708?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>김태진 라온화이트햇 전무(라온시큐어 제공)(서울=뉴스1) 오현주 기자 = 보안기업 라온시큐어는 지난 4일 연례 콘퍼런스 '시큐업 세미나'를 성황리에 개최했다고 5일 밝혔다. '시큐업 세미나'는 라온시큐어가 매년 열어온 행사로 올해는 2년 만에 오프라인으로 진행됐다. 세미나는 서울 삼성동 코엑스홀에서 한국디지털인증협회와 함께 개최됐다. '디지털 인증의 현재와 미래'를 주제로 진행된 이번 행사는 급변하는 디지털 인증 시장의 트렌드와 변화에 빠르게 대응할 수 있는 전략을 다뤘다. 이기혁 한국디지털인증협회 회장은 이날 환영사에서 "디지털 전환이 가속화되면서 DID(분산신원인증)·FIDO(신속한 온라인 인증)등 차세대 신원인증 체계와 다양한 인증 방식에 대한 통합의 필요성이 대두되고 있다"며 "이번 세미나가 디지털 인증 관련 신지식을 습득하고, 앞으로의 사업 방향을 모색할 수 있는 활발한 정보교환의 장이 되길 바란다"고 말했다. 기조연설자로 나선 라메시 케사누팔리 ADI 어소시에이션 공동창립자는 개인의 정보를 스스로 관리하고, ID를 보유하지 않은 저개발 국가에게도 진보된 디지털 세상을 경험할 수 있는 새로운 기준을 제시하였다. 김태진 라온화이트햇 전무는 전자서명법 개정에 따라 전자서명수단 간의 경쟁이 활성화 되고 메타버스·클라우드 시대에 발급받아야 하는 인증·증명서 종류가 늘어나면서 사용자들의 불편함 해소할 수 있는 옴니원 '통합인증 서비스'를 소개했다. 하나의 창에서 모든 모바일 신분증, 디지털 증명서, 사설인증서를 통합 제공하는 서비스다. 기조연설 이후에는 2개의 트랙으로 나누어 각각 4개의 세션 발표가 진행됐다.A 트랙에서는 △백상현 병무청 서기관 △김진호 라온화이트햇 이사 △김창수 라온시큐어 미국 법인 디지털 트러스트 네트웍스 전무 △항배 중앙대학교 교수가 블록체인 기술로 정보의 위변조·유출을 방지하면서 신원인증·자격증명을 할 수 있는 방안을 소개했다.B트랙에서는 △박정효 KISA 책임 △정재헌 NH농협상호금융 부장 △방승익 토스 실장 △최욱동 네이버 리더가 공인인증제도 폐지 이후 사설 인증 서비스가 확대되는 상황에서 사용자에게 효율적인 사설인증 서비스를 제공할 수 있는 방안을 공유했다.이 가운데 국내 최초의 유틸리티NFT 전문 거래소가 소개됐다. 이 거래소는 10월말 한국조폐공사의 실물 금과 NFT를 결합한 상품을 판매한다. 김진호 라온화이트햇 이사는 "현실 자산과 연계하여 실생활에 활용할 수 있는 유틸리티NFT 전문 거래소를 제공해 NFT의 패러다임을 전환하고 침체된 NFT시장 활성화를 견인할 것으로 기대한다"고 말했다. 이기혁 회장은 "디지털 인프라가 확대되고 서비스 환경의 급격한 디지털 포메이션으로 디지털인증은 차세대 핵심가치로 발전할 것"이라며 "시큐업 세미나 2022에서 공유된 인사이트를 통해 디지털 인증의 새로운 전환기를 맞이할 수 있도록 한국디지털인증협회는 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>토스·카카오페이 등 선불충전 악용 보이스피싱, 5년간 310배 폭증</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011468653?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 정옥주 기자 = 카카오페이, 토스 등 선불충전업체를 이용한 보이스피싱이 최근 폭증한 것으로 나타났다.11일 국회 정무위원회 소속 송석준 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면, 매출액 상위 10개사 기준 선불충전업체를 이용한 보이스피싱 범죄건수는 2017년 3건에서 지난해 929건으로 무려 310배 늘었다. 피해금액도 1000만원에서 87억9000만원으로 293배 증가했다.특히 카카오페이나 토스 등 대중적인 선불충전업체를 이용한 보이스피싱 범죄비중이 컸는데, 2017~2022년 6월 말 기준 매출액 상위 10개 사를 이용한 보이스피싱 범죄건수 대비 토스를 이용한 보이스피싱 범죄건수의 비율은 66.5%, 카카오페이는 26.3%, 한국문화진흥이 3.2% 순이었다.피해금액도 같은 기간 토스가 64.4%, 카카오페이가 32.5%, 네이버파이낸셜이 1.6% 순이었다.특히 선불충전업체를 이용한 보이스피싱 수법도 금융기관 계좌이체형 보이스피싱 수법처럼 다양하고 교묘해지고 있어 각별한 주의가 요구된다.최근 선불충전업체를 이용한 보이스피싱 범죄가 늘어나는 이유로 선불충전업체는 은행 등 금융회사가 아니라 '통신사기피해환급법'상 보이스피싱계정 지급정지조치 의무가 없어, 보이스피싱 범죄자들의 계정에 피해금액이 흘러 들어가도 지급정지를 시킬 법적 근거가 없는 점을 악용하기 때문인 것으로 분석된다.뿐만 아니라 피해자가 피해금액을 되찾기 위해 선불충전업체가 송금받은 피해금액을 예치한 은행계좌에 지급정지 신청을 해도, 선불충전업체가 피해자에게 포인트 등을 충전해 주고 대가로 받은 금액이라는 이유로 이의제기를 하면 은행은 '통신사기피해환급법'상 지급정지를 해제토록 돼 있어 피해금 환급도 어려운 실정이다.더군다나 73개에 달하는 국내 선불충전업체의 보이스피싱 범죄 피해에 대한 보상여부 및 범위가 제각각이라 피해복구도 쉽지 않은 실정이다. 카카오페이나 토스처럼 대형 선불충전업체의 경우 보이스피싱 신고 시 선보상제도를 마련한 곳도 있으나 사안에 따라 피해자가 입은 손해의 전부나 일부를 피해자가 부담해야 하는 곳도 있고, 보이스피싱 보상 규정이 제대로 갖춰지지 않는 곳도 있는 것으로 알려져 있다. 하지만 금감원은 선불충전업체의 보이스피싱 범죄 피해 보상여부도 아직 제대로 파악하고 있지 못한 실정이다.송 의원은 "무엇보다 보이스피싱 범죄에 노출된 선불충전업체의 대처상황을 먼저 파악할 필요가 있다"며 "이를 바탕으로 사각지대를 악용한 보이스피싱을 막기 위한 제도보완과 함께 선불충전업체를 이용하는 소비자를 대상으로 보이스피싱 예방을 위한 홍보를 강화하고 가이드라인을 제시해 피해를 최소화해야 한다"고 주장했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>이정미 박사의 성경 속 상식/불 후에 세미한 소리</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001557707?sid=103</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>진노 가운데 긍휼을 베푸시는 하나님이정미 박사“불 후에 세미한 소리”(왕상 19:12)는 엘리야의 호렙산 체험이다. 출애굽한 이스라엘 백성이 홍해를 건넌 후 석 달 만에 시내광야에 이르렀을 때 모세는 이 산에서 십계명과 율법을 수여받았다.(출 19:25~24:8) 유서 깊은 이 산에 길르앗 디셉 사람, 엘리야 선지자가 찾아왔다.얼마 전 엘리야는 갈멜산에서 사악한 이세벨에 의해 바알과 아세라를 섬기던 우상숭배자 수백 명을 홀로 상대해 건곤일척(乾坤一擲)의 대결을 벌였다.(왕상 18장) 제단 위 번제물을 놓고 각자 신의 이름을 부를 때 ‘불로 응답하는 신 그가 하나님’이라고 전했다. 배교자들은 곧 미친 듯 떠들며 칼과 창으로 자기 몸을 상해하는 광란상태에 돌입했으나 아무런 응답이 없었다. 저녁 무렵에 엘리야 차례가 되어 먼저, 무너진 돌제단을 쌓고 하나님께 간절히 기도했다. “이 백성에게 주 여호와는 하나님이신 것과 주는 그들의 마음을 되돌이키심을 알게 하옵소서”(왕상 18:37)그러자 즉시 여호와의 불이 떨어졌다. 엘리야는 거짓 선지자의 무리를 모두 기손 시내에 끌고 가 죽였다. 아합은 갈멜산에서 일어났던 사건을 이세벨에게 일러바쳤다. 그녀는 분노하면서 엘리야를 잡아 죽이겠다고 맹세한다. 갈멜산의 영웅이 이런 협박 앞에 두려워했을 리가 없다. 그는 놀라운 능력의 선지자이다. 근데 성경은 그가 자기생명을 위해 도망하여 유다의 브엘세바로 갔다고 기록한다.(이스르엘에서 브엘세바까지 무려 160km 거리이다. 또한 그곳은 여호사밧의 통치영역에 속했기에 안전했다.)엘리야는 하룻길을 더 걸어 광야로 들어갔다. 그는 황량한 사막을 터벅터벅 걷다가 심히 곤비하여 한 로뎀나무 아래 앉아 죽기를 간구했다.(왕상 19:4) 그러곤 잠 속으로 혼곤하게 빠져들었다. 그때 천사가 그를 어루만지며 일어나 먹으라고 권했다. 본즉 머리맡엔 숯불에 구운 떡과 한 병 물이 있었다. 하나님은 광야에서도 능히 식탁을 베푸셨다. 엘리야는 두 번 음식을 제공받았다. 그로 인해 그는 밤낮 40일 동안 계속 걸어 하나님의 산, 호렙에 다다랐다. 그는 어느 골짜기에 있는 어두운 동굴 안에 숨었다.여호와의 말씀이 엘리야에게 임했다. “엘리야야 네가 어찌하여 여기 있느냐”(왕상 19:9,13) 이는 하나님이 그를 책망하는 것이다. 그는 자신의 은거에 대해 구구한 변명을 늘어놓는다. “이스라엘 자손이 주의 언약을 버리고 주의 제단을 헐며 칼로 주의 선지자들을 죽였음이오며 오직 나만 남았거늘 그들이 내 생명을 찾아 빼앗으려 하나이다”(왕상 19:10,14)동일한 질문에 동일한 대답이 두 번 반복된다. 사실, 이세벨은 오랜 가뭄의 원인이 야훼를 섬기는 주의 선지자들에게 있다고 간주하고 그들을 핍박했다.(왕상 18장) 그리고 백성 대부분이 그들의 죽음에 방관, 동의했다. 엘리야는 이제 이스라엘의 회개와 회복은 기대할 수 없을 뿐더러 그 자신의 특심한 노력이 물거품이 된 것에 좌절하고 낙담했다. 그는 이미 갈멜산에서 거둔 승리를 까맣게 잊고 있었다.마침내 엘리야는 하나님을 만나게 된다. 그는 그곳에서 나오라는 부르심을 받는다. 자비롭게도 당신의 화살통 속엔 시기적절하게 사용하실 화살들이 많다는 점을 알려주시고자 한다. 야훼께서 지나가시는데 크고 강한 바람이 산을 가르고 바위를 부수었다. 즉 무자비한 하사엘에 의해 이스라엘의 죄악이 심판받게 됨을 뜻한다.(왕하 8:12) 다음엔 땅이 흔들리는 듯한 지진의 진동이 있었다. 소위 예후가 우상숭배하는 아합의 온 집을 치는 쿠데타를 가리킨다.(왕하 9:7~10) 마지막으로 세차게 타오르는 불길을 목격했다. 그것은 아합 왕가의 멸망과 함께 그의 후계자 엘리사가 이스라엘의 타락과 불순종에 대해 살아있는 증인이 될 것임을 상징했다. 요컨대 전쟁의 검(하사엘)과 공의의 검(예후) 그리고 성령의 검(엘리사)으로 패역한 이스라엘을 징벌하시겠다는 엄숙한 선포였다.그러나 진노 가운데 긍휼을 베푸시는 하나님이시다. 그 바람과 지진과 불 후에 ‘세미한 소리’(콜 드마마 다카)가 있었다. 혹자는 이것이 새끼 잃은 어미 새의 구슬픈 울음소리를 표현하는 의성어(우가릿어)라고도 주장한다. 영어 번역은 다양한데 ‘온화한 속삭임’(a gentle whisper, NIV)과 ‘낮고 조용한 소리’(a still small voice, KJV) 그리고 ‘완전한 침묵의 소리’(a sound of sheer silence, NRSV) 등이다. 부연하자면 그것은 우리 영혼을 부드럽게 감싸는 ‘말씀의 탁월함’을 상기시킨다. 그 예로 ‘세미한’(다크)에 해당하는 똑같은 단어가 ‘만나’(the bread manna)의 모양을 의미하는 ‘작고 둥근’이라는 말이다. 만나는 그 이슬이 마른 후 광야 지면에 (내리는) 작고 둥글며 (흰) 서리 같이 가는 것(출 16:14)을 칭하였다. 이스라엘 자손이 광야 길 40년 동안 하늘 양식인 만나를 먹었다. 우리 성도에겐 매일 일용할 양식(아르토스)인 생명의 떡이라고 말할 수 있다. 하나님의 말씀은 약한 것 같지만 실은 강한 것이다.엘리야 선지자는 하나님이 침묵하시는 소리를 들었다. 그 분은 드러나지 않게 일하신다. 어느 누가 새벽이슬이 내리는 소리를 들을 수 있는가? 여린 풀잎에 맺힌 영롱한 물방울은 꽃과 나무의 생명력을 유지시킨다. 주님도 세상에서 웅변을 토하지 아니하셨다. 이사야의 예언처럼 “그는 외치지 아니하며 목소리를 높이지 아니하며 그 소리를 거리에 들리게 하지 아니하며”(사 42:2) 하나님의 뜻을 전하셨다. 그럼에도 열린 귀와 들을 수 있는 귀가 있는 자에게만 들리게 하셨다. 티끌같은 인간존재가 자신의 실존을 분명히 자각할 때만 오직 가능한 일이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>"금리 노마드족 잡아라"... 금리 경쟁으로 몸집 불리는 인뱅들</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000701341?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅 주담대 최소 3%대낮은 금리 좇아 인뱅으로 대환↑"출혈 경쟁, 우량 차주만 늘릴 것'중·저신용 대출 확대' 어긋날 수도"카카오뱅크(위), 케이뱅크 로고. 각 사 제공인터넷 전문 은행(인터넷뱅크·인뱅) 가계대출 규모가 9개월 연속 증가했다. 같은 기간 주요 은행 가계대출이 줄어든 것과 대조적이다. 인뱅도 금리 경쟁력을 갖췄다는 방증이나, 혁신과 포용금융의 '메기' 역할보다 '이자 장사'를 답습한다는 비판도 제기된다.9월 말 카카오뱅크(카뱅), 케이뱅크(케뱅)의 여신(대출) 잔액은 각각 27조4,600억 원, 9조7,800억 원이다. 1년 전에 비해 각각 2조4,000억 원, 3조6,000억 원이 불어났다. 인뱅의 여신은 대부분 가계대출 상품으로 구성돼 있다. 이에 반해 5대 시중은행(KB국민·신한·우리·하나·NH농협은행) 가계대출은 695조830억 원으로 1년 전에 비해 약 14조 원 줄었다.①"인뱅의 공격적인 금리 인하가 금리 인상기 더 낮은 금리를 좇는 '금리 노마드족'의 수요와 맞아떨어진 결과"(김은갑 IBK투자증권 연구원)라는 분석이 나온다. 10일 카뱅, 케뱅의 주택(아파트)담보대출 변동형 최저금리는 각각 연 3.31%, 3.18%다. 카뱅은 올해 최대 1.35%포인트를, 케뱅은 3분기에만 3번에 걸쳐 금리를 낮춘 결과다. 케뱅 관계자는 "점포나 영업 사원이 없다보니 금리 인하 여력이 상대적으로 많은 게 사실"이라고 말했다.4%대인 5대 은행의 최저금리를 크게 밑돌자, 타행에서 인뱅으로 대출을 옮기는(대환대출) 사례도 적지 않다. 주담대 금리가 6%대로 치솟자 인뱅의 4%대 금리로 갈아타는 식이다. 9월 카뱅 주담대 실행금액의 26%가 이 같은 대환대출이다.카카오·케이뱅크 여·수신 잔액 추이. 그래픽=김문중 기자카뱅 관계자는 ②"'중·저신용자 대출 확대'가 인뱅의 본령이라 신용대출 금리도 낮게 가져갈 수밖에 없다"고 덧붙였다. 시중은행 신용대출 금리가 6%를 돌파한 반면 카뱅, 케뱅은 4%대 초중반, 토스뱅크(토뱅)는 5.06%에 불과한 이유다. 지난해 5월 금융당국이 중·저신용자 대출 확대를 주문하자, 카뱅은 올해 3회에 걸쳐 중·저신용대출 금리를 1.2%포인트 내렸다. 케뱅도 금리 인하는 물론 상반기에만 1조 원의 중·저신용 대출을 공급했다.③예대금리차 공시 도입도 금리 인하를 재촉한 이유다. 상대적으로 금리가 높은 중·저신용 대출이 많은 인뱅들은 예대금리차가 클 수밖에 없다. 그러나 "1등은 피하자"는 분위기가 형성된 탓에 예대금리차를 마냥 무시할 수만은 없었다는 얘기다. 인뱅들이 금리 경쟁력을 갖추면서 기존 은행들을 포함해 상품 선택지는 넓어졌으나, "금리경쟁에 몰두하다 보면 '중·저신용 대출 확대'라는 취지를 지키기 어렵다"는 지적도 나온다. 서지용 상명대 교수는 "자본이 주요 은행보다 훨씬 적은데 소위 '출혈 경쟁'에 이르게 되면 위험을 회피하기 위해 우량 차주 위주로 대출을 늘릴 수밖에 없다"고 말했다.금리 인상기가 '기회'가 아닌 '악재'라는 시각도 있다. 이병건 DB금융투자 연구원은 7일 전세 대출 증가세 둔화, 신용대출 역성장을 이유로 카뱅의 목표주가를 2만4,600원에서 1만6,200원으로 대폭 낮췄다. 카뱅의 몸값이 떨어질수록 상장을 앞둔 케뱅 역시 제값을 받기 어렵다는 게 중론이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>"네카토 진출 결사반대"… 생존위기 보험설계사, 거리로 나왔다</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000857807?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>보험대리점협회 등이 5일 광화문에서 네카토 진출을 반대하는 시위를 벌였다. 국보험대리점협회 회원들이 5일 서울시청 인근 세종대로에서 온라인 플랫폼 보험 진출 저지 및 보험영업인 생존권 사수를 위한 2차 결의대회를 열고 구호를 외치고 있다./사진=뉴스1  금융당국이 네이버와 카카오, 토스 등 플랫폼의 보험 비교·분석 서비스를 허용하겠다고 밝힌 지 약 2개월 지난 가운데 보험설계사들이 "결사반대 한다"라며 또 단체 행동에 나섰다. 지난 8월 반대집회를 연 이후 두 번째다. 5일 보험업계에 따르면 한국대리점협회와 보험대리점업계, 보험영업인 노동조합 연대는 5일 오후 서울 광화문에서 '온라인 플랫폼 보험 진출 저지 및 보험영업인 생존권 사수를 위한 2차 결의대회'를 열었다.이날 이들은 온라인 플랫폼의 보험 진출에 반대한다는 내용의 결의문을 낭독한 뒤, '대통령께 드리는 호소문'을 채택했다. 길거리에 나온 이들은 "네이버·카카오·토스 등 플랫폼이 보험에 진출하면 급격히 시장을 잠식해 대면 영업 보험설계사와 보험대리점의 일자리를 큰 폭으로 감소시킬 것"이라며 "특히 영세 설계사의 생계 활동을 위태롭게 할 것"이라고 주장했다.   이어 "금융당국이 빅테크 기업의 보험 진출을 허용하는 것은 골목상권의 생존을 위협하는 것"이라며 "혁신을 명분으로 45만여명의 보험영업인을 벼랑 끝으로 내모는 행위"라고 말했다. 이들은 "플랫폼이 보험상품을 비교·추천한 후 (플랫폼) 소속 보험대리점에서 후속 절차를 진행할 경우 플랫폼의 보험 판매를 허용한 것과 같다"라고 주장하며 "플랫폼의 보험 진출을 결사반대한다"고 말했다.  현재 네이버는 NF보험서비스, 카카오는 KP보험서비스, 토스는 토스인슈어런스 등을 보험대리점 형태로 운영하고 있다. 앞서 금융위는 지난 8월 금융규제혁신위원회를 열어 마이데이터 사업자와 전자금융사업자가 복수의 보험상품을 온라인에서 비교·추천할 수 있도록 허용하는 방안을 추진한다고 밝혔다.  이에 따라 네이버, 카카오 등 빅테크(대형 IT기업)의 보험 비교·추천 서비스가 가능해질 전망이다. 플랫폼 비교 서비스 취급상품은 온라인채널(CM)에 국한하지 않고 텔레마케팅(TM) 채널이나 대면 채널 상품도 모두 포괄하도록 했다. 다만, 종신보험, 변액보험, 외화보험 등 상품구조가 복잡하거나 고액계약이 많아 불완전 판매 소지가 많은 보험상품은 비교 대상에서 제외키로 했다. 보험대리점협회는 금융규제혁신회의 전날인 8월22일 서울 용산구 대통령실 앞에서 '온라인플랫폼 보험대리점 진출저지와 45만 보험영업인 생존권 사수를 위한 결의대회'를 개최한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 목돈 마련도 게임처럼… 뻔한 적금? 펀한 적금!</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002757584?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>토스뱅크, 동물키우기 게임 접목 인기카카오뱅크, 저축 땐 캐릭터 획득 기회케이뱅크 '기분통장' 색다른 재미 선사신한·농협銀은 메타버스 콘텐츠 활용토스뱅크 제공.    MZ세대 취향 저격 상품 봇물저금리 시대에 외면받던 은행 정기적금이 새롭게 주목받고 있다. 은행권으로 자금이 쏠리는 '역(逆) 머니무브(자금이동)' 현상도 거세진다. 한국은행이 기준금리 인상을 이어가면서 시중은행의 적금 상품 금리도 덩달아 오르는 탓이다. 각종 우대금리를 더해 연 10%대의 고금리 적금 상품도 나타나면서 소비자의 관심을 끌고 있다.정기 예·적금엔 불과 한 달새 30조원 가까운 뭉칫돈이 몰렸다. 5대 은행(국민·신한·하나·우리·농협)의 정기 예·적금 잔액은 지난달 29일 현재 797조1181억원으로, 8월 말(768조5433억원) 이후 약 한 달간 28조5747억원이나 불었다. 특판을 제외하고도 시중은행의 예·적금 최고 금리가 이미 연 4%대에 이르면서 시중 자금의 예·적금 쏠림 현상은 더 뚜렷해질 전망이다.부동산, 주식, 코인 등 투자 열풍에 휩쓸렸던 MZ세대도 저축을 통한 목돈마련에 새롭게 눈을 뜨고 있다. 시중은행과 비교해 자금 조달 여건이 불리한 인터넷 전문은행들은 엔터테인먼트 요소를 강조한 상품으로 MZ세대를 공략하고 있다. 적금을 게임처럼 즐기면서 돈 모으는 재미를 배가시키는 것이다. 토스뱅크의 '키워봐요 적금'과 카카오뱅크의 '26주 적금'이 MZ세대의 취향을 저격한 대표적인 적금 상품으로 꼽힌다.토스뱅크의 '키워봐요 적금'은 가입 시 앱에서 동물의 알이 지급되며, 다음 날 알이 부화되면서 동물을 확인할 수 있다. 동물은 유령, 거북이, 문어, 망아지 4종 가운데 무작위로 지급된다. 6개월 동안 매주 자동이체 시 열 단계에 거쳐 자라며, 최종 만기 시 '전설의 동물'로 진화한다. 1990년대 유행했던 디지털 애완동물 육성 게임인 '다마고치'를 연상케 한다.'키워봐요 적금'은 가입 시 계좌별명을 지을 수 있어 나만의 동물 친구의 이름을 설정하거나 적금 목표를 설정해 꾸준히 저금할 수 있도록 만들어졌다. 아울러 '친구와 함께 키우기' 기능을 통해 서로의 동물이 자라는 모습을 확인하며 저축을 서로 응원할 수 있다. 6개월 만기인 자유적립식 정기적금으로, 가입금액과 주 납입 이체 한도는 최소 1000원 이상 최대 20만원까지다. 납입한도는 월 최대 100만원까지며, 한도 내에서 자유롭게 추가 적금할 수 있어 가입기간 동안 최대 600만원까지 납입할 수 있다. 적금 만기 해지 시 연 3% 금리의 혜택을 받을 수 있다. 출시 당시에는 금리가 높은 편에 속했지만 최근 금리 상승세로 비교적 낮아 보이는 측면이 있다. 이에 따라 토스뱅크도 금리 인상을 검토하고 있는 것으로 알려졌다.토스뱅크의 '지금 이자받기'도 소비자들로부터 좋은 반응을 얻고 있는 차별화 상품이다. '토스뱅크통장'을 보유한 고객은 매일 한 번씩 원할 때 즉시 이자를 받을 수 있다. 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조라 자금을 많이 맡길수록, 또 이자를 매일 받을수록 유리하다. 은행 이자를 받기 위해선 긴 시간 인내하며 기다려야 한다는 생각을 깨주는 상품이다. 매일매일 이자를 확인하면서 은행을 통해 돈 모으는 재미를 느낀다는 반응이 적지 않다. 토스뱅크 이용자 A씨는 "목돈을 넣어두고 하루에 쌓이는 이자로 매일 커피 한잔을 공짜로 먹는 기분을 느끼기도 한다"고 말했다.카카오뱅크 제공.    카카오뱅크의 대표 상품인 '26주 적금'은 매주 자동이체 금액이 일정하게 증가해 쌓이는 자유적금 방식이다. 가입금액은 1000원부터 2000원, 3000원, 5000원, 1만원 중에서 고를 수 있다. 26주 동안 매주 최초 가입9금액만큼 자동이체 금액이 증가하게 된다. 가입할 때 라이언·어피치·춘식이 등 카카오프렌즈 캐릭터를 선택하고, 매주 캐릭터를 늘려가는 재미도 즐길 수 있다.26주 적금은 파트너적금으로 진화하면서 더 많은 가입자를 끌어모았다. 파트너적금은 '이마트', '마켓컬리', '해피포인트', '카카오페이지', '오늘의집' 등과 제휴, 은행과 커머스를 결합한 상품이다. 가장 최근에 출시된 파트너적금인 '26주적금 with 카카오톡'은 가입 후 납입을 1회만 진행해도 카카오톡 모바일 앱에서 사용할 수 있는 '톡서랍 플러스' 1개월 이용권을 제공했다. 또 26주 만기 시 최고 연 3.70%의 금리와 함께 2개월 분의 '이모티콘 플러스' 이용권과 5개월 분의 '톡서랍 플러스' 이용권 혜택을 받게 된다.케이뱅크 제공.    케이뱅크는 매일 기분에 따라 저금하는 '기분통장'으로 주목 받고 있다. 기분통장은 오늘 하루 느낀 감정 기록과 소액 저축에 대한 니즈가 강한 MZ세대를 겨냥한 상품이다. 기분통장은 그날 그날 '감정 이모지+메시지+저금 금액'을 다르게 설정할 수 있다. 매일 느끼는 기분을 반영한 감정 이모지를 선택하고, 일기처럼 메시지를 적고 난 후 저금할 금액을 정할 수 있는 것이 특징이다. 일기처럼 쓸 수 있는 메시지와 저금 금액은 고객이 직접 바꿀 수도 있다. 이렇게 쌓인 저금 내역은 저금 할 때마다 적은 메시지를 통해 기분 변화를 한 눈에 확인할 수 있다.기분통장은 기존 파킹통장인 '플러스박스'의 한 종류로, 하루만 맡겨도 최대 한도 3억원까지 연 2.3% 금리가 적용된다. '용돈 계좌', '비상금 계좌' 등 용도별로 통장 쪼개기를 해 최대 10개까지 만들 수 있다. 매일 쌓인 이자는 매월 넷째 주 토요일에 지급된다.인터넷 은행들이 선보인 게임처럼 즐기는 적금 상품이 MZ세대의 호응을 얻으면서 시중은행들도 다양한 상품을 실험하고 있다. NH농협은행이 출시한 'NH걷고싶은 대한민국 적금'은 설악산·지리산·한라산 등 전국 17곳의 산악형 국립공원과 제주 올레길 등을 실제 방문, 올원뱅크앱을 통해 이를 인증하면 인증 구역 수에 따라 우대금리를 차등 제공하는 상품이다. 농협은행의 메타버스 플랫폼 '독도버스'도 방문구역에 포함시켰다.신한은행 제공.    신한은행이 다음 달 출시를 준비하고 있는 메타버스 플랫폼 '시나몬'은 금융과 게임의 경계를 무너뜨리고 있다는 평가다. 시나몬에 접속한 고객은 미니 게임·미션 수행 등을 통해 가상 재화 '츄러스'를 얻고, 이를 활용해 적금·청약·펀드 등 가상 금융 상품에 가입할 수 있다. 청약통장을 통해 메타버스 내에서 집을 살 수도 있다. 향후 관련 규제가 완화되면 가상머니를 현물로 전환하는 등의 서비스도 제공될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>“보험에 이용자 정보 팔아 290억원 벌어” 지적에… 토스 “사실과 다르다”</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000844765?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카가 ‘소개 수수료’를 받고 보험 설계사들에게 이용자 정보를 판매해 290억원 규모의 이익을 얻었다는 지적이 나왔다. 일반 이용자 입장에서 약관을 확인하지 않거나 관련 내용을 잘 모르기 때문에 개인정보를 판매하는지 인식하지 쉽지 않아 이용자 보호를 강화해야 할 필요성이 대두된다.토스 홈페이지. /홈페이지 캡처        3일 국회 정무위원회 소속 황운화 더불어민주당이 비바리퍼블리카에서 제출받은 자료에 따르면 이 회사는 2018년부터 올해 8월까지 법인 보험 대리점 ‘리드’ 매출로 290억2000만원을 기록했다.리드는 보험상담 신청 고객 중에서 법인 보험 대리점과 실제로 연결돼 매출 정산 대상이 되는 고객 데이터를 뜻한다. 토스 애플리케이션(앱)에서 보험 상담을 신청한 이용자 개인·신용정보 84만9501건이 대상이다.황 의원에 따르면, 비바리퍼블리카는 지난 1월 마이데이터 사업자 자격을 취득해 ‘데이터 판매 및 중개 업무’를 하고 있다. 마이데이터 서비스는 소비자가 여러 금융사에 분산된 자신의 신용 정보를 받아 통합 조회할 수 있는 서비스다. 서비스 사업자는 제삼자에게 이를 제공하는 대가로 ‘소개 수수료’를 받는다.문제가 된 유료 과금 모델은 지난 2월부터 시작됐다.황 의원은 “이용자들이 약관을 잘 확인하지 않거나 관련 내용을 잘 모르기 때문에 개인정보를 판매하는지 인식하기 쉽지 않다”면서 “지난 6월 비바리퍼블리카가 이용자 개인정보를 리드 1건당 6만9000원에 보험 설계사에게 판매한 사실이 알려져 논란이 일자 이용자 약관에 개인정보가 유상판매 될 수 있다는 내용을 포함했다”고 주장했다.이어 황 의원은 “마이데이터 사업자가 개인정보를 제삼자에게 판매할 때 유상 판매 여부, 대가 등을 소비자에게 알리도록 하는 개인정보보호법·개인신용정보보호법 개정안을 준비하고 있다”고 덧붙였다.비바리퍼블리카는 적법한 절차에 따라 보험 소개를 했다는 입장이다.비바리퍼블리카는 황 의원실에 “본인신용정보관리업(마이데이타) 사업자 자격을 올해 1월부터 획득하였기 때문에 관련 법령에 따라 ‘데이터 판매 및 중개 업무’를 수행할 수 있으므로, 개인·신용정보 판매는 법적으로 문제가 없다”고 설명했다.비바리퍼블리카 관계자는 “고객 동의 없는 무분별한 개인정보 판매로 부당한 이익을 얻은 바 없다”면서 “보험업계 내 이용자 정보가 무분별하게 유통되는 것을 막기 위해 일회용 안심번호 등 기술적인 안전장치를 마련했으며, 고객이 더 상담을 원하지 않으면 제공된 정보는 즉시 삭제한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>대출비교서비스 이자 절감 ‘병아리 눈물’</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002050137?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>185만건·15조7312억 대출 실행건당 절감 이자 2만1400원 고작신용·소득·우대금리 반영에 한계온라인 대출 비교 서비스를 통한 이자 절감 효과가 1인당 고작 2만원 정도에 그치는 것으로 나타났다.7일 금융위원회가 국회 정무위원회 소속 윤영덕 더불어민주당 의원실에 제출한 ‘혁신금융서비스 세부 현황 및 성과’ 자료에 따르면, 대출 비교 서비스는 약 870만명이 대출상품을 조회하고, 총 185만건, 15조7312억원의 대출을 실행해 약 396억원의 이자 절감 효과가 발생했다. 대출 1건당 평균 대출액은 850만원이고, 이자 절감액은 2만1400원이다.금융위는 지난해 9월 기준 대출잔액과 플랫폼 제휴 금융사가 제공하는 우대금리를 이용해 이자 절감효과를 추정했다고 설명했다.대출 비교 플랫폼은 2019년 5월 핀다, 비바리퍼블리카(토스) 등이 금융위의 혁신금융서비스로 지정된 이후 현재까지 15개 업체가 지정됐고, 14개 업체가 서비스를 출시했다. 시장점유율로 보면 토스(51.2%), 카카오페이(21.4%), 핀다(16.7%) 등 3개사의 비중이 절대적이다.온라인 대출 비교 플랫폼의 이자 절감 효과가 크지 않다는 문제제기는 이전부터 있었다. 플랫폼이 제시하는 금리는 소비자의 신용이나 소득, 주거래 은행일 경우 받는 우대금리 등을 제대로 반영하지 못하기 때문이다. 또 플랫폼과 제휴한 금융사의 상품만 비교·추천한다는 한계도 있다. 이에 금융감독원도 최근 “플랫폼의 비교·추천 결과가 이용자 본인에게 최저금리 또는 최적의 조건을 보장하는 것이 아님을 유의하라”는 보도자료를 내기도 했다.한 금융권 관계자는 “대출 비교 플랫폼은 소비자의 탐색 비용을 낮춰준다는 장점은 있으나, 대부분의 고객은 주거래 은행에서 대출을 받는 것이 가장 유리하다”라고 말했다. 한편 혁신금융서비스는 2019년부터 올해 9월까지 224건이 지정됐다. 김성훈 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>4대 은행 중도상환수수료 수입 최근 3년간 5000억</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005160848?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>지속된 금리 상승으로 서민들의 부담이 가중되고 있는 가운데 4대 은행의 중도상환수수료 수입이 2020년 이후 5000억원에 달하는 것으로 나타났다.13일 금융감독원의 국정감사 자료에 따르면 KB국민, 신한, 우리, 하나은행 등 4대 은행의 중도상환수수료 수입은 2020년부터 올해 7월까지 총 5226억원으로 집계됐다.은행별로 보면 KB국민은행이 1558억5100만원으로 가장 많았고 하나은행이 1326억3300만원, 우리은행이 1189억5300만원, 신한은행이 1151억7200만원 순이었다.중도상환수수료는 만기 전에 대출금을 갚으려는 사람에게 부과하는 일종의 해약금으로, 만기 미스매치에 따른 자금운용의 위험을 줄이기 위한 목적으로 부과된다. 최근 금리가 지속적으로 상승함에 따라 소비자들이 이자 부담을 줄이기 위해 중도에 대출을 상환하고 싶어도 수수료가 발목을 잡을 뿐 아니라 은행들이 최근 역대급 실적을 올리면서 건전성이 양호한 상황에서 중도상환수수료 수입이 과도하다는 지적이 나온다.다만 은행들의 중도상환수수료 수입은 2020년 이후 감소 추세를 보이고 있다. 국민은행은 중도상환수수료 수입이 2020년 700억원이 넘었으나 지난해에는 약 570억원으로 줄었다. 올해도 지난해와 비슷한 수준일 것으로 예상된다. 신한은 2020년 480억원에서 지난해 412억원으로 줄었고 우리는 513억원에서 지난해 432억원, 하나는 579억원에서 493억원으로 감소했다. 이같은 중도상환수수료 수익 감소는 인터넷은행들이 중도상환수수료를 부과하지 않는 데 따른 영향인 것으로 보인다. 카카오뱅크와 토스뱅크는 중도상환수수료를 면제하고 있으며 케이뱅크는 가계대출 일부 상품에 대해 0.7~1.4%의 중도상환수수료를 부과하고 있다. 케이뱅크의 중도상환수수료 수입은 지난해 15억1300만원, 올해 들어 7월까지 4억5900만원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스뱅크 출범 1주년…수시입출금 통장 금리 연 2.3%로 인상</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013485582?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>'키워봐요 적금' 금리는 연 4.0%로 높여토스뱅크 출범 1주년…수시입출금 통장 금리 연 2.3%로 인상[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행 토스뱅크가 출범 1주년을 맞아 전체 수신 상품 금리를 인상한다고 6일 밝혔다.    수시 입출금 통장인 '토스뱅크 통장' 금리는 0.3%포인트(p) 오른 연 2.3%를 제공한다.    토스뱅크 통장은 단 하루만 맡겨도 연 2.3% 금리를 제공하는 상품으로 최대 1억원 한도까지 조건 없이 금리를 제공한다.    매일 이자를 받을 수 있도록 한 '지금 이자받기' 서비스를 이용하면 1억원을 예치한 고객은 매일 6천301원(세전)을 지급받을 수 있다.    정기 적금 상품인 '키워봐요 적금'은 1.0%포인트 오른 연 4.0%로 금리가 인상된다.    키워봐요 적금의 기본 금리는 2.0%이며, 고객들은 월 최대 100만원 한도 내에서 자신이 설정한 금액을 6개월간 매주 자동이체에 성공하면 2.0%의 우대금리를 받을 수 있다.    단, 6일부터 적금에 신규 가입한 고객에만 인상된 기본금리 혜택이 적용된다.    토스뱅크 관계자는 "토스뱅크에 보내주신 고객들의 성원이 있었기에 지금의 토스뱅크가 있을 수 있었고, 금리 인상으로 혜택을 돌려드리고 싶었다"며 "고객들의 불편을 최소화한 기존 파킹통장과 차별화된 '토스뱅크 통장'만의 강점을 지속해서 이어나가겠다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>케뱅 올리니 토뱅도 올린다…불붙는 파킹통장 금리 경쟁</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005026981?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>케뱅 年2.5%로 올린 다음날토스뱅크도 年2.3%로 인상 인터넷은행들이 수시입출금 상품 금리를 하루가 멀다 하고 잇달아 올리면서 '파킹통장' 수신 경쟁이 격화하고 있다. 파킹통장은 입출금이 자유로우면서도 높은 수신금리를 제공하는 상품을 가리킨다. 금리 인상기에 조금이라도 후한 이율을 좇아 떠도는 자금 흐름에 기민하게 대응하면서 유동성 확보에 나서는 것이다.실제로 토스뱅크는 6일 수시입출금 통장인 '토스뱅크 통장' 금리를 연 2%에서 연 2.3%로 인상한다고 밝혔다. 케이뱅크가 파킹통장 '플러스박스' 금리를 연 2.3%에서 연 2.5%로 올린 지 하루 만이다.원래 파킹통장 대명사는 토스뱅크였다. 은행 정기예금 금리가 연 1%대였던 지난해 10월 토스뱅크는 출범과 동시에 자유롭게 돈을 넣고 뺄 수 있으며 연 2% 금리를 제공하는 통장을 내놓아 선풍적 인기를 끌었다. 이에 케이뱅크가 기업공개를 앞두고 지난 5월 플러스박스 금리를 바짝 올리며 토스뱅크를 뒤쫓았다. 연 1.0% 수준이었던 플러스박스 금리는 5월 연 1.3%로 0.3%포인트 오르더니, 지난 7월에는 0.8%포인트 상승한 연 2.1%를 기록하며 토스뱅크 금리를 추월했다. 이에 그치지 않고 케이뱅크는 8월과 9월에 0.2%포인트씩 또 인상해 연 2.5%짜리 통장을 만들었다.6일 토스뱅크가 금리를 0.5%포인트가 아닌 0.3%포인트만 올린 것은 자동이체가 가능하다는 점에서 경쟁력이 있다고 봤기 때문이라는 분석이다. 통상 고객들은 당장 쓰지 않을 자금은 고금리 정기예금에 묻어두고, 생활비 등은 파킹통장에 넣어 공과금 납부, 카드값 결제에 활용하는 사례가 많다. 토스뱅크는 "기존 금융권에서 제공하는 파킹통장은 고객이 돈을 '특정 공간'에 보관하도록 해 불편이 있었다"면서 "토스뱅크 통장은 언제 어디서든 돈을 꺼내 쓸 수 있고 보낼 수도 있으며, 연동된 체크카드를 사용해도 제약을 받지 않는다"고 설명했다. 토스뱅크는 '키워봐요 적금' 최고 금리도 연 3.0%에서 연 4.0%로 올렸다. 키워봐요 적금 고객은 중도 해지하더라도 연 2.0% 금리를 누릴 수 있다. 월 최대 100만원 한도에서 자신이 설정한 금액을 6개월간 매주 자동이체에 성공하면 2.0%포인트 우대금리를 받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스, 고객정보 85만건 보험사에 팔아 290억원 수익</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003454522?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>동의해준 고객들이 모를 수 있어일각선 약관 강화 필요성 제기도토스 “마이데이터 사업 적법절차”모바일 금융 플랫폼 ‘토스’가 고객의 개인정보 85만 건을 보험대리점 등에 제공하고 290억 원의 매출을 올린 것으로 나타났다. 토스는 마이데이터 사업의 일환으로 적법한 절차에 따라 보험 상담 중개를 한 것이라고 설명하고 있다. 하지만 금융사가 개인정보를 제3자에게 판매하는 것을 소비자들이 제대로 알 수 있도록 약관을 강화해야 한다는 지적이 나온다.  4일 국회 정무위원회 소속 황운하 더불어민주당 의원이 토스를 운영하는 비바리퍼블리카에서 받은 자료에 따르면 토스는 2018년부터 올해 8월까지 보험대리점 및 보험설계사에게 고객 데이터 84만9501건을 제공하고 중개 수수료로 290억2000만 원가량을 벌어들였다. 토스는 자사 플랫폼에서 보험 상담을 신청한 고객을 대상으로 보험설계사를 매칭해 주는 ‘보험 상담하기’ 서비스를 운영하고 있다. 고객의 이름, 생년월일, 보험 가입 정보 등을 제공하고 보험설계사와 연결되면 수수료를 받는 식이다.  토스는 올 1월 마이데이터 사업자 자격을 취득했기 때문에 고객 동의를 받아 제3자에게 개인정보를 판매하는 것이 가능하다. 마이데이터는 소비자가 원할 경우 여러 금융사에 흩어져 있는 개인정보를 한데 모아 맞춤형 정보와 금융 상품을 제공하는 서비스다. 하지만 일부 소비자 가운데 원치 않는 개인정보 제공을 했을 수 있다는 지적도 나온다. 황 의원은 “소비자들이 약관을 잘 확인하지 않거나 관련 내용을 모르기 때문에 동의를 하더라도 개인정보를 판매하는지 알기 어렵다”며 “이런 문제를 개선하도록 관련 법 개정을 추진 중”이라고 했다. 전문가들도 소비자들이 관련 약관 내용을 명확히 알 수 있도록 개인정보 제공 동의 과정을 보완해야 한다고 강조했다. 임종인 고려대 정보보호대학원 석좌교수는 “소비자들이 제대로 알고 동의할 수 있도록 동의 과정을 2단계로 나누거나 중요한 정보를 따로 강조하는 등 보완 방안이 필요하다”고 말했다. 김대종 세종대 경영학부 교수도 “마이데이터는 소비자의 정보 주권을 찾아주자는 취지에서 도입된 만큼 기업이 소비자 정보를 어디에, 어떻게 사용하는지 명확히 알려야 한다”고 지적했다. 토스 측은 “약관 강화 등 법 개정 추진 방향에 공감하며 토스도 고객이 더욱 안심하고 사용할 수 있는 서비스 환경을 구축하도록 최선을 다하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>센스톤, ‘사이버시큐리티 브레이크스루 어워드’ 수상</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002134362?sid=105</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자]  인증 보안기업 센스톤은 자사 글로벌 헤드쿼터 스위치(swIDch)가 세계적인 사이버보안 어워드인 ‘사이버시큐리티 브레이크스루 어워드’에서 사기 방지(Fraud Prevention) 부문 ‘올해의 트랜잭션 보안 솔루션’을 수상했다고 12일 밝혔다.   센스톤에 ᄄᆞ르면 사이버시큐리티 브레이크스루 어워드는 매년 글로벌 사이버 보안 시장에서의 혁신적인 제품과 솔루션을 소개하기 위해 클라우드 보안, 웹 보안, 통합 위협 관리, 암호화, 신원확인 등 각 정보보안 분야별 수상 기업을 선정한다. 혁신성, 성능, 사용자 편의성, 기능, 가치, 영향력 등을 종합 평가한다.   올해의 트랜잭션 솔루션으로 선정된 것은 센스톤의 ‘카드태깅형 모바일 OTP’다. 사용자의 결제카드를 모바일 기기에 태깅하는 것만으로 즉각적인 본인 인증과 고액 송금 서비스와 같이 추가 인증이 필요한 금융 서비스도 쉽게 이용하도록 지원한다는 설명이다.   기존의 일회용비밀번호(OTP)와 달리 사용자가 별도의 실물 OTP 기기를 소지하지 않아도 된다는 것이 특징이다. NFC 기능을 활용해 금융 서비스, 출입통제, 신분증 등 다양한 기능 확장도 가능하다. 작년 하반기 토스뱅크에 기술을 공급한 바 있으며 국내외 금융권, 공공기관, 기업 등에서도 도입 논의가 진행되고 있다.   유창훈 센스톤 대표는 “세계적인 사이버보안 어워드에서 국내 기업이 3년 연속 주요 솔루션으로 선정된 것은 매우 이례적”이라며 “현재의 기술력과 가치에 만족하지 않고 혁신적인 기술과 솔루션을 기반으로 유럽, 미주 및 아시아권 등으로의 비즈니스 영역 확대와 신시장 개척 기회를 모색하기 위해 더욱 힘쓰겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>MZ만 토스뱅크를? 50대 이상 고객 비중이 20%</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004909203?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>호기심으로 시작해, 재미 붙이고, 편안함 느끼며 안착 토스뱅크 고객 연령별 비중 /그래픽=정기현 기자     [파이낸셜뉴스]   "토스(뱅크), 그거 편하던데, 쉽고. 호기심으로 시작했는데, 매일 매일 이자 받는 것도 재밌고, 계좌 이체도 편하고 대출 조회도 쉽고. 만보기 같은 기능도 있어서 앱 켜는 맛도 있고."   토스뱅크의 올해 상반기 말 기준 50대 이상 고객의 비중은 19.7%다. 모든 서비스가 모바일 애플리케이션(앱)으로만 제공돼 2030의 전유물이 될 것이란 우려를 뒤집는 결과다. 60대 가입자 비율은 5%로 10대(7%)와 맞먹는다. 앱 자체가 그만큼 쉽고 편리하다는 뜻이다.     1년 만에 가입자 500만 육박   서울 강남구 토스뱅크 본사. /뉴스1 6일 금융업계에 따르면 토스뱅크는 지난 5일 출범 1년을 맞았다. 출범 당시 '모두의 은행'이 돼 소비자 편에 서겠다던 목표를 달성해 가고 있다. 요즘은 흔해진 '2% 파킹통장'도 토스뱅크가 원조다. 토스뱅크가 1년 만에 500만명에 가까운 고객(478만명)을 끌어모을 수 있는 기반이 됐다.   하지만 주목도가 높은 만큼 수요가 몰리면서 극심한 여·수신 불균형을 야기했다. 올 상반기 기준 토스뱅크에는 26조4000억원의 현금이 모였다. 토스뱅크가 2% 이자를 줘야 하는 돈이다.   하지만 이 기간 토스뱅크가 돈을 벌 수 있는 대출상품 즉, 총여신은 6조4000억원이 확보됐다. 다만 총수신 증가 속도는 줄고 있는 반면 총여신 증가 속도는 늘고 있다. 또 같은 기간 은행권 가계대출이 감소세로 돌아선 것에 비하면 선방했다는 평가와 그동안 적자였던 순이자수익(NIM)이 흑자로 돌아선 점은 고무적이다.   증권가에서는 토스뱅크가 수신으로 조달한 26조원 중 총여신 6조원을 제외한 약 20조원은 유가증권이나 환매조건부채권(RP) 등으로 운용하고 있는 것으로 보고 있다. 향후 대출이 늘면 이들 채권을 대출로 전환해 이자수익을 개선할 여지가 크다는 뜻이다.    중저신용자 타깃으로 대출 화대  대출을 늘려야하는 토스뱅크는 중저신용자 포용으로 방향을 잡았다. 사회 초년생, 소상공인, 중소기업 재직자, 금융이력부족자 (Thin-Filer) 등 건전한 중저신용자를 적극 발굴했다. 자체적으로 구축한 신용평가모형으로 실질 소득과 상환능력을 평가했다.   토스뱅크에서 대출을 실행한 중저신용 고객 4명 중 1명(25.6%)은 토스뱅크 자체 신용평가시스템을 통해 고신용자로 재평가됐다. 현재 중저신용자 대출 비중은 약 39%로, 올 연말까지 중저신용자 포용 목표 42%에 근접한 상태다.   또 인터넷은행 중 최초로 무보증·무담보 개인사업자 신용대출을 내놨다. 약 2만5000명 이상의 개인사업자를 대상으로 1조1000억원 가량의 대출이 실행됐다.   곧 신용보증기금과 함께 코로나19로 피해를 본 개인사업자를 대상으로 한 5.5% 고정금리 대환상품을 출시할 예정이다. #토스뱅크 #중저신용자 #2%파킹통장</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.10.08.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>흡연과 난폭운전의 상관관계?…‘이동 데이터’는 다 안다[짜먹는 모빌리티]</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004108044?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[서울경제] 마차와 기차, 자동차의 시대를 넘어 모빌리티가 이동의 미래로 떠오릅니다. 정부가 도심형 항공 모빌리티(UAM), 자율주행 차 등을 상용화하겠다고 공언한 시점도 수년 앞으로 다가왔습니다만, 이 기술은 여전히 낯설고 손에 잘 잡히지 않습니다. 일상에 필요한 모든 것이 짜먹기 간편한 스틱으로 나오는 요즘입니다. 기사들을 쓰고 읽으며 들었던 호기심에 대해 한 통만큼 취재한 다음, 한 스틱에 잘 담아내보겠습니다.데이터가 곧 돈이라는 말, 이제는 귀에 딱지가 앉을 만큼 들어봤을텐데요, 모빌리티 기업들이 차곡차곡 쌓아가는 이동 데이터 역시 몸값이 높아지고 있습니다. 데이터를 담보로 맡겨 대출을 받는 것도 이제는 예삿일입니다. 차량 공유 기업 쏘카는 지난해 12월 이동 데이터를 담보로 대출을 받기도 했습니다. 이동 데이터하면 단순히 출발·목적지 정보, 실시간 위치 같은 것들이 먼저 떠오르지만, 여러 데이터를 조합하고 톺아보면 생각보다 더 많은 정보가 내포돼 있습니다. 한 사람의 운전 습관을 파악하는 건 물론, 이동 수요의 양이나 양상을 예측하는 것, 심지어는 결제 방법과 난폭 운전 간의 상관관계 등에 대한 통찰력까지, 데이터가 가진 잠재력은 무궁무진해 보입니다. 이렇다 보니 이를 통해 소비자를 이해하고 미래 수요를 예측하려는 산업 각계에서도 눈독을 들이는 것이고요. ━모빌리티-금융계 뜨거운 ‘스킨십’이동 데이터의 활용 가능성에는 천장이 없지만 우선 금융권과의 ‘스킨십’이 가장 왕성해 보입니다. 지난해 10월 금융 플랫폼 토스가 모빌리티 플랫폼 타다의 운영사 VCNC의 지분 60%를 인수한 사실은 업계를 놀라게 했습니다. 인수 사실이 알려지면서 금융 회사가 이종 산업인 모빌리티 사업에 뛰어든다는 점이 주로 조명됐지만, 토스가 그간 다양한 데이터를 활용해 기존 금융권에서 보여주지 않던 상품들을 선보여 온 점을 생각하면, 앞으로 타다의 이동 데이터를 엮어 기존 상품들과 차별화되는 라인업을 선보일 것이라고 기대할 수 있습니다. 티맵모빌리티 역시 지난 8월 KB국민은행으로부터 2000억 원의 투자금을 유치한 후 앞으로 금융권에서 양사 시너지를 극대화하겠다고 밝힌 바 있습니다. 금융권 특히 보험 산업에서도 이동 데이터가 지니는 잠재력이 매력적일 수밖에 없습니다. 여러 이유가 있겠지만 우선 이동 데이터를 활용하면 상품 예비 가입자들에 대한 정보를 더 속속들이 파악할 수 있습니다. 그만큼 보험사들은 상품을 보다 세밀하게 설계하고 타게팅이 가능해지고 그만큼 손실을 줄이는데 도움이 될 겁니다. 겨우 시작 단계일 뿐이지만 예컨대 DB손해보험은 최근 모빌리티 기업들의 내비게이션를 활용한 특약 상품을 내놓았습니다. 내비게이션 애플리케이션(앱)이 실시간 데이터를 바탕으로 수집한 운전 점수를 기반으로 사고 위험이 낮은 운전자를 추려내 이들에게 더 저렴한 보험료를 책정했습니다.━흡연 여부, 공기압까지 수집…이용자 분석 더 세밀하게모빌리티 업계 사람들의 이야기를 들어 보면 이런 상품도 상상해볼 수 있습니다. 통상 첫 차를 마련하는, 운전 이력이 없는 가입자에 대해서 보험사에서 고려하는 사항은 겨우 차종, 나이 정도입니다. 실제로는 가입자별 사고 위험 가능성이 다양할텐데 말입니다. 만약 첫 차를 사기 전 공유 차량 서비스 이용 내역을 확인할 수 있다면 어떨까요. 보험사들은 이를 활용해 한 덩어리로 있던 첫 차 구매자들을 한층 세밀하게 구분해낼 수 있고 그에 따라 보험료도 차별화할 수 있게 됩니다. 차량 공유 업체도 금융 업계도 윈-윈하는 방향이 아닐까요.당연한 말이지만 같은 이동 데이터라도 다채로울수록 유리합니다. 카카오모빌리티나 티맵모빌리티처럼 모빌리티를 중개하는데 그치지 않고 차량을 직접 소유하며 운영하는 차량 공유 업체들은 이런 점에서 더 큰 강점을 가집니다. 쏘카는 예컨대 일반적인 이동 데이터 뿐만 아니라 전조등 점등 여부, 실시간 RPM, 주행 중 흡연 여부, 타이어 공기압 등을 수집합니다. 차량을 매입한 뒤 직접 차량에 데이터 송수신 장치를 설치한 덕분입니다. 이 회사는 데이터 활용 방식을 고민하며 흡연 여부, 결제 방식같이 일상적인 요인들을 조합해 사고 위험이나 운전 행태 같은 특성을 예측할 수 있는 지 등에도 연구를 이어가고 있습니다.━상권 분석·관광…영역 넓혀가는 모빌리티 데이터이동데이터의 활용은 현재까지 금융권에서 가장 가시적이었지만 이제 시작일 뿐입니다. 관할 지역 내 명소에 관광객들을 유입시키기 위해 머리를 싸매는 지자체는 이동 데이터를 활용해 관광객들의 이동 흐름을 파악할 수 있고, 나아가 어떤 시기 어떤 교통 인프라를 더 확충하면 될지 등에 대한 인사이트도 얻을 수 있습니다. 또 상권 분석 서비스 업체가 카카오모빌리티의 과거 이동 데이터를 통해 상권 분석 기술을 한층 고도화한 것처럼 상권 등 입지 분석 등에도 이동 데이터의 가능성은 앞으로 무궁무진할 것으로 전망됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>“보험사 88.5%, 정보보안·개인정보 보호 인증 안 받아”</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002287856?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>손보사, 삼성화재·현대해상·DB손보·KB손보 등 대형사만 인증생보사, 삼성생명 제외한 대부분 회사 인증 무관심양정숙 의원 “금융사 고객정보 보호는 생명…유지관리에 투자해야” ◆…사진=클립아트코리아 제공금융감독원의 감독을 받는 보험사 88.5%, 은행 35.0%는 정보보호 관리체계(ISMS) 또는 개인정보 보호(ISMS-P) 중 어느 하나도 인증을 받지 않은 것으로 나타났다.   ISMS와 ISMS-P는 정보통신망의 안정성·신뢰성 확보를 위한 관리적·기술적·물리적 보호조치 또는 개인정보 처리 및 보호와 관련한 일련의 조치가 관련 법에 부합하는지를 과기정통부와 개인정보보호위원회가 인증하는 제도다.   국회 정무위원회 양정숙 의원이 금융감독원과 한국인터넷진흥원으로부터 제출받은 자료를 분석한 결과 은행 20곳 중 7곳, 보험사 61곳 중 54곳은 ISMS 또는 ISMS-P를 인증받지 않은 것으로 나타났다.   국책은행인 한국산업은행과 한국수출입은행이 인증을 받지 않은 것으로 나타났고 한국스탠다드차타드은행, 한국씨티은행 등 알만한 대형은행들도 인증을 받지 않은 것으로 밝혀졌다. 지방은행으로서는 유일하게 제주은행이 인터넷은행 중에는 유일하게 토스뱅크가 인증을 받지 않았다.   보험사들의 인증현황은 더욱 충격적이다. 금감원 감독대상 61개사 중 단 7개사만 ISMS, ISMS-P 인증을 받았고 나머지 54개사는 인증을 받지 않았다.   ISMS 인증을 받은 보험사는 삼성화재, 현대해상, DB손해, 한화손해, KB손해 등 주로 대형 손해보험사들이었고 생명보험사로는 삼성생명이 유일했다. 공공기관인 보험개발원도 ISMS 인증을 받았지만 인증받은 회사 수는 손에 꼽을 수준이다.   이들을 제외한 농협생명, 신한라이프, 미래에셋생명, 하나생명 등 삼성생명을 제외한 모든 생명보험사가 아무 인증도 받지 않았고 손해보험사 중에도 캐롯손보, 메리츠화재, 롯데손보 등 대부분 보험사들이 인증을 받지 않은 것으로 나타났다.   양정숙 의원은 “금융회사들은 신용정보보호법에 따라 금융소비자들의 개인정보와 정보시스템 보호에 관한 내용을 규율하고 있어서 ISMS와 ISMS-P 인증을 의무적으로 받아야 하는 것은 아니다”라며 “시중은행 3분의 2와 대형 화재보험사들은 자발적으로 인증을 받아 소비자 보호에 나서고 있는 점을 주목해야 한다”고 말했다.   이어 “금융회사는 고객들의 가장 중요한 개인정보를 포함 금융거래 정보를 다루고 있는 만큼 정보통신망 안정화와 정보보안 사항은 자신의 생명과 같이 철저히 보호해야 하는 책임이자 의무”라며 “금융권에서 정보통신망과 정보보안에 구멍이 생기거나 장애가 발생하면 국가 경제 전체가 마비되는 대혼란을 초래한다. 금융사들이 정보통신망 보호, 유지 관리를 최우선 과제로 삼아야 할 것”이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>베이스인베스트먼트, 이태양 토스 공동창업자 영입</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011466701?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 베이스인베스트먼트 이태양 그로쓰 파트너. (사진=베이스인베스트먼트 제공) 2022.10.11. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 초기 스타트업 투자사 베이스인베스트먼트는 이태양 토스 공동창업자를 '그로쓰 파트너(Growth Partner)'로 영입했다고 11일 밝혔다.이 그로쓰 파트너는 2011년에 토스 이승건 대표와의 창업을 시작으로 스타트업 경험을 쌓으며 토스의 탄생을 함께 했다. 그는 토스의 초기 보안 설계, 제품 개발, 조직 정비 등을 경험했다. 또 토스 최초의 PO(Product Owner)로서 초기 서비스 성장을 이끌었다. 이후 스타트업 엑셀러레이터에서 수석 심사역으로 재직하던 중 베이스인베스트먼트에 합류하게 됐다.이 그로쓰 파트너는 베이스인베스트먼트에 상근하며 초기 스타트업의 가설 검증, 프로덕트 개발, 조직 문화 정립 등을 지원할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>'천당→지옥' 단 1년…네카오 바라보는 개미들의 싸늘한 눈초리</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004805610?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>[편집자주] 한국IT를 상징하는 네이버와 카카오의 기업가치가 추락세다. 비단 외형만이 아닌, 성장성 둔화라는 내재적 고민이 깊다. 시장과 국민들이 양사에 보내던 신뢰에도 생채기가 났다. 양사의 추락은 한국 IT산업 전체에 부정적인 여파를 미친다. 최근 두 회사의 위기 원인을 짚고 다시금 IT 대표주자로서 리더십 회복을 위한 제언을 모색한다.[[MT리포트] 벼랑끝 네카오, 신뢰회복이 답이다(上)]━어쩌다 이 지경까지…추락하는 한국 IT의 자존심 네카오━한국 IT(정보기술) 산업을 이끌어오던 네이버(NAVER)와 카카오가 벼랑끝에 내몰렸다. 기존 사업의 성장세는 둔화하는데 새로운 먹거리는 당장 성과가 나지 않고 있다. 사업의 부침만큼 힘겨운 건 두 기업을 '골목대장'으로 바라보는 국민들의 싸늘한 눈초리다.글로벌 경기 침체에 더해 양사가 보여준 미래 비전의 불확실성, 특히 카카오의 임원진 주식 먹튀 논란 등 도덕적 해이와 계열사 쪼개기 상장 논란 등이 복합적으로 작용했다.  IT 업계 안팎에선 두 회사가 현재의 위기를 극복하고 '대한민국 IT의 심장'으로 다시 일어서기 위해 뚜렷한 신사업 성과와 비전, 덩치에 걸맞는 도덕성을 보여줘야한다는 목소리가 크다.■ 한때의 유망주에서 개미들 '곡소리' 대상으로12일 한국거래소에 따르면 이날 네이버 주가는 16만2000원에 마감했다. 1년 전인 지난해 10월 12일 37만2000원에서 56.5% 줄었다. 이날 카카오 주가도4만9850원으로 1년 전의 11만3500원보다 56.1% 줄었다. 이 기간 줄어든 양사의 시가총액만 64조원에 달한다.양사의 기업가치 하락을 이끈 것은 성장세의 둔화다. 네이버는 올해 2분기 2조458억원의 역대 최대 매출을 기록했지만 영업이익은 3362억원으로 전년 동기 대비 0.2% 증가에 그쳤다. 팬데믹 시기 40%대 성장률을 기록한 커머스 부문은 지난해 3분기 30%대, 같은 해 4분기 20%대로 주저앉았다. 올해 2분기는 19.7%까지 떨어졌다.카카오의 성장을 이끌던 톡비즈 부문도 활력을 잃고 있다. 2019~2020년 분기별로 70%가 넘는 매출 성장률을 기록했으나 지난해 3분기부터 30%대로 주저앉았다. 올해 2분기엔 16.1%에 그쳤다. ■ 실종된 위기관리능력…위기 '증폭' 네카오남궁훈 카카오 대표가 지난 7일 서울 여의도 국회에서 열린 정무위원회의 공정거래위원회, 한국소비자원, 한국공정거래조정원에 대한 국정감사에서 증인 선서를 하고 있다. /사진=뉴스1네카오의 뚜렷한 위기 원인에 비해 극복 방안은 명확치 않다. 팬데믹 시기의 고성장에 따른 기저효과로 주요 매출이 둔화할 수밖에 없는데, 인건비와 광고비 등 치솟은 영업비용은 낮아질 기미가 보이지 않는다.더욱이 카카오는 카카오뱅크, 카카오페이, 카카오게임즈 등 자회사를 잇따라 상장 시키면서 '쪼개기 상장' 논란을 일으켜 기업가치 하락을 자초했다. 상장 후에 계열사 임원들이 주식을 대량 매도해 '먹튀'라는 불명예까지 안았다. 네이버는 2020년부터 외형 성장을 이끌었던 이커머스, 광고를 이을 '혁신 사업'을 발굴하지 못하고 있다. 더욱이 지난 4일 '포쉬마크' 인수 발표에 대한 시장 반응은 차가웠다. 뚜렷한 비전이 안 보이는 상황에서 다소 비싸게 인수한 것 아니냐는 의심의 눈초리가 반영된 것이다.■ 네카오의 추락, 한국IT도 죽는다최수연 네이버 대표가 지난 4월 13일 오전 경기도 성남시 분당 네이버 제2사옥 '1784'에서 열린 '네이버 밋업'(NAVER Meetup) 행사에서 글로벌 비전을 설명하고 있다. /사진=뉴스1네카오의 위기는 한국 IT산업 전체의 위기로 번질 수 있다. 대한민국 IT를 대표하던 두 기업이 시장과 국민의 신뢰를 잃어버린다면 전반적인 IT생태계에 대한 기대감이 떨어지고, 이는 스타트업 생태계와 테크산업 전반의 투자 위축을 불러올 수 있어서다. 결국 네카오가 설득력 있는 미래 비전을 제시하고 글로벌 신사업을 발굴하며 시장의 신뢰를 회복하는 것이 한국 IT산업을 회복시키는 길이라는 평가다.전성민 가천대 경영학과 교수는 "네이버와 카카오는 기존 대기업들과 달리 창업 초기부터 오픈 이노베이션을 추구하며 여러 스타트업들을 인수하거나, 때로는 내부 인사가 나가서 창업하며 새로운 혁신을 만들어왔다"며 "네카오의 위축이 지금처럼 지속된다면 스타트업의 퇴로가 막히는 등 생태계 전반에 악영향을 줄 수 있다"고 바라봤다.유병준 서울대 경영학과 교수는 "네카오의 어려움이 길어질수록 최근 가뜩이나 축소된 벤처투자 시장에서 IT서비스기업 전반에 대한 전망 자체가 안좋아질 수 있다"며 "기업 이미지 쇄신을 위해 카카오페이 등의 이슈에 대해 보다 책임감 있게 명확한 메시지를 내는 등 회사 차원에서 시장과 적극적으로 소통하려고 노력해야 한다"고 말했다.━"대출 때문에 투잡" "이혼위기"…빚투 직원마저 한숨뿐인 '네카오'━네이버(NAVER)와 카카오의 기업가치가 연일 하락하면서 회사 내부 분위기도 침체되고 있다. 주가 급락과 도덕성 논란 등으로 회사 이미지가 악화한 데다 주가 급락에 따라 성과 보상도 축소가 불가피하다. 한국 IT(정보기술)산업을 이끌어가던 네이버·카카오 직원들의 자부심에도 금이 갔다.■ 침체된 네이버 사내 분위기…희망의 불씨는 남겨뒀다 경기도 성남시 분당구 네이버 본사 모습. /사진=뉴스1  네이버 내부 분위기가 침체된 가장 큰 영향은 '주가'다. 회사의 성장성을 믿고 빚을 내 네이버 주식에 투자한 직원들이 많기 때문이다. 직원들끼리 이야기를 나누다가도 주식이 주제로 나오면 한숨을 쉬거나 고개를 숙이는 이들이 적지 않다. 하지만 많은 직원들은 최근의 주가 폭락이 기업가치 하락 탓이라기보다는 시장의 영향이 크기에, 언젠가 반등할 것이라는 희망을 놓지 않고 있다.최근 주가 하락에 영향을 미친 포쉬마크 인수나 실적 하락에 대한 우려는 과도하다고 보는 시각이 대다수다. 네이버 계열사 직원 A씨는 "주가 부정 리포트도 대부분 광고 매출을 우려하는 쪽이 많은데, 애초에 네이버는 2~3년 전부터 광고 부문이 '지는 해'라고 생각하고 있어 사업상 압박도 별로 없었다"며 "오히려 쇼핑으로 재미를 보면서 글로벌 커머스를 강화하는 추세인데, 스페인의 왈라팝이나 미국의 포쉬마크 인수 모두 같은 방향"이라고 바라봤다.스톡옵션으로 손해를 본다는 여론도 거의 없다. 네이버는 스톡옵션 대신 '스톡그랜트' 제도를 도입해 자사주를 상여금 형태로 무상 지급하고 있다. 스톡그랜트는 스톡옵션과 달리 행사 기간이 정해져 있지 않고 즉시 팔 수 있다. 주가가 크게 빠지기 전에 처분하면 된다고 생각하는 것이다. 네이버 직원 B씨는 "주식을 가진 직원 중 상여로 받은 경우가 많다"며 "가격이 다소 아쉽기는 하지만, 크게 타격은 없는 편"이라고 설명했다.■ "공동체 관리할 리더십 보여달라" 내부 비판 마주한 카카오경기도 성남시 판교에 위치한 카카오 아지트. /사진=배한님 기자반면 카카오 공동체에서는 카카오페이·카카오뱅크 임원의 '먹튀' 사태 이후 신뢰 회복을 요구하는 직원들의 목소리가 여전하다. 황운하 더불어민주당 의원에 따르면 우리사주를 매입한 직원 1인당 평균 손실은 카카오페이가 1억6000만원, 카카오뱅크가 2억3000만원에 달한다. 카카오 직원 C씨는 "우리사주 대출을 갚기 위해 투잡을 뛴다거나, 빚 문제로 이혼했다는 이야기까지 나온다"고 전했다.경영진이 '광고 확대' 외의 비전을 제시해야 한다는 요구도 나온다. 각 계열사의 중복 사업을 효율적으로 관리하려면 CAC(카카오공동체 얼라인먼트 센터)가 키를 쥐고 리더십을 보여줘야 한다는 것이다. 카카오 계열사 직원 D씨는 "카카오엔터테인먼트와 카카오픽코마, 카카오엔터프라이즈와 카카오브레인 등은 사업 영역이 일부 중첩돼 효율이 떨어진다"며 "정작 카카오뱅크와 카카오페이는 페이먼트 시스템과 플랫폼을 합쳐 영업하는 '토스'만한 시너지를 내지 못하고 있다"고 쓴소리를 했다.당분간 주가가 반등하기 힘들 것이란 인식도 팽배하다. 계열사마다 상장을 따로 하면서 기업가치가 나뉘는데, 이를 극복할만한 카카오 주식만의 매력이 쉽게 보이지 않는다는 것이다. 카카오 계열사 직원 E씨는 "앞으로 엔터테인먼트, 엔터프라이즈, 커머스 등이 상장하게 될 경우 본체 카카오의 비즈니스는 모회사로서의 연결매출 영역을 제외하면 광고 사업 위주로만 남게 된다"며 "사업 분산에 따른 주가 침식 효과가 있을 것"이라고 우려했다.━국민주에서 개미무덤 된 '네카오'…"제자리 찾아가" vs "너무 빠졌다"━천당이 지옥으로 바뀌는 데 1년도 걸리지 않았다. 지난해 하반기 장중 고점을 찍었던 주가가 바닥으로 주저앉은 '네카오'(NAVER+카카오) 얘기다.'국민주' 칭송을 받으며 고공행진하던 '네카오'는 과거 영광을 되찾을 수 있을까. 수많은 개미의 운명을 쥔 네카오의 현재와 미래를 여의도 증권가에 물었다.■ 올해만 -50% 이상 빠진 '네카오'…"주가 제자리 찾아가는 중"윤지호 이베스트투자증권 리서치센터장은 "최근 네이버와 카카오 주가가 과하게 빠지긴 했지만 예전과 같은 수준으로 돌아가기는 어려울 것"이라며 "그동안 과도한 밸류에이션을 받았던 게 제자리를 찾아가고 있다"고 말했다.네카오 주가는 올해 들어 꾸준히 우하향 곡선을 그렸다. 네이버와 카카오 모두 50% 이상 빠졌다. 코로나19(COVID-19) 팬데믹 당시 급등했던 플랫폼 기업 주가가 엔데믹 전환기를 맞아 힘을 잃었기 때문이란 분석이 나온다.윤 센터장은 "시대가 바뀌어 두 종목의 성장이 예전 같지 않을 것"이라며 "설사 증시가 다시 오른다 해도 시장 트렌드 자체가 바뀌긴 어렵다"고 판단했다./사진=최헌정 디자인기자반면 주가가 지나치게 빠졌다며 조만간 흐름이 달라질 것이란 의견도 나온다. 이승훈 IBK투자증권 리서치센터장은 "금리인상이 계속 현 추세와 같지는 않을 텐데 추후 긴축 움직임도 잦아든다면 네이버, 카카오 둘 다 디레이팅 구간이 마무리될 것"이라고 전망했다.특히 최근 네카오를 둘러싼 개별 이슈가 빗발치면서 주가에 직격탄이 가해진 것에 주목할 필요가 있다는 지적이다. 이 센터장은 "네이버는 M&amp;A(인수합병)와 부정적 리포트 등으로 과매도 구간에 진입했다"며 "카카오 역시 개별 자회사 이슈,  블록딜 등으로 수급에 문제가 생기면서 공매도 대상이 됐다"고 설명했다.네이버 M&amp;A 이슈는 2조3000억원을 들여 북미 중고거래 패션플랫폼 포쉬마크(Poshmark)를 인수키로 한 내용이다. 이 센터장은 "전 세계적으로 유동성에 대한 불안감이 큰 상황에서 인수 타이밍은 물론 가격 역시 좋지 않았다"고 지적했다. 이어 "포쉬마크가 흑자회사도 아니다 보니 향후 네이버 수익성에 문제가 발생할 것이란 우려도 주가에 반영된 듯하다"고 말했다.네이버 본사카카오는 '쪼개기 상장' 문제를 두고 개미들의 마음을 잃었다. 앞서 카카오가 카카오게임즈(2020년 9월), 카카오뱅크(2021년 8월), 카카오페이(2021년 11월)를 잇달아 분리하면서 본주 가치가 추락했다는 비판이다. 게다가 카카오게임즈의 자회사 라이온하트 스튜디오를 상장한다는 소식은 분노를 키웠다. 이에 대해선 증권가 평가가 엇갈렸다. 윤 센터장은 "카카오는 지나치게 자회사 상장을 많이 했다"며 "그간 국내 증시의 시가총액과 인덱스(지수) 간 괴리가 오게 된 원인이 더블카운팅(중복계산) 이슈인데 이 문제의 직격탄을 맞은 게 바로 카카오"라고 말했다.그러면서 "카카오는 자회사 상장 이슈, 네이버는 포쉬마크 인수 등으로 앞으로 성장동력을 찾지 못할 것이라는 우려에 투자자들이 실망했다"고 지적했다.익명을 요구한 한 증권사의 리서치센터장 역시 "네이버는 PBR(주가순자산비율)이 1.1배 이하로 떨어지며 접근하기 좋은 밸류에이션까지 내려왔지만 인수 이슈가 발생했고, 카카오는 심지어 네이버보다 밸류가 비싼데 상장 추진 문제로 불확실성을 높였다"고 설명했다이어 "의사결정이 빠르다는 네카오식 기업문화가 과거에는 장점일 수 있으나 불안정한 시장에서는 디스카운트 요인일 수 있다"고 밝혔다.그와 달리 카카오의 자회사 상장 이슈는 이제 조금 지나간 문제라는 목소리도 나온다. 예컨대 최근 상장을 앞둔 라이온하트는 애당초 별개 법인으로 설립된 이후 카카오게임즈에 인수된 만큼 앞선 사례들과 구별된다는 설명이다.이 센터장은 "라이온하트는 원래 카카오게임즈 안에 있다가 분사되는 게 아니라 인수 후 IPO(기업공개)를 하는 경우로 기존 사례들과 결이 조금 다르다"며 "빅테크는 M&amp;A나 신사업 투자를 바탕으로 성장하는 만큼 이에 대한 시비를 다루기는 조금 어렵다"고 강조했다.그러면서 "네이버의 경영진을 두고도 이견이 나오지만 조금 더 지켜봐야 할 것이며 카카오도 새로운 대표가 선임되고 최근 주주친화정책을 신경을 쓰고 있는 만큼 당장 자회사가 국내 시장에서 IPO 하는 등의 이슈는 없을 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스, 개인·신용정보 85만건 팔아 290억원 벌어</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003740385?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>토스가 약 85만건에 달하는 개인·신용정보를 판매해 약 290억원을 벌어들인 것으로 나타났다. 이용자 동의를 거치는 등 법적으로 문제 될 부분은 없지만, 이용자 보호를 보다 강화해야 한다는 지적이다.   3일 국회 정무위원회 황운하 의원(더불어민주당)은 입수한 자료를 토대로 비바리퍼블리카(토스)가 2018년부터 올해 8월까지 토스 앱 내 보험상담을 신청한 이용자의 개인·신용정보 84만9501건을 법인 보험대리점과 개인 보험설계사에게 판매해 290억2000만원 상당의 매출을 올렸다고 주장했다.   토스는 지난 6월 앱 이용자의 개인정보를 1건당 6만9000원에 판매해 논란이 불거진 바 있다. 당시 토스는 “본인신용정보관리업(마이데이터)사업자 자격을 올해 1월부터 획득하였기 때문에 관련 법령에 따라 ‘데이터 판매 및 중개 업무’를 수행할 수 있으므로, 개인·신용정보 판매는 법적으로 문제가 없고, 현행법상 개인·신용정보 제3자 제공 동의만 받으면 유상고지를 하지 않아도 문제가 없다”는 입장을 표명했다. 다만, 개인정보 유상판매 논란이 일자 지난 6월경 앱 이용자 약관에 이용자 정보가 유상판매 될 수 있다는 내용을 포함해 약관을 개정하였다.    황 의원은 “현행법률상 토스의 주장처럼 마이데이터사업자가 개인정보 제3자 제공 동의만 받으면 개인정보를 제3자에게 유상으로 판매해도 법률상 문제가 없는 것은 일면 타당성이 있는 주장”이라면서도 “일반 이용자 입장에서 약관을 확인하지 않거나, 관련 내용을 잘 모르기 때문에 개인정보를 판매하는지 인식하지 쉽지 않아 이용자 보호를 강화해야 할 필요성이 있다”고 지적했다.   황 의원은 개인정보처리자가 수집·이용한 개인정보를 제3자에게 유상 판매할 경우 개인정보를 제공받는 자를 명확히 하고, 그 대가를 사전에 고지한 후 실제 개인정보가 유상제공 되었을 때 관련 내역을 개인정보 주체에게 고지하는 취지의 법안 발의를 준비 중이다.   황 의원실에 따르면 토스는 지난 6월 이후에도 이용자 개인정보를 보험설계사에게 유상판매하는 서비스를 제공 중이다. 황 의원은 “개인정보를 유상으로 매수한 보험설계사의 경우 영업비용을 감안해 보험영업 시 보험설계사 수당이 높은 상품을 판매할 수밖에 없어, 결국 모든 비용은 소비자에게 전가되는 문제점이 있다”고 우려를 표했다.   그는 “현행법상 플랫폼 사업자가 이용자의 정보를 모두 팔아 이익을 취해도 막을 수 없는 구조”라며 “마이데이터 사업 합법화로 이용자의 모든 금융정보까지 유통될 수 있는 위험이 있는 만큼, 법 개정을 통해 소비자를 두텁게 보호할 필요성이 있다”고 말했다.   이에 대해 비바리퍼블리카 관계자는 “이용자 개인·신용정보 84만9501 건은 지난 4년간 토스에 보험상담을 신청하고, 이름·생년월일·보험연령·성별·보험가입정보 등 필수 개인정보 제공에 동의한 고객의 규모”라며 “290억2000만원도 개인정보를 판매해서 얻은 이익이 아니라 지난 4년 동안 토스 보험사업의 총 매출 규모로 보는 편이 타당하다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>시중은행 평균 연봉 1억500만원…인뱅은 9200만원</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011461177?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>기사내용 요약국민은행 1억1200만원 가장 많아[서울=뉴시스] 고승민 기자 = 쌀쌀한 날씨를 보인 20일 오전 서울 광화문 사거리에서 긴소매 옷 등을 입은 직장인들이 출근하고 있다. 2022.09.20. kkssmm99@newsis.com[서울=뉴시스] 이정필 기자 = 국내 4대 시중은행의 지난해 평균연봉이 1억500만원을 넘어섰다. 인터넷전문은행은 9200만원대로 나타났다.6일 국회 강민국 의원실이 금융감독원에서 받은 국정감사 자료에 따르면, 국내 4대 시중은행 전체 직원 평균연봉은 1억519만원으로 집계됐다.은행별로는 국민은행이 1억1200만원으로 가장 높았다. 신한은행은 1억690만원, 하나은행은 1억600만원으로 뒤를 이었다. 우리은행은 9586만원으로 나타났다.이들 4사의 정보기술(IT) 직원 평균연봉은 1억974만원으로 조사됐다. 하나 1억2400만원, 국민 1억1300만원, 신한 1억626만원, 우리 9570만원 순이다.인터넷은행 전체 직원 평균연봉은 9189만원으로 집계됐다. 토스뱅크 9813만원, 카카오뱅크 9700만원, 케이뱅크 8054만원 순이다.이들 3사의 IT 직원 평균연봉은 9609만원 수준이다. 카카오뱅크 1억1100만원, 토스뱅크 9310만원, 케이뱅크 8417만원 순이다.8월말 현재 시중은행과 인터넷은행, 증권사, 빅테크 전체 임·직원 대비 IT 인력이 차지하는 비중은 10.1%로 나타났다.강민국 의원은 "금융업권 전체 인력 중 IT 인력이 10% 수준밖에 되지 않아, 금융 분야의 디지털 전환 가속화 등 새로운 보안 리스크에 효과적으로 대응할 수 있을지 우려된다"며 개선 방안을 당국에 촉구했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>인질 마케팅? 적금 만기 달성해야 한도계좌 풀어주는 카뱅</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003048483?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>고객 자금이체를 제한하는 한도계좌 해제 방법 중 하나로 카카오뱅크가 특정 상품을 가입하는 방식을 허용하고 있어 '인질 마케팅' 논란이 일고 있다. 시중 은행 일부 지점에서 직원 실적 확보 등에 악용되던 방식을 카카오뱅크 고객 전체에 적용하면서 한도계좌 본래 취지인 대포통장 예방 목적에도 어긋난다는 지적이다.3일 업계에 따르면 카카오뱅크는 서류 제출 없이 한도 계좌를 해제하는 방법으로 '26주 적금 만기 달성'을 조건으로 두고 있다.금융거래한도계좌(한도계좌)는 1일 출금 및 이체한도가 제한되는 계좌를 뜻한다. 금융사는 입출금 통장 개설시 대포통장 피해 예방을 위해 금융거래 목적을 확인할 수 있는 증빙서류 제출을 요구한다.이때 필요한 증빙서류는 각 은행이 자사 운영지침에 따라 모두 다르다. 다만 통상 개인의 경우 재직증명서나 급여명세표 등 급여 수령을 입증할 수 있는 자료, 법인의 경우 사업자등록증이나 법인등기부등본 등 다소 까다로운 객관적 증빙자료를 필요로 한다.카카오뱅크는 증빙서류 제출 외에 자동해제 요건을 두고 있다. 26주적금 만기를 달성하거나 모임통장 회비 납부 등 조건을 충족하면 이체 한도를 풀어준다. 다른 증빙에 비하면 난이도가 낮은 편이다. 적금 가입이 불필요한 고객도 계좌 이체한도를 늘리기 위해 울며 겨자먹기로 26주 적금에 가입하는 경우가 적지 않다.26주 적금통장은 카카오뱅크 대표 상품이다. 2018년 6월 출시해 지난해 말 기준 1000만계좌를 돌파했다. 카카오뱅크가 26주 적금을 활용한 '자동해제' 요건을 도입한 것은 2019년이다. 최초 가입자 대부분이 한도계좌를 받게 되는 것을 고려하면, 자동해제 요건과 26주 적금 가입자 증가와의 상관관계를 의심할 수 있다.실제 지난해 카카오뱅크의 사기이용계좌(대포통장) 수는 2017년 199건 대비 2021년 2705건으로 13.6배 늘어난 것으로 나타났다. 케이뱅크의 경우 같은 기간 157건에서 423건으로 2.7배 늘었다.같은 인터넷전문은행이지만 토스뱅크나 케이뱅크는 특정 상품 가입을 조건으로 두지는 않는다. 토스뱅크의 경우 마이데이터를 통해 재직 여부를 확인하며, 무직자의 경우 아파트 관리비나 공과금 납부 이력을 살핀다. 케이뱅크는 여기에 '공동인증서'를 통한 재직 정보 확인을 추가로 지원한다.카카오뱅크 관계자는 “사기이용계좌가 늘어난 것은 고객 수가 급증하는 과정에서 비롯된 자연스러운 결과”라며 “한도계좌 해제를 26주 적금 마케팅 목적으로 이용했다는 주장은 비약이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>핀테크 앱으로 '최저금리 쇼핑'하려면</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004761287?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>토스·카카오페이·핀다 3개社금융사 대출금리 비교 서비스시중은행 주택담보대출 금리 상단이 연 7%를 웃돈다. 금융 소비자들은 조금이라도 대출금리를 깎기 위한 총력전에 나섰다. 여러 대출 상품의 한도와 금리를 한눈에 비교할 수 있는 핀테크 서비스 열풍이 불고 있는 이유다.국내 대출비교 서비스는 토스와 카카오페이, 핀다 등 3개사로 압축된다.토스를 이용하면 현재 총 52개 금융사의 상품을 비교할 수 있다. 52개 금융사는 신한, 우리 등 시중은행, 주요 지방은행과 저축은행 등 제1·2금융권이다. 인터넷은행 가운데서는 토스뱅크와 제휴를 진행 중이다. 신용대출과 사업자대출 상품을 모두 취급한다.대출 비교 서비스는 토스 앱 내 전체 탭에서 대출받기 메뉴를 눌러 이용할 수 있다. 이용자 개인의 신용정보에 따라 대출 한도 및 최저금리를 제안해준다.핀다는 앱 내 ‘대출조회’를 누르면 62개 금융사의 대출상품을 한 번에 비교해준다. 핀다가 비교해주는 상품은 주로 신용대출, 전월세대출, 대환대출 등 가계대출 상품이다.‘전월세대출’ 메뉴를 이용해 신청자의 소득, 결혼 유무, 보증금, 대출 보유 여부 등을 입력하면 조건에 맞는 정부지원 전세대출과 국민은행 대출 상품을 자동으로 추천해준다. 마이데이터 서비스를 통해 대출을 신청하려는 은행에서 데이터를 끌어오면 계좌 잔액 조회와 원리금 납부 알림 서비스도 신청할 수 있다.카카오페이는 지난 9월 97개 금융사의 600여 개 정기 예·적금 금리를 비교할 수 있는 서비스를 출시했다. 국민 신한 하나 우리 농협 등 5대 시중은행 중 신한, 하나, 우리은행의 신용대출 상품 조회가 가능하다. 인터넷은행 중에서는 케이뱅크의 신용대출 상품도 조회할 수 있다. 이용자는 기간, 우대금리, 금리 유형, 비대면 가입 여부 등 필터를 설정해 예·적금 상품 중 자신이 원하는 조건의 상품만 조회할 수 있다.담보대출 비교 플랫폼 담비는 대출 비교 후 해당 금융사 앱으로 넘어가 곧바로 대출을 신청할 수 있게 서비스를 연동했다. 소비자가 원하는 시간과 장소에서 전속 대출상담사 및 금융사 직원과 대면 상담도 진행해준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>점포 줄고 디지털 대세인데…4대은행 IT인력은 8.2% 불과</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005157692?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>4대 시중은행의 IT(정보기술) 인력 비중이 전체 임직원의 10%에도 미치지 못하는 것으로 나타났다. 은행 오프라인 점포가 점차 사라지고 디지털 분야로 은행 서비스가 계속 옮겨지고 있는 상황에서 뱅킹 서비스, 보안 등을 담당하는 IT 인력이 미흡하다는 지적이 나온다.아시아경제가 6일 강민국 국민의힘 의원실을 통해 금융감독원에서 입수한 ‘시중은행  IT 인력 현황’ 자료(8월말 기준)에 따르면 KB국민·신한·우리·하나은행의 전체 임직원 대비 IT 인력 비중은 평균 8.2%에 불과했다. 전체 임직원 5만4863명 중에서 IT 관련 임직원 수는 4493명이었다.은행 중에서 IT 인력이 가장 많은 국민은행의 경우에도 여전히 10%에도 못미쳤다. 전체 임직원 1만6848명 중 IT 인력은 1642명으로 전체 9.7%를 차지했다. 하나은행이 8% 수준으로 뒤를 이었다. 전체 1만1361명의 인원 중에 909명이 IT 관련 인력이었다. 신한은행은 전체 1만3612명 중 IT 인력이 1040명으로 7.6% 수준에 불과했다. 우리은행은 1만3042명 중 902명으로 4대 은행 중에서 가장 저조했다. 물론 은행들도 속사정이 있다. 디지털 전환을 위해 IT 인재 확보 기조를 계속 유지하고 있지만, 유능한 개발자들은 은행보다는 게임사 등 IT기업을 선호하는 경향이 강하다.인터넷전문은행 3사의 경우 오프라인 지점이 없다 보니 상대적으로 IT 인력 비중이 높은 편이지만, 지난해 말에 비해 오히려 IT 인력 비중은 줄어든 것으로 파악됐다. 인터넷전문은행 3사는 IT 인력 비중이 지난해 말 평균 48% 수준이었나 8월말 기준 34.4%로 떨어졌다. 전체 임직원 2134명 중에서 734명이 IT 관련 인력이었다.은행별로 살펴보면 토스뱅크의 경우 전체 337명의 직원 중 192명이 IT 인력으로, IT 인력 비중은 지난해 말 70%에서 57% 수준으로 떨어졌다. 카카오뱅크도 지난해 말 42%가 IT 인력이었지만 25.1%로 비중이 감소했다. 전체 1335명의 직원 중 333명이었다. 케이뱅크는 전체 462명 중 209명이 IT 인력으로 46.1%를 차지했다.증권사들의 경우에도 IT 인력 부족 현상이 더욱 심각했다. 미래에셋증권·한국투자증권·NH투자증권·삼성증권의 총 1만2400명의 임직원 중 IT 임직원 수는 856명으로 비중은 6.9%에 불과했다. 최근 모바일트레이딩시스템(MTS)·홈트레이딩시스템(HTS) 전산 오류로 홍역을 치른 한투의 경우 IT 인력 비중이 9.9% 수준이었다. 삼성증권(6%), NH증권(6%), 미래에셋증권(5.9%)로 나머지 증권사들의 IT 인력 비중은 모두 10%에도 한참 못 미치는 것으로 나타났다.강 의원은 "금융권 IT 인력 채용 실적이 저조해 금융 분야의 디지털 전환 가속화 등 새로운 보안 리스크에 효과적으로 대응할 수 있을지 심히 우려된다"며 "금융위원회는 현재 금융보안원의 금융보안 거버넌스 가이드상 권고 조치에 불과한 금융회사의 IT 인력 확보 수준을 국내외 사례 및 업계 의견 등을 수렴해 현재 개정 추진 중인 전자금융거래법의 하위 규정에 명기시키는 것이 필요하다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>센스톤, '사이버시큐리티 브레이크스루 어워드' 3년 연속 수상</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002270518?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>'카드태깅형 모바일 OTP' 올해의 트랜잭션 솔루션으로 선정…"국내외 금융권, 공공기관 등 도입 논의 진행"국내 인증 보안 전문기업 센스톤의 글로벌 헤드쿼터 스위치(swIDch)가 세계적인 사이버보안 어워드인 ‘사이버시큐리티 브레이크스루 어워드’에서 사기 방지 부문 ‘올해의 트랜잭션 보안 솔루션’을 수상했다고 12일 밝혔다.‘올해의 트랜잭션 솔루션’으로 선정된 센스톤의 ‘카드태깅형 모바일 OTP’는 사용자의 결제카드를 모바일 기기에 태깅하는 것만으로 즉각적인 본인 인증은 물론, 고액 송금 서비스와 같이 추가 인증이 필요한 금융 서비스도 안전하고 쉽게 이용하도록 한다.기존의 OTP와 달리 사용자가 별도의 실물OTP 기기를 소지하지 않아도 되며, NFC 기능을 활용해 금융 서비스, 출입통제, 신분증 등 다양한 기능 확장도 가능하다는 점에서 긍정적인 평가를 받았다. 센스톤은 지난해 하반기 토스뱅크에 해당 기술을 공급했으며, 국내외 금융권, 공공기관, 기업 등에서도 도입 논의가 진행 중이다.센스톤 로고올해로 5회를 맞이한 ‘사이버시큐리티 브레이크스루 어워드’는 매년 글로벌 사이버 보안 시장에서의 혁신적인 제품과 솔루션을 소개하기 위해 클라우드 보안, 웹 보안, 통합 위협 관리, 암호화, 신원확인 등 각 정보보안 분야별 수상 기업을 선정한다.기술 전문가뿐만 아니라 비즈니스, 학술 및 마케팅 등 다방면의 전문가로 구성된 심사 위원단이 혁신성, 성능, 사용자 편의성, 기능과 가치, 영향력 등을 종합 평가해 최종 수상자를 선정 시상한다.한편, 센스톤은 글로벌 시장 진출에 주력 중이다. 지난 9월에는 KB금융그룹의 ‘KB스타터스 싱가포르’에 선정되면서 싱가포르 거점을 기반으로 아시아 시장을 겨냥한 비즈니스 활동을 활발히 진행했다. 올 하반기에 개최되는 세계 최대 규모 네트워크 전시회인 NetworkX2022(Broadband World Forum), 싱가포르 핀테크 페스티벌 등에도 참가해 페이먼트, IoT 등을 위한 인증 보안 솔루션을 선보일 예정이다.센스톤은 이번 어워드 수상을 비롯한 글로벌 시장에서의 가치 증명을 발판삼아 글로벌 네트워킹 및 파트너십 구축에 박차를 가한다는 계획이다.유창훈 센스톤 대표이사는 “세계적인 사이버보안 어워드에서 국내 기업이 3년 연속 주요 솔루션으로 선정된 것은 매우 이례적”이라며 “현재의 기술력과 가치에 만족하지 않고 혁신적인 기술과 솔루션을 기반으로 유럽, 미주 및 아시아권 등으로의 비즈니스 영역 확대와 신시장 개척 기회를 모색하기 위해 더욱 힘쓰겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>기준금리 3% 성큼… “건물주보다 예금이 낫다”</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000846536?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>울산 소재 중소기업을 운영 중인 대표 A씨(63) 부부는 부동산 중심으로 구성했던 은퇴 이후 자산에 대한 포트폴리오를 최근 수정했다. 금리가 오르고 부동산 경기가 꺾이면서 기존 계획보다 보유 현금 비중을 늘리는 게 낫다는 판단에서다.A씨는 “그동안 민간임대사업자인 아내와 함께 저금리 대출 레버리지를 활용해 토지 등 부동산을 매입하고 개발해 건물 매매 차익 및 임대 수익을 거두고 다시 부동산에 재투자하는 식으로 노후 대비 자금을 굴려왔는데 금리, 비용, 세금 등을 따지면 지방 부동산 수익보다 예금 수익이 더 나은 상황”이라고 말했다.부동산과 주식 시장이 부진한 가운데 금리가 거듭 오르면서, 유동 자금이 예금 등 안정적인 금융 상품으로 이동하는 ‘역(逆) 머니 무브’ 현상이 심화할 전망이다.11일 금융업계에서는 오는 12일 한국은행 금융통화위원회(금통위)가 인플레이션과 미국의 금리 인상, 환율을 방어하기 위해 기준금리를 현 연 2.5%에서 0.5%포인트(p) 올리는 이른바 ‘빅스텝’을 단행할 것이란 관측이 제기됐다. 시장 충격을 감안해 0.25%p만 올리더라도 연내 기준금리 연 3% 시대가 열릴 것이란 시각이 지배적이다.사진은 이창용 한국은행 총재가 지난 8월25일 오전 서울 중구 한국은행에서 금융통화위원회 정기회의를 주재하고 있는 모습. /뉴스1(사진공동취재단). 경제 전문가들은 최근 국내 물가 상승률과 원/달러 환율의 고공행진이 이어지는 상황에서 한국은행이 오는 12일 빅 스텝(기준금리 0.50%포인트 인상)에 나설 것으로 예상하고 있다.  예금 이자보다 낮은 건물 임대 수익률        최근 은행들이 시중의 돈을 더 많이 확보하기 위해 수신 금리 경쟁을 벌이면서 법인·개인사업자 대상 예금 상품 금리가 5% 코 앞까지 올라섰다. 한 예로 우리은행의 ‘WON 기업정기예금(비대면)’ 상품의 금리는 지난달 30일 가입 기준 1년 만기 금리가 연 4.92%였다. 이 상품에 3억원을 1년만 넣어두면, 세금을 제한 이자가 1248만원이다.복잡하고 까다로운 우대금리 조건도 없다 보니, 현금 보유력이 있는 사업자들 사이에서도 목돈을 안전하게 굴리기 좋은 상품으로 입소문이 났다. 실제 가입 고객이 몰린 영향으로, 이달 수급 조절과 안정적인 상품 운영을 위해 금리를 소폭 하향 조정했다는 게 은행 측 설명이다.1금융권 은행의 정기 예금 상품의 금리가 4%대를 넘어 5%대에 다가서고 있는 반면, 꼬마빌딩이나 오피스 등 상업용 부동산의 임대수익률은 예금 수익률보다 저조하다.한국부동산원에 따르면, 올해 2분기 기준 전국 오피스(6층 이상) 평균 투자 수익률은 1.87%, 건물 운영에 따른 소득 수익률은 0.96%인 것으로 나타났다. 중대형상가(3층 이상이거나 연면적 330㎡초과)의 경우 투자수익률은 1.59%, 소득수익률은 0.84%, 소규모 상가(2층 이하) 투자수익률은 1.43%, 소득수익률은 0.77% 수준에 그쳤다.상업용 부동산을 구매할 때 통상 대출 레버리지를 이용하는데, 금리가 오른 탓에 거래 절벽에 따른 가격 하락 가능성과 대출 부실화 가능성도 열려 있다.9월 18일 광주 서구 염주동의 한 신축 아파트 상가 부동산 공인중개사사무소에 초급매 등 매물 안내문이 붙어있다. / 뉴스1  만기 짧고 금리 높은 상품에 돈 몰려        전문가들은 ‘역 머니 무브’ 시기에는 정기예금과 파킹통장, 금융투자업권의 발행어음형 CMA 등 단기 금융상품을 적극적으로 활용할 필요가 있다고 조언한다. 이미 시장의 돈도 발 빠르게 움직이고 있다.한국은행이 지난달 발표한 ‘7월 통화 및 유동성’자료에 따르면 투자 대기 자금인 위탁자예수금은 올해 7월 말 기준 전년 동월 대비 12조원 감소한 반면, 은행업권 정기예금은 전년 동월 대비 69조원 늘었다. 같은 기간 보통예금은 46조원 늘고, 금투업권 발행어음형CMA는 5조원 증가하며 단기 금융상품 실적이 느는 추세다.이날 기준으로 출시돼있는 정기예금 상품을 비교해보면 금리 4%대 상품도 다양하다. SH수협은행의 ‘헤이(Hey)정기예금’은 3개월~6개월 만기 금리가 3.5%, 6개월 이상은 4.2%다. 케이뱅크의 ‘코드K 정기예금’ 6개월 금리는 4.1%, 12개월 금리는 4.6%, 수협은행의 ‘SH해양플라스틱Zero!예금’ 금리는 6개월 이상~12개월 미만 만기 시 3.75%, 12개월 만기는 3.85% 등이다. 앞서 KB국민은행이 지난 7일까지 첫 거래 고객 대상으로 특별 판매한 2022-3차 공동구매정기예금의 만기 6개월 기준 최고 금리는 4.2%였다.이날 기준 1년 만기 기준 정기예금 금리가 가장 높은 상품은 우리은행의 비대면 전용 정기예금인 ‘원(WON)플러스 예금’으로 1년 만기 금리가 연 4.65%다. 신한은행의 ‘쏠편한 정기예금 1년 만기 금기는 연 4.55%다.증권사가 자체 신용으로 발행하는 발행어음 상품에 관심을 갖는 투자자도 늘고 있다. 최근 한국투자증권이 토스뱅크를 통해 판매한 연 4.5% 금리의 발행어음 특판 상품은 3일 만에 2000억원 한도를 소진하고 완판했다. 은행 예적금 상품의 경우 4%대 최대 금리를 적용받으려면 거래 실적 등 다양한 우대금리 조건을 충족해야 하는 경우가 있는데, 발행어음은 이런 조건이 없다는 게 장점으로 꼽힌다.시중 은행 관계자는 “단기 금융 상품에 가입하기 전에는 만기 여부와 예치 금액 상한, 예금자보호 여부 등을 꼼꼼히 봐야 한다”고 강조했다.정기 예금은 만기 전 해지 시 약정 금리보다 낮은 이율로 이자를 지급하고, 고금리 수시입출식예금(보통)은 예치금액 상한 확인해야 한다. 가입 은행 고시 기본 이율을 적용하므로 기준금리 변동에 따라 이율이 상승하거나 하락할 수 있다.일반 예·적금은 원금과 이자가 최고 5000만원 한도 내에서 보호되지만, 발행어음은 예금자보호법에 따른 보호를 받을 수 없다. 다만, 자기자본 4조원 이상의 증권사가 금융당국의 인가를 받아야 어음을 발행할 수 있는 구조라 실제 금융사가 파산하지 않는 한 원금 손실 가능성이 적다는 게 업계의 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>더 바빠진 국민비서 '구삐'…해외직구 통관도 알려준다</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011460488?sid=100</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 알림서비스 4종 추가…페이코앱서 서비스[세종=뉴시스] 네이버 애플리케이션(앱·左)과 카카오톡으로 안내된 국민비서 서비스 예시. (자료= 행정안전부 제공) 2021.03.10. [세종=뉴시스] 변해정 기자 = 앞으로 해외직구 통관처리와 4대보험 의무가입 여부도 국민비서 '구삐'로 알림 받을 수 있게 된다. 행정안전부는 오는 7일부터 구삐 알림서비스에 4종을 추가한다고 6일 밝혔다. 국민비서는 카카오톡·네이버·토스 앱 등 민간 채널로 사전 설정만 해놓으면 각종 생활정보를 때맞춰 제공해주는 알림서비스다. 구삐는 국민비서 캐릭터의 이름이다. 현재 건강·주택, 세금·고지·미환급금, 주민등록, 내 정보조회 내역 확인, 교육, 자동차·교통, 보수교육 등 7개 분야 23종을 안내하고 있다. 이번에 추가되는 4종은 ▲전자상거래 물품(해외직구) 통관내역 ▲4대보험 의무가입 ▲문서24(docu.gdoc.go.kr) 처리상황 ▲해운항만 민원이다. 또 구삐 알림서비스 제공 민간 앱으로 NHN페이코의 '페이코(PAYCO)' 앱을 추가한다. 현재는 카카오톡·네이버·토스 3개 앱과 금융사 4개 앱을 통해 제공하고 있다. 금융사 4개 앱은 KB국민은행의 'KB스타뱅킹', KB국민카드의 'KB Pay', 신한은행의 '신한 SOL', 신한카드의 '신한pLay'이다. 황규철 행안부 공공지능정책관은 "구삐 알림서비스 확대를 통해 국민이 생활 속에서 필요로 하는 더 많은 행정정보를 더욱 편리하게 안내할 수 있을 것으로 기대한다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>연봉 가장 높은 은행은 어디일까</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011462246?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난해 국민은행, 올 상반기 하나은행 '연봉킹' 타이틀견조한 실적에 연봉 상승과 성과급…퇴직자 규모 영향도[서울=뉴시스] 고승민 기자 = 쌀쌀한 날씨를 보인 20일 오전 서울 광화문 사거리에서 긴소매 옷 등을 입은 직장인들이 출근하고 있다. 2022.09.20. kkssmm99@newsis.com[서울=뉴시스] 이정필 기자 = 국내 시중은행 평균 연봉이 1억원을 넘어 증가세를 이어가고 있다. 직원 연봉이 가장 높은 자리를 두고는 순위 경쟁이 치열한 모습이다.7일 금융업계와 국회 정무위원회 소속 국민의힘 강민국 의원이 금융감독원에서 제출받은 국정감사 자료에 따르면, 국민·신한·하나·우리 등 4대 시중은행의 전체 직원 평균연봉은 지난해 1억519만원으로 집계됐다.은행별로 보면 국민은행이 1억1200만원으로 가장 높았다. 이어 신한은행 1억690만원, 하나은행 1억600만원 순으로 조사됐다. 우리은행은 9586만원으로 뒤를 이었다.금융감독원 전자공시에 따르면 올해 상반기 시중은행의 직원 1인당 평균 급여는 하나은행이 6600만원으로 가장 많았다. 국민은행은 5800만원으로 뒤를 이었다.우리은행은 5700만원, 신한은행은 5400만원을 각각 수령했다. 연간으로 환산하면 모두 지난해를 넘어 1억원을 훌쩍 웃도는 액수다.이들 은행은 지난해 2조원이 넘는 당기순이익을 기록한 바 있다. 올해 들어서도 견조한 실적을 이어가면서 성과급과 연봉 상승이 이뤄지고 있다.4대 은행의 전체 임직원 수는 올해 8월말 기준 5만4863명에 이른다. 국민은행이 1만6848명으로 가장 많다. 이어 신한은행 1만3612명, 우리은행 1만3042명 규모다. 하나은행은 1만1361명으로 나타났다.올 들어 8월까지 이들 은행에서 퇴직한 행원은 3209명으로 조사됐다. 국민은행이 958명으로 가장 많고, 신한은행은 802명으로 뒤를 이었다. 다음으로 우리은행 794명, 하나은행 655명 순이다.4대 시중은행 모두 견조한 실적으로 평균 연봉이 1억원을 넘어가는 가운데, 근속 기간이 긴 퇴직자들이 일시적으로 지급 받는 퇴직금 규모 등이 전체 수치에 영향을 준 것으로 풀이된다.업계 관계자는 "과거에는 신한과 하나의 급여가 상대적으로 높은 편이었는데 국민이 규모를 불려나가면서 대형 은행들의 연봉 순위가 오르락내리락하는 양상"이라고 설명했다.인터넷전문은행 3사의 전체 직원 평균연봉은 지난해 9189만원으로 집계됐다. 토스뱅크 9813만원, 카카오뱅크 9700만원, 케이뱅크 8054만원 순이다.인터넷은행 3사의 임직원은 총 2134명으로 조사됐다. 카카오뱅크는 1335명으로 가장 많았다. 이어 케이뱅크 462명, 토스뱅크 337명 순으로 나타났다.한편 올 상반기 금융그룹 회장 중에서는 함영주 하나금융지주 회장이 10억7900만원의 보수를 받았다. 손태승 우리금융지주 회장은 7억7400만원, 윤종규 KB금융지주 회장은 6억5000만원으로 뒤를 이었다. 조용병 신한금융지주 회장은 상반기 보수가 5억원 미만으로 공시 대상에서 제외됐다.은행장 중에서는 이재근 국민은행장이 8억3900만원을 수령했다. 박성호 하나은행장은 6억6400만원으로 뒤를 이었다. 진옥동 신한은행장괴 이원덕 우리은행장은 상반기 수령한 보수가 5억원을 넘지 않아 공시 대상에서 제외됐다.카카오뱅크에서는 윤호영 대표이사가 7억400만원, 김광옥 부대표가 7억8300만원을 각각 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스뱅크 통장 금리 연 2%서 2.3%로 인상</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001557867?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>키워봐요 적금 금리는 최대 4.0%인터넷 전문은행인 토스뱅크가 출범 1주년을 맞아 수시 입출금 통장인 ‘토스뱅크 통장’ 금리를 연 2%에서 2.3%로 0.3% 포인트 인상한다고 6일 밝혔다. 토스뱅크 통장은 하루만 돈을 맡겨도 최대 1억원 한도까지 연 2.3% 금리를 제공한다. 1억원 예치 때 하루에 받을 수 있는 이자는 6301원(세전)이다. 1억원 초과 분에 대해선 연 0.1%의 금리가 적용된다. 토스뱅크 관계자는 “기존 금융권 파킹 통장과는 달리 고객 불편을 최소화한 상품”이라고 말했다.정기 적금 상품인 ‘키워봐요 적금’ 금리는 연 3%에서 4%로 1% 포인트 인상된다. 중도 해지하더라도 받을 수 있는 기본 금리 2%와 월 100만원 한도 내에서 6개월 만기를 채우면 받는 우대 금리 2%로 구성돼 있다. 인상된 금리는 이날부터 신규 가입자에게 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>"하루만 넣어도 이자 쏠쏠"…파킹통장 유목민, 고금리 찾아 삼만리</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005027429?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>재테크 불황기 돈 굴리기앱으로 간편하게 넣고 빼고하루만 맡겨도 이자 쏠쏠올 금리인상 지속 기대에정기예금보다 인기 높아3일만에 3천억원 몰려OK저축銀 올 신규 7800좌웰컴, 작년보다 20% 늘어복잡한 우대조건 없어일복리 주는 상품까지 주부 윤 모씨(38)는 지난 6월부터 스마트폰에 대형 저축은행 4곳의 앱을 모두 설치하고 각각 파킹통장을 개설해뒀다. 윤씨는 보유 중인 4개의 파킹통장 중 금리가 가장 높은 곳으로 목돈을 옮겨가며 이자를 챙기고 있다. 윤씨는 "투자할 곳도 마땅치 않고, 대출 상환도 급하지 않아서 일단 파킹통장을 이용 중"이라며 "요즘엔 저축은행 파킹통장 금리가 빠르게 오르고 있어 조금이라도 이자를 더 주는 곳으로 매번 갈아탄다"고 말했다. 최근 파킹통장으로 '앱테크'를 실천하는 소비자를 쉽게 볼 수 있다. 파킹통장은 수시입출금식 예금으로, 차를 잠시 주차하듯 언제든지 돈을 넣고 뺄 수 있는 통장을 말한다. 자유입출금통장과 달리 하루만 맡겨도 이자를 책정하고 지급해 인기가 많다.저축은행은 고금리 파킹통장 분야에서 강세를 보이고 있다. 7일 저축은행 업계에 따르면 지난달 예금 금리를 대폭 인상한 A저축은행의 파킹통장에는 사흘(영업일 기준) 만에 3000억원이 몰려들었다. 하루에 1000억원씩 파킹통장으로 유입된 셈이다. A저축은행 관계자는 "연말까지 기준금리가 계속 오를 거라는 기대 때문에 최근 소비자들은 장기간 목돈이 묶이는 정기예금보다는 파킹통장을 선호한다"며 "예금 금리가 더 높아도 파킹통장으로 훨씬 많은 돈이 몰린다"고 말했다. 2019년 6월 파킹통장을 처음 출시한 SBI저축은행의 파킹통장에는 7일 기준 약 110만명이 가입해 있다. 올해 들어 파킹통장 시장에 본격 뛰어든 OK저축은행도 올해에만 파킹통장 신규 가입이 7800개를 돌파했고, 현재 하루 평균 300개가 신규로 개설되고 있다. 웰컴저축은행은 지난 4일 기준 파킹통장의 신규 개설 건수가 전년 동월 대비 약 20%, 전월 대비 약 17% 늘었다.대형 저축은행들은 경쟁적으로 파킹통장 금리를 인상하며 고객 유치에 나서고 있다. 저축은행 파킹통장 중 현재 가장 높은 금리를 제공하는 상품은 OK저축은행의 'OK비대면보통예금'이다. 이 상품은 별도 우대금리 조건 없이 예치금 1억원까지 연 3.3%의 금리를 제공한다. 1억원 초과분에 대해 연 0.1%의 금리가 책정된다. 업계 1위 SBI저축은행의 파킹통장인 '사이다뱅크 입출금통장'은 1억원까지 연 3.2%의 금리를 책정하고, 1억원 초과분에는 연 0.2% 이자를 지급한다. 웰컴저축은행 파킹통장인 'WELCOME 직장인사랑 보통예금'의 기본금리는 연 2%지만 △100만원 이상 급여이체 실적 △자동이체 1건 이상 △마케팅 수신 동의 등 3가지 조건을 충족하면 최고 연 3.5%를 제공한다. 최고금리는 예치금 중 5000만원까지만 적용되고, 초과분에 대해선 기본금리가 제공된다. 다만 기본금리 적용 구간에는 예치금 한도가 없어 10억원을 예치하더라도 연 2% 금리가 매일 정산된다. 웰컴저축은행 측은 "지난 1년 동안 파킹통장 개설률이 꾸준히 우상향하고 있다"고 말했다. 인터넷은행의 파킹통장도 고금리를 제공해 꾸준한 인기를 끌고 있다. 케이뱅크는 지난 5일 '플러스박스'의 금리를 인상해 3억원까지 연 2.5%를 제공한다. 케이뱅크 측에 따르면 지난달 14일 '플러스박스' 금리가 기존보다 연 0.2%포인트 올라 연 2.3%가 된 직후 2주간 신규 가입 건수가 이전 대비 2.5배로 늘어났다고 한다. 토스뱅크는 기본통장 자체가 파킹통장이며, 1억원까지 연 2.3% 금리를 제공하고 있다.  파킹통장은 매일 이자를 책정하지만 매일 이자를 지급받을 수 있는 건 아니다. SBI·OK·웰컴저축은행과 케이뱅크는 한 달에 한 번 이자를 지급한다. 보통 이자지급일 전날까지의 이자를 계산해 지급하고, 그다음 날부터 또다시 매일 최종 잔액에 대한 이자를 축적해 다음달 이자지급일에 이자를 입금해주는 방식이다.  일복리로 이자를 계산하는 파킹통장도 있어 소비자의 눈길을 끈다. SBI저축은행은 파킹통장 이자를 한 달에 한 번 지급하지만 이자 계산은 일복리로 시행하고 있다. 이자를 계산할 때 전날까지의 잔액과 이자를 합친 것을 그날의 원금으로 판단하는 것이다. 단리의 경우 전날까지 책정된 이자는 다음날 이자 계산에서 원금에 포함되지 않는다. 복리로 이자가 계산될 경우 조금이라도 더 많은 이자를 챙길 수 있다는 장점이 있다. 토스뱅크도 소비자가 앱에 접속해 '매일 이자 받기'를 누르면 그날까지 책정돼 있는 이자가 즉시 입금되는 서비스를 제공 중이다. 재테크 장점이 쏠쏠한 고금리 파킹통장들은 주로 비대면 전용 상품으로, 스마트폰 앱으로만 개설할 수 있다는 걸림돌도 있다. 스마트폰 사용에 익숙하지 않은 경우 가입에 어려움을 겪기도 한다. 또 파킹통장은 최고금리가 적용되는 예치금의 한도가 정해져 있어 수억 원 규모의 거액을 예치하기에는 고금리 장점이 퇴색된다. 이자를 최대한 챙기려는 자산가 고객은 최고금리 적용 한도에 맞게 여러 금융사에 파킹통장을 개설하고 자금을 쪼개서 예치하기도 한다.   '찐 재테크 정보' M+에서 만나요더 많은 재테크 기사와 돈 되는 정보는 '내 손안의 머니쇼' 매경 엠플러스에서 만날 수 있습니다. M+는 매일경제신문이 만든 재테크 유료 플랫폼으로, 필진 30여 명이 단독 콘텐츠를 제공합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>“로봇이 위험한 일 맡고 사람은 재밌는 일 하죠”[미래로 가는 농업](4)</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000044706?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>남편과 개발한 로봇으로 ‘노지 스마트팜’ 실험… 김보영 심바이오틱 대표농촌에선 일손 부족이 심각하다. 외국인 노동자를 쓴다고 해도 하루 인건비가 20만원 가까이 들고, 그마저도 구하기 어렵다. 특히 수확기엔 무거운 짐을 나르는 일이 많고, 시기도 제한되다 보니 경쟁이 치열하다. 인력을 쓸 돈이 없어 농작물을 수확도 못 하고 그대로 버리는 경우도 많다. 농업의 또 다른 문제는 산업재해다. 농업은 국제노동기구(ILO)가 꼽은 3대 위험 산업 중 하나다. 매년 평균 270명이 넘는 농업인이 산재로 목숨을 잃는다. 농산물 시장 개방으로 가격경쟁력은 떨어지는데 생산비는 올라가면서 보조금으로 농촌을 지원하는 것도 한계에 다다랐다.김보영 심바이오틱 대표가 지난 10월 4일 서울 종로구 삼청동에서 열린 사단법인 다른백년의 ‘농업의 미래, 미래의 농업’ 강연에서 노지 스마트팜 기술을 소개하고 있다. / 주영재 기자농촌이 일손 부담을 덜고, 더 안전하고, 경제적 여유를 주는 일터가 되려면 새로운 해법이 필요하다. 농업회사법인 심바이오틱이 찾은 해법은 로봇과 드론이다. 커다란 트랙터가 아니라 무인 로봇이 밭을 갈고 파종한다. 로봇 팔이 달린 인공지능을 이용해 필요한 곳에만 농약을 살포하고, 운반 로봇이 밭에서 무거운 수레를 사람 대신 나른다. 김보영 심바이오틱 대표는 지난 10월 4일 서울 종로구 삼청동에서 열린 사단법인 다른백년의 ‘농업의 미래, 미래의 농업’ 강연에서 사람을 몰아내는 것이 아니라 사람 대신 로봇이 고되고 위험한 일을 대신하면서, 농업이 더 창의적이고, 재밌는 일터가 되도록 하는 것이 회사의 목표라고 밝혔다.노지에서도 스마트팜 가능합니다김 대표는 2020년 1월 강원도 평창에 심바이오틱을 설립했다. 강원도 원주시 문막읍에 산업용·농업용 로봇을 제조하고, 테스트하는 파일럿 공장을 갖추고, 여기서 생산한 로봇을 평창의 임야에서 적용하고 있다. “고추와 산양산삼, 산나물, 곰취 같은 작물을 재배하면서 직접 개발한 농업용 로봇을 현장에서 테스트하고 있습니다. 스스로 최종 소비자(농업인)가 돼 어떤 부분을 개선해야 할지 점검하고, 동시에 농업인과 농업법인이 필요로 하는 로봇을 주문받아 시제품을 만드는 일도 하고 있습니다.”심바이오틱은 농업용 로봇을 만들어 농촌의 문제를 해결하자는 고민에서 로봇·인공지능 개발자인 남편 토스케티 지안 마리아(심바이오틱 최고기술책임자)와 함께 2018년 시작한 개인사업을 농업법인회사로 개편한 것이다. 김 대표는 “인력을 확보할 수 있는 분들은 농사를 안정적으로 지을 수 있으니 소득을 창출할 수가 있고, 그렇지 않은 분들은 수확을 못 한다. 농촌의 부익부빈익빈은 바로 인력 확보 문제에서 출발하기 때문에 인력 부족 문제를 개선하자는 생각에서 사업을 시작했다”고 말했다.농업용 로봇은 인구 감소로 인한 노동력 부족 등 농업 문제 해결 방안의 하나로 주목받고 있다. 이러한 흐름을 반영해 지난해 시장 조사업체 ID테크엑스는 글로벌 농업용 로봇 시장이 2032년까지 67억달러 규모로 확대될 것이라는 보고서를 내기도 했다. 로봇 기술에 인공지능과 센서 기술, 데이터 분석 능력을 결합하면서 스마트팜이라는 말도 유행하고 있다. 심바이오틱이 내세우는 차별점은 ‘노지 스마트팜’이다. 제어 가능한 실내 환경에서 스마트팜을 운영하는 것이 아니라 전기 이용이 불가능하거나 인터넷이 연결되지 않은 곳, 시멘트 작업 등 공사가 어려운 곳에서도 생산을 제어할 수 있다. 심바이오틱은 강원 평창의 금당산 꼭대기에 100평 규모의 노지 스마트팜과 인근 약 2㏊ 규모의 노지농장을 운영하면서 노지에서도 스마트팜 기술을 이용해 예측가능한 농업 경영이 가능한지 시험하고 있다. 김 대표는 “태양광 발전으로 센서를 작동시켜 제어하고, 폐쇄회로(CC)TV도 달아 고라니·멧돼지 같은 야생동물 침입이나 농작물을 훔치는 범죄를 예방할 수 있다”면서 “휴대전화로 데이터를 받아 원격관리할 수도 있다”고 소개했다. 농장에 서버를 두는 방식이라 해킹과 바이러스 감염 걱정 없이 안정적인 운영이 가능한 것도 장점이라고 말했다.미래 농업은 인간과 기계의 공존국내는 미국이나 캐나다, 유럽과 달리 개간지가 많다. 밭에 돌이 많고 경사가 져 기계화가 어렵다. 기계를 쓰더라도 산재 사고의 위험성이 크다. “고강도의 육체노동을 대신할 수 있는 대형화된 기계를 사용하는데 그러다 보니 한번 사고가 나면 크게 사고가 나게 됩니다. 트랙터가 전복된다든지 경운기 등에서 날아오는 돌을 맞아 크게 다치는 일이 많아요.” 심바이오틱이 비용은 최소화하면서도, 효율과 안전성을 높인 농업용 로봇 개발에 나선 배경이다. 보행 로봇의 지형적응형 발모델을 개발해 진흙탕이거나 돌이 많거나 경사도가 있는 등 예상할 수 없는 환경에서도 잘 걷고 작업할 수 있는 로봇을 만들었다.무게도 1t 미만으로 줄였다. “유인 트랙터는 가격도 비싸지만 무겁기 때문에 땅을 누르는 압력이 커지고, 경운을 해도 다시 그 무게 때문에 땅이 다시 다져지니 재경운을 해야 합니다. 환경적인 측면에서 큰 기계를 농업에 이용하는 건 생태적이지 않습니다.” 마력은 낮아도 더 효율적인 작업이 가능하다. 김 대표는 자사의 35마력 무인 트랙터가 52마력 유인 트랙터보다 땅을 더 깊게 간다고 설명했다.로봇팔이 달린 델타로봇은 파종과 제초, 제품 선별 등에 활용할 수 있다. 카메라로 이미지를 인식해 잡초만 골라 제초제를 뿌리거나 농약을 살포할 수 있어 환경친화적이다. 육묘장에서 쓸 수 있는데 기존의 고정형 시설과 달리 이동이 가능해 빌려쓰는 것도 가능하다. “로봇이나 인공지능은 비싸고 어려울 것이라 생각하지만, 돌아가면서 쓰거나 공유해 쓴다면 부담을 크게 줄일 수 있습니다.”인공지능을 이용한 운반차도 개발했다. 40㎏까지 운반할 수 있다. 경사진 땅도 잘 다니고, 카메라와 센서가 있어 스스로 장애물을 피해 이동이 가능하다. “저도 작업할 때 수레를 사용하다 다친 적이 많아요. 외발이나 두 발이면 잘 엎어져 허리나 발목을 삐고, 다시 주워 담는 것도 일이죠. 수확이 농업의 여러 작업 중 가장 중요하면서도 힘든 일인 이유이죠. 농업기술센터에서 수요조사를 했을 때도 운반 로봇을 만들어달라는 요청이 많았습니다. 그래서 이 로봇이 탄생했습니다.”김 대표는 로봇과 인간의 공존·공생을 지향한다고 말했다. 로봇이 인간을 대체해선 안 되고, 힘들고 다칠 수 있고 단순한 작업을 로봇이 하면 가치 있고 재밌는 작업을 농부가 하길 바란다고 했다. 회사 이름도 그 뜻을 품고 있는 영어단어를 택했다. “나이가 들수록 ‘순리대로’라는 말이 많이 와 닿더라고요. 누구도 혼자 있을 수 없다는 점에서 상생이라는 말도 그렇습니다. 농장에 있으면 파종해 싹이 트고 열매를 맺고 수확하는 일련의 과정이 매 순간 신기합니다. ‘이게 바로 우주로구나’ 하는 생각이 많이 들어요. 우리가 하이테크 기업이기는 하지만 환경과 지구 그리고 다음 세대를 생각해야 하죠. 그 철학대로 초심을 잃지 말아야겠다고 다짐하고 있습니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>이용우 "네이버·카카오·토스 '후불결제' 연체위험 커…규제 필요"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004761187?sid=100</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>네이버와 카카오 등 플랫폼 업체가 최근 도입한 후불결제(BNPL) 서비스가 이용자들의 연체 위험을 높일 수 있어 적절한 규제가 필요하다고 국회 정무위원회 소속 이용우 더불어민주당 의원이 12일 주장했다.BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사한 구조다.현재 우리나라에선 네이버 금융 계열 자회사 네이버파이낸셜과 카카오 자회사 카카오페이, 쿠팡, 토스 등 플랫폼과 현대카드 등이 BNPL 서비스를 제공 중이다. 네이버파이낸셜은 작년 4월 먼저 BNPL을 선뵀고 카카오페이는 올해 1월 BNPL을 정식 출시한 후 서비스 범위를 넓혀가고 있다.다만 BNPL은 신용카드를 발급하기 전 시행하는 일반적인 신용평가 대신 비금융정보 등을 활용한 대안 신용평가를 바탕으로 서비스 가능 여부가 결정된다. 때문에 신용카드 발급이 까다로운 미국, 유럽, 호주 등에서는 신파일러(금융이력부족자) 집단을 중심으로 활성화됐다.이 의원은 "BNPL로 신용이 부족한 신파일러도 할부금융을 이용할 수 있게 되면서 연체 위험이 높아진다는 것이 문제"라며 "실제로 해외에서는 BNPL 거래 규모가 커지면서 연체율이 사회 문제로 부각되고 있다"고 지적했다.이 의원은 각국에서 BNPL 서비스 제공 전 '신용상품'이라는 점을 고지하도록 하는 등의 규제를 통해 이런 문제에 대응하고 있다면서 국내에서도 적절한 규제가 필요하다고 강조했다.특히 네이버파이낸셜 등 플랫폼 업체들은 금융위원회의 혁신금융서비스로 지정받아 여신금융업 라이선스(허가) 없이 금융업에 뛰어든 만큼 부작용 우려에 따른 규제가 필요하다는 게 이 의원의 주장이다. 혁신금융서비스는 기존 금융서비스의 제공 내용, 방식과 차별성이 인정되는 금융업이나 관련 서비스에 규제 적용 특례를 인정하는 제도다.아울러 이 의원은 현재 국내 사례처럼 플랫폼 업체가 독자적으로 BNPL을 제공하도록 하면 금융위기 등 리스크에 취약한 우려가 있다며 금융사와 제휴 등의 방안도 내놓았다. 이 의원에 따르면 미국 애플과 아마존은 각각 금융사인 골드만삭스, BNPL 전문업체 '어펌'과 제휴를 맺고 BNPL 서비스를 제공하고 있다.이 의원은 지난 11일 정무위 국감에서 이복현 금융위원장에게 "금융혁신 서비스라면서 플랫폼 업체에 BNPL을 허용해 줬는데, 신용정보를 이용하지 않고 할부금융을 제공하는 것이 혁신이냐"라며 "라이선스 없이 할부금융을 제공하기에 리스크에 대비할 수 있도록 적절한 규제가 필요하다"고 밝혔다.이에 이 위원장은 "혁신금융 지정 당시 금융업 문이 너무 좁다는 시각이 있었고, 아직은 BNPL 서비스가 작은 규모이기 때문에 초반에는 문을 열어놓고 모양을 보자는 취지로 이해하고 있다"면서 "다만 해외에서 발생하는 연체 이슈들을 통해 종전 금융시스템과 결합이 필요하다는 것에 공감한다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.10.01~2022.10.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.10.01~2022.10.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>핀테크 빙하기…먼저 미국으로 간 해빗팩토리의 조언 "규제 꼭 챙겨라" [긱스]</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004760984?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>인슈어테크업체 해빗팩토리 이동익 대표 인터뷰작년 3월 미국 법인 설립..경험 통한 조언이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.요즘 국내 핀테크 업계를 보면 조마조마하다. 투자 유치에 실패해 인력을 감축하는 스타트업은 부지기수. 토스 조차 예상만큼의 투자액을 유치하지 못했다. 카카오뱅크나 카카오페이의 주가를 둘러싼 논란은 말할 것도 없는 상태다. 대형 금융지주까지 금융플랫폼을 갖추면서 핀테크가 밀려나가는 모양새다. 이미 핀테크 상당수는 해외 진출을 고민하고 있다. 한 금융위 관계자가 지난달 30일까지 열린 핀테크 박람회 '코리아핀테크위크 2022'를 두고 "국내 핀테크사가 해외 진출하는 것도 국부 창출"이라고 말했을 정도다.인슈어테크(보험+핀테크) 해빗팩토리는 지난 1월 미국 법인을 설립했다. 다른 핀테크보다 앞서 진출한 셈이다. 해빗팩토리는 미국 법인 출범까지 작년 10월부터 6개월간의 준비 과정을 거쳤다. 작년만 해도 국내 핀테크 업계가 총 30억달러를 유치하며 각광받았지만, 보험추천비교서비스가 주 사업모델인 해빗팩토리는 그 때가 오히려 위기였다.해빗팩토리는 보험설계사 중심으로 짜여진 보험 유통구조를 바꾸기 위해 보험비교추천서비스를 내놓은 인슈어테크다. 이해하기 어려운 용어들로 '정보의 비대칭성'이 심한 보험의 문턱을 낮춰 보험사와 설계사들이 가져가던 이익을 금융소비자들에게 되돌려주겠다는 게 해빗팩토리의 목표다.하지만 작년 9월 금융소비자보호법 시행으로 보험비교추천서비스가 보험중개업으로 해석되자 중개업 라이센스가 없는 해빗팩토리는 서비스를 제공할 수 없게 됐다. 2016년 설립해 장기간에 걸쳐 준비한 사업이 통째로 날아갈 위기에 처한 셈이다. 이동익 해빗팩토리 대표(사진)은 "'이제 좀 뭔가 해보려고 했더니 본업을 못하게 막는 건가' 하는 생각이 들었다"며 "(미국 진출에) 도전해본 것도 내심 그런 이유가 있었다"고 했다.작년 금소법이 시행된 날짜는 9월25일. 그로부터 사흘 전인 21일 이 대표는 추석 연휴에 쉬지 않고 미국으로 열흘 간 출장을 갔다. 미국에서 기회를 찾은 해빗팩토리는 대출중개업으로 사업을 키우고 있다. 이 대표가 미국에서 가능성을 본 근거는 무엇이었는지, 미국 진출을 꿈꾸는 핀테크가 준비해야할 것은 무엇인지 이 대표의 생각과 그간의 스토리를 들어봤다.해빗팩토리는 지난 3월 미국 시장에 공식 진출했다. 대출중개업 라이센스를 취득해 영업을 확장하고 있다.  /  해빗팩토리 제공 "소비자 이익은 고려 안해...금융업의 현실"-처음에 통신사에서 커리어를 시작하셨는데 보험업에 관심을 갖게 된 계기가 궁금합니다. LG유플러스에서 IT개발자로서 맡은 마지막 프로젝트가 삼성화재와 진행한 거였어요. 프로젝트를 마치고 나니 우연히 보험사들이 보험을 모르는 IT 융합 전문가들을 뽑기 시작한 거죠. 메리츠화재에서 '보험 전문가 2700명이 있으니 보험산업을 한번 바꿔봐'라는 미션을 받았어요. 보험업 전반에 대한 프로세스 혁신 업무를 담당했었거든요. 5년간 보험 하나하나를 뜯어보면서 '왜 보험사와 보험설계사의 이익만 항상 보험사의 경영 어젠다로 올라오는가'에 대한 의문이 들었습니다. 정작 보험을 구매하는 소비자들의 이익은 한 번도 고려되지 않았거든요. 거기에 호기심이 있었던 것 같아요. 이게 우리나라 금융의 현실인가.-통신업과 보험업, 두 산업 다 개선의 여지가 많은 산업이네요.그렇죠. 근데 통신 같은 경우는 '즉시성'이 있어요. 무슨 말이냐면 제가 5g 요금제인데 1GB를 쓸지 5GB짜리를 쓸지 그 효용성을 바로바로 느끼잖아요. 통신 단말기도 출고가는 150만원씩 하지만 150만 원보다 더 내지는 않아요. 또 통신은 2년이면 끝나요.통신보다 보험이 더 하죠. 보험은 평균 월 10만 원 내면 20년간 2400만 원을 부담해요. 보통 건강하니까 혜택을 못 보죠. 중간에 해지하고 싶을 때는 원금 일부가 날아가고요. -얼마 전에 안 찾아간 보험금이 8000억원이라는 보도도 나왔죠.지난달까지 분명히 소비자의 통장에서 보험료를 빼 왔다고 쳐요. 그럼 그 통장에 보험금을 넣어주면 되죠. 그런데 여러 가지 사유로 안된다고 해요. 계약자와 피보험자, 수익자 이렇게 세 당사자가 있기 때문에 권리관계가 복잡해지는 거죠. 그래도 보험이 만기됐을 시점에 계약자가 어떤 상태인지 보험사가 적극적으로 연락을 한번 하면 돼요. 그런데 연락을 안 하죠. 보험료를 안 낼 때는 한 5일 지나면 빨리 보험료 내시라고 연락을 해요. 근데 끝나고 나면 문자만 소극적으로 하고요. 그걸 소비자들은 못 보고 지나가죠. 수십년 만기 보험상품을 고를 때도 용어도 잘 모르는채로 가입을 하고요.이동익 해빗팩토리 대표가 11일 서울 용산 센트럴파크타워 사무실에서 인터뷰를 하고 있다.  /  해빗팩토리 제공  규제에 닫힌 사업길...'발품'으로 美 주담대 틈새시장 뚫어-국내 보험비교추천서비스(시그널플래너)를 오랜 기간 준비하셨고, 막 서비스가 자리를 잡아가고 있는데요. 미국으로 진출하시게 된 계기가 있나요. 작년 9월에 금소법(금융소비자보호법)이 발효됐잖아요. '뭔가 좀 해보려고 했더니 국가에서 정말로 우리 본업을 못하게 하나' 내심 이런 생각이 들었죠. 그래서 미국에서 도전해보자는 속마음이 있었던 것 같아요.-미국에서는 보험비교추천서비스에 대해 가능성을 보셨나요.원래는 저희가 미국에도 동일한 사업 모델을 들고 가서 열흘간 보험업 관계자들을 만났어요. 미국 18개 보험사, 보험판매 대리점 대표님들과 만났습니다. 보험사와 판매대리점의 설계사, 보험 고객들과도 미팅을 가졌어요. 결론은 당장 미국에 가서 보험추천비교서비스를 하기는 쉽지 않겠다는 거였어요. 미국의 여러 보험 회사들과 제휴를 맺어야 보험비교추천서비스를 할 수 있잖아요. 제휴 맺는 게 쉽지 않아요. 두 번째 문제는 사업을 궤도에 올리기 위해서 고정비로 투자를 해야 하는데 3개월이 아니라 2~3년간 준비해야한다는 거였어요. 1000페이지가 넘는 보험약관이나 설명을 다 한국어로 다 번역을 해야 되는데 비용도 만만치 않고요. '고객의 입맛에 맞는 보험상품을 직접 만들어 팔거나, 아니면 하지 말아야 되겠다'는 생각을 하고 과감하게 접은 거죠. 우리가 중간에 보험사의 상품을 가져다가 우리만의 방식으로 커스터마이징해서 고객과 커뮤니케이션을 하는 게 쉽지 않다고 판단을 한 거에요.-저 같으면 바로 돌아왔을 것 같은데요.그러고 돌아왔어야 했는데요. 생각해보면 저희가 하고 있는 일이 온라인 금융 플랫폼이잖아요. 온라인 금융 플랫폼이 뭔가 정리를 해보면 오프라인에서 금융 지주 회사들이 은행이라는 물리적인 플랫폼을 하나 만들어 놓고 거기서 예적금, 방카슈랑스, 증권, 외화, 신탁 다 하잖아요. 이제 온라인으로 누가 올려낼 거냐. 사실상 이 싸움을 지금 하고 있는 것 같아요.호기심 때문에 대출모집법인을 만났던 것 같아요. 가만 봤더니 미국인들은 모기지를 받으면서 되게 힘들어 하는 거에요. 은행 가는데 내가 그들의 물건을 사러 가는 거잖아요. 반대로 미국의 그 모기지업에 종사하는 사람들(대출모집인)을 만나봤더니 너무 잘 사는 거에요. 한국에서 주담대 공부를 많이 해간 게 아니고, 오히려 발로 뛰고 나서 알게 된 거죠.-미국에선 대출모집인들이 많이 버나보군요.상상을 초월해요. 저도, 기자님도 한국에서 이런 샐러리맨을 하면 안 됐어요. 저렇게 대출 하나 해주고 돈을 많이 번다고? 그런 호기심이었죠. 미팅을 했더니 보험하고 구조가 똑같이 닮아 있는 거에요. 보험은 비싼 보험을 팔아야 본인한테 소득이 많이 남잖아요. 미국은 고객들한테 금리를 높게 팔면 수수료가 많이 나와요. 그런데 우리나라 사람들이 보험료가 높다 혹은 낮다라는 기준을 모르잖아요. 미국인들은 주담대를 받으면서 금리가 높다, 낮다를 모르는 거에요. 그 금리가 0.125% 높아질 때마다 본인들이 받는 수수료 금액이 0.25%씩 높아져요.  단순하게 연 5%로 고객들한테 대출이 나갈 때 제가 1% 수수료를 받는다고 쳐요. 연 6%의 대출을 해주면 제가 한 2.5% 수수료를 받을 수 있어요. 그럼 고객들은 그런 사실을 알고 대출을 받을까요. 그 대출 정보가 깜깜이에요. 한국에서 주담대에 붙는 수수료는 평균 0.1%밖에 안 돼요. 근데 미국 갔더니 기본 1%에서 4%가 나와요. 2분기에 많이 줄었는데도 8000억달러 규모 시장이에요. 미국 주담대 시장에서 가장 큰 회사가 원래는 웰스파고 은행이었어요. 근데 지금은 로켓 모기지가 1등이에요. 한 5년 사이에 급성장을 했고 웰스파고를 이겼어요. '저런 회사가 기존 전통 은행을 이겨가는구나.' 그런 생각에 우리한테도 기회도 있겠다 싶었죠.-모기지론 회사가 크는데 중개업체가 필요한가요.저희도 로켓 모기지 비롯해 8개 금융사 모기지가 있어요. 보험업은 제휴 맺기가 참 어렵지만, 로켓 모기지는 상대적으로 쉬웠어요. 모기지론 회사들은 지점이 없잖아요. 오히려 로켓모기지가 3시간동안 화상미팅으로 브리핑을 했어요. '우리 로켓 모기지는 브로커 회사의 이익을 위해 최대한의 서포트를 하겠다'는 메시지였죠.  미국의 트러스트 사회가 어떤 측면에서는 중국 관치보다 더하면 더하다고 하죠. 옆집 사람하고 정말 끈끈해요. 그래서 전구도 하나 고치는데 한 200달러 달라고 그러잖아요. 한국에서는 2만 원이면 고칠 건데 미국 사람들은 그냥 내는 거에요. -그런 사람들이 비대면 대출을 받을까요.두 가지 이슈가 있다고 봤어요. 첫 번째는 '저 회사는 사기꾼 아니야.' 두 번째는 '6%라고 해도 광고지 들고 막상 가보면 7%야'라는 거죠. 세 번째는 '우리 옆집 아저씨한테 하지 왜 내가 너희한테 하겠냐.' 이런 걱정이 있었어요. 우리의 강점은 고객의 금리 낮추고, 업무 빨리빨리 처리해 주는 거죠. 또 그 나라의 언어로 풀어서 설명해 주는 것. 이 세 가지를 강점으로 삼아 한번 도전해보자고 생각했어요. 금리경쟁력도 갖췄어요. 수수료를 2% 받을 걸 1%만 받으면서 고객이 부담하는 금리를 줄이는 거죠. 한국 해비팩토리 팀에서 IT 개발은 다 맡았고요. 제가 미국에 있으면서 전체 프로세스 기획하고 3월 1일에 런칭했죠. 3월에 저희가 300만 달러, 4월에 500만 달러를 대출했어요. 5월에 900만 달러를 대출하니까 어느정도 확신을 갖게 됐습니다. "모기지론 업체로 전환...대출금리 낮춘다"-기준금리가 많이 올랐는데도 성장을 이어갔네요.6월부터는 좀 떨어졌죠. 저희는 이 상황을 계속 테스트하는 기간으로 생각하고 있어요. 미국의 수많은 모기지사들은 기존 인력의 50% 해고는 기본이에요. 남아 있는 50%도 기존 연봉 50% 삭감입니다. 길게 보면 물론 미국에서도 5~60대는 아마 옆집 아저씨한테 대출받을 것 같아요. 하지만 미국 젊은이들은 어떨까요. 소파이나 업스타트, 레모네이드 같은 핀테크를 보면 20대와 30대가 디지털화된 금융 상품을 구매해요. 점점 미국에 집을 사는 나이대도 점점 내려오고 있습니다. 앱은 하루에 한 300명에서 한 500명 정도 방문을 해요. －미국엔 대출비교서비스가 없나요.미국에도 뱅크레이트처럼 비교해 주는 데가 있어요. 사실 고객들의 전화번호를 획득하는 채널이에요. 정확한 금리는 안 가르쳐주면서 저한테 전화로 연락이 와요. 저희는 미국 서비스 보시면 전화가 없어요. 시그널 플래너(해빗팩토리의 국내 보험비교추천서비스)가 고객들한테 전화를 한 번도 안 했던 것처럼요. 고객들의 개인 정보를 저희가 수집하지 않아요. 그게 결과론적으로 고객들한테 설득이 되지 않을까 저희는 생각합니다. 미국인들은 친구들끼리도 전화를 잘 안 받아요. 모르는 번호는 다 스팸로 간주해요. 한번 미국 대출비교업체에서 조회해보면 한국 번호까지 전화가 올 정도니까요. 해빗팩토리가 국내에서 하고 있는 실시간 상담 기능. 이 자체가 정말 고객들한테 큰 메리트가 될 수 있겠구나 싶어요. 상담한다고 돈을 추가로 안 내도 되고, 언제든 물어볼 수 있잖아요. -올해 목표가 있으신가요.아무리 고객들로부터 데이터를 받는 게 자동화돼 있다고 해도 모기지론업체에 서류를 넘기면 심사하는 데 평균 15~30일이 걸려요. 사실 대출 비교를 할 수가 없는 구조죠. 저희는 7일 정도로 당기려고 하고 있고요. 심사기간을 줄이려면 우리 스스로가 모기지론 회사가 돼야해요. 그래서 전환을 검토하고 있어요. 모기지업체가 되면 중간에 저희 같은 브로커 회사한테 주는 수수료가 빠지잖아요. 수수료가 빠진 만큼 고객들한테 금리를 더 낮출 수가 있습니다. 해빗팩토리 미국 법인의 주택담보대출 중개서비스인 로닝ai. 3~4일이 걸린 대출 가능여부를 1분 이내로 조회하는 서비스다. "인력·자본 갖춰놔도...규제 준비 안하면 허탕"-미국 진출을 고려하는 핀테크 스타트업에게 조언을 하신다면요.미국의 소비자가 겪고 있는 문제점이 뭔지는 설문조사를 해서 나오는 건 아닌 것 같아요. 미국 사람들은 본인들이 갖고 있는 모기지론 금리가 높은지 낮은지 전혀 몰라요. 내가 한 달에 1만 달러 소득이 있는데 3000달러를 모기지론 원금상환해도 그냥 믿고 가는 거에요. 내가 3000달러를 내는 게 맞는 건지 의심하지 않죠. 그런데 이제 점점 소득이 줄어들 수도 있고 걱정이 되잖아요. 그 나라의 고객들이 안고 있는 문제가 무엇인지. 그래서 그 문제를 해결하려면 뭐가 만들어져야 되는지, 만들려고 하는 서비스에 대해 우리가 갖고 있는 기술 역량이나 어떤 경험이 있는지를 판단해야할 것 같아요.-규제는 어떤가요.두 번째가 규제죠. 미국은 주별로 규제가 달라요. 특히 금융은 그런 규제들을 파악하는 게 정말 어려워요. 예를 들면 금융사를 설립하는 데 필요한 요건을 정리한 문서조차 찾기가 까다롭죠. 사업을 할 준비는 되어 있는데 라이센스를 못 받으면 1년, 3년이 지나가요. 라이센스를 취득할 때 우리가 생각하는 한국의 회계법인 수준을 찾으려면 미국의 글로벌 회계 펌을 가야 돼요. 그런데 예를 들어 사업자금을 10억원 들고 가서 사업을 하려고 하면 그들한테 10억 다 줘야 합니다. 미국에서 법인 설립할 때 비용이 얼마 드냐고 묻는다면, 천차만별인 거죠. 한국에도 미국 법인 설립 대행하는 로펌이나 회계법인들이 꽤 있습니다. 그분들한테 의존하는 것도 맞을 거에요. 하지만 그분들도 미국에 있는 회계사나 변호사를 통해서 일을 처리하세요. 저희는 미국 가서 뛰어다닐 수 밖에 없었던 것 같아요.-몇 번 시행착오를 겪으신 거군요.실제로 많이 겪었죠. 저희는 델라웨어에 법인을 차렸어요. 현재 캘리포니아에 사무실을 두고 있고 대출은 캘리포니아와 텍사스, 조지아 위주로 하고 있는데요. LA에 계시는 회계사님들이나 변호사님들은 델라웨어주나 연방법은 잘 모르세요. 사실 KOTRA 같은 곳에서 도움을 주면 참 좋을 거에요. 하지만 주한 미국대사관 상무국에서 미국 진출을 많이 돕죠. 미국에 계신 상무관님들 소개도 받았는데 한계가 있어요. 이해가 엇갈리니까요. 가령 '델라웨어에 세금이 정말로 없나요.' '델라웨어에서 세금을 안 내려면 어떻게 해야하나요' 같은 질문을 할 순 없잖아요. 실상은 세금이 없지 않거든요. par-value(액면가)를 잘못 설정하면 법인 설립하자마자 세금이 어마어마하게 나와요. 그걸 사실 회계사님들이나 변호사님도 잘 모르세요.-기관에 직접 물어보면 되지 않을까요.기관에 물어보면 안 돼요. 사실은 물어볼 전화번호를 찾기도 어려운 거죠. 전화 연결 자체도 어려워요. 전화 한번 하려면 2~3시간은 들고 있어야하니까요. 전화로 연결돼도 부서 업무가 아니라고 하면 답이 없어요. 캘리포니아 주에서 모기지론 담당하는 부서가 새크라멘토에 있어요. 정말 급하면 제가 LA에서 새크라멘토까지 차로 한 5시간동안 가요. 그런데 방문제출이 금지돼 있다는 겁니다. 무조건 우편물로 내라고 하죠. 미국에선 우편물도 보내는 데 10일이 걸리는데, 우편물이 왔다고 업데이트하는 데도 한 달이 걸립니다. 완전히 깜깜이에요.  미국의 행정 당국에 익스프레스라는 제도가 있어요. 돈을 더 주면 업무를 빨리 처리해 주는 거죠. 저희가 익스프레스를 이용했음에도 늦었어요. 저희도 가자마자 런칭 작업을 시작했지만 실제로 런칭하기까지는 4개월 걸렸죠. 사실상 허가제 비슷하게 운영하는 한국이랑은 다르게 등록제인데도 그만큼 걸린 거에요.-다른 애로사항은 있나요. 마케팅이 제일 어려운 것 같아요. 미국에서 거주를 하거나 이랬던 경험이 있는 게 아니기 때문에 미국인들의 마음을 모르죠. 우리가 생각하기에는 좋은 마케팅 컨텍스트인 것 같아도 미국인들에게는 반응이 없을 수도 있죠. 내린 결론은 미국 직원들을 채용하는 거에요. 현지 직원들은 전원 한국계 미국인들이에요. 초등학교~대학교까지 한국에서 교육을 받고 미국 넘어가서 20~30년 되신 분들이요. 하지만 100% 미국 주류 사회를 이해하고 있지는 않아요. 그런 걸 커버하기 위해서 모기지업체로 전환을 할 때 미국인들을 대폭 채용할 계획을 갖고 있어요. 채용도 큰 숙제죠. 한국 분들은 그래도 무슨 생각을 하는지 대략은 알 수 있지만 미국인들은 정서가 달라서 알기가 어려우니까요.-마지막으로 한 마디 해주신다면저희가 미국에 가서 로켓모기지 같은 회사들하고 동등한 위치에서 싸워야하는데, 그들이 놓치고 있는 건 고객 하나라고 봤어요. 금리 낮춰주고, 업무 처리를 빨리 해주고 하는 거죠. 시장 규모도 충분히 있고요. 미국 진출하려고 하는 분들도 준비만 잘 되면 기회는 한국보다 더 있다고 봐요. 한국 분들이 정말로 열심히 하시고요. 저희 또래 미국 직원들한테 들어보면 유럽 사람들 일 안 한다고 뭐라고 불만이 많아요. 근데 저희가 봤을 때는 미국 직원들이 일을 안하거든요.-앞으로 몇 개월이 중요할 것 같습니다.내년 연말까지는 한국에서 했던 것처럼 잘 성장할 수 있도록 준비하는 단계라고 봐요. 모기지 업체로 전환만 안했을 뿐이지 이미 라이센스도 갖춰놨고요. 전체 주를 대상으로 모기지업을 준비할 계획이에요. 일단은 초단기 공급망 금융을 이용해서 모기지론을 할 생각이고요. 사실 모기지업체도 종류가 많은데 어떤 종류가 있고, 그 범위가 어디까지인지도 파악하는 게 한국에 있으면 더 어려워요. 구글에 서치되는 게 거의 없거든요.-근데 미국에는 안 가세요.지난 1년 중에 5개월은 미국에 있었어요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[2022 국감] 토스, 이용자 신용정보 팔아 290억원 이익 챙겼다</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000700867?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>"마이데이터 허가 이전에도 개인정보 유상제공 판매 사실 확인"비바리퍼블리카가 토스 애플리케이션(앱) 이용자의 개인·신용정보를 팔아 290억원 규모의 이익을 취했다는 지적이 제기됐다.3일 국회 정무위원회 소속 황원하 더불어민주당 의원이 입수한 자료에 따르면 토스는 지난 2018년부터 올해 8월까지 토스 앱 내 보험상담을 신청한 이용자의 개인·신용정보 84만9천501건을 법인 보험대리점과 개인 보험설계사에게 판매해 290억2천만원 상당의 매출을 올린 것으로 나타났다. 국회 정무위원회 소속 황원하 더불어민주당 의원이 입수한 자료에 따르면 토스는 지난 2018년부터 올해 8월까지 토스 앱 내 보험상담을 신청한 이용자의 개인·신용정보 84만9천501건을 법인 보험대리점과 개인 보험설계사에게 판매한 것으로 나타났다. 사진은 토스 CI.. [사진=토스]앞서 토스는 지난 6월 앱 이용자의 개인정보를 1건당 6만9천원에 판매해 논란이 일기도 했다. 토스 측은 "본인신용정보관리법(마이데이터) 사업자 자격을 올해 1월부터 획득했기 때문에 관련 법령에 따라 '데이터 판매·중개 업무'를 수행할 수 있으므로, 개인·신용정보 판매는 법적으로 문제가 없다"며 "현행법상 개인·신용정보 제3자 제공 동의만 받으면 유상고지를 하지 않아도 문제가 없다"는 입장을 표명했다.황 의원은 "일반 이용자 입장에서 약관을 확인하지 않거나, 관련 내용을 잘 모르기 때문에 개인정보를 판매하는지 인식하기 쉽지 않다"면서 "이용자 보호를 강화할 필요성이 있다"고 지적했다.또한 토스 측은 지난 6월 개인정보 유상판매 논란 이후에도 여전히 이용자 개인정보를 보험설계사에게 유상판매하는 서비스를 제공 중인 것으로 확인됐다. 개인정보를 유상으로 매수한 보험설계사의 경우 영업비용을 감안해 보험영업 시 보험설계사 수당이 높은 상품을 판매할 수 밖에 없다. 결국 모든 비용은 소비자에게 전가되는 문제가 발생한다는 지적이다.황운하 의원 측은 토스의 개인정보판매 관련 이용자약관, 업무제휴 계약서 등을 분석해 위법사항이 없는지 분석 중이다.황 의원은 "현행법상 플랫폼 사업자가 이용자의 정보를 모두 팔아 이익을 취해도 막을 수 없는 구조"라며 "마이데이터 사업 합법화로 이용자의 모든 금융정보까지 유통될 수 있는 위험이 있는 만큼, 법 개정을 통해 소비자를 두텁게 보호할 필요성이 있다“고 말했다.한편 황운하 의원은 개인정보처리자가 수집·이용한 개인정보를 제3자에게 유상 판매할 경우 개인정보를 제공받는 자를 명확히 하고, 그 대가를 사전에 고지한 후 실제 개인정보가 유상제공 됐을 때 관련 내역을 개인정보 주체에게 고지하는 취지의 법안 발의를 준비 중이다.정치권에 따르면 토스는  자사 앱 이용자의 개인·신용정보 84만9천501건을 법인 보험대리점과 개인 보험설계사에게 판매해 290억2천만원 상당의 매출을 올린 것으로 나타났다. 사진은 토스 개인정보 판매 현황. [사진=황운하 의원실]</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"마 창업 와 했노?" 코스포, 부산 창업가들 '고군분투기' 다큐 공개</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004803882?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>국내 2000여개 스타트업 단체인 코리아스타트업포럼(코스포)이 10일 부산 창업가들의 일상과 도전 정신을 담은 다큐멘터리 'THE창업가 부산 다이내믹스(Busan Dynamics)'를 공개했다. 다큐멘터리는 이날 제27회 부산국제영화제 '2022커뮤니티비프'에서 첫선을 보였다. 지난해 공개한 미니 다큐멘터리에 이은 두 번째 시리즈다. 첫 시리즈 때는 △김봉진 우아한형제들(배달의민족) 의장 △김슬아 컬리(마켓컬리) 대표 △안성우 직방 대표 △이승건 비바리퍼블리카(토스) 대표 △민금채 지구인컴퍼니 대표 △김인기 코드스테이츠 대표 △김학수 소셜빈 대표 등 7명이 출연했다. 이번 시리즈는 부산에서 꿈과 희망으로 도전하는 창업가들의 일상을 따라가는 방식으로 제작됐다. 스타트업 생태계의 90%가 수도권에 쏠려 있는 한계 상황 속에서 돌파구를 찾아 성장하는 창업가들의 이야기를 담았다. 다큐멘터리에는 장애인 채용·재택근무 시스템을 운영하는 브이드림의 김민지 대표, 화원사·소비자를 연결하는 화훼 플랫폼 플라시스템의 김태진 대표, 낚시 정보를 공유하는 '낚시의맛' 운영사 커넥트제로의 이승엽 대표 등 부산 기반 창업가들이 출연했다. 이날 시사회에는 출연진과 코스포 관계자, 제작을 맡은 파라프로젝트, 부산테크노파크 등 부산 스타트업 생태계 관계자 130여명이 참여했다. 관객과의 대화를 통해 다큐멘터리 기획 의도와 창업가들의 진솔한 제작 후기를 전달하고 네트워킹 시간도 가졌다. 다큐멘터리는 코스포 유튜브 채널에서 시청할 수 있다. 최성진 코스포 대표는 "이번 영상을 통해 수도권에 편중된 스타트업 생태계의 한계 속에서도 끊임없는 도전을 이어가는 부산 창업가들의 다이내믹한 분투기와 창업가정신을 만나보기를 바란다"고 말했다. 이어 "외롭고 힘든 길을 걷는 창업가들 곁에 한결같은 응원과 지지를 보내주는 가족과 직원들 또한 매우 소중하고 존경스럽다"며 "각자의 자리에서 고군분투하고 있는 지역의 많은 창업가들과 스타트업 구성원, 가족들에게 공감과 위로를 전할 수 있길 바란다"고 덧붙였다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[2022 국감]증권사 IT인력 '찔끔'…연봉은 금융권 '킹'</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005157818?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>금융권에서 IT인력이 가장 적은 증권사가 연봉은 가장 높은 것으로 나타났다. 국회 정무위원회 소속 강민국 국민의힘 의원이 금융감독원으로부터 넘겨받은 '국내 주요 금융업권 IT인력 현황'에 따르면 올해 8월 말 기준 시중은행과 인터넷은행, 증권사, 빅테크 기업의 IT인력은 7199명으로, 전체 임직원 대비 비중은 10.1%였다. 빅테크 3개사의 IT 인력 비중이 48.0%로 가장 높았고, 시중은행(8.2%)이 뒤를 이었다. 증권사는 6.9%도 가장 적었다. 시중은행의  IT 임직원 채용 현황을 살펴보면, 국민은행이 9.7%로 가장 비중이 많아다. 뒤를 이어 하나은행(8.0%)과 신한은행( 7.6%), 우리은행(6.9%) 등의 순이었다. 인터넷은행은 토스뱅크가 57.0%로 IT인력비중이 가장 컸고, 케이뱅크(46.1%)와 카카오뱅크(25.1%)가 뒤를 이었다. 증권사는 한국투자증권이 IT 인력 비중 9.9%로 가장 많았으며, NH증권(6.0%)과 삼성증권(6.0%), 미래에셋증권(4.9%) 등으로 많았다. 빅테크 업체 중에서는 카카오페이가 49.8%에 달했고, 네이버파이낸셜(48.1%)과 토스(45.3%) 등의 순이다. IT 인력 신규채용 수준도 비슷했다. 인터넷은행 IT 인력 신규채용 비중이 50.2%로 가장 높았고, 빅테크 업권 38.0%로 뒤를 이었다. 싱중은행은 24.2%, 증권사는 13.6%에 그쳤다. 지난해 기준 금융권 IT인력의 평균연봉은 증권사로 1억2722만840원이었다. 시중은행은 1억974만3504원, 인터넷은행 9609만3560원, 빅테크 7816만4403원 등의 순이었다. 퇴직자 비중은 증권사(2.9%)가 가장 낮았다. 이어 시중은행(4.5%)과 인터넷은행(27.8%), 빅테크(35.6%) 등의 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"빅테크 공습 막아라"…독자 플랫폼 구축, 반격 나선 금융사</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004757636?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>"혁신 없인 생존 없다"非금융서비스 잇단 진출원앱으로 금융서비스 통합적과의 동침·무인점포 확충안면 인식 등 AI기술 도입고객서비스 개선에 팔 걷어Getty Images Bank2020년부터 햇수로 3년째 이어진 코로나19 팬데믹은 국내 금융업계에도 적잖은 변화를 몰고 왔다. 코로나19로 가속화한 비대면·디지털 혁신은 보수적이던 금융업계의 DNA를 바꿔놨다. 네이버 카카오 토스 등 빅테크의 공습에 맞서 국내 대형 금융회사들도 독자 플랫폼 사업에 적극 진출하는 등 대대적인 반격에 나서고 있다. 갈수록 격해지는 시장 경쟁에서 살아남기 위해 금융사 및 비금융사 간 경쟁과 협력이 더욱 확대될 것이란 전망이 나온다. 독자 플랫폼으로 반격 나선 금융사들신한은행은 올해 1월 금융권 최초의 음식 주문 중개 플랫폼 ‘땡겨요’를 선보였다. 2020년 12월 금융위원회 혁신금융서비스(금융규제 샌드박스) 지정을 통해 마침내 금융사의 비금융 서비스가 가능해진 것이다. 땡겨요는 ‘너도 살고, 나도 사는 우리동네 배달 앱’을 기치로 내걸고 낮은 중개 수수료와 빠른 정산 서비스, 이용 금액의 10% 적립 및 할인 등 다양한 혜택을 제공한다. 이용자와 소상공인(가맹점), 배달 라이더까지 시장 참여자 모두에게 도움을 주는 착한 플랫폼이 되는 게 목표다.농협은행은 지난 6월 뱅킹 앱인 ‘NH올원뱅크’를 대대적으로 개편했다. 증권·보험·카드 등 금융 계열사의 핵심 서비스를 하나의 앱을 통해 단절 없이 이용할 수 있도록 했다. 해외에서 카드 없이 이용하는 모바일 간편결제 서비스를 추가했고, 멤버십 포인트인 NH포인트를 통한 예·적금 상품 가입도 가능하게 했다. 소비 내역과 자산 현황 등을 담은 나만의 맞춤 메시지를 통해 자산관리의 편의성을 높였다.우리은행은 ‘우리 원(WON)뱅킹’ 월 사용자(MAU) 1000만 명 달성을 목표로 역량을 집중하고 있다. 빅데이터 플랫폼 아이지에이웍스의 모바일인덱스에 따르면 작년 말 564만 명 수준이던 우리 원뱅킹 MAU는 올 8월 말 650만 명을 돌파했다. 지난 4월 가수 아이유를 광고모델로 섭외한 것도 주효했다. 이후 우리 원뱅킹 앱 인지도는 단 한 달 만에 기존 47%에서 66%까지 뛰었다. 지난 9월 패션 플랫폼 무신사와 함께 서울 동교동 ‘무신사 테라스 홍대’에서 음악 감상과 금융 서비스를 함께 즐길 수 있는 혁신 점포 ‘WON RE:CORD(원 레코드)’를 열기도 했다.국민은행은 이마트 등과 손잡고 디지털 무인점포를 확충하고 있다. 지난 5월 이마트 자체 브랜드 상품 매장인 노브랜드와 제휴해 ‘KB디지털뱅크 NB강남터미널점’을 개설했고 이어 편의점 이마트24와 함께 두 번째로 KB디지털뱅크 분평동점을 냈다. 아울러 통상 오후 4시까지인 영업점 운영시간을 오후 6시까지로 늘리는 ‘나인투식스 뱅크(9To6 Bank)’를 통해 금융소비자의 편의성도 증진하고 있다. 9To6 뱅크는 수도권과 부산·광주 등 지방 광역시 72개 영업점에서 운영 중이다.하나은행은 네이버파이낸셜과 손잡고 ‘네이버페이 머니 하나 통장’을 출시할 예정이다. 월 1600만 명이 쓰는 간편결제 서비스 네이버페이와 하나은행 예금 통장을 통합해 네이버페이 선불 충전금에 예금 이자를 지급하는 방식이다. 간편결제 플랫폼에 쌓아둔 선불 충전금은 당초 상품권처럼 분류돼 이자를 수령하거나 예금자보호 혜택을 받을 수 없었지만 금융위 혁신금융서비스로 지정돼 돌파구를 찾았다.삼성생명·화재·증권·카드 등 금융계열사들은 지난 4월 통합 플랫폼인 ‘모니모’를 공식 출범시켰다. 삼성생명은 모니모 앱에서 상품 가입, 계약 조회 및 보험금 청구 등 서비스를 이용할 수 있는 환경을 구축하는 동시에 전용 보험 상품을 출시했다. 지난달에는 서비스 업데이트를 통해 이용자의 건강자산 현황을 분석해 보여주는 ‘튼든탄 나의 건강자산’ 콘텐츠를 보강했다. AI·빅데이터 분석 기술로 서비스 개선JB금융그룹은 지난해 국내 금융그룹 최초로 통합 빅데이터 플랫폼 ‘데이터 허브’를 구축했다. 계열사 데이터를 하나의 플랫폼에 모아 인공지능(AI) 기술을 접목했다.부산은행은 지난달 안면인식을 활용한 비대면 실명확인 서비스를 전면 도입했다. 위·변조 방지 기술을 적용한 안면인증 솔루션을 통해 간편하게 본인 확인이 가능하다.한화생명은 AI 알고리즘을 활용한 로보어드바이저가 고객의 투자 성향과 시장 상황에 적합한 펀드를 추천하는 ‘변액보험 펀드 디지털 관리 서비스’를 선보였다. 별도 앱을 설치하지 않고 카카오톡만으로 손쉽게 이용할 수 있도록 한 게 특징이다.DB손해보험은 AI 기술로 보험 상품의 불완전판매를 점검하고 통화 품질을 모니터링하는 ‘스마트 컨택센터’를 운영 중이다. 상담자와 심사자 모두의 업무를 AI가 대신하면서 매년 30억원 이상의 비용을 절감하고 있다는 설명이다.현대카드도 콜센터에 AI 자동응답시스템(AI-ARS)을 적용했다. 고객이 자주 이용하는 부문에 AI-ARS를 배치해 대기 시간을 단축하고 상담원들이 심도 있는 상담에 집중할 수 있도록 했다. KB국민카드는 100여 개 카드 상품별 혜택을 비교해 고객의 소비 패턴을 기반으로 상품을 자동 추천해주는 ‘에이리(AiRe)’를 활용하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"붕괴되는 알뜰폰, 중기적합업종 지정해야"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010901?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>더불어민주당 황운하 의원 지적 나서알뜰폰 시장에 금융기업인 KB국민은행에 이어 핀테크 기업이자 토스 운영사인 비바리퍼플리카까지 진출하자 중소기업적합업종 지정을 통해 시장 생태계를 보호해야 한다는 목소리가 나왔다. 7일 황운하 더불어민주당 의원에 따르면 토스는 지난 7월 중소 알뜰폰 사업자인 머천드코리아 지분을 인수하며 알뜰폰 시장에 발을 내딛였다.현재 토스는 제조 서비스업으로 분류되어 금융지주회사법과 은행법 등을 적용받지 않아 별다른 규제 없이 알뜰폰 사업을 시작했다. 황 의원은 "토스의 막대한 자금이 알뜰폰 시장에 투입되면 중소 알뜰폰 사업자의 쇠퇴는 시간문제"라고 지적했다. 아울러 "거대기업 쏠림 현상은 민간 자율로는 해결할 수 없어, 알뜰폰 생태계 보호와 소비자의 장기적 편익을 위해서는 알뜰폰 사업의 중소기업적합업종 지정을 검토해야 한다"라고 강조했다.알뜰폰 시장은 중소사업자 등의 이동통신시장 진출을 통해 가계통신비를 경감하려는 목적으로 지난 2009년 도입됐다.주파수가 없는 중소사업자도 기존 이동통신사 설비를 활용해 서비스를 제공하도록 하고 자금력과 협상력에 열세인 중소사업자를 위해 도매제공 의무 등 정책을 지원하고 있다. 황 의원에 따르면 최근 KB국민은행은 오프라인 영업점 창구 직원들을 상대로 알뜰폰 KB리브엠의 상품 판매를 강요, 압박하고 있다는 논란이 나왔다.KB리브엠은 금융위원회로부터 2019년 4월 혁신금융서비스 1호로 지정됐는데 당시 금융위는 지점에서 알뜰폰 권유 및 직원을 통한 판매행위를 금지한다는 조건을 달았다.황 의원은 "일각에서 제기된 KB리브엠의 불법영업 실태가 사실이라면, 이는 금융혁신지원특별법상 혁신금융서비스 지정 취소 요건에 해당된다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>대출비교서비스 이자 절감 효과, 1인당 고작 2만원</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002050083?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1건당 850만원 대출, 2만1400원 이자 절감차주 신용·소득·우대금리 반영 어려워 한계[rf123 제공][헤럴드경제=김성훈 기자] 온라인 대출 비교 서비스를 통한 이자 절감 효과가 1인당 고작 2만원 정도에 그치는 것으로 나타났다.7일 금융위원회가 국회 정무위원회 소속 윤영덕 더불어민주당 의원실에 제출한 ‘혁신금융서비스 세부 현황 및 성과’ 자료에 따르면, 대출 비교 서비스는 약 870만명이 대출상품을 조회하고, 총 185만건, 15조7312억원의 대출을 실행해 약 396억원의 이자 절감 효과가 발생했다. 대출 1건당 평균 대출액은 850만원이고, 이자 절감액은 2만1400원이다.금융위는 지난해 9월 기준 대출잔액과 플랫폼 제휴 금융사가 제공하는 우대금리를 이용해 이자 절감효과를 추정했다고 설명했다.대출 비교 플랫폼은 2019년 5월 핀다, 비바리퍼블리카(토스) 등이 금융위의 혁신금융서비스로 지정된 이후 현재까지 15개 업체가 지정됐고, 14개 업체가 서비스를 출시했다. 시장점유율로 보면 토스(51.2%), 카카오페이(21.4%), 핀다(16.7%) 등 3개사의 비중이 절대적이다.온라인 대출 비교 플랫폼의 이자 절감 효과가 크지 않다는 문제제기는 이전부터 있었다. 플랫폼이 제시하는 금리는 소비자의 신용이나 소득, 주거래 은행일 경우 받는 우대금리 등을 제대로 반영하지 못하기 때문이다. 또 플랫폼과 제휴한 금융사의 상품만 비교·추천한다는 한계도 있다.이에 금융감독원도 최근 “플랫폼의 비교·추천 결과가 이용자 본인에게 최저금리 또는 최적의 조건을 보장하는 것이 아님을 유의하라”는 보도자료를 내기도 했다.한 금융권 관계자는 “대출 비교 플랫폼은 소비자의 탐색 비용을 낮춰준다는 장점은 있으나, 대부분의 고객은 주거래 은행에서 대출을 받는 것이 가장 유리하다”라고 말했다.한편 혁신금융서비스는 2019년부터 올해 9월까지 224건이 지정됐다.해외주식소수점 투자는 지난해까지 약 86만명이 총 2조719억원을 투자했으며, 투자가능 종목수도 519개로 크게 늘었다. 신용카드가맹점 O2O(온·오프라인 연계) 결제는 학원비 비대면 카드 결제 등 약 130만명이 2753억원을 결제했고, 상거래 데이터 등 대체정보를 활용한 대안 신용평가는 개인사업자 등에게 1991억원의 대출실행을 지원했다. 신용카드 기반 송금서비스는 11만명이 85만2000건(787억원)을 이용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>최승재 의원 "은행권, 장애인 의무고용 등한시"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011453291?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 조성우 기자 = 전국장애인차별철폐연대(전장연) 회원들이 19일 오후 종로구 서울경찰청 앞에서 서울시청 방향으로 장애인 등 편의법 권리를 찾기 위한 행진을 하고 있다. 2022.09.19. xconfind@newsis.com[서울=뉴시스] 이정필 기자 = 인터넷전문은행과 시중은행들이 장애인 의무고용과 같은 사회적 책임과 의무를 등한시하고 있다는 지적이 나왔다.3일 국회 정무위원회 소속 국민의힘 최승재 의원이 금융감독원을 통해 각 은행들로부터 제출받은 자료에 따르면, 인터넷은행인 카카오뱅크와 토스뱅크, 케이뱅크의 장애인 고용현황은 올해 상반기 기준 0.35%에 불과했다. 기준치인 3.1%의 10분 1 수준에 그쳤다.은행별로는 카카오뱅크가 총 직원 수 1217명 중 6명을 고용해 고용률 0.49%를 보였다. 케이뱅크는 468명 중 1명을 고용해 0.21%를 나타냈다. 토스뱅크의 경우 올 상반기까지 단 한 명의 장애인도 고용하지 않았다.이에 따라 각 인터넷 뱅크들이 납부한 장애인고용부담금은 매년 꾸준하게 증가한 것으로 나타났다. 카카오뱅크가 납부한 고용부담금은 2019년 2.6억원에서 지난해 4.2억원으로 65%가량 증가했다. 이 기간 케이뱅크는 0.5억에서 1.5억으로 3배 늘었다.시중은행들도 사정은 크게 다르지 않았다. 올 상반기 기준 KB국민·신한·하나·우리 등 4개 시중은행의 장애인 의무고용률은 법에서 정하는 3.1%의 3분의 수준인 1%에 그쳤다.그에 따라 은행들은 매년 40억~50억에 달하는 고용부담금을 납부했다. 지난 3년간 4대 시중은행이 납부한 고용부담금만 538억원에 달한다.최승재 의원은 "예대마진 등으로 역대급 실적을 올리고 있는 은행들이 사회적인 책무는 여전히 등한시하고 있다"며 "장애인 직접채용이 아니더라도 자회사형 장애인표준사업장 설립처럼 장애인 채용 의무 달성을 위한 다른 방법이 있음에도 불구하고, 고용부담금만으로 해결하려는 자세는 문제"라고 지적했다.최 의원은 "혁신과 포용 금융이 화두가 되는 시대에 은행들이 이익만 챙기는 모습이 아니라, 조금 더 사회적인 책무를 다하는 모습을 보여야 한다"면서 "인터넷은행들이 구태를 답습하지 않는 새로운 모습을 보여주기를 바란다"고 당부했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>두나무, 장기성과자에 주식 성과급 428억 지급</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002048467?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>양도제한조건부주식(RSU)1차 200억…이후 추가 지급스톡옵션 230만 주와는 별도국내 최대 가상자산 거래소 업비트를 운영하는 두나무가 임직원들에 RSU(Restricted Stock Units, 양도제한조건부 주식) 형식으로 16만972주, 428억원 규모의 자기주식을 지급한다.RSU는 임직원들에게 주식을 배정한 뒤 회사가 내건 조건을 충족하면 이를 지급하는 일종의 장기보상 제도다. 최근 들어 스타트업과 IT회사 등을 중심으로 스톡옵션의 대체제로 떠오르고 있다. 국내에선 CJ ENM, 스튜디오드래곤, 토스, 쿠팡, 위메프, 크래프톤 등이 RSU를 도입했으며, 주요 그룹 중에는 한화그룹이 2020년 2월 최초로 도입한 이래 최근 두산그룹도 합류했다.RSU는 스톡옵션과 달리 법률상 부여 대상에 제한이 없어 임직원, 계열사 임직원 모두 수령이 가능하며 수량과 지급 시점도 자유롭게 정할 수 있다. 기업이 안정적으로 성장 국면에 진입했고 주식시장이 약세장으로 접어든 시기에는 스톡옵션보다 주식을 직접 주는 RSU가 임직원들이 체감하는 보상 강도가 더 높다는 분석도 있다.두나무는 이번 RSU를 위해 지난 6월 장외시장에서 자기주식 26만주를 매입하기로 했다. 당시 매입예정가는 장외시장 기준 산술평균가격을 기준으로 1주당 33만4000원으로 산정됐다. 이번에 그 가운데 16만주 가량이 지급됐는데, 가격은 상속증여세법상 비상장주식 평가방법을 적용해 1주당 26만6247원이 됐다. 회사 입장에서는 일종의 증여이기 때문이다.최근 가상자산 시장 급락으로 두나무 주식의 장외가격은 16만원(증권플러스 기준) 수준으로 떨여졌다. 회사 입장에서는 주식을 너무 비싸게 산 결과가 됐다. 주식을 받는 임직원 입장에서도 성과급 가치가 하락한 셈이다. 다만 스톱옵션과 달리 RSU는 무상으로 받는 주식인만큼 주식가액 전체가 소득이 된다. 주가가 반등한다면 기대소득금액도 늘어난다.한편 두나무는 RSU 외에 임직원들에게 지금까지 약 229만주(취소분 제외)의 스톡옵션을 지급했고, 이 가운데 73%인 168만여주가 행사됐다. 이석우 대표도 보유한 스톡옵션 전량인 15만8500주를 이미 행사(행사가 1주당 100원)했다. 시가로 차익이 250억원이 넘는다. 두나무는 이번에 지급한 16만주 외에 8만주 가량 RSU로 지급할 주식이 남아있다.윤호 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>서민 대상 정책금융 상품 봇물...나도 대상일까?</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005337998?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>정권 초반 취약 차주 금융 상품 잇따라 출시'주담대 대환' 안심전환대출, '부실 차주' 새출발기금, '소상공인' 대환대출[이데일리 이연호 기자] 정권 초반 취약 차주 대상 정책 금융 상품이 봇물 터지듯 쏟아지고 있다. 각각의 상품별로 대상과 조건이 다르기 때문에 자격 요건을 잘 살펴볼 필요가 있다.이복현 금융감독원장이 지난 4일 오후 서울 종로구 우리은행 종로4가 금융센터 소상공인·자영업자 새출발기금 전담 창구를 방문해 은행의 대출 만기연장·이자 상환유예 지원 노력을 격려하고 자영업자의 애로 사항을 직접 청취하고 있다. 사진=연합뉴스.먼저 안심전환대출은 금리 상승기 주택담보 대출자의 이자 부담을 덜어 주기 위해 변동·혼합형 금리 주택담보 대출을 주택금융공사의 3%대 장기·고정금리 정책모기지로 대환해 주는 상품이다.대출 금리는 연 3.8%(10년)∼4.0%(30년)를 기본으로 하되, 저소득 청년층(만 39세 이하·소득 6000만 원 이하)은 연 3.7%(10년)∼3.9%(30년)의 금리를 적용 받는다.부부 합산 연소득 7000만 원 이하, 주택 가격(시세 기준) 4억 원 이하인 1주택자라면 기존 대출 잔액 범위 내에서 최대 2억5000만 원까지 대출을 신청할 수 있다.신청 및 접수 창구는 기존 주담대 취급 기관에 따라 상이하다. 6대 시중은행인 국민은행과 신한은행, 농협은행, 우리은행, 하나은행, 기업은행이 취급한 대출은 기존 대출 은행에 신청 및 접수해야 한다. 나머지 은행과 제2금융권에서 취급한 대출은 주택금융공사에 신청·접수하면 된다.주택 가격 3억 원 이하 주택 보유자를 대상으로 지난달부터 신청을 받았고 4억 원 이하 주택 보유자는 지난 6일부터 신청을 받고 있다. 출생 연도 끝자리에 따라 신청일을 분산했는데, 4·9는 10월(이하 동일) 6일, 5·0은 7일, 1·6은 13일, 2·7은 11일, 3·8은 12일에 신청하면 된다. 14일과 17일은 요일제를 미적용해 누구나 신청할 수 있다. 지난 4일 공식 출범한 새출발기금은 코로나19 확산에 따른 사회적 거리 두기로 피해를 입은 자영업자와 소상공인을 지원하기 위해 조성된 30조 원 규모의 채무 조정 프로그램이다.연체 3개월 이상 부실 차주의 경우 보유재산가액을 넘는 순부채의 최대 80%(기초생활수급자·만 70세 이상 저소득 고령자, 중증장애인 등 취약계층은 최대 90%)까지 원금을 감면해 준다. 향후 장기 연체 가능성이 높은 단기 연체자 등 부실 우려 차주에겐 이자를 감면해 준다. 소상공인·자영업자가 보유한 사업자·가계대출 모두 채무 조정 대상이다. 조정 한도는 담보 10억원, 무담보 5억원으로 총 15억원이다.한국자산관리공사(캠코)에 신청하면 되는데, 캠코는 공식 출범을 앞두고 온라인 플랫폼을 통해 지난달 27일부터 30일까지 사전 접수를 했다. 영세 자영업자·소상공인이라면 대환 대출도 눈여겨볼 만하다. 금융당국은 자영업자·소상공인의 연 7% 이상 고금리 사업자 대출을 최대 6.5% 저금리로 전환하는 프로그램을 지난달 30일부터 시행 중이다. 총 8조5000억 원 규모의 이 프로그램에 대한 신청·접수는 14개 은행의 모바일 앱과 은행 창구를 통해 가능하다. 국민·신한·우리·하나·기업·농협·수협·부산·대구·광주·경남·전북·제주·토스다. 신청·접수과정에서 불편함이 최소화될 수 있도록 시행 초기 한 달 간 사업자번호 끝자리 기준으로 5부제를 시행한다.코로나19로 피해를 입은 개인사업자 또는 법인 소기업으로, 휴·폐업, 세금 체납, 대출금 연체 등이 없이 정상적인 사업 활동을 하고 있어야 지원 받을 수 있다. 대환 대상 채무는 지난 5월 말 이전에 받은 대출로 대환 신청 시점에 금리가 7% 이상인 사업자 대출이다. 다만 도박·사행성 관련 업종, 유흥주점, 부동산 임대·매매 업종 등은 지원 대상에서 빠진다. 사업 목적 대출의 금융 부담 경감이라는 취지에 맞게 사업자 대출로 보기 어려운 가계 대출과 통장 대출, 리스 등 성격상 대환 처리가 적절하지 않은 대출도 대환 대상에서 제외된다.신용보증기금은 내년 말까지 8조5000억 원의 대환 보증을 공급할 계획이다. 대출 한도는 사업자별로 개인사업자 5000만 원, 법인 소기업 1억 원이며, 기한은 5년이다.대출 금리는 최대 5.5% 범위 내에서 최초 2년 간 대출 취급 시점의 금리가 고정되며, 3~5년차는 협약 금리(은행채 AAA 1년물+2.0%p)를 상한선으로 변동 금리가 적용된다. 보증료는 1%가 적용되며, 중도상환수수료는 전액 면제된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>10년 만에 3·5·8% 시대… 예대금리차 공시 확대한다</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004912677?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>금리정보 공시 개선안 후속조치저축성수신금리·평균 대출금리가계·기업대출 금리 함께 공시정책금융 성격 안심전환대출은규제 합리성 확보 위해 빼기로민간 중금리대출 상한선 올려2금융권 취약차주 연착륙 지원  10년 만에 기준금리가 3%시대가 도래한 가운데 금융당국이 금융소비자 보호를 위해 지난 8월부터 시행 중인 은행권의 예대금리차(예금금리와 대출금리 차) 공시의 근거 마련에 나선다.   ■금감원, 금리 정보공개 확대   13일 금융당국에 따르면 금융감독원은 예대금리차 공시 확대 관련 내용을 담은 은행업 감독업무 시행세칙을 이달 말 시행한다.   이는 지난 7월 금융당국이 발표한 금리정보 공시제도 개선 방안의 후속조치로 예대금리차 세부항목인 저축성수신금리와 평균 대출금리, 가계·기업대출 금리도 함께 공시토록 규정하고 있다.   또 기존에 은행별 자체 신용등급 기준으로 공시해온 가계대출 금리는 신용평가사(CB) 기준 신용점수로 바꿔 50점 단위로 대출금리와 예대금리차를 함께 공시토록 했다.   현재도 은행연합회에서 매달 은행별 대출금리 정보를 비교 공시하고 있다. 하지만 소비자가 알기 어려운 은행 자체 등급 구간별로 금리정보가 표시되다 보니 제대로 된 금리정보를 확인하는 데 한계가 있었다. 또 금융당국은 은행업 감독규정을 개정해 예대율 산정 시 주택금융공사의 보금자리론 업무 처리 기준에 따라 취급된 안심전환대출은 제외해 규제의 합리성을 제고하기로 했다.   예대금리차 공시는 매월 20일에 이뤄지는데 가장 최근 공시됐던 지난 8월 수치에 따르면 5대 시중은행 가운데 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행(1.73%포인트)이었다. 이어 KB국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트) 순으로 가계 예대금리차가 컸다.   ■중금리 대출 상한선 올려   급격한 금리 상승기를 맞아 2금융권에서 대출이 많은 자영업자의 연착륙 유도도 적극적으로 추진할 방침이다.   금융당국은 중·저신용자에 자금을 원활히 공급하기 위해 2016년부터 중금리 대출 제도를 운용하고 있다. 중금리 대출 공급액은 2016년 1조3000억원에서 지난해 21조5000억원으로 급증했다.   금융위원회는 최근 민간 중금리 대출의 금리 상한 기준을 합리화하는 내용을 고시했다. 적용 시기는 10월부터 12월 말까지다. 최근 금리가 급등하는 가운데 고금리로 대출을 이용하던 중·저신용자가 보다 낮은 중금리대 대출을 이용할 수 있도록 민간 중금리 금리상한 기준을 합리화하기 위한 조치다.   이에 따라 상호금융의 경우 민간 중금리 대출의 금리 상한을 올해 상반기 8.5%에서 하반기 9.01%로 상향 조정했다. 여신전문금융업은 신용카드업의 경우 민간 중금리 대출의 금리 상한을 11%에서 11.29%, 캐피탈은 14%에서 14.45%로 설정했다. 저축은행은 16%에서 16.3%로 올렸다.연내 인터넷은행의 분기별 중저신용자대출 비중 공시 등을 통해 취약차주에 대한 대출 확대도 유도할 방침이다. 금감원에 따르면 올해 6월말 기준 중저신용자대출 비중은 카카오뱅크 22.2%, 케이뱅크 24.0%, 토스뱅크 36.3% 등이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>한화생명 빅3 탈락...피플라이프 인수로 반전할까</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003305721?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>‘피플라이프’ 인수 승부수그룹내 대표적인 재무·기획통임기만료 앞두고 인수합병 카드상반기 순이익 작년의 반토막업계 2위 교보생명의 절반 수준빅테크 비교·추천 서비스 변수한화생명 여승주 대표총자산규모 126조원에 달하는 업계 2위 생명보험사 한화생명의 여승주 대표가 1년 사이 이익이 반토막 난 초라한 성적표를 받아들면서 리더십이 시험대에 올랐다. 내년 3월로 두 번째 임기 종료를 앞두고 첫 임기 말에 꺼내든 법인보험대리점(GA) ‘피플라이프’ 인수 카드를 다시 만지작거리며 승부수를 띄우고 있지만 급변하는 시장 상황 속에 성공 여부를 장담하기 어렵다는 평가가 나온다.2일 보험업계에 따르면 여 대표는 최근 피플라이프를 인수하기로 최종 확정하고 조만간 주식매매계약(SPA)을 체결할 예정이다. 인수가는 2000억원대 중후반으로 알려졌다. GA란 특정 보험회사에 소속되지 않고 여러 보험회사와 제휴를 맺어 다양한 보험상품을 취급하는 대리점이다.여 대표의 피플라이프 인수 시도는 이번이 두 번째다. 2020년 인수 시도 당시에는 지분 가격 이견과 피플라이프의 기업공개(IPO) 계획 등으로 무산됐다. 대신 한화생명은 같은 해 12월 자회사형 GA인 한화라이프에셋(현 한화라이프랩)과 한화금융에셋을 합병했고, 이어 지난해 4월에는 별도의 전속 GA인 한화생명금융서비스(한금서)를 출범시켰다.1985년 한화그룹에 입사한 여 대표는 옛 대한생명(한화생명) 인수와 삼성그룹 방산·화학 계열사 인수합병(M&amp;A)을 주도한 기획통으로, 이번 인수전 역시 재신임 가능성을 염두에 둔 ‘특기 발휘’가 아니냐는 시선이 나온다. 그는 김승연 한화그룹 회장의 차남인 김동원 한화생명 부사장의 경영 스승으로도 알려져 있다.다만 여 대표의 GA 카드는 이미 약발이 신통치 않다는 평가를 받는다. 한금서 설계사 수는 약 1만 9000여명으로 업계 최대 수준이지만 한금서는 물론 모회사인 한화생명 역시 규모 대비 수익성은 떨어지는 편이다.실제로 한화생명이 최근 공개한 상반기 잠정 실적에 따르면 한화생명의 상반기 순이익은 별도 기준 1067억원으로 지난해 같은 기간(2508억원)에 비해 57.4% 감소했다.한화생명은 자산 규모와 연결 당기순이익 면에서는 삼성생명에 이은 업계 2위다. 그러나 자회사를 제외한 별도 기준 당기순이익으로는 지난해 말 업계 2위에서 올해 상반기 업계 9위로 밀려나 ‘빅3’에서 탈락했다. 한화생명의 상반기 별도 기준 당기순이익은 해당 기준 업계 2위인 교보생명(2743억원)의 절반 수준이다. 연결 기준 당기순이익은 1년 전보다 17% 하락한 4174억원인데, 이는 연결 대상 자회사의 후광 효과를 제외하면 한화생명 자체의 내부 동력이 부족하다는 이야기다.이미 출범시킨 보험설계사 2만명 규모의 대형 GA로도 별다른 재미를 보지 못했는데, 추가로 GA를 인수해 영업을 강화하더라도 전망이 밝을지는 미지수다. 빠르면 이달부터 네이버·카카오·토스 등 빅테크의 GA 격인 보험상품 비교·추천 서비스가 출범하는데 온라인보다 싸게 가져갈 수 있다는 보장이 없다. 기준금리 인상 기조 속 건전성 확보와 리스크 관리도 과제다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>설계사들 거리로 내몰릴 때… 보험사들, '네카토'와 동맹 택했다</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000857973?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./그래픽=머니S DB  생명보험사들이 네이버와 카카오, 토스 등 빅테크를 통해 보험상품 판매 확대를 추진하기로 했다. 생명보험사들은 자사 온라인 홈페이지나 설계사를 통해 판매하기 어려운 상품을 빅테크 플랫폼으로 판매한다는 방침을 내부적으로 세웠다. 이는 빅테크사의 진출에 결사 반대하고 있는 보험대리점들과 다른 모습이다.   6일 보험업계에 따르면 다수의 생명보험사들은 네이버·카카오가 제공할 예정인 '보험 비교·추천 서비스'에 입점을 둘러싼 타당성 검토에 들어갔다. 이들은 네이버·카카오가 구상하고 있는 보험 비교·추천 서비스를 모니터링 중으로 서비스 성격에 맞는 상품을 제공한다는 계획이다. 빅테크 플랫폼을 통해 판매량을 끌어올릴 수 있다고 보는 것이다. 현재 생명보험협회도 생명보험사들로부터 네이버, 카카오의 비교·추천 서비스 입점을 위한 상품 구성, 계획 등을 취합하고 있다. 생명보험협회는 보험사들의 의견을 최종 취합해 조만간 금융당국 등에 전달할 예정이다. 생명보험사 한 관계자는 "협회 차원에서 별도 인원을 꾸려 빅테크 서비스 입점 타당성을 검토하고 있으며 여기에 당사 계획을 전달했다"라고 말했다. 또 다른 생명보험사 관계자는 "빅테크 플랫폼을 통해 상품이 많이 노출되는 것은 긍정적"이라며 "빅테크가 내놓을 서비스 형태에 따라 상품 구성이 달라질 것"이라고 전했다. 지난 8월 금융위원회는 금융규제 샌드박스의 혁신금융서비스를 적용, 보험 비교·추천 서비스를 허용하겠다는 방침을 밝혔다. 보험 비교·추천 서비스는 지난해 9월 '보험판매 중개행위'로 규정되면서 해당 서비스가 제한돼 왔다. 전면 허용이 아닌 일부 상품에 대해서만 비교·추천 서비스가 가능한 방향으로 논의를 진행하고 있다. 서비스 대상 상품 리스트에 종신·외화·변액보험 등과 같은 구조가 복잡하거나 고액계약으로 불완전판매 우려가 있는 상품은 제외하고 자동차보험, 장기인보험 등의 보험상품을 놓고 논의를 이어나가는 중이다. 생명보험사들은 주력인 종신보험 등이 비교·추천 서비스에서 제외되는 만큼 안도하고 있다. 이에 종신보험을 제외한 소액단기보험들을 네이버, 카카오를 통해 판매하는 것을 유력하게 검토하고 있다. 보험업계에서는 보험사들의 빅테크 플랫폼 입점은 중장기적으로 보험사들에게 수수료 부담으로 이어질 것을 우려하고 있다. 금융당국이 빅테크의 과도한 중개수수료를 제한하겠다고 밝혔지만 힘을 갖춘 빅테크가 편법으로 수수료를 요구할 가능성은 있다. 이는 결과적으로 소비자들에게 보험료 인상이라는 부담으로 이어질 수 있다. 보험업계 관계자는 "빅테크와 보험사 간 힘의 균형이 무너지지 않도록 대책을 마련해야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>이용우 "네이버·카카오 후불결제서비스 연체위험 커…규제해야"(종합)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013500132?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>리스크 취약 우려도 지적…이복현 금감원장 "금융시스템 결합 필요성 공감"핀테크 업계 "후불결제 이용 심사 시 금융정보도 활용…이미 규제 있어"이용우 의원[더불어민주당 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 네이버(NAVER) 와 카카오 등 플랫폼 업체가 최근 도입한 '지금 사고 나중에 내기'(BNPL·후불 결제) 서비스가 이용자들의 연체 위험을 높일 수 있어 적절한 규제가 필요하다고 국회 정무위원회 소속 더불어민주당 이용우 의원이 12일 주장했다.    현재 국내에서는 네이버 금융 계열 자회사 네이버파이낸셜과 카카오 자회사 카카오페이, 쿠팡, 토스를 비롯한 플랫폼과 현대카드 등이 BNPL 서비스를 제공하고 있다.    네이버파이낸셜은 지난해 4월 먼저 BNPL을 선보였고, 카카오페이는 올해 1월 BNPL을 정식 출시한 후 서비스 범위를 넓혀가고 있다.     BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사한 구조다.    다만 BNPL은 신용카드를 발급하기 전 시행하는 일반적인 신용평가 대신 비(非)금융정보 등을 활용한 대안 신용평가를 바탕으로 서비스 가능 여부가 결정된다. 따라서 신용카드 발급이 까다로운 미국, 유럽, 호주 등에서는 신파일러(Thin Filer:금융이력부족자) 집단을 중심으로 활성화됐다.     이 의원은 "BNPL로 신용이 부족한 신파일러도 할부금융을 이용할 수 있게 되면서 연체 위험이 높아진다는 것이 문제"라며 "실제로 해외에서는 BNPL 거래 규모가 커지면서 연체율이 사회 문제로 부각되고 있다"고 지적했다.    이 의원은 각국에서 BNPL 서비스 제공 전 '신용상품'이라는 점을 고지하도록 하는 등의 규제를 통해 이런 문제에 대응하고 있다면서 국내에서도 적절한 규제가 필요하다고 강조했다.    특히 네이버파이낸셜 등 플랫폼 업체들은 금융위원회의 혁신금융서비스로 지정받아 여신금융업 라이선스(허가) 없이 금융업에 뛰어들었기에 부작용 우려에 따른 규제가 필요하다는 것이 이 의원의 주장이다. 혁신금융서비스는 기존 금융서비스의 제공 내용, 방식과 차별성이 인정되는 금융업 또는 관련 서비스에 규제 적용 특례를 인정하는 제도다.    이 의원은 또 현재 국내 사례처럼 플랫폼 업체가 독자적으로 BNPL을 제공하도록 하면 금융위기 등 리스크에 취약한 우려가 있다며 금융사와 제휴 등의 방안도 제시했다. 이 의원에 따르면 미국 애플과 아마존은 각각 금융사인 골드만삭스, BNPL 전문업체 '어펌'과 제휴를 맺고 BNPL 서비스를 제공하고 있다. 핀테크 (PG)[백수진 제작] 일러스트이 의원은 지난 11일 정무위 국감에서 이복현 금융위원장에게 "금융혁신 서비스라면서 플랫폼 업체에 BNPL을 허용해 줬는데, 신용정보를 이용하지 않고 할부금융을 제공하는 것이 혁신이냐"라며 "라이선스 없이 할부금융을 제공하기에 리스크에 대비할 수 있도록 적절한 규제가 필요하다"고 말했다.    이에 이 위원장은 "혁신금융 지정 당시 금융업 문이 너무 좁다는 시각이 있었고, 아직은 BNPL 서비스가 작은 규모이기 때문에 초반에는 문을 열어놓고 모양을 보자는 취지로 이해하고 있다"면서 "다만 해외에서 발생하는 연체 이슈들을 통해 종전 금융시스템과 결합이 필요하다는 것에 공감한다"고 답했다.    카카오페이는 이런 지적에 "대중교통 영역에만 후불 기능을 제공하고 있으며, 한도도 타사 대비 절반 정도로 낮아 리스크 발생률이 매우 낮다"면서 "신용평가사 신용점수를 기본으로 카카오페이 생활 금융 데이터를 결합해 더욱 고도화된 대안 신용평가모델을 구축했으며, 안정적 관리에 최선을 다하고 있다"고 설명했다.    다른 핀테크 업계 관계자는 "후불결제 이용 심사 시에는 금융정보와 비금융정보를 모두 활용한 대안 신용평가시스템을 활용하고 있다. 아직 국내에서는 후불결제 할부 금융을 제공하고 있지 않다"고 말했다. 후불결제 신청 단계에서 사용자들에게 서비스의 이용 한도 및 방법, 연체 시 수수료 등을 충실히 안내하고 있다는 얘기다.    이 관계자는 또 "전자금융거래법 개정안에 후불결제 라이선스에 대한 내용이 포함됐으며, 개정안이 통과되면 서비스 제공자들은 라이선스를 갖고 운영할 수 있게 된다"면서 "대손충당금 적립이나 포인트 우선 소진 등 후불결제 서비스에 대한 규제는 이미 받고 있다"고 강조했다.     이어 "후불결제 제공자들은 서면 통지, 출금 시도 등 후불결제 연체 관리를 위한 노력을 지속 중"이라며 "제공자들 간 연체정보에 대한 공유가 된다면 더 관리가 용이해질 것으로 기대한다"고 덧붙였다.네이버·카카오 플랫폼 규제 (PG)[홍소영 제작] 일러스트    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[단독] 금융업권 전산장애 최근 3년간 781건… 피해 사례는 288건</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000846850?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>전산사고 은행·증권업권이 전체 사고 발생의 66% 차지  “전산장애 피해규모 산출 어려워... 예방 기능 강화해야”        금융업권의 전산장애가 매년 증가하고 있음에도 피해 규모가 파악된 사례는 37%에 불과한 것으로 나타났다. 최근 3년간 국내 금융업권에서는 총 781건의 전산장애가 발생했는데, 이들 중 피해 규모가 구체적으로 확인된 사례는 288건에 그쳤다.전산장애는 컴퓨터의 시스템 결함이나 인터넷 회선 장애와 구분하기 어려워 정확한 사고 발생 원인을 찾기 힘들고, 구체적 피해 규모를 파악하는 것도 쉽지 않아 피해자 구제에 한계가 있다. 전산사고는 사전 예방이 특히 중요한 만큼 금융회사의 IT인프라에 대한 평가 기준을 정비하는 등 사고 예방 방안 마련이 필요하다는 지적이 나온다.그래픽=손민균        12일 국회 정무위원회 소속 강민국 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면 최근 3년 간(2019년~2022년 8월) 금융업권의 전산장애 발생 횟수는 2019년 196건, 2020년 198건, 2021년 228건으로 매년 증가했다. 올 들어 8월까지 발생한 전산장애도 159건에 달한다. 이는 월 20건 수준으로, 8월 이후 연말까지 비슷한 빈도로 사고가 발생한다면 올해 전산장애 발생 횟수도 지난해보다 늘 것으로 보인다.확인된 피해규모는 346억4241만원으로, 전산장애 한 건당 피해액이 평균 1억2028만원에 달한다.금융업권 중 은행업권과 증권업권이 전체 전산장애 발생건수의 66% 이상을 차지했다. 전산장애가 가장 많이 발생한 금융업권은 은행업권으로 총 275건(35.2%)이 집계됐다. 뒤이어 증권업권이 246건으로 31.5%를 차지했다. 이어 보험업권 137건, 저축은행업권 66건, 카드업권 57건으로 나타났다.은행업권의 경우 구체적 피해가 확인된 사례는 57건으로, 전체 전산장애 발생 건수의 21% 수준에 불과했다. 확인된 피해 규모는 33억8386만원이다.전산장애가 가장 많이 발생한 은행은 케이뱅크로 이 기간 총 34번의 전산장애가 발생했지만 단 한 건의 피해 규모도 파악되지 않았다. 이어 신한은행(32건), 카카오뱅크(27건), 한국산업은행(25건), 한국스탠다드차타드은행(23건)순으로 많은 전산장애가 발생했다.그래픽=손민균        증권업권에서는 246건 중 199건(81%)의 피해금액이 확인됐다. 가장 많은 전산장애가 발생한 증권사는 NH투자증권으로 이 기간 발생한 22건의 전산장애 중 20건에서 8512만원의 피해가 발생했다. 이어 토스증권(17건·8686만원), 신한투자증권(17건 중 15건·13억1903만원), 키움증권(16건 중 15건·56억1557만원), 삼성증권(16건 중 15건·13억4075만원)등의 전산장애 발생건수와 피해 규모가 확인됐다.지난 8월 모바일(MTS)·홈 트레이딩 시스템(HTS)이 15시간 이상 먹통이 됐던 한국투자증권의 경우 최근 3년간 총 13건의 전산장애 사고가 발생했고, 피해액은 40억704만원인 것으로 나타났다.이어 카드업권에서는 16건에서 48억7234만원, 보험업권에서는 13건에서 1억6510만원, 저축은행업권에서는 3건에서 1410만원의 피해금액이 확인됐다.강민국 의원은 “최근 금융업권 전반의 MTS·HTS 이용이 급증하면서 전산장애도 증가하고 있어 소비자들의 잠재적 피해 위험성이 높아지고 있다”고 지적했다. 그는 이어 “금융감독원이 금융회사의 IT인프라 운영 과정에서 발생할 수 있는 주요 리스크를 평가할 뿐 아니라, 사고개연성이 높다고 보여지는 금융회사에 대해서는 직접 현장검사를 실시하고, 현재 도입된 ‘IT실태평가’에 전산장애에 대한 평가항목을 반영해 사고 예방 기능을 강화하는 것이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>토스뱅크 1주년...수신상품 금리 일괄 인상</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002049635?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>수시입출금통장 연 2.3%‘키워봐요’ 적금 연 4.0%토스뱅크가 출범 1주년을 맞아 전체 수신상품 금리를 올린다. 토스뱅크는 수시입출금통장인 ‘토스뱅크 통장’의 금리를 2.3%로, 정기적금 상품인 ‘키워봐요 적금’을 4.0%로 인상해 고객 혜택을 강화한다고 6일 밝혔다.금리 인상은 당장 이날부터 반영된다. 고객이 언제 어디서든 자유롭게 돈을 넣고 뺄 수 있는 ‘토스뱅크 통장’의 금리는 기존 연 2.0%(세전)에서 연 2.3%(세전)로 0.3%포인트(p) 오른다. ‘토스뱅크 통장’ 고객들은 통장 개설 시점에 관계없이 연 2.3%의 금리를 최대 1억원 한도까지 적용 받는다.‘지금 이자받기’ 서비스도 1억원을 예치한 고객의 경우 매일 6301원(세전)을 받을 수 있게 됐으며, 일복리 효과도 유지된다. 올 3월 출시한 ‘지금 이자받기’ 서비스는 7개월간 210만 명의 고객이 이용, 총 1417억원의 이자를 받을 수 있었다.‘키워봐요 적금’의 기본금리도 1.0%p 올라 최대 금리가 연 3.0%에서 연 4.0%로 인상된다.고객들은 월 최대 100만원 한도 내에서 자신이 설정한 금액을 6개월 간 매주 자동이체에 성공하면 2.0%의 우대금리를 받을 수 있다. 만기 시 고객들은 최대 연 4.0%(세전) 금리 혜택을 누릴 수 있게 됐다. 단, 6일부터 적금 신규가입 고객에 한해 인상된 기본금리 혜택이 적용된다. 서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>금융권, 자체 ‘대안신용평가모형’ 개발에 박차</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001556693?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>급성장한 대출시장 공략 차원  기존 모델, 블루오션 발굴엔 한계  개인정보 과다이용 논란은 숙제서울의 한 시중은행에 대출 관련 광고 안내판이 설치돼 있다. 연합뉴스주요 금융회사들이 확보한 고객 데이터를 바탕으로 자체적인 ‘대안신용평가모형’ 개발에 박차를 가하고 있다. 전통적으로 이용해오던 모델은 잠재적 수요자 등 ‘블루오션’을 발굴하기에 한계가 있다는 판단에서다. 다만 부실 리스크 관리와 개인정보 과다이용 논란은 풀어나가야 할 숙제다.2일 금융업계에 따르면 카카오뱅크는 최근 독자적 대안신용평가모형인 ‘카카오뱅크 스코어’를 개발했다. 롯데멤버스, 교보문고 등 11개 대형 기관과 3700만건의 가명 결합 데이터를 활용한 신용평가모형이다. 인터넷전문은행인 케이뱅크, 토스뱅크도 각각 고유의 신용평가모형을 보유하고 있다. 신한은행은 시중은행 중에서는 처음으로 기업 신용평가 부문에서 ‘비재무 객관화 모형’을 적용했다. KB국민은행은 머신러닝 알고리즘을 활용한 모형 구축했고 하나은행·우리은행은 입출금 통장 거래내역·카드사 가맹점 정보 등 빅데이터를 이용한 개인사업자 모형을 개발했다.은행들이 공격적으로 대안신용평가모형 개발에 박차를 가하는 이유는 코로나19 기간 동안 급성장한 대출시장을 공략하기 위해서다. 특히 기존 금융권 신용평가모형은 카드납부이력, 연체이력, 대출이력 등 금융정보만을 토대로 신용등급을 매기는 만큼 잠재적 수요고객 확보에 제한이 있었다. 이들 회사는 금융이력은 부족하지만 상환 능력은 충분한 ‘씬파일러’를 발굴하기 위해 새로운 신용평가모형이 효과가 있다고 보고 있다.비금융정보는 상대적으로 최신 정보로 분류되는 만큼 금융사가 이를 토대로 빠른 의사결정을 내리기도 용이하다. 가령 대출은 연 단위 만기가 도래할 때까지는 연체 여부를 알기 어렵다. 카드대금도 마찬가지다. 하지만 통신·쇼핑·교통 등 정보는 실시간으로 업데이트 되는 만큼 상환능력을 보다 실시간으로 파악할 수 있다.은행의 비금융 사업부문에서 나오는 데이터도 대안신용평가모형의 핵심이다. 신한은행은 자체 배달앱 ‘땡겨요’의 고객정보를 적극 활용 중이다. 다만 비금융정보 이용한 대안신용평가모형의 가장 큰 약점은 부실 가능성이다. 현재는 정부의 대출상환연기 등 제도적 지원으로 은행권 연체율이 최저 수준(0.20% 내외)을 유지하고 있지만, 금리가 계속해서 상승하고 있는 만큼 부실화 리스크가 적지 않게 제기되는 상황이다. 데이터가 충분히 쌓여있지 않은 비금융정보를 토대로 대출을 내줬을 경우 실제 회수가 가능할지가 관건이다. 현재 금융권이 반영하고 있는 ‘비금융 데이터’를 두고 과도한 개인정보 활용이 아니냐는 논란도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>카카오톡 회원수도 맞먹는다…전세계 흔드는 'K수학 앱'</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004759244?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>에듀테크 스타트업은 매스프레소가 AI 기반 학습 플랫폼 콴다의 가입자 수가 7000만 명을 돌파하였다고 7일 밝혔다. 국민 메신저라고 불리는 카카오톡 맞먹는 규모다 지난 2016년 1월 선생님과의 질문과 답변 앱으로 시작한 콴다는 모르는 문제 사진을 찍으면 AI가 판독해 풀이를 제공하는 검색 기능 도입 후 국내외에서 성장세를 보였다고 회사 측은 설명했다. 올해 7월에는 사용자 인터페이스(UI)를 개편하며 오답노트, 커뮤니티, 스터디 그룹 등의 기능을 담아 학습 전반을 아우르는 교육 플랫폼으로 발전했다. 작년 하반기에는 1:1 비대면 과외 서비스 ‘콴다과외’도 출시했다. 베트남에서는 그룹 라이브 강의 서비스 ‘콴다스터디’를 운영하며 종합 교육 플랫폼으로 성장하고 있다.  콴다는 코로나19 이후 비대면 교육이 부상한 후 큰 성장세를 보였다. 모바일 앱 시장 분석업체인 센서타워를 통해 지난 2년간의 국내 앱 다운로드 순위를 집계한 결과 콴다는 전체 앱 다운로드 순위 6위를 기록하며 카카오톡 뒤를 이었다. 7위부터 10위는 네이버, 토스, 카카오T, 쿠팡으로 집계됐다. 국내뿐 아니라 베트남과 같이 교육열이 높은 동남아 국가들에서도 큰 인기였다. 콴다의 7000만 가입자의 87%는 해외 유입으로 나타났다. 베트남이 전체 글로벌 가입자의 27%로 가장 큰 비중을 차지했고, 인도네시아가 24%로 그 뒤를 이었다. 모바일 앱 마켓 분석업체 데이터에이아이에 따르면 콴다는 2021년 9월에서 11월 기준, 동남아 전 지역 에듀테크 앱 차트에서 구글 클래스룸을 제치고 2위를 차지했다.베트남 월간활성이용자수(MAU)는 470만 명을 기록하며  동남아 슈퍼 앱이라고 불리는 그랩의 안드로이드 MAU보다도 높은 수치를 보였다. 매스프레소 관계자는 “지역적, 경제적 제한으로 모르는 문제를 편히 질문하기 어려운 환경의 학생들이 모바일로 편리하게 궁금증을 해결할 수 있어 큰 인기를 끌었다”고 설명했다. 콴다의 누적 문제 해결수는 46억 건이다. 하루에 약 1100만 건의 문제 검색이 이뤄지고 있다. 초당 127개의 질문을 해결하는 셈이다. 이용재 매스프레소 대표는 “국내뿐 아니라 베트남, 인도네시아 등 해외에서도 콴다를 통해 공부하는 것이 자연스러운 학습법으로 자리 잡았다”며 “지금까지는 소수만 누릴 수 있었던 맞춤형 교육을 기술을 통해 누구나 누릴 수 있도록 혁신할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[단독] 김태호 PD의 '테오' 1년도 안돼 몸값 1000억</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004108312?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>새한창투서 100억 투자유치 성공'서울체크인' 등 성장 가능성 입증IP확보·커머스 신사업 등 나설 듯김태호 PD.(사진=tvN)[서울경제] MBC 출신의 김태호 프로듀서(PD)가 설립한 콘텐츠 제작사 ‘테오’가 국내 벤처투자 시장에서 약 1000억 원의 몸값을 인정받았다. 테오가 출범한 지 10개월 만의 성과로 김 PD의 능력과 업계에서 쌓은 명성이 반영된 것으로 분석된다.10일 벤처투자 업계에 따르면 테오는 최근 100억 원 이상의 신규 투자 유치에 성공했다. 테오 투자에는 국내 벤처캐피털(VC)인 새한창업투자가 단독으로 참여했다. 테오가 발행한 전환우선주(CPS)를 인수하는 형태다.새한창투는 이번 투자를 통해 테오의 지분을 10% 이상 확보해 창업자인 김 PD에 이어 2대 주주에 올랐다. 1989년 설립된 새한창투는 쿠팡과 크래프톤·배달의민족·토스·직방 등 다양한 유니콘(기업가치 1조 원 이상 비상장사) 기업을 초기에 발굴해 투자한 VC로 명성이 높다.테오는 김 PD가 2021년 12월 설립한 예능 콘텐츠 제작사다. 김 PD는 국내 방송계에 한 획을 그은 예능 프로그램인 ‘무한도전’을 기획해 국민MC로 불리는 유재석 씨 등과 대박을 일군 바 있다. 이후 ‘놀면뭐하니’와 ‘같이펀딩’ 등을 잇따라 성공시키며 국내 최고의 예능 PD로 입지를 공고히 했다. 또 넷플릭스 예능 부분에서 1위를 기록한 ‘먹보와 털보’도 김 PD의 대표작 중 하나다.테오 설립 이후에는 가수 이효리가 출연한 ‘서울체크인’이 큰 성공을 거둬 향후 성장 가능성을 증명했다는 평가다. 테오는 앞으로 특정 플랫폼에 얽매이지 않고 넷플릭스·애플TV·디즈니+ 등 글로벌 온라인동영상서비스(OTT)를 비롯해 방송사들과 협업을 진행해 국내외 콘텐츠 시장 공략에 속도를 높여나갈 계획이다.또 최근 CJ ENM의 이태경 PD와 정종현 PD가 합류하면서 콘텐츠 제작 역량을 강화하기도 했다. 이 PD는 tvN에서 ‘놀라운토요일’을 기획한 PD로 널리 알려져 있다. 정 PD는 대표작으로 ‘더 지니어스’와 ‘대탈출’ 등이 있다.테오는 이번에 확보한 투자금을 외부 콘텐츠 직·간접 투자와 콘텐츠 제작사 인수 등을 통한 지식재산권(IP) 확보 등에 활용할 계획이다. 또 인재 영입에도 박차를 가해 예능 콘텐츠 제작 역량을 고도화하고 전자상거래(e커머스) 등으로 사업 영역 다각화를 추진한다. e커머스 사업의 경우 네이버(NAVER)를 비롯해 알엑스씨(RXC) 등과 협업을 검토하는 것으로 알려졌다.투자 업계의 한 관계자는 “테오는 김 PD와 최근 합류한 구성원들의 역량을 고려할 때 세계적인 콘텐츠 제작사로 성장할 가능성이 크다”며 “앞으로 유튜브·OTT·지상파 등 다양한 플랫폼을 활용해 영향력을 높여나갈 것으로 예상된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"대면영업 다 죽일셈이냐"… 빅테크 보험진출 반대 물결</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002757791?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>GA업계, 생존권 사수 결의대회5일 서울 종로구 동화면세점 앞에서 '온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 2차 결의대회'가 열리고 있다. 연합뉴스     보험대리점(GA) 업계가 네이버, 카카오 등 빅테크들의 보험 비교 서비스 도입을 반대하며 두 번째 대규모 결의대회를 진행했다. 이들은 이 서비스가 45만 보험설계사의 생존권을 위협하고 있다며 호소했다. 한국보험대리점협회, 보험영업인 노동조합 연대, 온라인플랫폼 보험진출저지 비상대책위원회(비대위) 소속 보험업계 종사자들은 5일 서울 광화문에서 '온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 결의대회'를 열었다. 이날 결의대회에는 GA와 해당 GA에 속한 보험설계사들을 중심으로 총 5000여명이 모였다.이들은 '대통령께 드리는 호소문'을 통해 "온라인플랫폼을 위한 사업비 부과로 소비자의 보험료 부담이 증가하고, 불완전 판매 가능성이 커져 민원 유발 등 소비자 편의가 저하될 것"이라며 "편리성만 내세운 온라인플랫폼의 이익 추구에 보험산업의 혼란과 보험 본연의 가치가 훼손될 수 있다"고 지적했다. 이어 "대면 영업을 하는 보험 설계사와 보험 대리점의 일자리를 많이 감소시키고 생계 활동을 위태롭게 할 것"이라고 목소리를 높였다.또 "온라인플랫폼 비교추천 후 자회사 대리점에서 후속 절차를 진행할 경우 온라인플랫폼에 보험 판매를 허용한 것과 동일하다"며 "온라인플랫폼의 보험진출에 반대한다"고 강조했다. 현재 네이버는 NF보험서비스, 카카오페이는 KP보험서비스, 토스는 토스인슈어런스 등의 GA를 운영하고 있다. 플랫폼에서 보험비교 서비스를 받고 , 고객 정보를 자회사에 넘겨 영업하는 행태가 나타날 수 있다고 지적한 것이다. 금융위원회는 지난 8월 네이버와 카카오 등 온라인플랫폼의 보험비교 추천 서비스업 진출을 허용했다. 다만 종신보험, 변액보험, 외화보험 등 상품구조가 복잡하거나 고액계약이 많아 불완전 판매 소지가 많은 보험상품은 비교 대상에서 제외하기로 했다.비상대책위와 한국보험대리점협회, 보험대리점업계 및 보험영업인 노동조합 연대는 "생존권 사수를 위한 보험영업인의 요구사항이 관철될 때까지 끝까지 투쟁할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>베이스인베, 이태양 토스 공동창업자 그로스파트너로 영입</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004804195?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>초기 스타트업 전문 벤처캐피탈(VC) 베이스인베스트먼트가 이태양 비바리퍼블리카(토스) 공동창업자를 그로스 파트너로 영입했다고 11일 밝혔다.이태양 그로스 파트너는 2011년 이승건 현 비바리퍼블리카 대표와 비바리퍼블리카를 공동창업하고 2020년까지 토스 최초의 PO(프로덕트 오너)로 서비스 보안 설계, 제품 개발, 조직 정비 등을 이끌었다. 지난해부터는 액셀러레이터 블루포인트파트너스에서 수석심사역으로 재직하며 후배 스타트업 대표들에게 토스 시절에 내재화한 경험과 역량을 전수하는 역할을 했다. 앞으로 이 파트너는 베이스인베스트먼트에 상근하며 초기 스타트업의 가설 검증, 프로덕트 개발, 조직 문화 정립 등을 긴밀하게 지원할 예정이다. 베이스인베스트먼트는 이 파트너 영입으로 초기 스타트업의 채용을 지원하는 최푸른 스페셜리스트, 기술을 자문하는 김병학 테크 어드바이저와 함께 초기 스타트업 지원을 강화한다는 계획이다.신윤호 베이스인베스트먼트 대표는 "투자를 받는 스타트업들에 최상의 경험을 제공하도록 노력할 것"이라고 말했다. 이 파트너는 "정답이 없는 스타트업의 성장 과정에서 포트폴리오사들이 겪는 다양한 문제를 보다 면밀히 살피고 함께 고민해 임팩트 있는 도움을 주겠다"고 말했다. 한편, 베이스인베스트먼트는 2018년 2월 신현성 티몬 의장과 강준열 전 카카오 최고서비스총괄부사장(CSO)가 주축이 돼 설립한 VC다. 시드 및 프리시리즈A 단계에 집중 투자한다. 현재까지 120여개 스타트업에 투자했다. 라포랩스, 마크비전, 비욘드뮤직, 트래블월렛 등이 대표 포트폴리오다.[머니투데이 스타트업 미디어 플랫폼 유니콘팩토리]</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>국세청장 "나도 '삼쩜삼' 해봤다.. 환급은 못 받아"</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002287969?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>◆…김주영 더불어민주당 의원. (국회방송 방송화면 캡쳐)김창기 국세청장이 세금 신고 및 환급 플랫폼 '삼쩜삼'에서 환급을 신청한 결과 환급금이 없었다고 밝혔다.   12일 김 국세청장은 세종시 국세청사에서 열린 기획재정위원회의 국세청에 대한 국정감사에서 "삼쩜삼에 접속해 세금 환급 신청을 해봤냐"는 더불어민주당 김주영 의원이 질문에 이 같이 답했다.   김 의원은 이날 "삼쩜삼을 통해 국민이 환급 받은 금액이 5022억원에 달한다. 1인당 17만원 꼴로 환급을 해줬다고 힌다. 5022억이면 295만명이 환급을 받은 것"이라면서 삼쩜삼의 수익에 대해선 세금을 얼마나 징수했는지 물었다.   김 국세청장이 "개별 납세자 과세 정보라 말하기 어렵다"고 하자, 김 의원은 "수수료가 10~20%인데 환급금을 5000억원으로 계산하면 500억원에서 1000억원을 번 것"이라고 말했다.   이어 그는 "근본적으로 삼쩜삼은 개인정보를 많이 저장하고 있다. 카카오계정 등으로 국민들이 아주 쉽게 접근할 수 있다"면서 개인정보 유출이나 해킹 문제는 없는 지 물었다. 그러면서 "민감한 자료가 아주 많이 있다"며 "토스가 80만명 개인정보를 1인당 6만9000원씩 팔아 먹었다. 정보를 판매해서 300억원의 수익을 얻었다"고 말했다.   김 의원은 이어 "국세청의 데이터들이 민간에 넘어가는 상황에서 보안에 취약하다면 국민 전체에 심각한 문제가 발생할 수 있다. 삼쩜삼의 가입자가 1300만명이다. 경제활동인구 3000만명인데 절반정도가 정보가 들어가 있다는 것이다. 국세청에서 이에 대해 너무 안일하게 생각하는 것 같다. 특히 국세청 자료들은 보안에 대한 심각한 문제의식을 가져야 한다"고 강조했다.   김 국세청장은 "국세청에서 5월과 9월에 환급을 받을 수 있도록 개별 안내를 했다. 삼쩜삼에 대한 이용 필요성이 축소되도록 안내한 것"이라며 "삼쩜삼과 세무사들에게 보안에 대한 공문도 보내고 하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>증권사, 전산장애 빈번한데… 금융권 내 IT 인력 가장 적어</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000858230?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>여의도 증권가의 모습./사진=뉴시스  국내 금융업권 중 증권사의 IT 인력이 가장 적은 것으로 나타났다. 디지털 전환 가속화와 전산장애 등 보안 강화를 위해 전문 인력 확충이 시급하다는 지적이다.6일 국회 정무위원회 소속 이용우(국민의힘·경상남도 진주) 의원이 금융감독원에서 제출받은 '국내 주요 금융업권 IT인력 현황'에 따르면 올해 8월 말 기준 시중은행과 인터넷은행, 증권사, 빅테크 기업의 IT인력은 7199명으로 전체 임직원 대비 비중은 10.1%로 나타났다. 업권별로는 빅테크 3사(카카오페이·네이버파이낸셜·토스)의 IT 인력 비중이 48.0%로 가장 높았고 인터넷은행 34.4%, 시중은행과 증권사가 각각 8.2%, 6.9%로 증권사의 IT 인력이 가장 적었다. IT 인력 신규채용에서도  인터넷은행이 50.2%로 가장 높지만  증권사는 13.6%에 그치며 가장 낮은 수준을 보였다. 나머지 빅테크는 38.0%, 시중은행 24.2%를 기록했다. 회사별 IT 인력 비중을 살펴보면 빅테크 업체 중 카카오페이가 49.8%로 가장 큰 비중을 보였고, 네이버파이낸셜(48.1%) 토스(45.3%)가 뒤를 이었다. 시중은행에서는 KB국민은행이 9.7%로 비중이 가장 컸다. 이어 ▲하나은행 8.0% ▲신한은행 7.6% ▲우리은행 6.9% 순으로 나타났다. 인터넷은행에서는 ▲토스뱅크 57.0% ▲케이뱅크 46.1% ▲카카오뱅크 25.1% 순이었다. 증권사에선 한국투자증권이 IT 인력 비중 9.9%를 기록하며 1위를 나타냈다. 그 뒤를 이어 NH투자증권(6.0%) 삼성증권(6.0%) 미래에셋증권(4.9%) 순으로 집계됐다. 각 업권에서 신규채용이 적었던 회사는 ▲미래에셋증권 2.7% ▲신한은행 15.2% ▲토스 33.5% ▲카카오뱅크 48.0%로 나왔다. 최근 증권사들은 자사 모바일 트레이딩 시스템(MTS) 개편과 비대면 거래 확대를 내걸며 디지털 인력 강화에 나섰지만, 여전히 타 금융업권에 비해 인력 규모는 턱없이 적은편이다. 특히 증권사 전산장애가 빈번하게 발생하며 개인투자자들의 반발이 커지는 가운데 향후 IT 인력 충원에 대한 목소리는 더욱 높아질 것으로 보인다. 강민국 의원은  "금융업권 전체 인력 중 IT 인력이 10% 수준밖에 되지 않아, 금융분야의 디지털 전환 가속화 등 새로운 보안 리스크에 효과적으로 대응할 수 있을지 심히 우려된다"고 지적했다. 이어 "금융위원회는 현재 금융보안원의 금융보안 거버넌스 가이드 상 권고 조치에 불과한 금융회사의 IT 인력 확보 수준을 국내외 사례와 업계 의견 등을 수렴해 현재 개정 추진 중인 전자금융거래법의 하위 규정에 명기시키는 것이 필요하다"며 금융권 IT 인력 확보 강화 및 규제를 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>보험대리점업계 "빅테크 보험진출 결사 반대"</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004802286?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>한국보험대리점협회와 보험대리점업계, 보험영업인노동조합은 5일 오후 서울 광화문에서 '온라인플랫폼 보험진출 저지 및 보험영업인 생존권 사수를 위한 2차 결의대회'를 실시했다고 밝혔다. /사진제공=한국보험대리점협회한국보험대리점협회와 보험대리점업계, 보험영업인노동조합은 5일 오후 서울 광화문에서 '온라인플랫폼 보험진출 저지 및 보험영업인 생존권 사수를 위한 2차 결의대회'를 실시했다고 밝혔다. 보험대리점(GA)업계는 지난 8월22일에도 카카오와 네이버, 토스 등으로 대표되는 이른바 '빅테크(IT대기업)'들의 업계 진입을 반대하며 대통령실 앞에 모여 집회를 열었다. GA업계는 금융당국이 혁신금융서비스 제도를 이용해 금융소비자보호법으로 금지했었던 온라인플랫폼의 보험중개 서비스를 재개하는 걸 반대한다. 이들은 "우월적 지위를 이용해 골목상권 침해 및 보험시장 잠식을 초래하고 불공정 경쟁을 유발하며 45만 보험영업인의 일자리를 빼앗는 온라인플랫폼 보험대리점 진출은 반드시 철회되어야 한다"고 주장한다. 이에 금융당국은 온라인 플랫폼에서 보험상품을 판매하는 행위를 금지하는 대신 비교·추천만 허용하는 방안을 추진한다는 '플랫폼 금융서비스 활성화 방안'을 발표했다. GA업계는 빅테크들이 보험상품을 비교·추천만 한다고 해도 수수료와 광고비를 부과해야 한다는 점에서 소비자 부담은 늘어난다고 주장한다. 아울러 보장내용이 복잡하고 불완전판매 가능성이 높은 장기보장 상품 취급도 소비자 편익에 반할 수 있다고 강조한다. GA업계 관계자는 "대면영업 보험설계사·보험대리점의 일자리도 크게 감소해 영세 설계사의 생계활동이 위태로워질 수 있다"며 "온라인플랫폼의 보험진출을 결사 반대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.10.12.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>영토 확장하는 인뱅 3사…'금융 메기' 평가 되찾을까</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006387019?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>대출 포트폴리오·플랫폼 연계 확대에 고객수·대출자산 성장 지속 플랫폼 비즈니스 앞세운 혁신성 의문 여전. 서울 용산구 카카오뱅크 서울오피스 모습. 2021.8.5/뉴스1 ⓒ News1 박지혜 기자(서울=뉴스1) 신병남 기자 = 카카오·케이·토스뱅크 등 인터넷전문은행 3사가 상품 라인업 확대, 신규서비스 도입 등 사업 영역 확대에 주력하고 있다. 취급하는 서비스가 다양화하면서 올해 고객 수를 비롯한 여·수신 잔액도 안정적으로 증가했다. 하지만 시장에서는 인터넷은행이 전통 금융사 사업형태와 크게 다르지 않다며 '금융 메기'란 평가에 의문부호를 달고 있다.11일 금융권에 따르면 케이뱅크는 지난 7일부터 '아파트담보대출'(주택담보대출) 상품에 신규 구입자금 대출을 추가했다. 10일 기준 금리는 연 3.41~4.38%(변동금리), 한도는 10억원까지다. 은행 방문이 필요 없는 완전 비대면 상품으로 케이뱅크 앱을 통해 365일 24시간 대출 신청과 서류 제출이 가능하다. 직전까지 케이뱅크는 대환대출, 상활안정자금 목적만을 취급했다.김기덕 케이뱅크 마케팅본부장은 "아파트담보대출은 업계 최저 금리, 넉넉한 한도, 압도적인 편의성과 신속성을 모두 갖춘 상품"이라며 "특히 이번에 출시한 구입자금은 케이뱅크가 오랜 기간 준비한 혁신적인 상품"이라고 말했다.카카오뱅크는 금융 플랫폼으로 추가 확장을 이끌 신사업을 잇따라 추진하고 있다. 가상자산(암호화폐) 거래소 코인원과의 제휴로 케이뱅크와 업비트가 냈던 시너지 효과를 재현하려 하는가 하면 잔액한도가 200만원인 선불전자지급수단 '심플뱅킹' 도입을 추진한다. 두 서비스는 고객 은행 계좌 연동을 통한 실명인증이 필수되기에 충성고객 확대에도 효과를 낼 것으로 기대하고 있다.지난 6일 출범 1주년을 맞는 토스뱅크는 지난 3월 사업자대출을 새롭게 출시한 데 이어 8월에는 제휴사의 금융상품을 소개해주는 서비스를 출시했다. 첫 상품으로 구성한 한국투자증권의 '퍼스트 발행어음'은 6개월 만기 기준 연 4.3% 금리를 앞세워 4일 만에 판매한도 2000억원이 소진됐다. 또 신용카드업 진출로 결제사업으로의 확장도 꾀하고 있다.은행과 플랫폼 두 영역의 확대로 인터넷은행 3사의 몸집은 빠르게 불어나고 있다. 카카오뱅크의 7월말 기준 고객 수는 1938만명으로 연말 2000만명을 무난하게 넘어설 것으로 전망된다. 케이뱅크의 8월말 고객 수는 801만명으로 올해 들어 100만명가량 늘었으며, 토스뱅크도 같은 기간 500만명에 육박한 고객을 확보했다.이들의 여신(대출) 잔액도 8월말 기준 43조991억원으로 지난해 말(33조4829억원) 대비 28.7% 늘었다. 잔액의 대부분은 가계대출로 구성돼 있는데, 올해는 시장금리 인상과 가계대출 규제 강화로 대출 시장이 얼어붙은 상황에서도 성장을 이뤘다. 실제 KB국민·신한·하나·우리·농협 등 5대 은행의 가계대출 잔액은 696조4509억원으로 지난해 말보다 1.8% 줄었다.하지만 시장에서는 향후 인터넷은행들의 성장이 둔화할 것이란 관측을 내놓는다. 금리 인상기와 부동산 시장 침체가 이어진다면 은행권 전반의 대출 축소 및 수익 감소가 불가피하기 때문이다.인터넷은행들이 다양한 신사업에 도전하고 있지만 기존 금융사들이 이미 선보인 사업과 크게 다르지 않다는 평가도 나온다. 대출 포트폴리오 확대, 가맹점 확대 등을 시도하고 있지만 예대마진 중심의 은행업 내지 기존 사업자의 영역을 뺏는 것에 지나지 않는다는 이유에서다. 이는 이들이 새로운 수익원으로 내세운 플랫폼 관련 수익 성장이 더디기 때문이다. 예컨대 카카오뱅크의 상반기 수익 중 이자 부분은 79%를 차지한 반면, 플랫폼·수수료 부분은 각각 7%, 14%다. 한 시중은행 관계자는 "인터넷은행이 간편송금을 비롯한 편의성을 앞세워 빠른 시장 안착에 성공했지만, 최근엔 기존 은행들도 많이 개선된 상태"라며 "추가 혁신을 시도해야 하지만 규제 산업이란 은행업 특성에 혁신의 속도가 과거보다 더뎌진 게 아닌가 싶다. 최근까지도 중금리대출 비중 확대라는 당국 규제에 집중했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>부산 스타트업 '분투기'담은 영화 BIFF서 상영</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000021915?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼 10일 남포동 롯데시네마대영서커뮤니티비프 프로그램 참가해 '더 창업가...' 공개부산에서 창업에 도전하는 이들의 일상을 담은 다큐멘터리 영화가 부산국제영화제에서 개봉한다. 코리아스타트업포럼(코스포)은 오는 10일 부산 중구 남포동 롯데시네마대영에서 ‘The 창업가: Busan Dynamics’(더창업가: 부산 다이내믹스)를 상영한다고 6일 밝혔다. 지난해 코스포가 ▷소셜빈 ▷비바리퍼블리카(토스) ▷우아한형제들 ▷직방 등 국내 유명 창업가들의 이야기를 담아 제작한 ‘더 창업가’의 후속편이다. 스타트업 생태계의 90%가 집중된 수도권이 아닌, 부산에서 성장하고 있는 기업과 창업가의 이야기를 담았다. 투자유치와 인재영입 등 상대적으로 열악한 환경을 이겨내고, 하루에 수 백㎞를 이동하며 일하는 부산 창업가들의 ‘악전고투’를 실감나게 담았다. 이번 작품에는 ▷브이드림 김민지 대표 ▷플라시스템 김태진 대표 ▷커넥트제로 이승엽 대표 ▷미스터멘션 정성준 대표를 포함해 ▷레이킨즈 ▷샤콘느 ▷알티비피얼라이언스 ▷푸드트래블 ▷해피미스테리 등 부산을 대표하는 스타트업과 대표들이 출연한다. ‘더 창업가: 부산다이내믹스’는 부산국제영화제 ‘커뮤니티비프’ 프로그램을 통해 공개된다. 오는 10일 진행되는 첫 상영회에는 부산 스타트업 관계자 130여 명이 참석할 예정이다. 상영 이후 관객과의 대화를 통해 제작 후기를 공유하고 창업가들끼리 네트워킹할 수 있는 시간이 마련됐다. 코스포는 이번 상영회를 시작으로 유튜브와 다양한 미디어 플랫폼에 작품을 공개해 지역 창업 생태계의 현실을 알린다. 코스포 최성진 대표는 “스타트업과 창업가들이 존중받는 사회를 만들어가기 위해 제작한 작품”이라며 “수도권에 편중된 스타트업 생태계의 한계 속에서 도전에 나서는 부산 창업가들의 분투기를 만날 수 있을 것”이라고 말했다.코리아스타트업포럼이 제작한 더 창업가: 부산다이내믹스 스틸컷. 코리아스타트업포럼 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>머리띠 두른 보험설계사들 "네이버·카카오 보험 진출 안돼"</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005026326?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>대리점업계 2차 결의대회"45만 설계사 설 자리 잃고보험 불완전판매 늘어날 것"빅테크는 고객 편의성 강조보험대리점 업계가 5일 온라인 플랫폼의 보험 진출을 반대하며 서울 광화문 일대에서 결의대회를 열었다. 주최 측은 보험영업인 5000여 명이 참여했다고 주장했다. [이충우 기자] 네이버·카카오·토스(네카토)를 비롯한 빅테크가 보험업에 속속 진출하면서 기존 보험업권 간 갈등도 커지고 있다. 보험영업인(설계사)과 대리점은 진입 자체를 반대하고 나섰고, 보험사들은 수수료를 어떻게 책정할지를 두고 빅테크와 힘겨루기를 하고 있다. 실제로 법인·개인 보험 대리점주와 보험영업인들은 온라인 플랫폼의 보험업 진출에 반대하며 5일 서울 광화문에서 대규모 집회를 열었다. 지난 8월에 이어 2차 결의대회를 주최한 한국보험대리점협회는 이날 5000여 명이 모였다고 주장했다. 이들은 금융당국이 최근 추진 중인 온라인 플랫폼의 보험 비교·추천 서비스 시범 운영을 철회하라고 촉구했다. 시위대는 "온라인 플랫폼이 보험 서비스를 하면 수수료나 광고비가 전가돼 소비자의 보험료 부담이 가중되고, 보장 내용이 복잡한 보험상품은 불완전판매될 가능성이 높아진다"고 주장했다.온라인 비교·추천 서비스가 시행되면 빅테크 플랫폼은 대면과 텔레마케팅(TM), 사이버마케팅(CM)용 상품을 모두 취급할 수 있다. 금융당국은 보험업계, 빅테크업계와 구체적인 보험상품과 수수료 등을 세부적으로 조율 중인 것으로 알려졌다. 보험대리점협회 관계자는 "방대한 회원 데이터베이스(DB)를 확보한 빅테크들이 보험을 비교해 상품을 추천하면 온라인으로 보험 판매를 허용한 것과 다름없다"며 "대면 영업에 집중할 수밖에 없는 설계사들이 설 자리가 좁아질 것"이라고 비판했다. 네이버는 NF보험서비스를, 카카오페이는 KP보험서비스를, 토스는 토스인슈어런스를 각각 운영하고 있다. 이에 대해 빅테크는 이미 핀테크 업체들이 온라인 플랫폼을 이용한 보험상품 비교 서비스를 선보이고 있고, 불완전판매 요소를 최소화해 정보를 제공하면 된다는 입장이다. 또한 소비자가 여러 보험사 상품을 한눈에 비교하고 선택할 수 있어 편리하다며 반박하고 있다.배달과 택시 애플리케이션에서 갈등을 빚었던 것처럼 수수료 산정 방식도 논란이다. 보험사는 계약 건당 수수료를 주장하지만, 빅테크는 수수료 산정은 회사 간 자율 계약에 맡겨야 한다는 입장이다. 어느 보험사 상품을 상단에 노출할지 결정할 때 수수료가 중요한 조건이 될 수밖에 없어 이 같은 줄다리기는 한동안 이어질 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스플레이스 '공정거래 자율준수 프로그램' 도입</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013501347?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>토스플레이스 공정거래 자율준수 선포식[토스플레이스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 플랫폼 토스의 매장 결제 솔루션 공급 자회사인 토스플레이스는 '공정거래 자율준수 프로그램'(CP·Compliance Program)을 도입했다고 13일 밝혔다.    지난 12일 서울 강남구 역삼동 토스플레이스 본사에서 열린 선포식에는 최지은 대표를 포함해 30여 명의 임직원이 참여했다.    CP는 기업이 공정거래 관련 법규를 준수하기 위해 자율적으로 도입해 운영하는 교육·감독 등에 관한 내부준법 시스템이다. 공정거래위원회가 2001년 마련했다.    제도의 목적은 임직원에게 명확한 행동 기준을 제시해 업무상 공정거래법 위반 소지를 예방하고 차단하는 것이다.    최 대표는 CP 도입 선언문에서 "디지털 플랫폼 산업의 성장 속에서 윤리경영은 기업의 지속 가능한 발전을 위한 최우선 가치"라고 말했다.    제도 정착을 위해 토스플레이스는 체계적인 프로그램 운영을 위한 전담부서를 신설하고, 임직원의 공정거래 위반행위에 대한 사전점검 및 예방 활동을 정례화할 계획이다. 또 최고경영자를 중심으로 CP 문화 촉진 캠페인도 전개한다.    토스플레이스 관계자는 "제품 판매와 유통을 수반하는 제조업은 다른 업종과 비교해 더 높은 수준의 공정거래 준수와 의식이 요구된다"면서 "이번 공정거래 자율준수 프로그램 도입은 내년에 시작할 결제 솔루션 공급 등 본 사업의 시작을 앞두고 회사가 고객에게 드리는 첫 번째 약속"이라고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>삼성 등 `신용카드 풍차 돌리기` 유행</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002757583?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>앞다퉈 20만원대 페이백 제공가입·해지 반복, 사회적낭비 초래연회비 10% 초과 혜택 제한에도카드사, 규제 허점 이용 고객유치네이버페이 카드혜택 갈무리.    카드사들이 네이버페이, 카카오페이 등 플랫폼에서 카드를 발급하면 현금성 지원을 제공하면서 '신용카드 풍차돌리기'가 재테크 유행으로 자리 잡았다. 하지만 고객 유치가 급한 카드사들이 관련 법을 우회하면서까지 이런 마케팅을 벌이는 데다, 지원 한도를 점차 확대하는 등 과열 양상을 보이고 있어 문제라는 지적이 나온다. 4일 금융권에 따르면 현재 전업카드사 8곳은 네이버페이, 카카오페이, 토스, 페이북 등 간편결제 플랫폼에서 카드 결제 이력이 없는 고객 대상으로 현금성 지원 이벤트를 진행하고 있다. 카드 신규 발급자가 일정한 이용 금액을 사용하면 포인트, 현금 등 페이백을 해주는 방식이다. 보통 발급 직전 6개월 동안 해당 카드 결제 이력이 없어야 하고, 1년 이내 이벤트 중복 참여 제한 등의 조건이 걸린다. 페이백은 카드 발급 이후 1~3개월 안에 제공된다. 이를 두고 카드사들은 '이용 유도 프로모션'이라고 부른다. 카드 이용자들 사이에선 이 프로모션을 이용한 '신용카드 풍차돌리기'가 유행이다. 카드 신규 발급자를 대상으로 제공되는 페이백 혜택을 받고 나서 카드를 해지하고, 6개월이 지나면 동일한 카드사의 카드를 신규로 발급받는 식이다. 최근에는 이런 방식으로 카드를 금새 해지하는 '체리 피커'(혜택만 빼먹는 소비자)들이 늘자 카드사들은 까다로운 조건들을 하나씩 추가하고 있다. 예를 들어 행사 직전 18개월 이내 이용 유도 프로모션 혜택을 지급받았으면 페이백을 지급을 제한하는 것 등이다. 현재 네이버페이에서는 삼성카드를 발급받으면 최대 23만5000원 상당의 현금성 지원이 이뤄진다. 네이버페이 간편결제로 20만원 이상 결제 시 네이버페이 포인트 20만원이, 생활요금 정기결제 신청시 3만5000원 캐시백이 제공된다. 카카오페이를 통해 신한카드를 발급받으면 최대 22만원 상당 포인트와 캐시백이 주어진다. 문제는 '이용 유도 프로모션'이 카드 발급에 대한 경제적 이익 제한 규정을 우회해 강행하는 마케팅이라는 점이다. 여신전문금융업법 시행령에 따르면 신용카드 발급과 관련해 연회비의 10%를 초과하는 과도한 경제적 이익을 제공할 수 없다. 연회비가 3만원이면 최대 3000원까지만 지급할 수 있다는 얘기다. 그러나 카드사들은 '이용 유도 프로모션'이 '신용카드 발급'에 대한 경제적 이익과는 관계없고, 카드 실사용을 위한 유인책이어서 문제가 없다고 주장한다. 관계 법의 허점을 이용해 진행되는 프로모션인 셈이다. 일각에서는 '이용 유도 프로모션'이 1년 넘게 지속되고 있다는 점을 들어 금융당국도 제재할 근거가 없어 묵인하고 있다는 의견도 나온다. 각 카드사들이 앞다퉈 현금성 지원 규모를 키우면서 마케팅 과열 양상을 띄고 있다는 점도 문제다. 지난해만 해도 카드사들의 '이용 유도 프로모션' 지원 규모는 10만~12만원대였다. 실제 삼성카드는 작년 12월 네이버페이에서 12만원 상당의 이용 유도 프로모션을 진행한 바 있다. 요즘과 비교하면 현금성 지원 규모가 1년 사이에 10만원 가량 뛴 것이다. 카드사의 마케팅 경쟁은 과도한 카드 발급, 마케팅 비용 증가 등 부작용을 낳을 수 있어 금융당국이 규제하는 분야다. 한 카드사 관계자는 "'이용 유도 프로모션'은 여신전문금융업법을 위반한 것은 아니다"라며 "고객 유치와 유지 차원에서 진행하는 것이다 보니 타 카드사의 현금성 지원 규모를 어느정도 맞춰 갈 수밖에 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>에이브레인, 제주서 AIoT 기반 안전관리서비스 선봬</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003049607?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>지난달 30일 제23회 사회복지의 날 기념식 및 제주도민 복지 박람회에서 기념촬영을 하고 있는 박기언 에이브레인 대표(좌), 김석희 루니토스 대표(우) (사진 제공=에이브레인)에이브레인(대표 박기언)은 AIoT 플랫폼 기반 안전관리서비스 '스퀘어(SQUARE)'를 선보였다고 7일 밝혔다. 회사는 최근 제주한라대학교 한라컨벤션센터에서 열린 제23회 사회복지의 날 기념식·제주도민 복지 박람회에 '스마트 노인 복지·케어 서비스' 스퀘어를 전시했다. 서비스는 노인가구, 한부모가구, 1인가구, 경증장애인 등 취약 계층을 지원하는 생활 안전 서비스다. 온도와 습도, CCTV 등을 모니터링·제어한다. 생체 신호 분석을 통해 운동량 분석, 약 복용 알림, 보호 대상자 실시간 위치 안내, 긴급 대응 서비스 기능을 지원한다.박기언 에이브레인 대표는 “솔루션의 특성상 지역에서 원활한 서비스지원을 위해 CCTV전문 지역업체인 루니토스와 협업할 것”이라며 “이를 통해 청정하고, 안전한 제주를 만드는 데 기여하겠다”고 말했다.에이브레인은 제주국제자유도시개발센터(JDC)와 한국사회투자의 'JDC 제3차 사회적경제조직 지원사업'의 지원과 육성을 받았다. JDC와 한국사회투자는 2018년부터 제3차까지 이어온 'JDC 사회적경제조직 지원사업'을 통해 제주도 내 총 22곳의 사회적경제조직을 지원, 육성해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>보험대리점업계 "네이버·카카오 등 보험업 골목상권 침해"</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002270049?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2차 집회 열려…생존권 사수 위해 단체행동 이어나갈 예정보험대리점 업계가 빅테크 기업들의 온라인플랫폼 보험 진출을 반대하는 2차 결의대회를 진행했으며 앞으로도 생존권 사수를 위해 단체 행동을 이어나간다는 방침이다.6일 업계에 따르면 온라인플랫폼 보험 진출 저지 비상대책위원회와 한국보험대리점협회 및 회원사, 보험영업인 노동조합 연대는 전날 광화문 동화면세점 앞에서 5천여 명이 모여 생존권 사수를 위한 2차 결의대회 시위를 열었다. 이번 집회는 2차 집회로 지난 8월 용산 대통령실 앞에서 1차 집회가 열렸었다.이들은 금융당국이 금융소비자보호법으로 금지했었던 온라인플랫폼의 보험중개 서비스를 재개를 반대하면서, 네이버·카카오·토스 등 빅테크 기업들의 온라인플랫폼 보험업권 진출을 강력히 규탄한다는 결의문을 발표했다.한국보험대리점협회 회원들이 5일 오후 서울 종로구 세종대로 사거리에서 온라인플랫폼 보험 진출 저지를 위한 2차 결의대회를 하고 있다. [사진=뉴시스]보험대리점협회 측은 "1차적으로 금융당국에 관련 내용에 대한 반대 건의서를 제출했지만, 변화되는 게 없어 결국 2차 결의대회를 열었다"며 "보험대리점산업의 공정 경쟁과 우리 모두의 생존권이 보장될 때 까지 끝까지 투쟁할 것"이라고 말했다.보험대리점협회 관계자는 "네이버와 카카오 등 기업들이 온라인플랫폼 보험업계에 진출하게 된다면, 사업비에 따른 수수료와 광고비를 부과해야 한다는 점에서 소비자 부담은 늘어나 고객 보험료만 증가하는 피해현상들이 발생할 것"이라고 밝혔다.이어 "고객 피해 뿐만 아니라, 빅테크 기업들의 보험업권 골목상권 침해로 많은 설계사들이 일자리를 잃게 될 것이며, 보험 대리점도 감소해 45만 보험영업인들의 생존권이 분명히 위협받게 된다"고 말했다.특히 이들은 "정부가 직접 나서서 보험대리점산업의 공정성을 일깨워야 한다"며 "생존권 보장해주고, 대리점과 보험설계사의 보호 정책을 펼쳐야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>수신금리 높이는 토스뱅크… 적금 1%p 상향</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004909676?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출범 1주년을 맞아 전체 수신상품 금리를 높인다.   토스뱅크는 수시 입출금 통장인 '토스뱅크 통장'의 금리를 2.3%로, 정기적금 상품인 '키워봐요 적금'을 4.0%로 인상한다고 6일 밝혔다.   금리 인상은 이날부터 반영된다. 고객이 언제 어디서든 자유롭게 돈을 넣고 뺄 수 있는 '토스뱅크 통장'의 금리는 기존 연 2.0%에서 연 2.3%로 0.3%p 오른다. '키워봐요 적금'의 기본금리도 1.0%p 올라 연 4.0%가 됐다.   기존 금융권이 제공하고 있는 파킹 통장의 경우 고객이 돈을 '특정 공간'에 보관하거나 일정 금액 이상을 유지해야 우대 금리를 주는 경우가 많아 불편이 있었다. '토스뱅크 통장'은 이러한 고객의 불편을 최소화했다. 고객은 언제 어디서든 돈을 꺼내 쓸 수 있고 보낼 수 있다. 연동된 체크카드도 제약을 받지 않는다.   '토스뱅크 통장' 고객들은 통장 개설 시점에 관계없이 연 2.3%의 금리를 최대 1억원 한도까지 적용받는다. '지금 이자받기' 서비스도 한층 강화된 혜택이 적용돼 1억원을 예치한 고객의 경우 매일 6301원을 받을 수 있다. 일복리 효과도 유지된다. 올 3월 출시한 '지금 이자받기' 서비스는 7개월간 210만명의 고객이 이용, 총 1417억원의 이자를 받을 수 있었다.   ' 키워봐요 적금'은 만기 시 최대 연 4.0% 금리 혜택을 누릴 수 있다. 단 6일부터 적금 신규 가입 고객에 한해 인상된 기본금리 혜택이 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.10.03.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>돈받고 고객정보 `토스`한 토스?… 85만건 판매 의혹</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002757270?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>"보험대리점서 소개수수료 290억"황운하 의원 '사후고지' 지적도업체 "동의받아 법적문제 없어"사진 = 연합뉴스    금융 플랫폼 애플리케이션(앱) '토스'를 운영하는 비바리퍼블리카가 '소개 수수료'를 받고 보험 설계사들에게 이용자 정보를 판매해 290억원 규모의 이익을 얻었다는 지적이 제기됐다. 이에 따라 일반 이용자에게 개인정보 제공 동의시 유상판매 고지 여부 안내가 사전에 이뤄져야 한다는 주장이 나온다. 3일 국회 정무위원회 소속 황운하 더불어민주당이 비바리퍼블리카에서 제출받은 자료에 따르면 이 회사는 2018년부터 올해 8월까지 법인 보험 대리점 '리드' 매출로 290억2000만원을 기록했다.리드는 보험상담 신청 고객 중에서 법인 보험 대리점과 실제로 연결돼 매출 정산 대상이 되는 고객 데이터를 뜻한다. 토스 앱에서 보험 상담을 신청한 이용자 개인·신용정보 84만9501건이 대상이다.황 의원에 따르면, 비바리퍼블리카는 지난 1월 마이데이터 사업자 자격을 취득해 '데이터 판매 및 중개 업무'를 하고 있다. 마이데이터 서비스는 소비자가 여러 금융사에 분산된 자신의 신용 정보를 받아 통합 조회할 수 있는 서비스다. 서비스 사업자는 제삼자에게 이를 제공하는 대가로 '소개 수수료'를 받는다.문제가 된 유료 과금 모델은 지난 2월부터 시작됐다. 황 의원은 "이용자들이 약관을 잘 확인하지 않거나 관련 내용을 잘 모르기 때문에 개인정보를 판매하는지 인식하기 쉽지 않다"면서 "지난 6월 비바리퍼블리카가 이용자 개인정보를 리드 1건당 6만9000원에 보험 설계사에게 판매한 사실이 알려져 논란이 일자 이용자 약관에 개인정보가 유상판매 될 수 있다는 내용을 포함했다"고 주장했다. 이어 황 의원은 "마이데이터 사업자가 개인정보를 제삼자에게 판매할 때 유상 판매 여부, 대가 등을 소비자에게 알리도록 하는 개인정보보호법·개인신용정보보호법 개정안을 준비하고 있다"고 덧붙였다. 비바리퍼블리카는 적법한 절차를 따랐다는 입장이다. 비바리퍼블리카는 황 의원실에 "본인신용정보관리업(마이데이터) 사업자 자격을 올해 1월부터 획득했기 때문에 관련 법령에 따라 '데이터 판매 및 중개 업무'를 수행할 수 있으므로, 개인·신용정보 판매는 법적으로 문제가 없다"고 주장했다. 황 의원이 주장한 매출 규모에 대해 비바리퍼블리카 관계자는 "보험 상담 고객을 설계사와 연결해주는 서비스에서 발생한 매출로, 보험 상담에 필요한 필수 정보만 제공된 것"이라고 말했다. 아울러 "보험 상담을 신청한 고객에게 '제3자 정보제공' 동의를 받은 뒤 보험설계사에게 정보가 제공되는 구조"라고 설명했다.  황운하 의원실 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>하나은행서 토스인증서 이용 가능해진다</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002645950?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>토스인증서 관련 포스터. ⓒ토스[데일리안 = 김효숙 기자] 토스는 하나은행과 포괄적 토스인증서 도입 관련 협약을 체결했다고 56일 밝혔다.앞으로 하나원큐 어플리케이션 가입시 토스인증서로 본인인증을 할수 있게 됐다. 앱 로그인 시에도 토스인증서가 활용돼, 토스인증서를 사용하고 있는 토스 회원이라면 하나원큐 앱 가입시 별도의 인증서 설치가 필요없다.토스인증서는 개발 및 절차가 마무리 되는 대로 도입 예정이다. 하나원큐 회원가입과 로그인을 시작으로 전자서명, 마이데이터 통합인증 등 서비스 사용 범위도 확대해 나갈 계획이다.토스인증서는 별도앱이나 공동인증서 없이 토스 앱만으로 빠르고 간편하게 본인인증 및 전자서명을 할 수 있다. 특히, 공동인증서와 동일한 법적, 기술적 지위를 지닌 유일한 사설인증서다.공동인증서는, 발급을 위해 은행 등 발행기관에 방문해 서류를 제출하거나 온라인 은행회원으로 가입돼있어야 한다. 반면, 토스인증서는 한번 발급받으면 PIN번호 또는 생체인증만으로 인증할 수 있으며 복잡한 보안프로그램을 설치하지 않아도 된다. 유효기간도 3년이다. 지점을 방문할 필요도 없이 휴대폰 인증과 신분증 촬영, 1원 계좌인증만 거치면 된다.토스인증서는 현재 40개 금융기관 뿐 아니라, 정부24, 국민건강보험공단 사이트를 비롯하여 다양한 공공 부문, 생활, 통신 등 다양한 분야에서 활용되고 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.10.06.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크 파킹통장, 연 2.0%에서 2.3%로 인상</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003720371?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>은행 출범 1주년 맞아 수신상품 금리 일제히 올려서울 강남구 토스뱅크 본사. /뉴스1										토스뱅크가 6일 수시입출식 상품인 ‘토스뱅크 통장’ 금리를 연 2%에서 2.3%(세전)로 0.3%포인트 인상했다. 작년 10월 5일 출범 이후 줄곧 유지해온 금리를 1년 만에 올린 것이다. 예대마진 수익성 등을 고려해 장기간 금리 인상을 하지 않고 버텼지만, 수신 경쟁이 뜨거운 업계 분위기를 무시할 수 없었던 것으로 보인다.작년까지만 해도 ‘은행권 최고’였던 토스뱅크 연 2% 파킹통장은 지난 7월부터 케이뱅크(연 2.5%)와 카카오뱅크(연 2.2%) 금리에 추월당했다. 토스뱅크 측은 “고객의 성원 덕분에 지금의 토스뱅크가 있을 수 있었다”며 “1주년을 맞아 금리 인상으로 혜택을 돌려드리고 싶었다”고 밝혔다.‘토스뱅크 통장’은 예치금 1억원까지는 연 2.3%, 1억원 초과시에는 기존과 동일하게 0.1% 금리를 적용한다. ‘지금 이자받기’ 서비스를 활용할 경우 1억원을 예치하면 매일 6301원(세전)을 받을 수 있다. 일복리 효과는 동일하다.이날부터 6개월 만기 정기적금인 토스뱅크 ‘키워봐요 적금’ 금리도 최대 연 3%에서 4%로 올랐다. 단 이날 이후 가입한 신규 적금 고객에 한해 인상된 금리가 적용된다. 월 최대 100만원 한도 내에서 자신이 설정한 금액을 6개월 간 매주 자동이체해야 우대금리 등으로 최대 연 4% 금리 혜택을 볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>치열한 파킹통장 금리 경쟁…케이뱅크 연 2.5%로 선두</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003720132?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>케이뱅크 을지로 사옥. (케이뱅크 제공)										1호 인터넷은행 케이뱅크가 하루만 맡겨도 금리를 받을 수 있는 수시입출식 파킹통장 ‘플러스박스’의 금리를 0.2%포인트 높여 연 2.5%로 인상한다고 5일 밝혔다. 은행권 파킹통장 최고 금리다. 파킹통장은 주차장에 차를 넣고 빼듯, 입출금이 자유로운 예금을 뜻한다.신규 고객은 물론, 기존 고객들은 별도 해지나 재가입 없이 자동으로 인상된 금리를 적용받을 수 있다. 매월 넷째 주 토요일마다 쌓인 이자를 받을 수 있으며 예치 한도는 3억원까지다. ‘용돈 전용’, ‘비상금’ 등으로 3억원 한도 내에서 통장을 10개까지 만들 수 있다.케이뱅크는 지난달 14일 파킹통장 금리를 0.2%포인트 올린 지 불과 3주 만에 다시 인상을 단행했다. 공격적인 고객 몰이에 나서며 다른 예·적금을 포함한 지난 7~9월 수신 잔액이 1조원 이상 늘었다.반면 작년 10월 3호 인터넷은행으로 출범할 당시 1억원까지 2% 금리를 주는 파킹통장으로 파격을 선보였던 토스뱅크는 금리 인상에 나서지 않고 있다. 2호 인터넷은행 카카오뱅크의 파킹통장 ‘세이프박스’ 금리는 연 2.2%다. 예치 한도는 1억원이지만, 계좌를 여러 개 만들 수 있어 사실상 한도가 없다.산업은행 파킹통장(KDB Hi 비대면 입출금통장) 금리도 연 2.25%에 달한다. 역시 예치 금액 한도가 없다. 은행권 관계자는 “투자 시장이 부진하자 파킹통장에 돈을 넣어두려는 사람들이 늘면서 인터넷은행을 중심으로 공격적인 금리 인상에 나서고 있다”면서 “1호 인터넷은행 케이뱅크가 속도를 내면서 앞서가는 중”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>알뜰폰 시장, KB·토스 등 '거대기업' 과점 우려…"중소기업적합업종 지정 검토해야"</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005027166?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[사진 출처 = 연합뉴스] 국민은행·비바리퍼블리카(토스 운영사) 등이 알뜰폰 시장에 진출하면서 중소사업자 보호를 위한 법적 장치가 필요하다는 의견이 제기됐다.7일 정치권에 따르면 최근 황운하 더불어민주당 의원은 알뜰폰 시장 생태계 보호와 소비자 편익을 위해 알뜰폰 시장에 대한 중소기업적합업종 지정을 검토할 것을 촉구했다.알뜰폰 시장은 중소사업자를 이동통신시장에 진출시켜 가계통신비를 경감하려는 목적으로 지난 2009년 도입됐다. 주파수가 없는 중소사업자는 이동통신사의 설비를 활용해 서비스를 제공할 수 있고, 부족한 자금력과 협상력을 보완하기 위해 도매제공 의무 등 정책을 지원받는다.그런데 최근 거대 기업이 알뜰폰 시장에 진출하기 시작했다.  지난 2019년 국민은행은 금융혁신지원특별법에 따라 혁신금융서비스 1호로 지정된 알뜰폰 브랜드 'KB리브엠'을 출시했다. KB리브엠은 알뜰폰 최초로 5G 이동통신 요금제와 웨어러블 요금제를 도입하고, 적금상품 금리 우대 쿠폰 등 다양한 서비스를 선보이며 출범 2년 만에 가입자 20만명을 모았다.올해 7월에는 모바일 금융 서비스 플랫폼 '토스' 운영사 비바리퍼블리카가 중소 알뜰폰 사업자 '머천드코리아' 지분을 인수하는 방식으로 알뜰폰 시장 진출을 선언했다. 머천드코리아는 가입자 10만여명을 보유한 업체로, 이동통신3사의 망을 모두 쓸 수 있다.중소사업자는 이 같은 상황을 우려하고 있다. 자본력을 갖춘 기업이 시장에 침투하면 불공정 경쟁이 심화되고, 결국 전업 알뜰폰 업체의 시장 퇴출로 이어질 것이라는 이유다. 한국알뜰통신사업자협회는 지난 8월 금융위원회에 은행의 알뜰폰 사업 진출을 반대하는 의견을 전달하기도 했다. 한편 황 의원은 최근 국민은행이 오프라인 영업점 창구 직원들을 상대로 KB리브엠 상품 판매를 강요, 압박하고 있다는 논란이 제기됐다면서 "금융혁신지원특별법상 혁신금융서비스 관리 주체는 금융위원회인 만큼 KB리브엠에 제기된 편법적 대면판매에 대한 철저한 조사가 필요하고, 결과에 따라 합당한 제재가 뒤따라야 할 것"이라고 강조했다.토스의 시장 진출은 더 큰 문제라고 봤다. 현행법상 토스는 제조서비스업으로 분류돼 금융지주회사법, 은행법 등을 적용받지 않아 아무런 규제 없이 알뜰폰 사업을 시작했는데 최근 토스가 이용자의 신용정보 84만건을 보험 설계사에게 판매한 사례를 들어 통신 데이터 같은 고객정보를 취급할 경우 비슷한 문제가 발생할 수 있다는 것이다.황 의원은 "토스가 현행 제조서비스업으로 분류되지만, 토스뱅크, 토스증권, 토스페이먼츠 등을 두고 있는 만큼 이제는 금융업 분류를 위한 사회적 논의가 필요하다"라며 "이를 통해 토스가 금융 외 시장 진출시 엄격한 기준을 적용하여 심사할 수 있는 환경을 조성해야 한다"라고 말했다. 그러면서 "거대기업 쏠림 현상은 민간 자율로는 해결할 수 없어 알뜰폰 생태계 보호와 소비자의 장기적 편익을 위해서는 알뜰폰 사업의 중소기업적합업종 지정을 검토해야 한다"라며 "국정감사와 증인 신문 과정을 통해 토스의 개인정보 유상 판매 문제와 알뜰폰 등 문어발식 시장 확장에 따른 사회적 피해 등을 엄중히 묻겠다"라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>"술 깨고 보니 '0' 두개 더 붙었네" 착오송금 때 '이것' 하세요</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005028044?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>착오송금 반환지원 제도 시행5만원 이상 1000만원 이하 대상제도 시행 1년…예보 "44억원 반환""보이스피싱 피해 반환 대상 아냐"[사진 제공 = 연합뉴스] #술자리 후 대리운전 서비스를 이용한 A씨. 그는 다음날 아침 정신이 번쩍 들었다. 은행 계좌이체로 대리운전 기사에게 보낸 대리운전비가 280만원인 것을 확인해서다. 두 눈을 비비며 의심했지만 분명 계좌이체 내역은 280만원이었다. 2만8000원을 이체한다는 게 술에 취해 '0' 두개를 더 붙여 보낸 것. A씨는 부랴부랴 대리운전 기사에게 연락을 했지만 연락이 닿지 않았다. 실수로 수취 금융회사, 수취인 계좌번호, 금액 등을 잘못 입력해 이체한 착오송금을 반환해 달라는 신청이 꾸준히 늘고 있다. 올해 상반기 중 PC, 스마트폰 등을 활용한 일평균 인터넷뱅킹 이용액이 관련 통계 작성 이후 처음으로 75조원(75조965억원)을 넘을 정도로 활성화하고 있어 착오송금도 증가하고 있는 것으로 풀이된다.예금보험공사(이하 예보)에 따르면 지난해 7월 6일부터 착오송금 반환지원 제도 시행 후 착오송금인으로부터 접수된 반환지원 신청은 올해 7월말 기준 누적 1만1689건(171억원)으로 이 가운데 지원 대상으로 인정된 3588건(44억원)을 송금인에 반환했다.착오송금 반환은 우편안내, 지급명령 관련 인지대, 송달 등에 따른 비용, 인건비 등 예보의 회수 비용을 차감한 나머지 잔액을 반환한다.착오송금 전체 신청 중 5690건은 보이스피싱(전화금융사기) 등 범죄이용계좌, 송금인의 신청 철회, 압류 등 법적제한계좌, 금융회사를 통한 자체반환 절차 미이행 등의 이유로 대상에서 제외됐다. 카카오페, 토스, 네이버페이 회원 간의 착오송금도 반환지원 대상이 아니다.예보 관계자는 "착오송금 반환지원 신청과 보이스피싱 피해 구제를 혼선하는 경우가 많다"며 "특히 보이스피싱 피해는 착오송금 반환지원 대상이 아니다"라고 강조했다.제도가 본격적으로 시행된 지난해 8월 이후 착오송금 반환지원 신청은 월평균 935건(13억5000만원)이다.[자료 제공 = 예금보험공사] 예금자보호법(이하 예보법) 개정으로 지난해 7월 6일부터 착오송금 반환지원 제도가 시행됐다. 이날 이전 발생한 착오송금은 예보법 개정안이 소급되지 않아 반환지원 대상에서 제외됐다.예보는 이날 이후 발생한 5만원 이상 1000만원 이하 착오송금에 대해 금융회사를 통한 자진반환이 거절된 건에 한해 착오송금 반환지원 신청을 받아 착오송금인에 반환해 주고 있다. 착오송금 반환지원 신청 현황을 보면 10만원 이상 50만원 미만이 4266건으로 전체의 36.5%를 차지했으며, 300만원 미만은 84.0%였다.연령별로는 경제활동이 왕성한 30~50대가 67.0%로 다수이며, 20대 미만이 17.3%, 60대 이상이 15.7%로 파악됐다.착오송금 반환지원 제도 시행 이전에는 착오송금 시 돌려받기 어려운 경우가 많고 소송을 통해서만 회수가 가능했다. 때문에 착오송금 금액이 소액일 경우 소송비가 더 들고, 소송을 해도 돌려받는데 기간이 적지 않게 소요됐다. 금융당국은 제도 시행 이전 1년간 발생한 착오송금은 반환받는데 소송기간이 6개월 이상 소요됐고 소송비용은 착오송금 100만원 기준 60만원 이상 발생한 것으로 추산했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>토스뱅크 1년 '혁신과 포용'…478만 가입·중저신용 40% 육박</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004802008?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[5일 출범 1주년 맞아, 2% 파킹통장 들고 등장대출규제 등 악조건서도 가입자 500만명 육박중저신용자 대출비중 연말까지 42% 달성할 듯]출범 1주년을 맞는 토스뱅크가 연말까지 중·저신용자 대출 비중 목표치(42%)를 무난히 달성할 것으로 보인다. 토스뱅크는 대출 규제와 금리 상승 등 악조건 속에서도 출범 1년 만에 500만명에 가까운 고객(가입자수 기준)을 유치하는 등 빠른 성장세를 이어가고 있다.4일 은행업계에 따르면, 지난달 말 기준 토스뱅크의 가입자수는 478만명 수준으로 파악된다. 토스뱅크는 지난해 10월5일 '완전히 새로운 은행'을 기치로 케이뱅크와 카카오뱅크에 이어 국내 세 번째 인터넷전문은행으로 야심차게 돛을 올렸다. 토스뱅크 가입자수 증가세는 3년 만에 1000만 가입자를 달성한 카카오뱅크의 성장세를 웃돈다. 토스뱅크 관계자는 "혁신적인 수시입출금 상품인 2% 금리의 '토스뱅크 통장'과 수시로 대출한도를 확인할 수 있는 '내 한도 조회' 서비스에 기반한 대출상품으로 여·수신 모두 안정적인 성장을 이어가고 있다"고 했다. 지난 8월 말 기준 토스뱅크의 총수신 잔액은 약 26조4000억원, 여신 잔액은 약 6조4000억원 수준으로 예대율(예금 대비 대출 비율)이 24.1%까지 올라왔다. 지난해 출범 직후 금융당국의 가계부채 총량관리로 3개월 가량 대출 영업을 하지 못 해 예대율이 낮아졌지만 올해 대출 정상화로 여신이 빠르게 늘었다.  인터넷은행 설립 취지인 중·저신용자 포용과 '금리 단층' 문제 해소는 출범 1주년의 가장 핵심적인 성과로 꼽힌다. 토스뱅크의 가계대출 중 중·저신용자 대출 비중은 지난달 말 기준 40%에 근접한 것으로 알려졌다. 은행권 최대로 연말 목표(42%) 달성이 무난할 것으로 예상된다. 토스뱅크의 중·저신용자 대출 비중 확대는 상환 능력 기반의 정교한 자체 신용평가모형을 도입한 덕분이다. 토스뱅크는 토스스코어링시스템(TSS·Toss Scoring System)을 활용해 사회 초년생, 소상공인, 중소기업 재직자, 금융이력부족자(씬파일러) 등 실질 소득과 상환능력이 있는데도 은행 대출이 어려웠던 건전한 중·저신용자를 발굴했다. 개인 신용대출 하나의 상품으로 기존 신용등급 1~8등급 고객을 모두 포용한다. 신용점수 850점 이하 중저신용 고객 중에선 건전한 고객을 선별해 거래한다. 토스뱅크에서 대출을 실행한 중저신용 고객 4명 중 1명(25.6%)은 토스뱅크 자체 신용평가시스템에서 고신용자로 재평가받았다. 인터넷은행 중 처음으로 무보증·무담보 개인사업자 신용대출을 출시했다. 지금까지 약 2만5000명 이상의 개인사업자가 1조 1000억원 가량 대출을 받았다. 토스뱅크는 아울러 최근 인터넷은행 중 최초로 신용보증기금과 함께 코로나 19로 피해를 입은 개인사업자를 대상으로 연 5.5% 고정금리 '사장님 대환' 대출을 출시하기도 했다. 토스뱅크 관계자는 "'포용과 혁신'이라는 인터넷은행 설립 목표와 가치에 기반해 중저신용자를 더 포용하겠다"며 "모임통장과 전세자금대출 등의 신상품으로 여수신 포트폴리오를 강화하고 '지금 이자받기', '내게 맞는 금융상품 찾기' 등 사용자 관점의 혁신 고객 서비스를 확대하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스플레이스 결제단말기 첫 공개,11일 시범 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002134281?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 오프라인 매장 결제단말기 제작과 솔루션을 공급하는 토스플레이스(대표 최지은)가 내년 초 본격적인 사업 개시를 앞두고 결제단말기를 처음 공개했다. 제품 공개와 함께 오늘부터 연말까지 서울 시내 약 300개 가맹점을 대상으로 시범 서비스에 들어간다.토스플레이스가 공개한 결제단말기는 매장 직원이 사용하는 ‘터미널’과 고객이 사용하는 ‘프론트’ 단말기가 한 세트로 구성됐다. ‘터미널’ 단말기는 ▲매대에 올려두고 싶은, ▲누구나 쓸 수 있는, ▲내 매장에 딱 맞는 단말기를 추구한다. 7인치 터치 디스플레이를 적용하고 3인치 대형 영수증을 사용하면서도 미니멀한 디자인으로 설계해 매대 공간을 효율적으로 사용할 수 있게 했다. 매장 사장님이나 신입 직원 누구나 쉽게 조작할 수 있도록 단말기 화면에 어려운 결제 용어를 없애고 마치 토스 앱을 사용하듯 직관적인 인터페이스를 적용했다. 여기에 각 매장 특성에 맞게 단말기를 설정할 수 있어 효율적인 매장관리가 가능해졌다.고객이 매장을 방문할때 처음 보게될 ‘프론트’ 단말기는 ▲고객이 먼저 알아보는, ▲모든 결제를 지원하는 단말기로 디자인됐다. 터미널 단말기와 동일한 7인치 터치 디스플레이를 적용하고, 고객에게 매장정보를 잘 보여줄 수 있도록 세워진 형태로 설계했다. 또한 신용카드 결제, QR결제, NFC결제를 포함 거의 모든 페이 결제수단을 사용할 수 있게 만들어졌다. 결제 수단에 따라 각기 다른 단말기에서 승인과정을 거쳐야했던 고객의 사소한 불편함 마저 없앴다.토스플레이스 관계자는 “오프라인 매장경험의 혁신을 목표로 오랜 시간 준비한 첫 제품을 선보이게 됐다”며 “시범 서비스를 통해 보다 완성도 높은 제품과 고객경험을 제공할 수 있도록 더 노력해 나갈 것”이라 밝혔다.한편, 이번 시범 서비스는 여러 지역과 업종을 고려해 선정하고, 올 연말까지 약 2 ~ 3개월간 진행될 예정이다. 토스플레이스는 시범 서비스 기간 동안 제품 기능테스트와 함께 가맹점을 대상으로 단말기 사용성과 매장관리 프로그램의 개선점도 의견을 모아 보완할 방침이다.또한, 토스플레이스 홈페이지 ‘출시 알림 받기’ 를 통해 이번 시범 서비스에 참여하지 못한 가맹점의 신청을 받고 설치 상담도 제공한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>BNPL로 몸집 키우는 핀테크, 부실 우려도 커진다... 금융 당국 "리스크관리 강화"</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002134535?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[디지털데일리 신제인 기자] 금융 패러다임을 변화시키며 새롭게 등장하고 있는 핀테크 서비스에 대한 우려가 최근 더 커지고 있다. 금융시장이 불안하고 금리가 크게 뛰면서 신용 연체 등 각종 페이의 부실화 가능성이 제기되고 있기 때문이다. 이 가운데 금융 당국이 대안 마련을 약속했다. 금융위원회는 13일, 정부서울청사에서 금융리스크 대응 태스크포스(TF) 회의를 열고 디지털 플랫폼 금융의 확산에 따른 잠재 리스크 요인 등을 점검했다고 밝혔다. 금융 당국은 ▲금융의 디지털화∙플랫폼화 ▲금융부문-비금융부문의 상호연계성 강화 등에 따라 발생할 수 있는 문제를 사전에 관리하고, 관계 기관과 공유 및 논의하겠다는 방침이다. 특히 이날 안건에는 결제서비스에 관련된 소비자 보호 방안도 포함됐다. 김소영 부위원장은 "금융의 디지털화는 새로운 흐름이고 그 속도가 빠르므로 그동안 경험하지 못한 새로운 리스크의 발현 가능성에 대해 예의주시하면서 다양한 각도에서 점검할 필요가 있다"라며, “금융위·금융감독원·한국은행·예금보험공사 및 유관 연구원 등 관계기관이 긴밀하게 협업해 디지털금융의 잠재리스크가 발생할 가능성을 미시·거시적으로 분석하고 대처해나가야 한다"라고 강조했다. 이 같은 금융위의 논의는 사실상 세간의 우려를 불식하고, 상용화 초기 단계인 핀테크 서비스를 격려하려는 차원으로 해석된다. 공교롭게도 최근 국회에서는 네이버, 카카오, 쿠팡, 토스 등 플랫폼 업체의 ‘지금 사고 나중에 결제하는(BNPL)’ 서비스에 대해 ‘연체 위험’의 문제가 제기되기도 했다. BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사한 구조다.다만 BNPL은 신용카드를 발급하기 전 시행하는 일반적인 신용평가 대신 비(非)금융정보 등을 활용한 대안 신용평가를 바탕으로 서비스 가능 여부가 결정된다. 따라서 신용카드 발급이 까다로운 미국, 유럽, 호주 등에서는 신파일러(Thin Filer, 금융이력부족자) 집단이 애용하는 서비스기도 하다. 앞서 국회 정무위원회 소속 더불어민주당 이용우 의원은 지난 11일 “앞서 BNPL 서비스가 활성화된 해외에서는 연체율이 사회 문제로 부각되고 있다”라고 지적하며, 이복현 금융감독원장에게 “플랫폼 업체가 신용정보없이 할부금융을 제공하는 것이 혁신이냐”고 항의했다. 이에 이 금감원장은 "혁신금융 지정 당시 금융업 문이 너무 좁다는 시각이 있었고, 아직은 BNPL 서비스가 작은 규모이기 때문에 초반에는 문을 열어놓고 모양을 보자는 취지로 이해하고 있다"면서 "다만 해외에서 발생하는 연체 이슈들을 통해 종전 금융시스템과 결합이 필요하다는 것에 공감한다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>보험대리점 업계 “온라인 플랫폼의 보험 진출 반대”</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003177440?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>보험 영업인들이 5일 서울 광화문에서 플랫폼의 보험 진출에 반대하는 결의대회를 하고 있다.  한국보험대리점협회 제공보험대리점 업계가 빅테크의 보험 진출에 반대하며 두 번째 결의대회를 열었다.한국보험대리점협회와 보험대리점 업계, 보험영업인 노동조합 연대는 5일 오후 서울 광화문에서 ‘온라인 플랫폼 보험 진출 저지 및 보험영업인 생존권 사수를 위한 2차 결의대회’를 열었다고 밝혔다.지난 8월 1차 결의대회를 열었던 보험대리점 업계는 이날 온라인 플랫폼의 보험 진출에 반대한다는 내용의 결의문을 낭독한 뒤, ‘대통령께 드리는 호소문’을 채택했다.이들은 네이버·카카오·토스 등 플랫폼이 보험에 진출하면 “급격히 시장을 잠식해 대면 영업 보험설계사와 보험대리점의 일자리를 큰 폭으로 감소시킬 것”이라며 “특히 영세 설계사의 생계 활동을 위태롭게 할 것”이라고 말했다.이들은 또 “금융당국이 빅테크 기업의 보험 진출을 용인하는 것은 골목상권의 생존을 위협하는 것이며, ‘혁신’이라는 명분으로 우리 45만 보험영업인을 벼랑 끝으로 내모는 것”이라고 말했다.이들은 “플랫폼이 보험 상품을 비교·추천한 후 자회사 대리점에서 후속 절차를 진행할 경우 플랫폼의 보험 판매를 허용한 것과 같다”라고 주장하며 “플랫폼의 보험 진출을 결사반대한다”고 말했다.앞서 금융당국과 민간위원들로 구성된 ‘금융규제혁신회의’는 지난 8월23일 핀테크 업체에 대해 하나의 플랫폼에서 대출뿐 아니라 예금, 보험 등 다양한 상품을 비교·추천하는 서비스를 시범 운영할 수 있도록 했다.보험대리점 업계는 플랫폼의 보험 비교·추천 서비스가 시행되면 보험설계사들이 일자리를 잃을 것이라며 반발하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.10.05.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>큐피원, 시알릴락토스의 퇴행성 관절염 전세계 주요 국가 특허 선점</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005333573?sid=102</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[이데일리 이순용 기자] 신약 및 건강기능식품 전문기업 ㈜큐피원(Qupione· 대표 조승욱)이 시알릴락토스에 대한 퇴행성 관절염 특허를 미국, 일본, 호주 등의 주요 국가에서 등록 완료하고, 원료 및 제품 개발에 본격적으로 나섰다.큐피원은 이번 특허 확보로 시알릴락토스를 활용한 주요 용도를 선점했으며 전세계 주요 국가에서 사업을 실시할 계획이다.시알릴락토스는 모유에 포함된 주요 생리활성 물질로, 연골형성을 촉진하고 동시에 연골 분해 및 염증을 억제하기 때문에 연골의 재생과 통증 억제의 2가지 기능을 모두 가진 퇴행성 관절염 예방 및 치료제로 개발 가능하다. 특히 생체 내 이미 존재하고 있는 천연 당성분으로 독성과 부작용 발생 가능성이 거의 없어 제품 개발에도 큰 장점을 가지고 있다. 현재 퇴행성 관절염 시장은 주로 통증 완화제들이 존재하고 연골 재생의 경우 고가의 줄기세포 제품들만이 존재하는 문제점을 안고 있어, 큐피원은 시알릴락토스를 활용한 치료제 혹은 건강기능식품을 개발해 시장의 미충족 수요를 해결하고자 한다.최근 큐피원은 시알릴락토스의 퇴행성 관절염 예방 효과를 추가 입증하고 사업화에 박차를 가하고 있다. 시알릴락토스를 정상 마우스에 6주간 이틀 간격으로 경구 투여한 뒤 6주간 공백기(시알릴락토스를 투여하지 않음)를 두고 퇴행성 관절염을 유도한 결과 관절 파괴 인자와 염증 수치가 감소함을 시알릴락토스 투여로 인해 퇴행성 관절염이 예방되는 것을 확인했다.  큐피원은 시알릴락토스가 천연물 기반이면서 경구 투여만으로도 퇴행성 관절염에 효과를 가질 수 있어 건강기능식품 뿐만 아니라 의약품으로도 경쟁력을 가지고 있다고 설명했다. 또한 현재 원료 제조사와 제품화를 협의 중이며 뚜렷한 치료제가 없는 퇴행성 관절염 시장에서 안전하고 효과적인 솔루션을 제공할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.10.11.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>“로봇이 위험한 일 할 때, 사람은 재밌는 일 하죠”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003178714?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>표로봇과 인공지능으로 ‘노지 스마트팜’ 실험… 김보영 심바이오틱 대[주간경향] 농촌에선 일손 부족이 심각하다. 외국인 노동자를 쓴다고 해도 하루 인건비가 20만원 가까이 들고, 그마저도 구하기 어렵다. 특히 수확기엔 무거운 짐을 나르는 일이 많고, 시기도 제한되다 보니 경쟁이 치열하다. 인력을 쓸 돈이 없어 농작물을 수확도 못 하고 그대로 버리는 경우도 많다. 농업의 또 다른 문제는 산업재해다. 농업은 국제노동기구(ILO)가 꼽은 3대 위험 산업 중 하나다. 매년 평균 270명이 넘는 농업인이 산재로 목숨을 잃는다. 농산물 시장 개방으로 가격경쟁력은 떨어지는데 생산비는 올라가면서 보조금으로 농촌을 지원하는 것도 한계에 다다랐다.농촌이 일손 부담을 덜고, 더 안전하고, 경제적 여유를 주는 일터가 되려면 새로운 해법이 필요하다. 농업회사법인 심바이오틱이 찾은 해법은 로봇과 드론이다. 커다란 트랙터가 아니라 무인 로봇이 밭을 갈고 파종한다. 로봇 팔이 달린 인공지능을 이용해 필요한 곳에만 농약을 살포하고, 운반 로봇이 밭에서 무거운 수레를 사람 대신 나른다. 김보영 심바이오틱 대표는 지난 10월 4일 서울 종로구 삼청동에서 열린 사단법인 다른백년의 ‘농업의 미래, 미래의 농업’ 강연에서 사람을 몰아내는 것이 아니라 사람 대신 로봇이 고되고 위험한 일을 대신하면서, 농업이 더 창의적이고, 재밌는 일터가 되도록 하는 것이 회사의 목표라고 밝혔다. 김보영 심바이오틱 대표가 지난 10월 4일 서울 종로구 삼청동에서 열린 사단법인 다른백년의 ‘농업의 미래, 미래의 농업’ 강연에서 노지 스마트팜 기술을 소개하고 있다. 주영재 기자노지에서도 스마트팜 가능합니다김 대표는 2020년 1월 강원도 평창에 심바이오틱을 설립했다. 강원도 원주시 문막읍에 산업용·농업용 로봇을 제조하고, 테스트하는 파일럿 공장을 갖추고, 여기서 생산한 로봇을 평창의 임야에서 적용하고 있다. “고추와 산양산삼, 산나물, 곰취 같은 작물을 재배하면서 직접 개발한 농업용 로봇을 현장에서 테스트하고 있습니다. 스스로 최종 소비자(농업인)가 돼 어떤 부분을 개선해야 할지 점검하고, 동시에 농업인과 농업법인이 필요로 하는 로봇을 주문받아 시제품을 만드는 일도 하고 있습니다.” 심바이오틱은 농업용 로봇을 만들어 농촌의 문제를 해결하자는 고민에서 로봇·인공지능 개발자인 남편 토스케티 지안 마리아(심바이오틱 최고기술책임자)와 함께 2018년 시작한 개인사업을 농업법인회사로 개편한 것이다. 김 대표는 “인력을 확보할 수 있는 분들은 농사를 안정적으로 지을 수 있으니 소득을 창출할 수가 있고, 그렇지 않은 분들은 수확을 못 한다. 농촌의 부익부빈익빈은 바로 인력 확보 문제에서 출발하기 때문에 인력 부족 문제를 개선하자는 생각에서 사업을 시작했다”고 말했다.농업용 로봇은 인구 감소로 인한 노동력 부족 등 농업 문제 해결 방안의 하나로 주목받고 있다. 이러한 흐름을 반영해 지난해 시장 조사업체 ID테크엑스는 글로벌 농업용 로봇 시장이 2032년까지 67억달러 규모로 확대될 것이라는 보고서를 내기도 했다. 로봇 기술에 인공지능과 센서 기술, 데이터 분석 능력을 결합하면서 스마트팜이라는 말도 유행하고 있다. 심바이오틱이 내세우는 차별점은 ‘노지 스마트팜’이다. 제어 가능한 실내 환경에서 스마트팜을 운영하는 것이 아니라 전기 이용이 불가능하거나 인터넷이 연결되지 않은 곳, 시멘트 작업 등 공사가 어려운 곳에서도 생산을 제어할 수 있다. 심바이오틱은 강원 평창의 금당산 꼭대기에 100평 규모의 노지 스마트팜과 인근 약 2㏊ 규모의 노지농장을 운영하면서 노지에서도 스마트팜 기술을 이용해 예측가능한 농업 경영이 가능한지 시험하고 있다. 김 대표는 “태양광 발전으로 센서를 작동시켜 제어하고, 폐쇄회로(CC)TV도 달아 고라니·멧돼지 같은 야생동물 침입이나 농작물을 훔치는 범죄를 예방할 수 있다”면서 “휴대전화로 데이터를 받아 원격관리할 수도 있다”고 소개했다. 농장에 서버를 두는 방식이라 해킹과 바이러스 감염 걱정 없이 안정적인 운영이 가능한 것도 장점이라고 말했다.김보영 심바이오틱 대표가 지난 10월 4일 서울 종로구 삼청동에서 열린 사단법인 다른백년의 ‘농업의 미래, 미래의 농업’ 강연에서 노지 스마트팜 기술을 소개하고 있다. 주영재 기자미래 농업은 인간과 기계의 공존국내는 미국이나 캐나다, 유럽과 달리 개간지가 많다. 밭에 돌이 많고 경사가 져 기계화가 어렵다. 기계를 쓰더라도 산재 사고의 위험성이 크다. “고강도의 육체노동을 대신할 수 있는 대형화된 기계를 사용하는데 그러다 보니 한번 사고가 나면 크게 사고가 나게 됩니다. 트랙터가 전복된다든지 경운기 등에서 날아오는 돌을 맞아 크게 다치는 일이 많아요.” 심바이오틱이 비용은 최소화하면서도, 효율과 안전성을 높인 농업용 로봇 개발에 나선 배경이다. 보행 로봇의 지형적응형 발모델을 개발해 진흙탕이거나 돌이 많거나 경사도가 있는 등 예상할 수 없는 환경에서도 잘 걷고 작업할 수 있는 로봇을 만들었다. 무게도 1t 미만으로 줄였다. “유인 트랙터는 가격도 비싸지만 무겁기 때문에 땅을 누르는 압력이 커지고, 경운을 해도 다시 그 무게 때문에 땅이 다시 다져지니 재경운을 해야 합니다. 환경적인 측면에서 큰 기계를 농업에 이용하는 건 생태적이지 않습니다.” 마력은 낮아도 더 효율적인 작업이 가능하다. 김 대표는 자사의 35마력 무인 트랙터가 52마력 유인 트랙터보다 땅을 더 깊게 간다고 설명했다. 로봇팔이 달린 델타로봇은 파종과 제초, 제품 선별 등에 활용할 수 있다. 카메라로 이미지를 인식해 잡초만 골라 제초제를 뿌리거나 농약을 살포할 수 있어 환경친화적이다. 육묘장에서 쓸 수 있는데 기존의 고정형 시설과 달리 이동이 가능해 빌려쓰는 것도 가능하다. “로봇이나 인공지능은 비싸고 어려울 것이라 생각하지만, 돌아가면서 쓰거나 공유해 쓴다면 부담을 크게 줄일 수 있습니다.”인공지능을 이용한 운반차도 개발했다. 40㎏까지 운반할 수 있다. 경사진 땅도 잘 다니고, 카메라와 센서가 있어 스스로 장애물을 피해 이동이 가능하다. “저도 작업할 때 수레를 사용하다 다친 적이 많아요. 외발이나 두 발이면 잘 엎어져 허리나 발목을 삐고, 다시 주워 담는 것도 일이죠. 수확이 농업의 여러 작업 중 가장 중요하면서도 힘든 일인 이유이죠. 농업기술센터에서 수요조사를 했을 때도 운반 로봇을 만들어달라는 요청이 많았습니다. 그래서 이 로봇이 탄생했습니다.” 김 대표는 로봇과 인간의 공존·공생을 지향한다고 말했다. 로봇이 인간을 대체해선 안 되고, 힘들고 다칠 수 있고 단순한 작업을 로봇이 하면 가치 있고 재밌는 작업을 농부가 하길 바란다고 했다. 회사 이름도 그 뜻을 품고 있는 영어단어를 택했다. “나이가 들수록 ‘순리대로’라는 말이 많이 와 닿더라고요. 누구도 혼자 있을 수 없다는 점에서 상생이라는 말도 그렇습니다. 농장에 있으면 파종해 싹이 트고 열매를 맺고 수확하는 일련의 과정이 매 순간 신기합니다. ‘이게 바로 우주로구나’ 하는 생각이 많이 들어요. 우리가 하이테크 기업이기는 하지만 환경과 지구 그리고 다음 세대를 생각해야 하죠. 그 철학대로 초심을 잃지 말아야겠다고 다짐하고 있습니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.10.13.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>"예대금리차 더 상세히 알려야"…고금리 시대에 바빠진 금감원</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000046086?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>금감원, 은행업 감독업무 시행세칙 개정금융감독원 ⓒ연합뉴스금융당국이 금융소비자 보호를 위해 예대금리차 공시의 근거 마련에 나선다.13일 금융당국에 따르면, 금융감독원은 예대금리차 공시 확대 관련 내용을 담은 은행업 감독업무 시행세칙을 이달 말 시행할 예정이다. 예대금리차 산정의 세부항목인 저축성수신금리와 평균 대출금리, 가계·기업대출 금리도 함께 공시하도록 규정하고 있다. 이는 지난 7월 금융위원회와 금감원이 발표한 금리정보 공시제도 개선방안의 후속조치다.또 가계대출금리를 신용평가사(CB) 기준 신용점수로 바꿔 50점 단위로 대출금리와 예대금리차를 함께 공시하도록 했다. 기존에는 은행별 자체 신용등급 기준으로 공시해 정확한 금리 정보를 확인하는 데 한계가 있었다.이어 은행업 감독규정을 개정해 예대율 산정 시 주택금융공사의 보금자리론 업무 처리 기준에 따라 취급된 안심전환대출을 제외하기로 했다. 이는 금리 상승기에 대출자의 부담을 낮추기 위해 변동금리 주택담보대출을 3%대 장기·고정금리로 대환해주는 한국주택금융공사의 정책 상품이다.올해 안에 인터넷은행의 분기별 중저신용자대출 비중 공시 등을 통해 취약차주에 대한 대출 확대도 유도할 계획이다. 금감원은 2022년 6월 기준 중저신용자대출 비중은 카카오뱅크 22.2%, 케이뱅크 24.0%, 토스뱅크 36.3% 등이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.10.07.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>황운하 의원 "KB리브엠·토스 진출로 알뜰폰 시장 잠식"</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003693572?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>"알뜰폰 생태계 보호와 소비자 편익을 위해 중소기업적합업종 지정 검토해야"연합뉴스KB리브엠과 토스가 국내 알뜰폰 시장에 뛰어들면서 중소 사업자가 쇠퇴한다는 지적이 제기됐다.국회 정무위원회 소속 더불어민주당 황운하 의원은 7일 소비자 보호와 시장 생태계 보호를 위해 알뜰폰 시장에 대한 중소기업적합업종 지정 검토를 촉구했다.알뜰폰 시장은 중소사업자 등의 이동통신시장 진출을 통해 가계통신비를 경감하려는 목적으로 2009년 도입됐다. 주파수가 없는 중소사업자도 기존 이동통신사 설비를 활용해 서비스를 제공하도록 하고, 자금력과 협상력에 열세인 중소사업자를 위해 도매제공 의무 등 정책을 지원하고 있다.황 의원은 핀테크 기업 '토스'의 알뜰폰 사업 진출을 문제로 지적했다.토스는 기존 중소알뜰폰 사업자인 머천드코리아 지분을 100% 인수하며 알뜰폰 시장에 본격 진출했다. 현행 토스는 제조서비스업으로 분류되어, 금융지주회사법, 은행법 등을 적용받지 않아 아무런 규제 없이 알뜰폰 사업을 시작했다.최근 토스는 이용자의 신용정보 84만 건을 보험 설계사에게 292억 원에 판매하며 사회적 물의를 빚고 있다. 토스가 알뜰폰 사업을 통해 통신 데이터라는 비금융데이터를 확보한다면, 개인정보를 판매해왔던 것과 같이 고객정보를 취급할 수도 있는 것이 아니냐는 우려가 제기된다. 또한, 토스의 막대한 자금이 알뜰폰 시장에 투입되면 중소 알뜰폰 사업자의 쇠퇴는 시간문제라는 우려의 목소리가 커지고 있다.황 의원은 "거대기업 쏠림 현상은 민간 자율로는 해결할 수 없어, 알뜰폰 생태계 보호와 소비자의 장기적 편익을 위해서는 알뜰폰 사업의 중소기업적합업종 지정을 검토해야 한다"라고 말했다.또 KB가 오프라인 영업점 창구 직원들을 상대로 알뜰폰 KB리브엠 상품 판매를 강요, 압박하고 있다는 논란도 제기됐다. KB리브엠은 금융위원회로부터 지난 2019년 4월 혁신금융서비스 1호로 지정됐다. 당시, 금융위는 혁신금융서비스 부가조건으로 지점에서 알뜰폰 권유 및 직원을 통한 판매행위를 금지한다고 규정했다. 일각에서 제기된 KB리브엠의 불법영업 실태가 사실이라면, 이는 금융혁신지원특별법상 혁신금융서비스 지정 취소 요건에 해당된다.황운하 의원은 "금융혁신지원특별법상 혁신금융서비스 관리 주체는 금융위원회인 만큼, KB리브엠에 제기된 편법적 대면판매에 대한 철저한 조사가 필요하다. 조사 결과에 따라 합당한 제재가 뒤따라야 할 것"이라고 강조했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>"영세GA·설계사 위협"…보험대리점협회, '빅테크' 진출 반대 집회</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000305083?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대가 지난달 22일 용산 대통령실 앞에서 결의대회를 열고 네이버, 카카오, 토스 등 온라인 플랫폼의 보험대리점업 진출 반대를 요구하고 있다. (한국보험대리점협회 제공=연합뉴스)]보험대리점 업계가 카카오페이, 토스 등 빅테크의 보험산업 진출 반대를 촉구하는 집회에 나섭니다.법인보험대리점(GA) 등으로 구성된 한국보험대리점협회(IAA)는 내일(5일) 오후 12시부터 광화문광장과 서울시청 인근 광화문사거리 동화면세점 앞에서 '온라인 플랫폼의 보험진출 저지와 보험영업인 생존권 사수를 위한 2차 결의대회'를 개최한다고 오늘(4일) 밝혔습니다.주최 측은 법인대리점 관계자와 보험설계사 등을 모두 합해 약 5000명이 참여할 것으로 예상하고 있습니다.협회 관계자는 "네이버·카카오·토스 등 빅테크는 거대 자본과 많은 이용자를 등에 업고 문어발식 확장 등으로 시장을 독점하고 있다"며 "영세한 GA와 보험설계사 생존권 사수를 위해 온라인플랫폼의 보험중개 서비스를 적극 저지할 필요가 있다"고 말했습니다.앞서 지난달 금융위원회는 제2차 금융규제혁신회의를 열고 마이데이터사업자, 전자금융업자 등이 여러 보험상품을 비교하고 추천할 수 있도록 규제를 완화한 바 있습니다. 지난해 9월 해당 서비스가 금융소비자보호법에 어긋난다며 금지한 바 있는데 1년 만에 입장이 바뀐 것입니다.다만 종신보험, 변액보험 등 상품구조가 복잡하거나 계약 규모가 커 소비자 피해가 발생할 가능성이 큰 상품은 제외됐습니다.보험대리점 업계는 "빅테크 기업이 시장에 진출할 경우 방대한 고객 데이터를 활용해 자동차보험, 장기보험 등 주요 보험 상품을 둘러싸고 독과점과 불공정경쟁이 발생할 수 있다"고 주장하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.10.04.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>두나무, 주식 성과급 428억 지급</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002048377?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>임직원 장기성과 조건부 보상 200억원 추후 추가 지급할듯스톡옵션 229만 주와는 별도[헤럴드경제=윤호 기자] 국내 최대 가상자산 거래소 업비트를 운영하는 두나무가 임직원들에 RSU(Restricted Stock Units, 양도제한조건부 주식) 형식으로 16만972주, 428억원 규모의 자기주식을 지급한다.RSU는 임직원들에게 주식을 배정한 뒤 회사가 내건 조건을 충족하면 이를 지급하는 일종의 장기보상 제도다. 최근 들어 스타트업과 IT회사 등을 중심으로 스톡옵션의 대체제로 떠오르고 있다. 국내에선 CJ ENM, 스튜디오드래곤, 토스, 쿠팡, 위메프, 크래프톤 등이 RSU를 도입했으며, 주요 그룹 중에는 한화그룹이 2020년 2월 최초로 도입한 이래 최근 두산그룹도 합류했다.RSU는 스톡옵션과 달리 법률상 부여 대상에 제한이 없어 임직원, 계열사 임직원 모두 수령이 가능하며 수량과 지급 시점도 자유롭게 정할 수 있다. 기업이 안정적으로 성장 국면에 진입했고 주식시장이 약세장으로 접어든 시기에는 스톡옵션보다 주식을 직접 주는 RSU가 임직원들이 체감하는 보상 강도가 더 높다는 분석도 있다.두나무는 이번 RSU를 위해 지난 6월 장외시장에서 자기주식 26만주를 매입하기로 했다. 당시 매입예정가는 장외시장 기준 산술평균가격을 기준으로 1주당 33만4000원으로 산정됐다. 이번에 그 가운데 16만주 가량이 지급됐는데, 가격은 상속증여세법상 비상장주식 평가방법을 적용해 1주당 26만6247원이 됐다. 회사 입장에서는 일종의 증여이기 때문이다.최근 가상자산 시장 급락으로 두나무 주식의 장외가격은 16만원(증권플러스 기준) 수준으로 떨여졌다. 회사 입장에서는 주식을 너무 비싸게 산 결과가 됐다. 주식을 받는 임직원 입장에서도 성과급 가치가 하락한 셈이다. 다만 스톱옵션과 달리 RSU는 무상으로 받는 주식인만큼 주식가액 전체가 소득이 된다. 주가가 반등한다면 기대소득금액도 늘어난다.올해 가상자산 시장이 불황을 맞으면서 두나무도 상반기 순이익이 급감했다. 가상자산 가격이 반등해야 개인은 물론 두나무도 주력사업인 업비트의 실적개선을 통한 주가 상승이 가능하다. 가상자산 투자자들과 RSU를 받은 임직원들의 이해가 일치하는 셈이다.한편 두나무는 RSU 외에 임직원들에게 지금까지 약 229만주(취소분 제외)의 스톡옵션을 지급했고, 이 가운데 73%인 168만여주가 행사됐다. 이석우 대표도 보유한 스톡옵션 전량인 15만8500주를 이미 행사(행사가 1주당 100원)했다. 시가로 차익이 250억원이 넘는다. 두나무는 이번에 지급한 16만주 외에 8만주 가량 RSU로 지급할 주식이 남아있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.10.14.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"스타트업 돈줄, 우리가 꽉 잡았다"…'파워 인맥' 보니 [긱스]</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004762226?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>스타트업계 황금인맥 (2) 소프트뱅크벤처스·KAIST이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.한국 대학생들 사이에서 '창업 붐'이 일기 시작한 것은 2010년 이후 배달의 민족, 쿠팡, 요기요, 비바리퍼블리카(토스) 등 모바일 플랫폼 스타트업이 잇따라 설립되면서입니다. 하지만 1997년 벤처기업육성특별법 제정으로 벤처투자가 본격화되면서 지금의 스타트업 생태계 토양을 마련했습니다. 한경 긱스(Geeks)가 국내 스타트업 생태계가 성장하면서 생긴 ‘한국 스타트업 인맥 지도’ 2탄으로 벤처캐피털(VC) 업계의 파워 인맥을 소개합니다. 국내 스타트업 생태계를 조성하는 벤처캐피털(VC) 업계 파워 인맥의 두 축은 소프트뱅크벤처스아시아와 KAIST가 꼽힌다. 스타트업이 투자 라운드를 돌 때 VC 서너 곳이 함께 투자하는 경우가 많다 보니, 함께 일해봤거나 공부했던 인연이 신뢰를 쌓는 데 유리하게 작용하고 있다. 창업 생태계 일군 소프트뱅크벤처스2000년 설립된 소프트뱅크벤처스는 오랜 업력만큼이나 국내 VC 업계에서 막강한 인맥을 자랑한다. 손정의 소프트뱅크 회장과 문규학 당시 소브트뱅크벤처스코리아 부사장(현 소프트뱅크 비전펀드 매니징 파트너)이 주축이 되어 만들었다. 문 부사장의 '절친'이었던 김장욱 현 이마트24 대표도 소프트뱅크벤처스 설립 초기 부사장으로 2년간 활약했다.설립 때부터 2008년 글로벌 금융위기를 거치면서 국내 벤처투자 업계는 그야말로 '암흑기'였다. 문규학 당시 부사장은 대학마다 강연을 돌며 대학생들의 창업 정신을 일깨우며 지금의 스타트업 생태계의 씨앗을 뿌렸다. 2010년대 스마트폰 시대가 본격적으로 열리며 국내 창업 생태계가 활기를 띠기 시작하자 자연스럽게 경험을 쌓은 '소뱅맨'들이 VC 업계 곳곳으로 퍼져나갔다. 소프트뱅크벤처스코리아도 2019년 소프트뱅크벤처스아시아로 이름을 바꾸고 중국과 동남아 시장까지 투자 보폭을 넓혔다.2000년 설립 초기 심사역으로는 강동석 현 소프트뱅크벤처스 부사장과 신세계 계열 기업형 벤처캐피털(CVC)의 문성욱 대표 두 명뿐이었다. 펜실베이니아대 와튼스쿨에서 경영학 석사 학위를 받은 문 대표는 신세계그룹 정유경 백화점 부문 총괄 사장의 남편이다. 그는 시그나이트파트너스 설립 과정에서 소프트뱅크벤처스 출신인 임정민 전 500스타트업코리아 대표파트너를 투자총괄 상무로 영입했다.임정민 상무는 소프트뱅크벤처스코리아에서 심사역으로 지낸 이후, 2015년부터 구글의 글로벌창업지원팀 산하에 있는 구글캠퍼스 서울을 총괄했다. 2018년 500스타트업코리아 대표 파트너를 거쳐 시그나이트파트너스에 합류했다.스타트업 생태계 성장을 이끈 소프트뱅크 출신 인맥. 왼쪽 윗줄부터 이강준 두나무앤파트너스 대표, 문성욱 시그나이트파트너스 대표, 임정민 시그나이트파트너스 상무, 문규학 비전펀드 매니징파트너, 정지우 블랭크코퍼레이션 부사장, 유승운 스톤브릿지 대표, 김동환 하나벤처스 대표임지훈 전 카카오 대표 역시 소프트뱅크벤처스 출신이다. 2007년 소프트뱅크벤처스에 합류한 임 전 대표는 애니팡을 만든 선데이토즈를 발굴한 '스타 심사역'으로 이름을 날렸다. 이후 김범수 카카오 의장의 제안으로 2012년 카카오벤처스의 전신인 케이큐브벤처스를 설립하고 두나무에 초기 투자했다.유승운 스톤브릿지벤처스 대표도 옛 CJ창업투자를 거쳐 2002년부터 7년 가까이 소프트뱅크벤처스에서 수석심사역으로 활약했다. 이후 투자 부티크인 솔마인 유한회사를 거쳐 2015년부터는 임지훈 전 대표를 이어 케이큐브벤처스를 이끌었으며, 2019년부터 스톤브릿지벤처스 대표를 맡고 있다.두나무의 기업형 벤처캐피털(CVC)인 두나무앤파트너스의 이강준 대표와 김경림 파트너도 소프트뱅크벤처스 출신이다. 서울대 컴퓨터공학과를 졸업한 이강준 대표는 맥킨지에서 컨설턴트로 경험을 쌓고, 유학 기간을 포함해 2003년부터 2015년까지 소프트뱅크벤처스에서 심사역으로 일했다. 티몬과 두나무를 발굴한 것을 계기로 이후 티몬에서 여행 사업을 이끌었으며, 2018년 두나무앤파트너스 설립을 주도했다.2018년 하나금융지주의 CVC인 하나벤처스 출범 때에도 소프트뱅크벤처스 출신 김동환 대표가 영입됐다. 김 대표는 미국 시카고대 경영학석사를 받았으며 신한투자증권(옛 신한금융투자), 골드만삭스 등 투자은행에서 경험을 쌓았다. 그는 2016년 코그니티브인베스트먼트 설립 멤버로 참여하면서 소프트뱅크벤처스를 떠났다.이밖에 모바일 게임업체 모비릭스의 CVC인 모비릭스파트너스를 이끌고 있는 이연구 대표, 신동석 어센도벤처스 공동대표와 무신사파트너스의 손구호 전 대표도 '소뱅맨'이다.스타트업 업계로 간 소뱅 출신으로는 정지우 블랭크코퍼레이션 최고전략책임자(CSO)가 대표적이다. 소프트뱅크벤처스에서 투자 심사역으로 수년간 소통해오다가 남대광 블랭크코퍼레이션 대표로부터 영입된 경우다. 170명 파워 인맥 KAIST스타트업 생태계 성장을 이끈 KAIST VC 모임 인맥. 왼쪽 윗줄부터 이용관 블루포인트 대표, 임형규 인터베스트 부사장, 류중희 퓨처플레이 대표, 박하진 HB인베스트먼트 대표, 송은강 캡스톤파트너스 대표, 강석흔 본엔젤스벤처 대표, 제현주 인비저닝파트너스 대표VC 업계엔 최대 인맥은 KAIST 출신 벤처캐피털리스트 모임이다. 학,석,박사를 가리지 않고 170여 명이 소속된 이 모임은 박하진 HB인베스트먼트 대표가 주도해 이끌고 있다. 박 대표는 KAIST 경영정책학 학사와 경영공학 석사 학위를 갖고 있다.식사나 골프 모임 등을 통해 주로 친목을 다지는 자리다. 최근 2년간은 코로나19 여파로 오프라인 모임을 거의 열지 않았다가 올해부터 다시 모이고 있다. 슬랙을 통해 온라인으로도 활발히 소통 중이다.회원들의 면면은 화려하다. 박 대표 이전엔 임형규 인터베스트 부사장, 이강수 컴퍼니케이파트너스 투자부문 대표 등이 회장직을 맡았다. 임 부사장은 산업공학 학사와 경영과학 석사 출신, 이 대표는 기계공학 석사 출신이다.현재 임원진으로는 박 대표를 비롯해, 임정민 시그나이트파트너스 상무, 최형규 데브시스터즈벤처스 대표, 신현준 인터베스트 상무, 배준성 롯데벤처스 상무 등이 있다. 또 송은강 캡스톤파트너스 대표, 이용관 블루포인트파트너스 대표, 김판건 미래과학기술지주 대표, 류중희 퓨처플레이 대표, 송인애·강석흔 본엔젤스벤처파트너스 대표도 모임에 빼놓을 수 없는 인물이다.김명기 LSK인베스트먼트 대표, 유주현 포스텍홀딩스 대표, 안근영 LB인베스트먼트 부사장, 제현주 인비저닝파트너스 대표, 윤영민 토니인베스트먼트 대표, 변준영 컴퍼니케이 부사장, 이연구 모비릭스파트너스 대표, 이석재 원익투자파트너스 전무 등도 모임에 자주 참석하는 인물들로 알려져 있다.회장인 박하진 대표는 "모임에 자주 참석하는 주니어급 심사역들도 많다"며 "모이면 일 얘기를 하기보단 웃고 떠들며 편안한 분위기로 다 같이 즐기는 자리"라고 설명했다. 가장 주목받는 1984년생 VC 심사역벤처캐피털 업계 84년생 황금인맥을 형성하는 오지성 뮤렉스파트너스 부사장, 변준영 컴퍼니케이 부사장, 손호준 스톤브릿지벤처스 부사장, 김태규 에이벤처스 부사장 (왼쪽 윗줄부터)스타 심사역들 사이에선 나이별로 소규모 모임이 형성돼 있다. 공식적인 모임은 아니지만 VC 업계의 '황금 인맥'으로 불린다. 대표적인 게 1984년생 심사역들이다. 손호준 스톤브릿지벤처스 이사, 변준영 컴퍼니케이 부사장, 김태규 에이벤처스 부사장, 오지성 뮤렉스파트너스 부사장 등이 있다. 손 이사, 변 부사장, 김 부사장은 VC 업계에 입문한 시점도 같다. 세 사람은 2012년 VC 협회의 신규 인력 양성 과정에서 만났다. 손호준 이사는 배달의민족, 직방, 쏘카, 지그재그, 스타일쉐어 등을 초기에 발굴해낸 인물이다. 서울대 농경제사회학부를 졸업한 손 이사는 씨티은행을 거쳐 2012년 스톤브릿지벤처스에 합류했다. 다수의 유니콘 기업(기업가치 1조원 이상 비상장사)을 떡잎부터 알아보고 베팅한 성과를 인정받아 2019년 회사 최연소 이사로 승진하기도 했다.변준영 부사장은 직방을 비롯해, 리디, 뤼이드, 샌드박스네트워크, 원티드랩에 투자한 심사역이다. 지난해 약 6억원의 고액 연봉을 받은 '스타 심사역'으로도 잘 알려져 있다. KAIST 모임에도 소속돼 있는 그는 솔본인베스트먼트를 거쳐 2013년부터 컴퍼니케이에 몸담고 있다. 특히 손 이사와 변 부사장은 직방과 차이코퍼레이션 등에 함께 투자하기도 했다.또 김태규 에이벤처스 부사장은 대신증권 애널리스트로 커리어를 시작해 미래에셋자산운용, 대성창업투자, DS자산운용 등을 거쳤다. 2018년 조창래 대표와 함께 에이벤처스를 공동 창업했다. 컬리, 와디즈, 크래프톤, 카카오게임즈 등 굵직한 회사들에 투자한 바 있다.오지성 뮤렉스파트너스 부사장도 업계에서 잔뼈가 굵은 인물이다. 스톤브릿지벤처스를 거쳐 2018년 뮤렉스파트너스를 창업했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.10.10.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[출근길 money] 높아진 금리에도 대출연장해야한다면...금리변경 시점 만기일로</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004910620?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>굳어지는 7%대 대출금리 (서울=연합뉴스) 이지은 기자 = 기준금리 인상과 시장금리 상승 등의 여파로 약 13년 만에 7%대 대출 금리 시대가 열리고 있다. 시중은행의 주택담보대출 금리 상단이 7%대에서 굳어지는 분위기인데다 신용대출과 전세자금대출 금리까지 7%에 바짝 다가섰기 때문이다. 더구나 한국은행이 연말까지 최소 한 차례 이상 빅 스텝(기준금리 0.50%포인트 인상)에 나설 가능성이 커지면서, 연내 대출금리가 8%에 올라설 것이라는 관측도 나오고 있다. 사진은 이날 서울시내 은행에 붙어 있는 대출 관련 홍보물. 2022.10.3 jieunlee@yna.co.kr (끝)  [파이낸셜뉴스] 나날이 오르는 대출이자 부담에도 당장 대출금을 갚는 것은 쉽지 않다. 부득이하게 대출을 연장해야 한다면 언제, 어떻게 하는 게 가장 유리할까.   10일 금융감독원에 따르면 우선 대출 연장 시 변경 금리를 적용하는 시점이 중요하다. 금리가 오르는 시기에는 변경 금리를 만기일부터 적용받는 것이 만기일 전에 대출연장 실행일부터 적용받는 것보다 유리하다. 반대로 금리가 하락하는 시기라면 저금리를 일찍 받을 수 있도록 만기일 전에 적용 받는 게 좋다.   또 대출연장시 변경금리를 적용하는 시점을 확인해야한다. 만기일이나 대출연장 실행일, 혹은 두 가지 중 소비자가 직접 선택 가능한 방식이 있다. 금융사별로 보면 대구은행과 케이뱅크가 만기일과 대출연장 실행일 가운데 선택이 가능하다.   마지막으로 온라인으로 대출연장을 신청하는 경우 온라인상 변경금리 적용일자를 반드시 확인해야한다. 실제 인터넷전문은행인 카카오뱅크, 케이뱅크, 토스뱅크 등은 온라인으로만 연장이 가능해 유의해야한다. 반면 SC은행은 대출연장이 대면채널에서만 가능하다. 대구, 광주, 경남은행 등은 대면과 비대면 간 대출연장 시 변경금리 적용 방식이 달라 주의해야한다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
